--- a/xlsx/cheboksari.xlsx
+++ b/xlsx/cheboksari.xlsx
@@ -1334,7 +1334,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_14534.html</t>
+          <t>https://alyans-auto.ru/auto/auto_14535.html</t>
         </is>
       </c>
     </row>
@@ -6577,7 +6577,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>ВИС</t>
+          <t>ВИС 2349 Фургон</t>
         </is>
       </c>
       <c r="D148" t="n">
@@ -7242,11 +7242,11 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>2301900</v>
+        <v>2229900</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_14038.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16261.html</t>
         </is>
       </c>
     </row>

--- a/xlsx/cheboksari.xlsx
+++ b/xlsx/cheboksari.xlsx
@@ -2803,11 +2803,11 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>3103990</v>
+        <v>3303990</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16042.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16250.html</t>
         </is>
       </c>
     </row>
@@ -4409,19 +4409,19 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>2739900</v>
+        <v>3039900</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_15483.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16055.html</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>2739900</v>
+        <v>3039900</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_15483.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16055.html</t>
         </is>
       </c>
     </row>
@@ -5502,7 +5502,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -5512,40 +5512,40 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Granta Drive Active</t>
+          <t>Granta Hatchback</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>419000</v>
+        <v>378810</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_drive_active/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>419000</t>
+          <t>378810</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_drive_active/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
       <c r="H123" t="n">
-        <v>620940</v>
+        <v>467100</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/granta_drive_active</t>
+          <t>https://auto-shop-21.ru/lada/granta_hatchback</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -5555,40 +5555,40 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Granta Hatchback</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>378810</v>
+        <v>375610</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_hatchback/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>378810</t>
+          <t>375610</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_hatchback/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
       <c r="H124" t="n">
-        <v>467100</v>
+        <v>443940</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/granta_hatchback</t>
+          <t>https://auto-shop-21.ru/lada/granta_liftback</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -5598,40 +5598,48 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>375610</v>
+        <v>358510</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_liftback/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>375610</t>
+          <t>358510</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_liftback/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
       <c r="H125" t="n">
-        <v>443940</v>
+        <v>419940</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/granta_liftback</t>
+          <t>https://auto-shop-21.ru/lada/granta_sedan</t>
+        </is>
+      </c>
+      <c r="J125" t="n">
+        <v>1008500</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_15411.html</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -5641,41 +5649,33 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>Granta Sedan Drive Active</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>358510</v>
+        <v>419000</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_sedan/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>358510</t>
+          <t>419000</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_sedan/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
       <c r="H126" t="n">
-        <v>419940</v>
+        <v>620940</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/granta_sedan</t>
-        </is>
-      </c>
-      <c r="J126" t="n">
-        <v>1008500</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_15411.html</t>
+          <t>https://auto-shop-21.ru/lada/granta_drive_active</t>
         </is>
       </c>
     </row>
@@ -7246,7 +7246,7 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16261.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16262.html</t>
         </is>
       </c>
     </row>

--- a/xlsx/cheboksari.xlsx
+++ b/xlsx/cheboksari.xlsx
@@ -831,7 +831,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_15536.html</t>
+          <t>https://alyans-auto.ru/auto/auto_15649.html</t>
         </is>
       </c>
       <c r="J10" t="n">
@@ -839,7 +839,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_15536.html</t>
+          <t>https://alyans-auto.ru/auto/auto_15649.html</t>
         </is>
       </c>
     </row>
@@ -2802,14 +2802,6 @@
           <t>https://auto-shop-21.ru/geely/atlas_pro</t>
         </is>
       </c>
-      <c r="J56" t="n">
-        <v>3303990</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_16250.html</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2901,7 +2893,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_15347.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16290.html</t>
         </is>
       </c>
     </row>
@@ -3449,19 +3441,19 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2899000</v>
+        <v>3299000</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16183.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16294.html</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>2899000</v>
+        <v>3299000</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16183.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16294.html</t>
         </is>
       </c>
     </row>
@@ -3779,11 +3771,11 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>2299000</v>
+        <v>2449000</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16170.html</t>
+          <t>https://alyans-auto.ru/auto/auto_14885.html</t>
         </is>
       </c>
     </row>
@@ -4148,19 +4140,19 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1899000</v>
+        <v>1849000</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_14200.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16272.html</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>1899000</v>
+        <v>1849000</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_14200.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16272.html</t>
         </is>
       </c>
     </row>
@@ -4409,19 +4401,19 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>3039900</v>
+        <v>3079900</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16055.html</t>
+          <t>https://alyans-auto.ru/auto/auto_10742.html</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>3039900</v>
+        <v>3079900</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16055.html</t>
+          <t>https://alyans-auto.ru/auto/auto_10742.html</t>
         </is>
       </c>
     </row>
@@ -5743,7 +5735,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16126.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16127.html</t>
         </is>
       </c>
       <c r="J128" t="n">
@@ -5751,7 +5743,7 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16126.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16127.html</t>
         </is>
       </c>
     </row>
@@ -7242,11 +7234,11 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>2229900</v>
+        <v>1999900</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16262.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16286.html</t>
         </is>
       </c>
     </row>
@@ -7293,11 +7285,11 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>1799000</v>
+        <v>1999000</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16128.html</t>
+          <t>https://alyans-auto.ru/auto/auto_15370.html</t>
         </is>
       </c>
     </row>

--- a/xlsx/cheboksari.xlsx
+++ b/xlsx/cheboksari.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K202"/>
+  <dimension ref="A1:K201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -700,19 +700,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3109990</v>
+        <v>3234990</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16247.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16112.html</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>3109990</v>
+        <v>3234990</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16247.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16112.html</t>
         </is>
       </c>
     </row>
@@ -976,7 +976,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_15879.html</t>
+          <t>https://alyans-auto.ru/auto/auto_15911.html</t>
         </is>
       </c>
     </row>
@@ -1381,11 +1381,11 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>2889900</v>
+        <v>2929900</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_15967.html</t>
+          <t>https://alyans-auto.ru/auto/auto_10200.html</t>
         </is>
       </c>
     </row>
@@ -2889,11 +2889,11 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>2749990</v>
+        <v>2979990</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16290.html</t>
+          <t>https://alyans-auto.ru/auto/auto_15703.html</t>
         </is>
       </c>
     </row>
@@ -2957,7 +2957,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2339990</v>
+        <v>2359990</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>2339990</v>
+        <v>2359990</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3234,106 +3234,124 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Tugella</t>
+          <t>Tugella New</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>4289990</v>
+        <v>2375994</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_15460.html</t>
-        </is>
-      </c>
-      <c r="J67" t="n">
-        <v>4289990</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_15460.html</t>
+          <t>https://auto-shop-21.ru/geely/tugella</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3319990</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/geely/tugella/</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2375994</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/geely/tugella</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>Great Wall</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Tugella New</t>
+          <t>POER</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>2375994</v>
+        <v>3239000</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/tugella</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>3319990</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/geely/tugella/</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>2375994</v>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/geely/tugella</t>
+          <t>https://alyans-auto.ru/auto/auto_14970.html</t>
+        </is>
+      </c>
+      <c r="J68" t="n">
+        <v>3239000</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_14970.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Great Wall</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>POER</t>
+          <t>Dargo</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>3239000</v>
+        <v>1779000</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_14970.html</t>
+          <t>https://avto-trend21.ru/auto/haval/dargo/</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1779000</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/haval/dargo/</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1829400</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/haval/dargo</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>3239000</v>
+        <v>3349000</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_14970.html</t>
+          <t>https://alyans-auto.ru/auto/auto_15958.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3343,48 +3361,40 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Dargo</t>
+          <t>Dargo X</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1779000</v>
+        <v>1959000</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/dargo/</t>
+          <t>https://avto-trend21.ru/auto/haval/dargo_x/</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>1779000</t>
+          <t>1959000</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/dargo/</t>
+          <t>https://avto-trend21.ru/auto/haval/dargo_x/</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>1829400</v>
+        <v>2009400</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/dargo</t>
-        </is>
-      </c>
-      <c r="J70" t="n">
-        <v>3349000</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_15958.html</t>
+          <t>https://auto-shop-21.ru/haval/dargo_x</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3394,40 +3404,30 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Dargo X</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1959000</v>
+        <v>3499000</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/dargo_x/</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>1959000</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/haval/dargo_x/</t>
-        </is>
-      </c>
-      <c r="H71" t="n">
-        <v>2009400</v>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/haval/dargo_x</t>
+          <t>https://alyans-auto.ru/auto/auto_16420.html</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
+        <v>3499000</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_16420.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3437,30 +3437,40 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>F7 New</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3299000</v>
+        <v>1219000</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16294.html</t>
-        </is>
-      </c>
-      <c r="J72" t="n">
-        <v>3299000</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_16294.html</t>
+          <t>https://avto-trend21.ru/auto/haval/f7/</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1219000</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/haval/f7/</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1469400</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/haval/f7</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3470,40 +3480,30 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>F7 New</t>
+          <t>F7x</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1219000</v>
+        <v>3399000</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/f7/</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>1219000</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/haval/f7/</t>
-        </is>
-      </c>
-      <c r="H73" t="n">
-        <v>1469400</v>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/haval/f7</t>
+          <t>https://alyans-auto.ru/auto/auto_12214.html</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>3399000</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_12214.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3513,30 +3513,40 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>F7x</t>
+          <t>F7x New</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>3399000</v>
+        <v>1269000</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_12364.html</t>
-        </is>
-      </c>
-      <c r="J74" t="n">
-        <v>3399000</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_12364.html</t>
+          <t>https://avto-trend21.ru/auto/haval/f7x/</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1269000</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/haval/f7x/</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1469400</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/haval/f7x</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3546,40 +3556,40 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>F7x New</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1269000</v>
+        <v>676800</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/f7x/</t>
+          <t>https://auto-shop-21.ru/haval/h2</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>1269000</t>
+          <t>878000</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/f7x/</t>
+          <t>https://avto-trend21.ru/auto/haval/h2/</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>1469400</v>
+        <v>676800</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/f7x</t>
+          <t>https://auto-shop-21.ru/haval/h2</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3589,40 +3599,30 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>676800</v>
+        <v>917400</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/h2</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>878000</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/haval/h2/</t>
+          <t>https://auto-shop-21.ru/haval/h5</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>676800</v>
+        <v>917400</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/h2</t>
+          <t>https://auto-shop-21.ru/haval/h5</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3632,30 +3632,40 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>H6</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>917400</v>
+        <v>688800</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/h5</t>
+          <t>https://auto-shop-21.ru/haval/h6</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>898000</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/haval/h6/</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>917400</v>
+        <v>688800</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/h5</t>
+          <t>https://auto-shop-21.ru/haval/h6</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3665,40 +3675,30 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>H6</t>
+          <t>H9</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>688800</v>
+        <v>2459400</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/h6</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>898000</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/haval/h6/</t>
+          <t>https://auto-shop-21.ru/haval/h9</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>688800</v>
+        <v>2459400</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/h6</t>
+          <t>https://auto-shop-21.ru/haval/h9</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3708,30 +3708,48 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>H9</t>
+          <t>Jolion</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>2459400</v>
+        <v>689900</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/h9</t>
+          <t>https://avto-trend21.ru/auto/haval/jolion_1/</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>689900</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/haval/jolion_1/</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>2459400</v>
+        <v>1169400</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/h9</t>
+          <t>https://auto-shop-21.ru/haval/jolion_1</t>
+        </is>
+      </c>
+      <c r="J79" t="n">
+        <v>2299000</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_16407.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3741,48 +3759,40 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Jolion</t>
+          <t>Jolion New</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>689900</v>
+        <v>990000</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/jolion_1/</t>
+          <t>https://avto-trend21.ru/auto/haval/jolion/</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>689900</t>
+          <t>990000</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/jolion_1/</t>
+          <t>https://avto-trend21.ru/auto/haval/jolion/</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>1169400</v>
+        <v>1199400</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/jolion_1</t>
-        </is>
-      </c>
-      <c r="J80" t="n">
-        <v>2449000</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_14885.html</t>
+          <t>https://auto-shop-21.ru/haval/jolion</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3792,75 +3802,83 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Jolion New</t>
+          <t>M6</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>990000</v>
+        <v>736000</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/jolion/</t>
+          <t>https://avto-trend21.ru/auto/haval/m6/</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>990000</t>
+          <t>736000</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/jolion/</t>
-        </is>
-      </c>
-      <c r="H81" t="n">
-        <v>1199400</v>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/haval/jolion</t>
+          <t>https://avto-trend21.ru/auto/haval/m6/</t>
+        </is>
+      </c>
+      <c r="J81" t="n">
+        <v>2299000</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_16415.html</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>M6</t>
+          <t>Creta New</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>736000</v>
+        <v>864000</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/m6/</t>
+          <t>https://avto-trend21.ru/auto/hyundai/creta/</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>736000</t>
+          <t>864000</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/m6/</t>
+          <t>https://avto-trend21.ru/auto/hyundai/creta/</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1115400</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/hyundai/creta</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3870,40 +3888,40 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Creta New</t>
+          <t>Elantra New</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>864000</v>
+        <v>1069000</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/creta/</t>
+          <t>https://avto-trend21.ru/auto/hyundai/elantra/</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>864000</t>
+          <t>1069000</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/creta/</t>
+          <t>https://avto-trend21.ru/auto/hyundai/elantra/</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>1115400</v>
+        <v>1289400</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/hyundai/creta</t>
+          <t>https://auto-shop-21.ru/hyundai/elantra</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3913,40 +3931,40 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Elantra New</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1069000</v>
+        <v>619000</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/elantra/</t>
+          <t>https://avto-trend21.ru/auto/hyundai/solaris/</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>1069000</t>
+          <t>619000</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/elantra/</t>
+          <t>https://avto-trend21.ru/auto/hyundai/solaris/</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>1289400</v>
+        <v>844800</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/hyundai/elantra</t>
+          <t>https://auto-shop-21.ru/hyundai/solaris</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3956,40 +3974,40 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Sonata</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>619000</v>
+        <v>1370000</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/solaris/</t>
+          <t>https://avto-trend21.ru/auto/hyundai/sonata/</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>619000</t>
+          <t>1370000</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/solaris/</t>
+          <t>https://avto-trend21.ru/auto/hyundai/sonata/</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>844800</v>
+        <v>1661400</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/hyundai/solaris</t>
+          <t>https://auto-shop-21.ru/hyundai/sonata</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3999,83 +4017,91 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Sonata</t>
+          <t>Tucson New</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1370000</v>
+        <v>1394000</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/sonata/</t>
+          <t>https://avto-trend21.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1370000</t>
+          <t>1394000</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/sonata/</t>
+          <t>https://avto-trend21.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>1661400</v>
+        <v>1649400</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/hyundai/sonata</t>
+          <t>https://auto-shop-21.ru/hyundai/tucson</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Tucson New</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1394000</v>
+        <v>1277400</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/tucson/</t>
+          <t>https://auto-shop-21.ru/jac/j7</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>1394000</t>
+          <t>1799000</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/tucson/</t>
+          <t>https://avto-trend21.ru/auto/jac/j7/</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>1649400</v>
+        <v>1277400</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/hyundai/tucson</t>
+          <t>https://auto-shop-21.ru/jac/j7</t>
+        </is>
+      </c>
+      <c r="J87" t="n">
+        <v>2099000</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_8435.html</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4085,48 +4111,30 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>JS3</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1277400</v>
+        <v>1849000</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jac/j7</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>1799000</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/jac/j7/</t>
-        </is>
-      </c>
-      <c r="H88" t="n">
-        <v>1277400</v>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/jac/j7</t>
+          <t>https://alyans-auto.ru/auto/auto_16272.html</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>2099000</v>
+        <v>1849000</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_8435.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16272.html</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4136,30 +4144,30 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>JS3</t>
+          <t>JS6</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1849000</v>
+        <v>2399000</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16272.html</t>
+          <t>https://alyans-auto.ru/auto/auto_13473.html</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>1849000</v>
+        <v>2399000</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16272.html</t>
+          <t>https://alyans-auto.ru/auto/auto_13473.html</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4169,30 +4177,40 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>JS6</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>2399000</v>
+        <v>439000</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_13473.html</t>
-        </is>
-      </c>
-      <c r="J90" t="n">
-        <v>2399000</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_13473.html</t>
+          <t>https://avto-trend21.ru/auto/jac/s3/</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>439000</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/jac/s3/</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>839400</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/jac/s3</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4202,40 +4220,40 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>439000</v>
+        <v>683400</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jac/s3/</t>
+          <t>https://auto-shop-21.ru/jac/s5</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>439000</t>
+          <t>687000</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jac/s3/</t>
+          <t>https://avto-trend21.ru/auto/jac/s5/</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>839400</v>
+        <v>683400</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jac/s3</t>
+          <t>https://auto-shop-21.ru/jac/s5</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4245,40 +4263,40 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>683400</v>
+        <v>1067400</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jac/s5</t>
+          <t>https://auto-shop-21.ru/jac/s7</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>687000</t>
+          <t>1209000</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jac/s5/</t>
+          <t>https://avto-trend21.ru/auto/jac/s7/</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>683400</v>
+        <v>1067400</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jac/s5</t>
+          <t>https://auto-shop-21.ru/jac/s7</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4288,40 +4306,30 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1067400</v>
+        <v>2665500</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jac/s7</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>1209000</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/jac/s7/</t>
-        </is>
-      </c>
-      <c r="H93" t="n">
-        <v>1067400</v>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/jac/s7</t>
+          <t>https://alyans-auto.ru/auto/auto_8940.html</t>
+        </is>
+      </c>
+      <c r="J93" t="n">
+        <v>2665500</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_8940.html</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -4331,63 +4339,63 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>T8 Pro</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>2665500</v>
+        <v>3199000</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_8940.html</t>
+          <t>https://alyans-auto.ru/auto/auto_15628.html</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>2665500</v>
+        <v>3199000</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_8940.html</t>
+          <t>https://alyans-auto.ru/auto/auto_15628.html</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>T8 Pro</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>3199000</v>
+        <v>3149900</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_15628.html</t>
+          <t>https://alyans-auto.ru/auto/auto_15237.html</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>3199000</v>
+        <v>3149900</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_15628.html</t>
+          <t>https://alyans-auto.ru/auto/auto_15237.html</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -4397,63 +4405,65 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>J8</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>3079900</v>
+        <v>4399000</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_10742.html</t>
+          <t>https://alyans-auto.ru/auto/auto_14544.html</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>3079900</v>
+        <v>4399000</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_10742.html</t>
+          <t>https://alyans-auto.ru/auto/auto_14544.html</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>J8</t>
+          <t>Dashing</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>3999000</v>
+        <v>1399900</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_15527.html</t>
-        </is>
-      </c>
-      <c r="J97" t="n">
-        <v>3999000</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_15527.html</t>
+          <t>https://avto-trend21.ru/auto/jetour/dashing/</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1399900</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/jetour/dashing/</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -4463,32 +4473,32 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Dashing</t>
+          <t>X70 Plus</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1399900</v>
+        <v>1809900</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/dashing/</t>
+          <t>https://avto-trend21.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>1399900</t>
+          <t>1809900</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/dashing/</t>
+          <t>https://avto-trend21.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -4498,67 +4508,75 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>X70 Plus</t>
+          <t>X90 Plus</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1809900</v>
+        <v>2149900</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/x70_plus/</t>
+          <t>https://avto-trend21.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>1809900</t>
+          <t>2149900</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/x70_plus/</t>
+          <t>https://avto-trend21.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>X90 Plus</t>
+          <t>VA3</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>2149900</v>
+        <v>890000</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/x90_plus/</t>
+          <t>https://avto-trend21.ru/auto/jetta/va3/</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2149900</t>
+          <t>890000</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/x90_plus/</t>
+          <t>https://avto-trend21.ru/auto/jetta/va3/</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1232400</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/jetta/va3</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -4568,40 +4586,40 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>VA3</t>
+          <t>VS5</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>890000</v>
+        <v>1190000</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/va3/</t>
+          <t>https://avto-trend21.ru/auto/jetta/vs5/</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>890000</t>
+          <t>1190000</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/va3/</t>
+          <t>https://avto-trend21.ru/auto/jetta/vs5/</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>1232400</v>
+        <v>1477200</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jetta/va3</t>
+          <t>https://auto-shop-21.ru/jetta/vs5</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -4611,83 +4629,83 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>VS5</t>
+          <t>VS7</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1190000</v>
+        <v>1349000</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/vs5/</t>
+          <t>https://avto-trend21.ru/auto/jetta/vs7/</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>1190000</t>
+          <t>1349000</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/vs5/</t>
+          <t>https://avto-trend21.ru/auto/jetta/vs7/</t>
         </is>
       </c>
       <c r="H102" t="n">
-        <v>1477200</v>
+        <v>1759800</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jetta/vs5</t>
+          <t>https://auto-shop-21.ru/jetta/vs7</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>VS7</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1349000</v>
+        <v>1299000</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/vs7/</t>
+          <t>https://avto-trend21.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>1349000</t>
+          <t>1299000</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/vs7/</t>
+          <t>https://avto-trend21.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
       <c r="H103" t="n">
-        <v>1759800</v>
+        <v>1317000</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jetta/vs7</t>
+          <t>https://auto-shop-21.ru/kaiyi/e5</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4697,40 +4715,40 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>X3</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>1299000</v>
+        <v>1342800</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kaiyi/e5/</t>
+          <t>https://auto-shop-21.ru/kaiyi/x3</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>1299000</t>
+          <t>1417650</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kaiyi/e5/</t>
+          <t>https://avto-trend21.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
       <c r="H104" t="n">
-        <v>1317000</v>
+        <v>1342800</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/e5</t>
+          <t>https://auto-shop-21.ru/kaiyi/x3</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -4740,40 +4758,40 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>X3</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1342800</v>
+        <v>1508940</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x3</t>
+          <t>https://auto-shop-21.ru/kaiyi/x3_pro</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>1417650</t>
+          <t>1790000</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kaiyi/x3/</t>
+          <t>https://avto-trend21.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
       <c r="H105" t="n">
-        <v>1342800</v>
+        <v>1508940</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x3</t>
+          <t>https://auto-shop-21.ru/kaiyi/x3_pro</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4783,83 +4801,83 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>X7 Kunlun</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1508940</v>
+        <v>1798740</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x3_pro</t>
+          <t>https://auto-shop-21.ru/kaiyi/x7_kunlun</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>1790000</t>
+          <t>2197900</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://avto-trend21.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
       <c r="H106" t="n">
-        <v>1508940</v>
+        <v>1798740</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x3_pro</t>
+          <t>https://auto-shop-21.ru/kaiyi/x7_kunlun</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>X7 Kunlun</t>
+          <t>Ceed</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1798740</v>
+        <v>713000</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x7_kunlun</t>
+          <t>https://avto-trend21.ru/auto/kia/ceed/</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2197900</t>
+          <t>713000</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://avto-trend21.ru/auto/kia/ceed/</t>
         </is>
       </c>
       <c r="H107" t="n">
-        <v>1798740</v>
+        <v>1346940</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x7_kunlun</t>
+          <t>https://auto-shop-21.ru/kia/ceed</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4869,40 +4887,40 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Ceed</t>
+          <t>Ceed SW</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>713000</v>
+        <v>723000</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/ceed/</t>
+          <t>https://avto-trend21.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>713000</t>
+          <t>723000</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/ceed/</t>
+          <t>https://avto-trend21.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
       <c r="H108" t="n">
-        <v>1346940</v>
+        <v>1388940</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/ceed</t>
+          <t>https://auto-shop-21.ru/kia/ceed_sw</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4912,40 +4930,40 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Ceed SW</t>
+          <t>Cerato</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>723000</v>
+        <v>850000</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/ceed_sw/</t>
+          <t>https://avto-trend21.ru/auto/kia/cerato/</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>723000</t>
+          <t>850000</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/ceed_sw/</t>
+          <t>https://avto-trend21.ru/auto/kia/cerato/</t>
         </is>
       </c>
       <c r="H109" t="n">
-        <v>1388940</v>
+        <v>1232940</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/ceed_sw</t>
+          <t>https://auto-shop-21.ru/kia/cerato</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4955,40 +4973,40 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Cerato</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>850000</v>
+        <v>1149000</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/cerato/</t>
+          <t>https://avto-trend21.ru/auto/kia/k5/</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>850000</t>
+          <t>1149000</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/cerato/</t>
+          <t>https://avto-trend21.ru/auto/kia/k5/</t>
         </is>
       </c>
       <c r="H110" t="n">
-        <v>1232940</v>
+        <v>1640940</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/cerato</t>
+          <t>https://auto-shop-21.ru/kia/k5</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4998,40 +5016,40 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>Picanto</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>1149000</v>
+        <v>619900</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/k5/</t>
+          <t>https://avto-trend21.ru/auto/kia/picanto/</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>1149000</t>
+          <t>619900</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/k5/</t>
+          <t>https://avto-trend21.ru/auto/kia/picanto/</t>
         </is>
       </c>
       <c r="H111" t="n">
-        <v>1640940</v>
+        <v>800940</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/k5</t>
+          <t>https://auto-shop-21.ru/kia/picanto</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -5041,40 +5059,40 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Picanto</t>
+          <t>ProCeed</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>619900</v>
+        <v>1121940</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/picanto/</t>
+          <t>https://auto-shop-21.ru/kia/proceed</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>619900</t>
+          <t>1134700</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/picanto/</t>
+          <t>https://avto-trend21.ru/auto/kia/proceed/</t>
         </is>
       </c>
       <c r="H112" t="n">
-        <v>800940</v>
+        <v>1121940</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/picanto</t>
+          <t>https://auto-shop-21.ru/kia/proceed</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -5084,40 +5102,40 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>ProCeed</t>
+          <t>Rio</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1121940</v>
+        <v>564000</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/proceed</t>
+          <t>https://avto-trend21.ru/auto/kia/rio/</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>1134700</t>
+          <t>564000</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/proceed/</t>
+          <t>https://avto-trend21.ru/auto/kia/rio/</t>
         </is>
       </c>
       <c r="H113" t="n">
-        <v>1121940</v>
+        <v>860940</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/proceed</t>
+          <t>https://auto-shop-21.ru/kia/rio</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -5127,40 +5145,40 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Rio</t>
+          <t>Rio X</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>564000</v>
+        <v>650000</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio/</t>
+          <t>https://avto-trend21.ru/auto/kia/rio_x/</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>564000</t>
+          <t>650000</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio/</t>
+          <t>https://avto-trend21.ru/auto/kia/rio_x/</t>
         </is>
       </c>
       <c r="H114" t="n">
-        <v>860940</v>
+        <v>944940</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/rio</t>
+          <t>https://auto-shop-21.ru/kia/rio_x</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -5170,40 +5188,40 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Rio X</t>
+          <t>Rio X-Line</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>650000</v>
+        <v>557000</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio_x/</t>
+          <t>https://avto-trend21.ru/auto/kia/rio_x-line/</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>650000</t>
+          <t>557000</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio_x/</t>
+          <t>https://avto-trend21.ru/auto/kia/rio_x-line/</t>
         </is>
       </c>
       <c r="H115" t="n">
-        <v>944940</v>
+        <v>563940</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/rio_x</t>
+          <t>https://auto-shop-21.ru/kia/rio_x-line</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -5213,40 +5231,40 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Rio X-Line</t>
+          <t>Seltos</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>557000</v>
+        <v>790000</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio_x-line/</t>
+          <t>https://avto-trend21.ru/auto/kia/seltos/</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>557000</t>
+          <t>790000</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio_x-line/</t>
+          <t>https://avto-trend21.ru/auto/kia/seltos/</t>
         </is>
       </c>
       <c r="H116" t="n">
-        <v>563940</v>
+        <v>1175940</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/rio_x-line</t>
+          <t>https://auto-shop-21.ru/kia/seltos</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -5256,40 +5274,40 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Seltos</t>
+          <t>Soul</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>790000</v>
+        <v>638000</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/seltos/</t>
+          <t>https://avto-trend21.ru/auto/kia/soul/</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>790000</t>
+          <t>638000</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/seltos/</t>
+          <t>https://avto-trend21.ru/auto/kia/soul/</t>
         </is>
       </c>
       <c r="H117" t="n">
-        <v>1175940</v>
+        <v>1097940</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/seltos</t>
+          <t>https://auto-shop-21.ru/kia/soul</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -5299,40 +5317,40 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Soul</t>
+          <t>Sportage 5</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>638000</v>
+        <v>1046000</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/soul/</t>
+          <t>https://avto-trend21.ru/auto/kia/sportage/</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>638000</t>
+          <t>1046000</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/soul/</t>
+          <t>https://avto-trend21.ru/auto/kia/sportage/</t>
         </is>
       </c>
       <c r="H118" t="n">
-        <v>1097940</v>
+        <v>1709940</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/soul</t>
+          <t>https://auto-shop-21.ru/kia/sportage</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -5342,83 +5360,73 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Sportage 5</t>
+          <t>XCeed</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>1046000</v>
+        <v>964900</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/sportage/</t>
+          <t>https://avto-trend21.ru/auto/kia/xceed/</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>1046000</t>
+          <t>964900</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/sportage/</t>
+          <t>https://avto-trend21.ru/auto/kia/xceed/</t>
         </is>
       </c>
       <c r="H119" t="n">
-        <v>1709940</v>
+        <v>1580940</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/sportage</t>
+          <t>https://auto-shop-21.ru/kia/xceed</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>701</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>XCeed</t>
+          <t>4x4 3 двери</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>964900</v>
+        <v>977500</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/xceed/</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>964900</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/kia/xceed/</t>
-        </is>
-      </c>
-      <c r="H120" t="n">
-        <v>1580940</v>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/kia/xceed</t>
+          <t>https://alyans-auto.ru/auto/auto_15586.html</t>
+        </is>
+      </c>
+      <c r="J120" t="n">
+        <v>977500</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_15586.html</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>701</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -5428,30 +5436,40 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>4x4 3 двери</t>
+          <t>Granta Cross</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>977500</v>
+        <v>426900</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_15586.html</t>
-        </is>
-      </c>
-      <c r="J121" t="n">
-        <v>977500</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_15586.html</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_cross/</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>426900</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/lada/granta_cross/</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>567540</v>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/lada/granta_cross</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -5461,40 +5479,40 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Granta Cross</t>
+          <t>Granta Hatchback</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>426900</v>
+        <v>378810</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>426900</t>
+          <t>378810</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
       <c r="H122" t="n">
-        <v>567540</v>
+        <v>467100</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/granta_cross</t>
+          <t>https://auto-shop-21.ru/lada/granta_hatchback</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -5504,40 +5522,40 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Granta Hatchback</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>378810</v>
+        <v>375610</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_hatchback/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>378810</t>
+          <t>375610</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_hatchback/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
       <c r="H123" t="n">
-        <v>467100</v>
+        <v>443940</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/granta_hatchback</t>
+          <t>https://auto-shop-21.ru/lada/granta_liftback</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -5547,40 +5565,48 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>375610</v>
+        <v>358510</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_liftback/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>375610</t>
+          <t>358510</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_liftback/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
       <c r="H124" t="n">
-        <v>443940</v>
+        <v>419940</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/granta_liftback</t>
+          <t>https://auto-shop-21.ru/lada/granta_sedan</t>
+        </is>
+      </c>
+      <c r="J124" t="n">
+        <v>931000</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_16313.html</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -5590,48 +5616,40 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>Granta Sedan Drive Active</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>358510</v>
+        <v>419000</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_sedan/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>358510</t>
+          <t>419000</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_sedan/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
       <c r="H125" t="n">
-        <v>419940</v>
+        <v>620940</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/granta_sedan</t>
-        </is>
-      </c>
-      <c r="J125" t="n">
-        <v>1008500</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_15411.html</t>
+          <t>https://auto-shop-21.ru/lada/granta_drive_active</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -5641,40 +5659,40 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Granta Sedan Drive Active</t>
+          <t>Granta Universal</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>419000</v>
+        <v>376800</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_drive_active/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>419000</t>
+          <t>376800</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_drive_active/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
       <c r="H126" t="n">
-        <v>620940</v>
+        <v>431580</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/granta_drive_active</t>
+          <t>https://auto-shop-21.ru/lada/granta_universal</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -5684,40 +5702,30 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Granta Universal</t>
+          <t>Largus</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>376800</v>
+        <v>1656500</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_universal/</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>376800</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_universal/</t>
-        </is>
-      </c>
-      <c r="H127" t="n">
-        <v>431580</v>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/lada/granta_universal</t>
+          <t>https://alyans-auto.ru/auto/auto_16127.html</t>
+        </is>
+      </c>
+      <c r="J127" t="n">
+        <v>1656500</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_16127.html</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -5727,30 +5735,40 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Largus</t>
+          <t>Largus Cross New</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>1656500</v>
+        <v>629000</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16127.html</t>
-        </is>
-      </c>
-      <c r="J128" t="n">
-        <v>1656500</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_16127.html</t>
+          <t>https://avto-trend21.ru/auto/lada/largus_cross/</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>629000</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/lada/largus_cross/</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>866340</v>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/lada/largus_cross</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -5760,40 +5778,40 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Largus Cross New</t>
+          <t>Largus New</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>629000</v>
+        <v>501000</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/largus_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/largus/</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>629000</t>
+          <t>501000</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/largus_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/largus/</t>
         </is>
       </c>
       <c r="H129" t="n">
-        <v>866340</v>
+        <v>780540</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/largus_cross</t>
+          <t>https://auto-shop-21.ru/lada/largus</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -5803,40 +5821,40 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Largus New</t>
+          <t>Largus Фургон New</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>501000</v>
+        <v>541610</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/largus/</t>
+          <t>https://avto-trend21.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>501000</t>
+          <t>541610</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/largus/</t>
+          <t>https://avto-trend21.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
       <c r="H130" t="n">
-        <v>780540</v>
+        <v>781140</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/largus</t>
+          <t>https://auto-shop-21.ru/lada/largus_furgon</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -5846,40 +5864,40 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Largus Фургон New</t>
+          <t>Niva</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>541610</v>
+        <v>582200</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/largus_furgon/</t>
+          <t>https://avto-trend21.ru/auto/lada/niva/</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>541610</t>
+          <t>582200</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/largus_furgon/</t>
-        </is>
-      </c>
-      <c r="H131" t="n">
-        <v>781140</v>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/lada/largus_furgon</t>
+          <t>https://avto-trend21.ru/auto/lada/niva/</t>
+        </is>
+      </c>
+      <c r="J131" t="n">
+        <v>1310500</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_14903.html</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -5889,40 +5907,32 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Niva</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>582200</v>
+        <v>451710</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/niva/</t>
+          <t>https://avto-trend21.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>582200</t>
+          <t>451710</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/niva/</t>
-        </is>
-      </c>
-      <c r="J132" t="n">
-        <v>1310500</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_14903.html</t>
+          <t>https://avto-trend21.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -5932,32 +5942,32 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Niva Legend 5 дверей</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>451710</v>
+        <v>490410</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://avto-trend21.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>451710</t>
+          <t>490410</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://avto-trend21.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -5967,32 +5977,40 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Niva Legend 5 дверей</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>490410</v>
+        <v>549000</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://avto-trend21.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>490410</t>
+          <t>549000</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://avto-trend21.ru/auto/lada/niva_travel/</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>719340</v>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/lada/niva_travel</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -6002,40 +6020,40 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>549000</v>
+        <v>569000</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/niva_travel/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>549000</t>
+          <t>569000</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/niva_travel/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
       <c r="H135" t="n">
-        <v>719340</v>
+        <v>761940</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/niva_travel</t>
+          <t>https://auto-shop-21.ru/lada/vesta_cross_1</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -6045,40 +6063,40 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>Vesta Cross New</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>569000</v>
+        <v>619000</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>569000</t>
+          <t>619000</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="H136" t="n">
-        <v>761940</v>
+        <v>1040340</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_cross_1</t>
+          <t>https://auto-shop-21.ru/lada/vesta_cross</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -6088,40 +6106,40 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Vesta Cross New</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>619000</v>
+        <v>559000</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>619000</t>
+          <t>559000</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
       <c r="H137" t="n">
-        <v>1040340</v>
+        <v>728340</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_cross</t>
+          <t>https://auto-shop-21.ru/lada/vesta_sw_1</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -6131,40 +6149,40 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>559000</v>
+        <v>619000</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>559000</t>
+          <t>619000</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
       <c r="H138" t="n">
-        <v>728340</v>
+        <v>797340</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_sw_1</t>
+          <t>https://auto-shop-21.ru/lada/vesta_sw_cross_1</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -6174,40 +6192,40 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>Vesta SW Cross New</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>619000</v>
+        <v>669000</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>619000</t>
+          <t>669000</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="H139" t="n">
-        <v>797340</v>
+        <v>907140</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_sw_cross_1</t>
+          <t>https://auto-shop-21.ru/lada/vesta_sw_cross</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>444</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -6217,40 +6235,40 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Vesta SW Cross New</t>
+          <t>Vesta SW New</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>669000</v>
+        <v>609000</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>669000</t>
+          <t>609000</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="H140" t="n">
-        <v>907140</v>
+        <v>797940</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_sw_cross</t>
+          <t>https://auto-shop-21.ru/lada/vesta_sw</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -6260,40 +6278,48 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Vesta SW New</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>609000</v>
+        <v>519000</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>609000</t>
+          <t>519000</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
       <c r="H141" t="n">
-        <v>797940</v>
+        <v>673140</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_sw</t>
+          <t>https://auto-shop-21.ru/lada/vesta_1</t>
+        </is>
+      </c>
+      <c r="J141" t="n">
+        <v>1511500</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_14614.html</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -6303,48 +6329,40 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>Vesta Sedan CNG</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>519000</v>
+        <v>639900</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>519000</t>
+          <t>639900</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
       <c r="H142" t="n">
-        <v>673140</v>
+        <v>790140</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_1</t>
-        </is>
-      </c>
-      <c r="J142" t="n">
-        <v>1511500</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_14614.html</t>
+          <t>https://auto-shop-21.ru/lada/vesta_cng</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -6354,40 +6372,40 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Vesta Sedan CNG</t>
+          <t>Vesta Sedan New</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>639900</v>
+        <v>569000</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cng/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta/</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>639900</t>
+          <t>569000</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cng/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta/</t>
         </is>
       </c>
       <c r="H143" t="n">
-        <v>790140</v>
+        <v>743940</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_cng</t>
+          <t>https://auto-shop-21.ru/lada/vesta</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -6397,40 +6415,40 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Vesta Sedan New</t>
+          <t>Vesta Sport</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>569000</v>
+        <v>839000</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>569000</t>
+          <t>839000</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
       <c r="H144" t="n">
-        <v>743940</v>
+        <v>958740</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta</t>
+          <t>https://auto-shop-21.ru/lada/vesta_sport</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -6440,40 +6458,40 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Vesta Sport</t>
+          <t>Xray</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>839000</v>
+        <v>499000</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sport/</t>
+          <t>https://avto-trend21.ru/auto/lada/xray/</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>839000</t>
+          <t>499000</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sport/</t>
+          <t>https://avto-trend21.ru/auto/lada/xray/</t>
         </is>
       </c>
       <c r="H145" t="n">
-        <v>958740</v>
+        <v>664140</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_sport</t>
+          <t>https://auto-shop-21.ru/lada/xray</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -6483,40 +6501,40 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Xray</t>
+          <t>Xray Cross</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>499000</v>
+        <v>591900</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/xray/</t>
+          <t>https://avto-trend21.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>499000</t>
+          <t>591900</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/xray/</t>
+          <t>https://avto-trend21.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
       <c r="H146" t="n">
-        <v>664140</v>
+        <v>749940</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/xray</t>
+          <t>https://auto-shop-21.ru/lada/xray_cross</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>700</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -6526,73 +6544,73 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Xray Cross</t>
+          <t>ВИС 2349 Фургон</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>591900</v>
+        <v>1364100</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/xray_cross/</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>591900</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/lada/xray_cross/</t>
-        </is>
-      </c>
-      <c r="H147" t="n">
-        <v>749940</v>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/lada/xray_cross</t>
+          <t>https://alyans-auto.ru/auto/auto_14192.html</t>
+        </is>
+      </c>
+      <c r="J147" t="n">
+        <v>1364100</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_14192.html</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>ВИС 2349 Фургон</t>
+          <t>Murman</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>1364100</v>
+        <v>430000</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_14192.html</t>
-        </is>
-      </c>
-      <c r="J148" t="n">
-        <v>1364100</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_14192.html</t>
+          <t>https://avto-trend21.ru/auto/lifan/murman/</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>430000</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/lifan/murman/</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>611940</v>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/lifan/murman</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -6602,40 +6620,40 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Murman</t>
+          <t>MyWay</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>430000</v>
+        <v>539940</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/murman/</t>
+          <t>https://auto-shop-21.ru/lifan/myway</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>430000</t>
+          <t>685000</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/murman/</t>
+          <t>https://avto-trend21.ru/auto/lifan/myway/</t>
         </is>
       </c>
       <c r="H149" t="n">
-        <v>611940</v>
+        <v>539940</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/murman</t>
+          <t>https://auto-shop-21.ru/lifan/myway</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -6645,40 +6663,40 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>MyWay</t>
+          <t>Solano 2</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>539940</v>
+        <v>425940</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/myway</t>
+          <t>https://auto-shop-21.ru/lifan/solano_ii</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>685000</t>
+          <t>439900</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/myway/</t>
+          <t>https://avto-trend21.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
       <c r="H150" t="n">
-        <v>539940</v>
+        <v>425940</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/myway</t>
+          <t>https://auto-shop-21.ru/lifan/solano_ii</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -6688,40 +6706,40 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Solano 2</t>
+          <t>X50</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>425940</v>
+        <v>368000</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/solano_ii</t>
+          <t>https://avto-trend21.ru/auto/lifan/x50/</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>439900</t>
+          <t>368000</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/solano_ii/</t>
+          <t>https://avto-trend21.ru/auto/lifan/x50/</t>
         </is>
       </c>
       <c r="H151" t="n">
-        <v>425940</v>
+        <v>413940</v>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/solano_ii</t>
+          <t>https://auto-shop-21.ru/lifan/x50</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -6731,40 +6749,40 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>X50</t>
+          <t>X60</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>368000</v>
+        <v>461940</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/x50/</t>
+          <t>https://auto-shop-21.ru/lifan/x60</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>368000</t>
+          <t>479900</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/x50/</t>
+          <t>https://avto-trend21.ru/auto/lifan/x60/</t>
         </is>
       </c>
       <c r="H152" t="n">
-        <v>413940</v>
+        <v>461940</v>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/x50</t>
+          <t>https://auto-shop-21.ru/lifan/x60</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -6774,83 +6792,83 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>X60</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>461940</v>
+        <v>593400</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/x60</t>
+          <t>https://auto-shop-21.ru/lifan/x70</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>479900</t>
+          <t>737000</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/x60/</t>
+          <t>https://avto-trend21.ru/auto/lifan/x70/</t>
         </is>
       </c>
       <c r="H153" t="n">
-        <v>461940</v>
+        <v>593400</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/x60</t>
+          <t>https://auto-shop-21.ru/lifan/x70</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>593400</v>
+        <v>1529940</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/x70</t>
+          <t>https://auto-shop-21.ru/livan/s6pro</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>737000</t>
+          <t>1749900</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/x70/</t>
+          <t>https://avto-trend21.ru/auto/livan/s6pro/</t>
         </is>
       </c>
       <c r="H154" t="n">
-        <v>593400</v>
+        <v>1529940</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/x70</t>
+          <t>https://auto-shop-21.ru/livan/s6pro</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -6860,40 +6878,40 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>1529940</v>
+        <v>1127940</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/livan/s6pro</t>
+          <t>https://auto-shop-21.ru/livan/x3pro</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>1749900</t>
+          <t>1279900</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/livan/s6pro/</t>
+          <t>https://avto-trend21.ru/auto/livan/x3pro/</t>
         </is>
       </c>
       <c r="H155" t="n">
-        <v>1529940</v>
+        <v>1127940</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/livan/s6pro</t>
+          <t>https://auto-shop-21.ru/livan/x3pro</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -6903,83 +6921,83 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>X6 Pro</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>1127940</v>
+        <v>1577940</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/livan/x3pro</t>
+          <t>https://auto-shop-21.ru/livan/x6pro</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>1279900</t>
+          <t>1829900</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/livan/x3pro/</t>
+          <t>https://avto-trend21.ru/auto/livan/x6pro/</t>
         </is>
       </c>
       <c r="H156" t="n">
-        <v>1127940</v>
+        <v>1577940</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/livan/x3pro</t>
+          <t>https://auto-shop-21.ru/livan/x6pro</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>X6 Pro</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>1577940</v>
+        <v>960000</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/livan/x6pro</t>
+          <t>https://avto-trend21.ru/auto/moskvich/3/</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>1829900</t>
+          <t>960000</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/livan/x6pro/</t>
+          <t>https://avto-trend21.ru/auto/moskvich/3/</t>
         </is>
       </c>
       <c r="H157" t="n">
-        <v>1577940</v>
+        <v>1332000</v>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/livan/x6pro</t>
+          <t>https://auto-shop-21.ru/moskvich/3</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -6989,83 +7007,83 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3e</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>960000</v>
+        <v>2370000</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/moskvich/3/</t>
+          <t>https://auto-shop-21.ru/moskvich/3e</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>960000</t>
+          <t>3147000</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/moskvich/3/</t>
+          <t>https://avto-trend21.ru/auto/moskvich/3e/</t>
         </is>
       </c>
       <c r="H158" t="n">
-        <v>1332000</v>
+        <v>2370000</v>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/moskvich/3</t>
+          <t>https://auto-shop-21.ru/moskvich/3e</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>3e</t>
+          <t>Qashqai</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>2370000</v>
+        <v>790000</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/moskvich/3e</t>
+          <t>https://avto-trend21.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>3147000</t>
+          <t>790000</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/moskvich/3e/</t>
+          <t>https://avto-trend21.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
       <c r="H159" t="n">
-        <v>2370000</v>
+        <v>1402200</v>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/moskvich/3e</t>
+          <t>https://auto-shop-21.ru/nissan/qashqai</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -7075,40 +7093,40 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Qashqai</t>
+          <t>Terrano</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>790000</v>
+        <v>619000</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/qashqai/</t>
+          <t>https://avto-trend21.ru/auto/nissan/terrano/</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>790000</t>
+          <t>619000</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/qashqai/</t>
+          <t>https://avto-trend21.ru/auto/nissan/terrano/</t>
         </is>
       </c>
       <c r="H160" t="n">
-        <v>1402200</v>
+        <v>1014000</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/nissan/qashqai</t>
+          <t>https://auto-shop-21.ru/nissan/terrano</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -7118,83 +7136,91 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Terrano</t>
+          <t>X-trail</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>619000</v>
+        <v>855000</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/terrano/</t>
+          <t>https://avto-trend21.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>619000</t>
+          <t>855000</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/terrano/</t>
+          <t>https://avto-trend21.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
       <c r="H161" t="n">
-        <v>1014000</v>
+        <v>1657200</v>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/nissan/terrano</t>
+          <t>https://auto-shop-21.ru/nissan/x-trail</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>X-trail</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>855000</v>
+        <v>1607940</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/x-trail/</t>
+          <t>https://auto-shop-21.ru/omoda/c5</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>855000</t>
+          <t>1999900</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/x-trail/</t>
+          <t>https://avto-trend21.ru/auto/omoda/c5/</t>
         </is>
       </c>
       <c r="H162" t="n">
-        <v>1657200</v>
+        <v>1607940</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/nissan/x-trail</t>
+          <t>https://auto-shop-21.ru/omoda/c5</t>
+        </is>
+      </c>
+      <c r="J162" t="n">
+        <v>2229900</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_16261.html</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -7204,99 +7230,91 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1607940</v>
+        <v>1349940</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/omoda/c5</t>
+          <t>https://auto-shop-21.ru/omoda/s5</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>1999900</t>
+          <t>1689900</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/omoda/c5/</t>
+          <t>https://avto-trend21.ru/auto/omoda/s5/</t>
         </is>
       </c>
       <c r="H163" t="n">
-        <v>1607940</v>
+        <v>1349940</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/omoda/c5</t>
+          <t>https://auto-shop-21.ru/omoda/s5</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>1999900</v>
+        <v>1999000</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16286.html</t>
+          <t>https://alyans-auto.ru/auto/auto_15370.html</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>Nexia R3</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>1349940</v>
+        <v>339000</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/omoda/s5</t>
+          <t>https://avto-trend21.ru/auto/ravon/nexia_r3/</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>1689900</t>
+          <t>339000</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/omoda/s5/</t>
+          <t>https://avto-trend21.ru/auto/ravon/nexia_r3/</t>
         </is>
       </c>
       <c r="H164" t="n">
-        <v>1349940</v>
+        <v>495000</v>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/omoda/s5</t>
-        </is>
-      </c>
-      <c r="J164" t="n">
-        <v>1999000</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_15370.html</t>
+          <t>https://auto-shop-21.ru/ravon/nexia_r3</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -7306,7 +7324,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Nexia R3</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="D165" t="n">
@@ -7314,7 +7332,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/nexia_r3/</t>
+          <t>https://avto-trend21.ru/auto/ravon/r2/</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -7324,22 +7342,22 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/nexia_r3/</t>
+          <t>https://avto-trend21.ru/auto/ravon/r2/</t>
         </is>
       </c>
       <c r="H165" t="n">
-        <v>495000</v>
+        <v>529800</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/ravon/nexia_r3</t>
+          <t>https://auto-shop-21.ru/ravon/r2</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -7349,83 +7367,83 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R4</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>339000</v>
+        <v>389000</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/r2/</t>
+          <t>https://avto-trend21.ru/auto/ravon/r4/</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>339000</t>
+          <t>389000</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/r2/</t>
+          <t>https://avto-trend21.ru/auto/ravon/r4/</t>
         </is>
       </c>
       <c r="H166" t="n">
-        <v>529800</v>
+        <v>510600</v>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/ravon/r2</t>
+          <t>https://auto-shop-21.ru/ravon/r4</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>389000</v>
+        <v>690000</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/r4/</t>
+          <t>https://avto-trend21.ru/auto/renault/arkana/</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>389000</t>
+          <t>690000</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/r4/</t>
+          <t>https://avto-trend21.ru/auto/renault/arkana/</t>
         </is>
       </c>
       <c r="H167" t="n">
-        <v>510600</v>
+        <v>1124400</v>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/ravon/r4</t>
+          <t>https://auto-shop-21.ru/renault/arkana</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -7435,40 +7453,40 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>Duster New</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>690000</v>
+        <v>650000</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/arkana/</t>
+          <t>https://avto-trend21.ru/auto/renault/duster/</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>690000</t>
+          <t>650000</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/arkana/</t>
+          <t>https://avto-trend21.ru/auto/renault/duster/</t>
         </is>
       </c>
       <c r="H168" t="n">
-        <v>1124400</v>
+        <v>970800</v>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/arkana</t>
+          <t>https://auto-shop-21.ru/renault/duster</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -7478,40 +7496,40 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Duster New</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>650000</v>
+        <v>659000</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/duster/</t>
+          <t>https://avto-trend21.ru/auto/renault/kaptur/</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>650000</t>
+          <t>659000</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/duster/</t>
+          <t>https://avto-trend21.ru/auto/renault/kaptur/</t>
         </is>
       </c>
       <c r="H169" t="n">
-        <v>970800</v>
+        <v>1034400</v>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/duster</t>
+          <t>https://auto-shop-21.ru/renault/kaptur</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>552</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -7521,40 +7539,40 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>Koleos</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>659000</v>
+        <v>1019400</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/kaptur/</t>
+          <t>https://auto-shop-21.ru/renault/koleos</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>659000</t>
+          <t>1553000</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/kaptur/</t>
+          <t>https://avto-trend21.ru/auto/renault/koleos/</t>
         </is>
       </c>
       <c r="H170" t="n">
-        <v>1034400</v>
+        <v>1019400</v>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/kaptur</t>
+          <t>https://auto-shop-21.ru/renault/koleos</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -7564,40 +7582,40 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Koleos</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>1019400</v>
+        <v>490000</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/koleos</t>
+          <t>https://avto-trend21.ru/auto/renault/logan/</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>1553000</t>
+          <t>490000</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/koleos/</t>
+          <t>https://avto-trend21.ru/auto/renault/logan/</t>
         </is>
       </c>
       <c r="H171" t="n">
-        <v>1019400</v>
+        <v>674400</v>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/koleos</t>
+          <t>https://auto-shop-21.ru/renault/logan</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -7607,40 +7625,40 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>490000</v>
+        <v>530000</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/logan/</t>
+          <t>https://avto-trend21.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>490000</t>
+          <t>530000</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/logan/</t>
+          <t>https://avto-trend21.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="H172" t="n">
-        <v>674400</v>
+        <v>780600</v>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/logan</t>
+          <t>https://auto-shop-21.ru/renault/logan_stepway</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -7650,40 +7668,40 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>Logan Stepway City</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>530000</v>
+        <v>715000</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/logan_stepway/</t>
+          <t>https://avto-trend21.ru/auto/renault/logan_stepway_city/</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>530000</t>
+          <t>715000</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/logan_stepway/</t>
+          <t>https://avto-trend21.ru/auto/renault/logan_stepway_city/</t>
         </is>
       </c>
       <c r="H173" t="n">
-        <v>780600</v>
+        <v>792600</v>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/logan_stepway</t>
+          <t>https://auto-shop-21.ru/renault/logan_stepway_city</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -7693,40 +7711,40 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Logan Stepway City</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>715000</v>
+        <v>520000</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/logan_stepway_city/</t>
+          <t>https://avto-trend21.ru/auto/renault/sandero/</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>715000</t>
+          <t>520000</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/logan_stepway_city/</t>
+          <t>https://avto-trend21.ru/auto/renault/sandero/</t>
         </is>
       </c>
       <c r="H174" t="n">
-        <v>792600</v>
+        <v>754800</v>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/logan_stepway_city</t>
+          <t>https://auto-shop-21.ru/renault/sandero</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -7736,40 +7754,40 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>520000</v>
+        <v>550000</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/sandero/</t>
+          <t>https://avto-trend21.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>520000</t>
+          <t>550000</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/sandero/</t>
+          <t>https://avto-trend21.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
       <c r="H175" t="n">
-        <v>754800</v>
+        <v>823800</v>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/sandero</t>
+          <t>https://auto-shop-21.ru/renault/sandero_stepway</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>567</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -7779,83 +7797,83 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>Stepway City</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>550000</v>
+        <v>835800</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/sandero_stepway/</t>
+          <t>https://auto-shop-21.ru/renault/sandero_stepway_city</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>550000</t>
+          <t>1170000</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/sandero_stepway/</t>
+          <t>https://avto-trend21.ru/auto/renault/sandero_stepway_city/</t>
         </is>
       </c>
       <c r="H176" t="n">
-        <v>823800</v>
+        <v>835800</v>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/sandero_stepway</t>
+          <t>https://auto-shop-21.ru/renault/sandero_stepway_city</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Stepway City</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>835800</v>
+        <v>740000</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/sandero_stepway_city</t>
+          <t>https://avto-trend21.ru/auto/skoda/karoq/</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>1170000</t>
+          <t>740000</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/sandero_stepway_city/</t>
+          <t>https://avto-trend21.ru/auto/skoda/karoq/</t>
         </is>
       </c>
       <c r="H177" t="n">
-        <v>835800</v>
+        <v>1629600</v>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/sandero_stepway_city</t>
+          <t>https://auto-shop-21.ru/skoda/karoq</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>590</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -7865,40 +7883,40 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>Kodiaq Hockey Edition</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>740000</v>
+        <v>1421340</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/karoq/</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_hockey_edition</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>740000</t>
+          <t>1581000</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/karoq/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq_hockey_edition/</t>
         </is>
       </c>
       <c r="H178" t="n">
-        <v>1629600</v>
+        <v>1421340</v>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/karoq</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_hockey_edition</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>593</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -7908,40 +7926,40 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Kodiaq Hockey Edition</t>
+          <t>Kodiaq Laurin &amp; Klement</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1421340</v>
+        <v>3058000</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq_hockey_edition</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq_laurin__klement/</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>1581000</t>
+          <t>3058000</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq_hockey_edition/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq_laurin__klement/</t>
         </is>
       </c>
       <c r="H179" t="n">
-        <v>1421340</v>
+        <v>3483600</v>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq_hockey_edition</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_laurin__klement</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>576</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -7951,40 +7969,40 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Kodiaq Laurin &amp; Klement</t>
+          <t>Kodiaq New</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>3058000</v>
+        <v>1659000</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq_laurin__klement/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>3058000</t>
+          <t>1659000</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq_laurin__klement/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
       <c r="H180" t="n">
-        <v>3483600</v>
+        <v>2184000</v>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq_laurin__klement</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>591</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -7994,40 +8012,40 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Kodiaq New</t>
+          <t>Kodiaq Scout</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>1659000</v>
+        <v>2098800</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq/</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_scout</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>1659000</t>
+          <t>3375000</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq_scout/</t>
         </is>
       </c>
       <c r="H181" t="n">
-        <v>2184000</v>
+        <v>2098800</v>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_scout</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>592</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -8037,40 +8055,40 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Kodiaq Scout</t>
+          <t>Kodiaq Sportline</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>2098800</v>
+        <v>2989000</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq_scout</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq_sportline/</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>3375000</t>
+          <t>2989000</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq_scout/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq_sportline/</t>
         </is>
       </c>
       <c r="H182" t="n">
-        <v>2098800</v>
+        <v>3226800</v>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq_scout</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_sportline</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>589</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -8080,40 +8098,40 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Kodiaq Sportline</t>
+          <t>Octavia Hockey Edition</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>2989000</v>
+        <v>989000</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq_sportline/</t>
+          <t>https://avto-trend21.ru/auto/skoda/octavia_hockey_edition/</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2989000</t>
+          <t>989000</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq_sportline/</t>
+          <t>https://avto-trend21.ru/auto/skoda/octavia_hockey_edition/</t>
         </is>
       </c>
       <c r="H183" t="n">
-        <v>3226800</v>
+        <v>1694340</v>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq_sportline</t>
+          <t>https://auto-shop-21.ru/skoda/octavia_hockey_edition</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -8123,40 +8141,40 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Octavia Hockey Edition</t>
+          <t>Octavia New</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>989000</v>
+        <v>840000</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/octavia_hockey_edition/</t>
+          <t>https://avto-trend21.ru/auto/skoda/octavia/</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>989000</t>
+          <t>840000</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/octavia_hockey_edition/</t>
+          <t>https://avto-trend21.ru/auto/skoda/octavia/</t>
         </is>
       </c>
       <c r="H184" t="n">
-        <v>1694340</v>
+        <v>1567800</v>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/octavia_hockey_edition</t>
+          <t>https://auto-shop-21.ru/skoda/octavia</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -8166,40 +8184,40 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Octavia New</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>840000</v>
+        <v>520000</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/octavia/</t>
+          <t>https://avto-trend21.ru/auto/skoda/rapid/</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>840000</t>
+          <t>520000</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/octavia/</t>
+          <t>https://avto-trend21.ru/auto/skoda/rapid/</t>
         </is>
       </c>
       <c r="H185" t="n">
-        <v>1567800</v>
+        <v>961200</v>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/octavia</t>
+          <t>https://auto-shop-21.ru/skoda/rapid</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -8209,40 +8227,40 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Rapid</t>
+          <t>Superb</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>520000</v>
+        <v>1222000</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/rapid/</t>
+          <t>https://avto-trend21.ru/auto/skoda/superb/</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>520000</t>
+          <t>1222000</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/rapid/</t>
+          <t>https://avto-trend21.ru/auto/skoda/superb/</t>
         </is>
       </c>
       <c r="H186" t="n">
-        <v>961200</v>
+        <v>2031600</v>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/rapid</t>
+          <t>https://auto-shop-21.ru/skoda/superb</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -8252,83 +8270,75 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Superb</t>
+          <t>Superb Combi</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>1222000</v>
+        <v>2089000</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/superb/</t>
+          <t>https://avto-trend21.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>1222000</t>
+          <t>2089000</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/superb/</t>
+          <t>https://avto-trend21.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
       <c r="H187" t="n">
-        <v>2031600</v>
+        <v>2290200</v>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/superb</t>
+          <t>https://auto-shop-21.ru/skoda/superb_combi</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Superb Combi</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>2089000</v>
+        <v>1749300</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/superb_combi/</t>
+          <t>https://avto-trend21.ru/auto/solaris/hc/</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2089000</t>
+          <t>1749300</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/superb_combi/</t>
-        </is>
-      </c>
-      <c r="H188" t="n">
-        <v>2290200</v>
-      </c>
-      <c r="I188" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/skoda/superb_combi</t>
+          <t>https://avto-trend21.ru/auto/solaris/hc/</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -8338,32 +8348,32 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>1749300</v>
+        <v>1407000</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/hc/</t>
+          <t>https://avto-trend21.ru/auto/solaris/hs/</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>1749300</t>
+          <t>1407000</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/hc/</t>
+          <t>https://avto-trend21.ru/auto/solaris/hs/</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -8373,32 +8383,32 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>KRS</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>1407000</v>
+        <v>1426600</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/hs/</t>
+          <t>https://avto-trend21.ru/auto/solaris/krs/</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>1407000</t>
+          <t>1426600</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/hs/</t>
+          <t>https://avto-trend21.ru/auto/solaris/krs/</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -8408,67 +8418,65 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>KRS</t>
+          <t>KRX</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>1426600</v>
+        <v>1444800</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/krs/</t>
+          <t>https://avto-trend21.ru/auto/solaris/krx/</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>1426600</t>
+          <t>1444800</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/krs/</t>
+          <t>https://avto-trend21.ru/auto/solaris/krx/</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>KRX</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>1444800</v>
+        <v>2459400</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/krx/</t>
-        </is>
-      </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>1444800</t>
-        </is>
-      </c>
-      <c r="G192" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/solaris/krx/</t>
+          <t>https://auto-shop-21.ru/tank/300</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>2459400</v>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/tank/300</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -8478,63 +8486,73 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>2459400</v>
+        <v>3779400</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/tank/300</t>
+          <t>https://auto-shop-21.ru/tank/500</t>
         </is>
       </c>
       <c r="H193" t="n">
-        <v>2459400</v>
+        <v>3779400</v>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/tank/300</t>
+          <t>https://auto-shop-21.ru/tank/500</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>3779400</v>
+        <v>975000</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/tank/500</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/jetta/</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>975000</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
       <c r="H194" t="n">
-        <v>3779400</v>
+        <v>976200</v>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/tank/500</t>
+          <t>https://auto-shop-21.ru/volkswagen/jetta</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>649</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -8544,40 +8562,40 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Passat</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>975000</v>
+        <v>1050000</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/jetta/</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>975000</t>
+          <t>1050000</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/jetta/</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
       <c r="H195" t="n">
-        <v>976200</v>
+        <v>1593600</v>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/volkswagen/jetta</t>
+          <t>https://auto-shop-21.ru/volkswagen/passat</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -8587,40 +8605,40 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Passat</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>1050000</v>
+        <v>730900</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/passat/</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>1050000</t>
+          <t>730900</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/passat/</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
       <c r="H196" t="n">
-        <v>1593600</v>
+        <v>972540</v>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/volkswagen/passat</t>
+          <t>https://auto-shop-21.ru/volkswagen/polo</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -8630,40 +8648,40 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>Taos</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>730900</v>
+        <v>1399900</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/polo/</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>730900</t>
+          <t>1399900</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/polo/</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
       <c r="H197" t="n">
-        <v>972540</v>
+        <v>1697340</v>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/volkswagen/polo</t>
+          <t>https://auto-shop-21.ru/volkswagen/taos</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>658</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -8673,116 +8691,116 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Taos</t>
+          <t>Tiguan New</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>1399900</v>
+        <v>1579900</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/taos/</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>1399900</t>
+          <t>1579900</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/taos/</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
       <c r="H198" t="n">
-        <v>1697340</v>
+        <v>2025540</v>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/volkswagen/taos</t>
+          <t>https://auto-shop-21.ru/volkswagen/tiguan</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>675</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>XCite</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Tiguan New</t>
+          <t>X-Cross 7</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>1579900</v>
+        <v>2495500</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/tiguan/</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>1579900</t>
-        </is>
-      </c>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/tiguan/</t>
-        </is>
-      </c>
-      <c r="H199" t="n">
-        <v>2025540</v>
-      </c>
-      <c r="I199" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/volkswagen/tiguan</t>
+          <t>https://alyans-auto.ru/auto/auto_16117.html</t>
+        </is>
+      </c>
+      <c r="J199" t="n">
+        <v>2495500</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_16117.html</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>672</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>XCite</t>
+          <t>Zotye</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>X-Cross 7</t>
+          <t>Coupa</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>2495500</v>
+        <v>713760</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_15780.html</t>
-        </is>
-      </c>
-      <c r="J200" t="n">
-        <v>2495500</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_15780.html</t>
+          <t>https://auto-shop-21.ru/zotye/coupa</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>989600</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>713760</v>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/zotye/coupa</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>674</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -8792,74 +8810,31 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Coupa</t>
+          <t>T600</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>713760</v>
+        <v>582960</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/zotye/coupa</t>
+          <t>https://auto-shop-21.ru/zotye/t600</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>989600</t>
+          <t>771600</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/zotye/coupa/</t>
+          <t>https://avto-trend21.ru/auto/zotye/t600/</t>
         </is>
       </c>
       <c r="H201" t="n">
-        <v>713760</v>
+        <v>582960</v>
       </c>
       <c r="I201" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/zotye/coupa</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>674</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>Zotye</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>T600</t>
-        </is>
-      </c>
-      <c r="D202" t="n">
-        <v>582960</v>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/zotye/t600</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>771600</t>
-        </is>
-      </c>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/zotye/t600/</t>
-        </is>
-      </c>
-      <c r="H202" t="n">
-        <v>582960</v>
-      </c>
-      <c r="I202" t="inlineStr">
         <is>
           <t>https://auto-shop-21.ru/zotye/t600</t>
         </is>

--- a/xlsx/cheboksari.xlsx
+++ b/xlsx/cheboksari.xlsx
@@ -1189,7 +1189,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_13671.html</t>
+          <t>https://alyans-auto.ru/auto/auto_14550.html</t>
         </is>
       </c>
       <c r="J18" t="n">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_13671.html</t>
+          <t>https://alyans-auto.ru/auto/auto_14550.html</t>
         </is>
       </c>
     </row>
@@ -2802,6 +2802,14 @@
           <t>https://auto-shop-21.ru/geely/atlas_pro</t>
         </is>
       </c>
+      <c r="J56" t="n">
+        <v>2918990</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_16457.html</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3412,7 +3420,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16420.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16409.html</t>
         </is>
       </c>
       <c r="J71" t="n">
@@ -3420,7 +3428,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16420.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16409.html</t>
         </is>
       </c>
     </row>
@@ -5595,11 +5603,11 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>931000</v>
+        <v>1008500</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16313.html</t>
+          <t>https://alyans-auto.ru/auto/auto_15718.html</t>
         </is>
       </c>
     </row>
@@ -7213,7 +7221,7 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16261.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16263.html</t>
         </is>
       </c>
     </row>

--- a/xlsx/cheboksari.xlsx
+++ b/xlsx/cheboksari.xlsx
@@ -831,7 +831,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_15649.html</t>
+          <t>https://alyans-auto.ru/auto/auto_15650.html</t>
         </is>
       </c>
       <c r="J10" t="n">
@@ -839,7 +839,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_15649.html</t>
+          <t>https://alyans-auto.ru/auto/auto_15650.html</t>
         </is>
       </c>
     </row>
@@ -2802,14 +2802,6 @@
           <t>https://auto-shop-21.ru/geely/atlas_pro</t>
         </is>
       </c>
-      <c r="J56" t="n">
-        <v>2918990</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_16457.html</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2897,11 +2889,11 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>2979990</v>
+        <v>2639990</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_15703.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16500.html</t>
         </is>
       </c>
     </row>
@@ -3193,6 +3185,14 @@
           <t>https://auto-shop-21.ru/geely/okavango</t>
         </is>
       </c>
+      <c r="J65" t="n">
+        <v>3479990</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_16501.html</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3750,7 +3750,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16407.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16430.html</t>
         </is>
       </c>
     </row>
@@ -3836,7 +3836,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16415.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16361.html</t>
         </is>
       </c>
     </row>
@@ -4318,19 +4318,19 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2665500</v>
+        <v>2600000</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_8940.html</t>
+          <t>https://alyans-auto.ru/auto/auto_8710.html</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>2665500</v>
+        <v>2600000</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_8940.html</t>
+          <t>https://alyans-auto.ru/auto/auto_8710.html</t>
         </is>
       </c>
     </row>
@@ -5419,7 +5419,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_15586.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16113.html</t>
         </is>
       </c>
       <c r="J120" t="n">
@@ -5427,7 +5427,7 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_15586.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16113.html</t>
         </is>
       </c>
     </row>
@@ -5603,11 +5603,11 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>1008500</v>
+        <v>927500</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_15718.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16524.html</t>
         </is>
       </c>
     </row>

--- a/xlsx/cheboksari.xlsx
+++ b/xlsx/cheboksari.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K201"/>
+  <dimension ref="A1:K200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,59 +667,77 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2415990</v>
+        <v>2305990</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_15348.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16629.html</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>2415990</v>
+        <v>2305990</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_15348.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16629.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>119</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Belgee</t>
+          <t>Changan</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>Alsvin</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3234990</v>
+        <v>1050000</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16112.html</t>
+          <t>https://auto-shop-21.ru/changan/alsvin</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1620000</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/changan/alsvin/</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1050000</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/changan/alsvin</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>3234990</v>
+        <v>1750000</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16112.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16005.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>116</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -729,48 +747,40 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Alsvin</t>
+          <t>CS35</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1050000</v>
+        <v>527940</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/changan/alsvin</t>
+          <t>https://auto-shop-21.ru/changan/cs35</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1620000</t>
+          <t>732900</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/changan/alsvin/</t>
+          <t>https://avto-trend21.ru/auto/changan/cs35/</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1050000</v>
+        <v>527940</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/changan/alsvin</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
-        <v>1750000</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_16005.html</t>
+          <t>https://auto-shop-21.ru/changan/cs35</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>115</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -780,40 +790,30 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CS35</t>
+          <t>CS35 Plus</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>527940</v>
+        <v>2399900</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/changan/cs35</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>732900</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/changan/cs35/</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>527940</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/changan/cs35</t>
+          <t>https://alyans-auto.ru/auto/auto_15682.html</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>2399900</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_15682.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>122</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -823,30 +823,40 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CS35 Plus</t>
+          <t>CS35 Plus New</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2399900</v>
+        <v>1403940</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_15650.html</t>
-        </is>
-      </c>
-      <c r="J10" t="n">
-        <v>2399900</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_15650.html</t>
+          <t>https://auto-shop-21.ru/changan/cs35_plus</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2119900</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/changan/cs35_plus/</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1403940</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/changan/cs35_plus</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>117</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -856,40 +866,40 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CS35 Plus New</t>
+          <t>CS55</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1403940</v>
+        <v>759900</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/changan/cs35_plus</t>
+          <t>https://avto-trend21.ru/auto/changan/cs55/</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2119900</t>
+          <t>759900</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/changan/cs35_plus/</t>
+          <t>https://avto-trend21.ru/auto/changan/cs55/</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1403940</v>
+        <v>1313940</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/changan/cs35_plus</t>
+          <t>https://auto-shop-21.ru/changan/cs55</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>121</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -899,40 +909,48 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CS55</t>
+          <t>CS55 Plus</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>759900</v>
+        <v>1577940</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/changan/cs55/</t>
+          <t>https://auto-shop-21.ru/changan/cs55_plus</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>759900</t>
+          <t>2449900</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/changan/cs55/</t>
+          <t>https://avto-trend21.ru/auto/changan/cs55_plus/</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1313940</v>
+        <v>1577940</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/changan/cs55</t>
+          <t>https://auto-shop-21.ru/changan/cs55_plus</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>2749900</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_16807.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>118</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -942,48 +960,40 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CS55 Plus</t>
+          <t>CS75FL</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1577940</v>
+        <v>1439900</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/changan/cs55_plus</t>
+          <t>https://avto-trend21.ru/auto/changan/cs75fl/</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2449900</t>
+          <t>1439900</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/changan/cs55_plus/</t>
+          <t>https://avto-trend21.ru/auto/changan/cs75fl/</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1577940</v>
+        <v>1481940</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/changan/cs55_plus</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v>2749900</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_15911.html</t>
+          <t>https://auto-shop-21.ru/changan/cs75fl</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>124</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -993,40 +1003,40 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CS75FL</t>
+          <t>CS85 Coupe</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1439900</v>
+        <v>2225940</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/changan/cs75fl/</t>
+          <t>https://auto-shop-21.ru/changan/cs85_coupe</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1439900</t>
+          <t>2369900</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/changan/cs75fl/</t>
+          <t>https://avto-trend21.ru/auto/changan/cs85_coupe/</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1481940</v>
+        <v>2225940</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/changan/cs75fl</t>
+          <t>https://auto-shop-21.ru/changan/cs85_coupe</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>125</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1036,40 +1046,48 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CS85 Coupe</t>
+          <t>CS95</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2225940</v>
+        <v>2549940</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/changan/cs85_coupe</t>
+          <t>https://auto-shop-21.ru/changan/cs95</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2369900</t>
+          <t>4149900</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/changan/cs85_coupe/</t>
+          <t>https://avto-trend21.ru/auto/changan/cs95/</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>2225940</v>
+        <v>2549940</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/changan/cs85_coupe</t>
+          <t>https://auto-shop-21.ru/changan/cs95</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>4199900</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_14495.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>128</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1079,48 +1097,48 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CS95</t>
+          <t>Eado Plus</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2549940</v>
+        <v>1397940</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/changan/cs95</t>
+          <t>https://auto-shop-21.ru/changan/eado_plus</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4149900</t>
+          <t>2129900</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/changan/cs95/</t>
+          <t>https://avto-trend21.ru/auto/changan/eado_plus/</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>2549940</v>
+        <v>1397940</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/changan/cs95</t>
+          <t>https://auto-shop-21.ru/changan/eado_plus</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>4199900</v>
+        <v>2399900</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_14495.html</t>
+          <t>https://alyans-auto.ru/auto/auto_15157.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>141</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1130,48 +1148,30 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Eado Plus</t>
+          <t>Hunter Plus</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1397940</v>
+        <v>3529900</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/changan/eado_plus</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2129900</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/changan/eado_plus/</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>1397940</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/changan/eado_plus</t>
+          <t>https://alyans-auto.ru/auto/auto_15642.html</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>2399900</v>
+        <v>3529900</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_14525.html</t>
+          <t>https://alyans-auto.ru/auto/auto_15642.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>130</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1181,30 +1181,40 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Hunter Plus</t>
+          <t>Lamore</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3529900</v>
+        <v>2589900</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_14550.html</t>
+          <t>https://avto-trend21.ru/auto/changan/lamore/</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2589900</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/changan/lamore/</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>3529900</v>
+        <v>2789900</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_14550.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16008.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>120</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1214,40 +1224,48 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Lamore</t>
+          <t>UNI-K</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2589900</v>
+        <v>2183940</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/changan/lamore/</t>
+          <t>https://auto-shop-21.ru/changan/uni-k</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2589900</t>
+          <t>3449900</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/changan/lamore/</t>
+          <t>https://avto-trend21.ru/auto/changan/uni-k/</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2183940</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/changan/uni-k</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>2789900</v>
+        <v>4269900</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_12060.html</t>
+          <t>https://alyans-auto.ru/auto/auto_14095.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>127</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1257,41 +1275,23 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>UNI-K</t>
+          <t>UNI-S</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2183940</v>
+        <v>2749900</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/changan/uni-k</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3449900</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/changan/uni-k/</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>2183940</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/changan/uni-k</t>
+          <t>https://alyans-auto.ru/auto/auto_16808.html</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>4269900</v>
+        <v>2749900</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_14095.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16808.html</t>
         </is>
       </c>
     </row>
@@ -2802,6 +2802,14 @@
           <t>https://auto-shop-21.ru/geely/atlas_pro</t>
         </is>
       </c>
+      <c r="J56" t="n">
+        <v>2798990</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_16771.html</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2957,19 +2965,19 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2359990</v>
+        <v>2119990</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16044.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16732.html</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>2359990</v>
+        <v>2119990</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16044.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16732.html</t>
         </is>
       </c>
     </row>
@@ -3144,14 +3152,6 @@
           <t>https://auto-shop-21.ru/geely/monjaro</t>
         </is>
       </c>
-      <c r="J64" t="n">
-        <v>4574990</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_16160.html</t>
-        </is>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3402,7 +3402,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3412,30 +3412,40 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>F7 New</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>3499000</v>
+        <v>1219000</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16409.html</t>
-        </is>
-      </c>
-      <c r="J71" t="n">
-        <v>3499000</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_16409.html</t>
+          <t>https://avto-trend21.ru/auto/haval/f7/</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1219000</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/haval/f7/</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1469400</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/haval/f7</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3445,40 +3455,30 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>F7 New</t>
+          <t>F7x</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1219000</v>
+        <v>3399000</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/f7/</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>1219000</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/haval/f7/</t>
-        </is>
-      </c>
-      <c r="H72" t="n">
-        <v>1469400</v>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/haval/f7</t>
+          <t>https://alyans-auto.ru/auto/auto_12214.html</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
+        <v>3399000</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_12214.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3488,30 +3488,40 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>F7x</t>
+          <t>F7x New</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>3399000</v>
+        <v>1269000</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_12214.html</t>
-        </is>
-      </c>
-      <c r="J73" t="n">
-        <v>3399000</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_12214.html</t>
+          <t>https://avto-trend21.ru/auto/haval/f7x/</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1269000</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/haval/f7x/</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1469400</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/haval/f7x</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3521,40 +3531,40 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>F7x New</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1269000</v>
+        <v>676800</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/f7x/</t>
+          <t>https://auto-shop-21.ru/haval/h2</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>1269000</t>
+          <t>878000</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/f7x/</t>
+          <t>https://avto-trend21.ru/auto/haval/h2/</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>1469400</v>
+        <v>676800</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/f7x</t>
+          <t>https://auto-shop-21.ru/haval/h2</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3564,40 +3574,30 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>676800</v>
+        <v>917400</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/h2</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>878000</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/haval/h2/</t>
+          <t>https://auto-shop-21.ru/haval/h5</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>676800</v>
+        <v>917400</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/h2</t>
+          <t>https://auto-shop-21.ru/haval/h5</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3607,30 +3607,40 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>H6</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>917400</v>
+        <v>688800</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/h5</t>
+          <t>https://auto-shop-21.ru/haval/h6</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>898000</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/haval/h6/</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>917400</v>
+        <v>688800</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/h5</t>
+          <t>https://auto-shop-21.ru/haval/h6</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3640,40 +3650,30 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>H6</t>
+          <t>H9</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>688800</v>
+        <v>2459400</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/h6</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>898000</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/haval/h6/</t>
+          <t>https://auto-shop-21.ru/haval/h9</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>688800</v>
+        <v>2459400</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/h6</t>
+          <t>https://auto-shop-21.ru/haval/h9</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3683,30 +3683,48 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>H9</t>
+          <t>Jolion</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>2459400</v>
+        <v>689900</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/h9</t>
+          <t>https://avto-trend21.ru/auto/haval/jolion_1/</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>689900</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/haval/jolion_1/</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>2459400</v>
+        <v>1169400</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/h9</t>
+          <t>https://auto-shop-21.ru/haval/jolion_1</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
+        <v>2449000</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_15212.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3716,48 +3734,40 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Jolion</t>
+          <t>Jolion New</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>689900</v>
+        <v>990000</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/jolion_1/</t>
+          <t>https://avto-trend21.ru/auto/haval/jolion/</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>689900</t>
+          <t>990000</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/jolion_1/</t>
+          <t>https://avto-trend21.ru/auto/haval/jolion/</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>1169400</v>
+        <v>1199400</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/jolion_1</t>
-        </is>
-      </c>
-      <c r="J79" t="n">
-        <v>2299000</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_16430.html</t>
+          <t>https://auto-shop-21.ru/haval/jolion</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3767,83 +3777,75 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Jolion New</t>
+          <t>M6</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>990000</v>
+        <v>736000</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/jolion/</t>
+          <t>https://avto-trend21.ru/auto/haval/m6/</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>990000</t>
+          <t>736000</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/jolion/</t>
-        </is>
-      </c>
-      <c r="H80" t="n">
-        <v>1199400</v>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/haval/jolion</t>
+          <t>https://avto-trend21.ru/auto/haval/m6/</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>M6</t>
+          <t>Creta New</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>736000</v>
+        <v>864000</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/m6/</t>
+          <t>https://avto-trend21.ru/auto/hyundai/creta/</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>736000</t>
+          <t>864000</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/m6/</t>
-        </is>
-      </c>
-      <c r="J81" t="n">
-        <v>2299000</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_16361.html</t>
+          <t>https://avto-trend21.ru/auto/hyundai/creta/</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1115400</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/hyundai/creta</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3853,40 +3855,40 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Creta New</t>
+          <t>Elantra New</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>864000</v>
+        <v>1069000</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/creta/</t>
+          <t>https://avto-trend21.ru/auto/hyundai/elantra/</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>864000</t>
+          <t>1069000</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/creta/</t>
+          <t>https://avto-trend21.ru/auto/hyundai/elantra/</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>1115400</v>
+        <v>1289400</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/hyundai/creta</t>
+          <t>https://auto-shop-21.ru/hyundai/elantra</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3896,40 +3898,40 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Elantra New</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1069000</v>
+        <v>619000</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/elantra/</t>
+          <t>https://avto-trend21.ru/auto/hyundai/solaris/</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>1069000</t>
+          <t>619000</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/elantra/</t>
+          <t>https://avto-trend21.ru/auto/hyundai/solaris/</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>1289400</v>
+        <v>844800</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/hyundai/elantra</t>
+          <t>https://auto-shop-21.ru/hyundai/solaris</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3939,40 +3941,40 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Sonata</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>619000</v>
+        <v>1370000</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/solaris/</t>
+          <t>https://avto-trend21.ru/auto/hyundai/sonata/</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>619000</t>
+          <t>1370000</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/solaris/</t>
+          <t>https://avto-trend21.ru/auto/hyundai/sonata/</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>844800</v>
+        <v>1661400</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/hyundai/solaris</t>
+          <t>https://auto-shop-21.ru/hyundai/sonata</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3982,83 +3984,91 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Sonata</t>
+          <t>Tucson New</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1370000</v>
+        <v>1394000</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/sonata/</t>
+          <t>https://avto-trend21.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>1370000</t>
+          <t>1394000</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/sonata/</t>
+          <t>https://avto-trend21.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>1661400</v>
+        <v>1649400</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/hyundai/sonata</t>
+          <t>https://auto-shop-21.ru/hyundai/tucson</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Tucson New</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1394000</v>
+        <v>1277400</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/tucson/</t>
+          <t>https://auto-shop-21.ru/jac/j7</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1394000</t>
+          <t>1799000</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/tucson/</t>
+          <t>https://avto-trend21.ru/auto/jac/j7/</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>1649400</v>
+        <v>1277400</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/hyundai/tucson</t>
+          <t>https://auto-shop-21.ru/jac/j7</t>
+        </is>
+      </c>
+      <c r="J86" t="n">
+        <v>2099000</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_8435.html</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4068,48 +4078,30 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>JS3</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1277400</v>
+        <v>1849000</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jac/j7</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>1799000</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/jac/j7/</t>
-        </is>
-      </c>
-      <c r="H87" t="n">
-        <v>1277400</v>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/jac/j7</t>
+          <t>https://alyans-auto.ru/auto/auto_16272.html</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>2099000</v>
+        <v>1849000</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_8435.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16272.html</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4119,30 +4111,30 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>JS3</t>
+          <t>JS6</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1849000</v>
+        <v>2399000</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16272.html</t>
+          <t>https://alyans-auto.ru/auto/auto_13473.html</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>1849000</v>
+        <v>2399000</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16272.html</t>
+          <t>https://alyans-auto.ru/auto/auto_13473.html</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4152,30 +4144,40 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>JS6</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>2399000</v>
+        <v>439000</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_13473.html</t>
-        </is>
-      </c>
-      <c r="J89" t="n">
-        <v>2399000</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_13473.html</t>
+          <t>https://avto-trend21.ru/auto/jac/s3/</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>439000</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/jac/s3/</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>839400</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/jac/s3</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4185,40 +4187,40 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>439000</v>
+        <v>683400</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jac/s3/</t>
+          <t>https://auto-shop-21.ru/jac/s5</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>439000</t>
+          <t>687000</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jac/s3/</t>
+          <t>https://avto-trend21.ru/auto/jac/s5/</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>839400</v>
+        <v>683400</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jac/s3</t>
+          <t>https://auto-shop-21.ru/jac/s5</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4228,40 +4230,40 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>683400</v>
+        <v>1067400</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jac/s5</t>
+          <t>https://auto-shop-21.ru/jac/s7</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>687000</t>
+          <t>1209000</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jac/s5/</t>
+          <t>https://avto-trend21.ru/auto/jac/s7/</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>683400</v>
+        <v>1067400</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jac/s5</t>
+          <t>https://auto-shop-21.ru/jac/s7</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4271,40 +4273,30 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1067400</v>
+        <v>2665500</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jac/s7</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>1209000</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/jac/s7/</t>
-        </is>
-      </c>
-      <c r="H92" t="n">
-        <v>1067400</v>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/jac/s7</t>
+          <t>https://alyans-auto.ru/auto/auto_8940.html</t>
+        </is>
+      </c>
+      <c r="J92" t="n">
+        <v>2665500</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_8940.html</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4314,63 +4306,63 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>T8 Pro</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2600000</v>
+        <v>3199000</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_8710.html</t>
+          <t>https://alyans-auto.ru/auto/auto_15629.html</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>2600000</v>
+        <v>3199000</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_8710.html</t>
+          <t>https://alyans-auto.ru/auto/auto_15629.html</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>T8 Pro</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>3199000</v>
+        <v>2549900</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_15628.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16800.html</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>3199000</v>
+        <v>2549900</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_15628.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16800.html</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -4380,63 +4372,65 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>J8</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>3149900</v>
+        <v>4049000</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_15237.html</t>
+          <t>https://alyans-auto.ru/auto/auto_15527.html</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>3149900</v>
+        <v>4049000</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_15237.html</t>
+          <t>https://alyans-auto.ru/auto/auto_15527.html</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>J8</t>
+          <t>Dashing</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>4399000</v>
+        <v>1399900</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_14544.html</t>
-        </is>
-      </c>
-      <c r="J96" t="n">
-        <v>4399000</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_14544.html</t>
+          <t>https://avto-trend21.ru/auto/jetour/dashing/</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1399900</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/jetour/dashing/</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -4446,32 +4440,32 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Dashing</t>
+          <t>X70 Plus</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1399900</v>
+        <v>1809900</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/dashing/</t>
+          <t>https://avto-trend21.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>1399900</t>
+          <t>1809900</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/dashing/</t>
+          <t>https://avto-trend21.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -4481,67 +4475,75 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>X70 Plus</t>
+          <t>X90 Plus</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1809900</v>
+        <v>2149900</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/x70_plus/</t>
+          <t>https://avto-trend21.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>1809900</t>
+          <t>2149900</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/x70_plus/</t>
+          <t>https://avto-trend21.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>X90 Plus</t>
+          <t>VA3</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>2149900</v>
+        <v>890000</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/x90_plus/</t>
+          <t>https://avto-trend21.ru/auto/jetta/va3/</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2149900</t>
+          <t>890000</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/x90_plus/</t>
+          <t>https://avto-trend21.ru/auto/jetta/va3/</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1232400</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/jetta/va3</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -4551,40 +4553,40 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>VA3</t>
+          <t>VS5</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>890000</v>
+        <v>1190000</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/va3/</t>
+          <t>https://avto-trend21.ru/auto/jetta/vs5/</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>890000</t>
+          <t>1190000</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/va3/</t>
+          <t>https://avto-trend21.ru/auto/jetta/vs5/</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>1232400</v>
+        <v>1477200</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jetta/va3</t>
+          <t>https://auto-shop-21.ru/jetta/vs5</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -4594,83 +4596,83 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>VS5</t>
+          <t>VS7</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1190000</v>
+        <v>1349000</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/vs5/</t>
+          <t>https://avto-trend21.ru/auto/jetta/vs7/</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>1190000</t>
+          <t>1349000</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/vs5/</t>
+          <t>https://avto-trend21.ru/auto/jetta/vs7/</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>1477200</v>
+        <v>1759800</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jetta/vs5</t>
+          <t>https://auto-shop-21.ru/jetta/vs7</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>VS7</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1349000</v>
+        <v>1299000</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/vs7/</t>
+          <t>https://avto-trend21.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>1349000</t>
+          <t>1299000</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/vs7/</t>
+          <t>https://avto-trend21.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
       <c r="H102" t="n">
-        <v>1759800</v>
+        <v>1317000</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jetta/vs7</t>
+          <t>https://auto-shop-21.ru/kaiyi/e5</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4680,40 +4682,40 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>X3</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1299000</v>
+        <v>1342800</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kaiyi/e5/</t>
+          <t>https://auto-shop-21.ru/kaiyi/x3</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>1299000</t>
+          <t>1417650</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kaiyi/e5/</t>
+          <t>https://avto-trend21.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
       <c r="H103" t="n">
-        <v>1317000</v>
+        <v>1342800</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/e5</t>
+          <t>https://auto-shop-21.ru/kaiyi/x3</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4723,40 +4725,40 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>X3</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>1342800</v>
+        <v>1508940</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x3</t>
+          <t>https://auto-shop-21.ru/kaiyi/x3_pro</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>1417650</t>
+          <t>1790000</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kaiyi/x3/</t>
+          <t>https://avto-trend21.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
       <c r="H104" t="n">
-        <v>1342800</v>
+        <v>1508940</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x3</t>
+          <t>https://auto-shop-21.ru/kaiyi/x3_pro</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -4766,83 +4768,83 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>X7 Kunlun</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1508940</v>
+        <v>1798740</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x3_pro</t>
+          <t>https://auto-shop-21.ru/kaiyi/x7_kunlun</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>1790000</t>
+          <t>2197900</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://avto-trend21.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
       <c r="H105" t="n">
-        <v>1508940</v>
+        <v>1798740</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x3_pro</t>
+          <t>https://auto-shop-21.ru/kaiyi/x7_kunlun</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>X7 Kunlun</t>
+          <t>Ceed</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1798740</v>
+        <v>713000</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x7_kunlun</t>
+          <t>https://avto-trend21.ru/auto/kia/ceed/</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2197900</t>
+          <t>713000</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://avto-trend21.ru/auto/kia/ceed/</t>
         </is>
       </c>
       <c r="H106" t="n">
-        <v>1798740</v>
+        <v>1346940</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x7_kunlun</t>
+          <t>https://auto-shop-21.ru/kia/ceed</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4852,40 +4854,40 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Ceed</t>
+          <t>Ceed SW</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>713000</v>
+        <v>723000</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/ceed/</t>
+          <t>https://avto-trend21.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>713000</t>
+          <t>723000</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/ceed/</t>
+          <t>https://avto-trend21.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
       <c r="H107" t="n">
-        <v>1346940</v>
+        <v>1388940</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/ceed</t>
+          <t>https://auto-shop-21.ru/kia/ceed_sw</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4895,40 +4897,40 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Ceed SW</t>
+          <t>Cerato</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>723000</v>
+        <v>850000</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/ceed_sw/</t>
+          <t>https://avto-trend21.ru/auto/kia/cerato/</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>723000</t>
+          <t>850000</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/ceed_sw/</t>
+          <t>https://avto-trend21.ru/auto/kia/cerato/</t>
         </is>
       </c>
       <c r="H108" t="n">
-        <v>1388940</v>
+        <v>1232940</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/ceed_sw</t>
+          <t>https://auto-shop-21.ru/kia/cerato</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4938,40 +4940,40 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Cerato</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>850000</v>
+        <v>1149000</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/cerato/</t>
+          <t>https://avto-trend21.ru/auto/kia/k5/</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>850000</t>
+          <t>1149000</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/cerato/</t>
+          <t>https://avto-trend21.ru/auto/kia/k5/</t>
         </is>
       </c>
       <c r="H109" t="n">
-        <v>1232940</v>
+        <v>1640940</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/cerato</t>
+          <t>https://auto-shop-21.ru/kia/k5</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4981,40 +4983,40 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>Picanto</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>1149000</v>
+        <v>619900</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/k5/</t>
+          <t>https://avto-trend21.ru/auto/kia/picanto/</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>1149000</t>
+          <t>619900</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/k5/</t>
+          <t>https://avto-trend21.ru/auto/kia/picanto/</t>
         </is>
       </c>
       <c r="H110" t="n">
-        <v>1640940</v>
+        <v>800940</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/k5</t>
+          <t>https://auto-shop-21.ru/kia/picanto</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -5024,40 +5026,40 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Picanto</t>
+          <t>ProCeed</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>619900</v>
+        <v>1121940</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/picanto/</t>
+          <t>https://auto-shop-21.ru/kia/proceed</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>619900</t>
+          <t>1134700</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/picanto/</t>
+          <t>https://avto-trend21.ru/auto/kia/proceed/</t>
         </is>
       </c>
       <c r="H111" t="n">
-        <v>800940</v>
+        <v>1121940</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/picanto</t>
+          <t>https://auto-shop-21.ru/kia/proceed</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -5067,40 +5069,40 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>ProCeed</t>
+          <t>Rio</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1121940</v>
+        <v>564000</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/proceed</t>
+          <t>https://avto-trend21.ru/auto/kia/rio/</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>1134700</t>
+          <t>564000</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/proceed/</t>
+          <t>https://avto-trend21.ru/auto/kia/rio/</t>
         </is>
       </c>
       <c r="H112" t="n">
-        <v>1121940</v>
+        <v>860940</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/proceed</t>
+          <t>https://auto-shop-21.ru/kia/rio</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -5110,40 +5112,40 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Rio</t>
+          <t>Rio X</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>564000</v>
+        <v>650000</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio/</t>
+          <t>https://avto-trend21.ru/auto/kia/rio_x/</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>564000</t>
+          <t>650000</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio/</t>
+          <t>https://avto-trend21.ru/auto/kia/rio_x/</t>
         </is>
       </c>
       <c r="H113" t="n">
-        <v>860940</v>
+        <v>944940</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/rio</t>
+          <t>https://auto-shop-21.ru/kia/rio_x</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -5153,40 +5155,40 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Rio X</t>
+          <t>Rio X-Line</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>650000</v>
+        <v>557000</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio_x/</t>
+          <t>https://avto-trend21.ru/auto/kia/rio_x-line/</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>650000</t>
+          <t>557000</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio_x/</t>
+          <t>https://avto-trend21.ru/auto/kia/rio_x-line/</t>
         </is>
       </c>
       <c r="H114" t="n">
-        <v>944940</v>
+        <v>563940</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/rio_x</t>
+          <t>https://auto-shop-21.ru/kia/rio_x-line</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -5196,40 +5198,40 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Rio X-Line</t>
+          <t>Seltos</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>557000</v>
+        <v>790000</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio_x-line/</t>
+          <t>https://avto-trend21.ru/auto/kia/seltos/</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>557000</t>
+          <t>790000</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio_x-line/</t>
+          <t>https://avto-trend21.ru/auto/kia/seltos/</t>
         </is>
       </c>
       <c r="H115" t="n">
-        <v>563940</v>
+        <v>1175940</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/rio_x-line</t>
+          <t>https://auto-shop-21.ru/kia/seltos</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -5239,40 +5241,40 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Seltos</t>
+          <t>Soul</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>790000</v>
+        <v>638000</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/seltos/</t>
+          <t>https://avto-trend21.ru/auto/kia/soul/</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>790000</t>
+          <t>638000</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/seltos/</t>
+          <t>https://avto-trend21.ru/auto/kia/soul/</t>
         </is>
       </c>
       <c r="H116" t="n">
-        <v>1175940</v>
+        <v>1097940</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/seltos</t>
+          <t>https://auto-shop-21.ru/kia/soul</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -5282,40 +5284,40 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Soul</t>
+          <t>Sportage 5</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>638000</v>
+        <v>1046000</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/soul/</t>
+          <t>https://avto-trend21.ru/auto/kia/sportage/</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>638000</t>
+          <t>1046000</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/soul/</t>
+          <t>https://avto-trend21.ru/auto/kia/sportage/</t>
         </is>
       </c>
       <c r="H117" t="n">
-        <v>1097940</v>
+        <v>1709940</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/soul</t>
+          <t>https://auto-shop-21.ru/kia/sportage</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -5325,83 +5327,73 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Sportage 5</t>
+          <t>XCeed</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>1046000</v>
+        <v>964900</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/sportage/</t>
+          <t>https://avto-trend21.ru/auto/kia/xceed/</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>1046000</t>
+          <t>964900</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/sportage/</t>
+          <t>https://avto-trend21.ru/auto/kia/xceed/</t>
         </is>
       </c>
       <c r="H118" t="n">
-        <v>1709940</v>
+        <v>1580940</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/sportage</t>
+          <t>https://auto-shop-21.ru/kia/xceed</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>701</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>XCeed</t>
+          <t>4x4 3 двери</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>964900</v>
+        <v>977500</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/xceed/</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>964900</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/kia/xceed/</t>
-        </is>
-      </c>
-      <c r="H119" t="n">
-        <v>1580940</v>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/kia/xceed</t>
+          <t>https://alyans-auto.ru/auto/auto_16113.html</t>
+        </is>
+      </c>
+      <c r="J119" t="n">
+        <v>977500</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_16113.html</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>701</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -5411,30 +5403,40 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>4x4 3 двери</t>
+          <t>Granta Cross</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>977500</v>
+        <v>426900</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16113.html</t>
-        </is>
-      </c>
-      <c r="J120" t="n">
-        <v>977500</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_16113.html</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_cross/</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>426900</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/lada/granta_cross/</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>567540</v>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/lada/granta_cross</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -5444,40 +5446,40 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Granta Cross</t>
+          <t>Granta Hatchback</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>426900</v>
+        <v>378810</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>426900</t>
+          <t>378810</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
       <c r="H121" t="n">
-        <v>567540</v>
+        <v>467100</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/granta_cross</t>
+          <t>https://auto-shop-21.ru/lada/granta_hatchback</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -5487,40 +5489,40 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Granta Hatchback</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>378810</v>
+        <v>375610</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_hatchback/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>378810</t>
+          <t>375610</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_hatchback/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
       <c r="H122" t="n">
-        <v>467100</v>
+        <v>443940</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/granta_hatchback</t>
+          <t>https://auto-shop-21.ru/lada/granta_liftback</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -5530,40 +5532,48 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>375610</v>
+        <v>358510</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_liftback/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>375610</t>
+          <t>358510</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_liftback/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
       <c r="H123" t="n">
-        <v>443940</v>
+        <v>419940</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/granta_liftback</t>
+          <t>https://auto-shop-21.ru/lada/granta_sedan</t>
+        </is>
+      </c>
+      <c r="J123" t="n">
+        <v>926000</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_16764.html</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -5573,48 +5583,40 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>Granta Sedan Drive Active</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>358510</v>
+        <v>419000</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_sedan/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>358510</t>
+          <t>419000</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_sedan/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
       <c r="H124" t="n">
-        <v>419940</v>
+        <v>620940</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/granta_sedan</t>
-        </is>
-      </c>
-      <c r="J124" t="n">
-        <v>927500</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_16524.html</t>
+          <t>https://auto-shop-21.ru/lada/granta_drive_active</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -5624,40 +5626,40 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Granta Sedan Drive Active</t>
+          <t>Granta Universal</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>419000</v>
+        <v>376800</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_drive_active/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>419000</t>
+          <t>376800</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_drive_active/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
       <c r="H125" t="n">
-        <v>620940</v>
+        <v>431580</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/granta_drive_active</t>
+          <t>https://auto-shop-21.ru/lada/granta_universal</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -5667,40 +5669,30 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Granta Universal</t>
+          <t>Largus</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>376800</v>
+        <v>1656500</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_universal/</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>376800</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_universal/</t>
-        </is>
-      </c>
-      <c r="H126" t="n">
-        <v>431580</v>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/lada/granta_universal</t>
+          <t>https://alyans-auto.ru/auto/auto_16127.html</t>
+        </is>
+      </c>
+      <c r="J126" t="n">
+        <v>1656500</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_16127.html</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -5710,30 +5702,40 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Largus</t>
+          <t>Largus Cross New</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1656500</v>
+        <v>629000</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16127.html</t>
-        </is>
-      </c>
-      <c r="J127" t="n">
-        <v>1656500</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_16127.html</t>
+          <t>https://avto-trend21.ru/auto/lada/largus_cross/</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>629000</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/lada/largus_cross/</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>866340</v>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/lada/largus_cross</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -5743,40 +5745,40 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Largus Cross New</t>
+          <t>Largus New</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>629000</v>
+        <v>501000</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/largus_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/largus/</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>629000</t>
+          <t>501000</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/largus_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/largus/</t>
         </is>
       </c>
       <c r="H128" t="n">
-        <v>866340</v>
+        <v>780540</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/largus_cross</t>
+          <t>https://auto-shop-21.ru/lada/largus</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -5786,40 +5788,40 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Largus New</t>
+          <t>Largus Фургон New</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>501000</v>
+        <v>541610</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/largus/</t>
+          <t>https://avto-trend21.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>501000</t>
+          <t>541610</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/largus/</t>
+          <t>https://avto-trend21.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
       <c r="H129" t="n">
-        <v>780540</v>
+        <v>781140</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/largus</t>
+          <t>https://auto-shop-21.ru/lada/largus_furgon</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -5829,40 +5831,40 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Largus Фургон New</t>
+          <t>Niva</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>541610</v>
+        <v>582200</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/largus_furgon/</t>
+          <t>https://avto-trend21.ru/auto/lada/niva/</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>541610</t>
+          <t>582200</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/largus_furgon/</t>
-        </is>
-      </c>
-      <c r="H130" t="n">
-        <v>781140</v>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/lada/largus_furgon</t>
+          <t>https://avto-trend21.ru/auto/lada/niva/</t>
+        </is>
+      </c>
+      <c r="J130" t="n">
+        <v>1310500</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_14903.html</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -5872,40 +5874,32 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Niva</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>582200</v>
+        <v>451710</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/niva/</t>
+          <t>https://avto-trend21.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>582200</t>
+          <t>451710</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/niva/</t>
-        </is>
-      </c>
-      <c r="J131" t="n">
-        <v>1310500</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_14903.html</t>
+          <t>https://avto-trend21.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -5915,32 +5909,32 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Niva Legend 5 дверей</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>451710</v>
+        <v>490410</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://avto-trend21.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>451710</t>
+          <t>490410</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://avto-trend21.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -5950,32 +5944,40 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Niva Legend 5 дверей</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>490410</v>
+        <v>549000</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://avto-trend21.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>490410</t>
+          <t>549000</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://avto-trend21.ru/auto/lada/niva_travel/</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>719340</v>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/lada/niva_travel</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -5985,40 +5987,40 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>549000</v>
+        <v>569000</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/niva_travel/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>549000</t>
+          <t>569000</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/niva_travel/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
       <c r="H134" t="n">
-        <v>719340</v>
+        <v>761940</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/niva_travel</t>
+          <t>https://auto-shop-21.ru/lada/vesta_cross_1</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -6028,40 +6030,40 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>Vesta Cross New</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>569000</v>
+        <v>619000</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>569000</t>
+          <t>619000</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="H135" t="n">
-        <v>761940</v>
+        <v>1040340</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_cross_1</t>
+          <t>https://auto-shop-21.ru/lada/vesta_cross</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -6071,40 +6073,40 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Vesta Cross New</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>619000</v>
+        <v>559000</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>619000</t>
+          <t>559000</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
       <c r="H136" t="n">
-        <v>1040340</v>
+        <v>728340</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_cross</t>
+          <t>https://auto-shop-21.ru/lada/vesta_sw_1</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -6114,40 +6116,40 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>559000</v>
+        <v>619000</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>559000</t>
+          <t>619000</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
       <c r="H137" t="n">
-        <v>728340</v>
+        <v>797340</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_sw_1</t>
+          <t>https://auto-shop-21.ru/lada/vesta_sw_cross_1</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -6157,40 +6159,40 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>Vesta SW Cross New</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>619000</v>
+        <v>669000</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>619000</t>
+          <t>669000</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="H138" t="n">
-        <v>797340</v>
+        <v>907140</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_sw_cross_1</t>
+          <t>https://auto-shop-21.ru/lada/vesta_sw_cross</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>444</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -6200,40 +6202,40 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Vesta SW Cross New</t>
+          <t>Vesta SW New</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>669000</v>
+        <v>609000</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>669000</t>
+          <t>609000</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="H139" t="n">
-        <v>907140</v>
+        <v>797940</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_sw_cross</t>
+          <t>https://auto-shop-21.ru/lada/vesta_sw</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -6243,40 +6245,48 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Vesta SW New</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>609000</v>
+        <v>519000</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>609000</t>
+          <t>519000</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
       <c r="H140" t="n">
-        <v>797940</v>
+        <v>673140</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_sw</t>
+          <t>https://auto-shop-21.ru/lada/vesta_1</t>
+        </is>
+      </c>
+      <c r="J140" t="n">
+        <v>1511500</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_15746.html</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -6286,48 +6296,40 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>Vesta Sedan CNG</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>519000</v>
+        <v>639900</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>519000</t>
+          <t>639900</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
       <c r="H141" t="n">
-        <v>673140</v>
+        <v>790140</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_1</t>
-        </is>
-      </c>
-      <c r="J141" t="n">
-        <v>1511500</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_14614.html</t>
+          <t>https://auto-shop-21.ru/lada/vesta_cng</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -6337,40 +6339,40 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Vesta Sedan CNG</t>
+          <t>Vesta Sedan New</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>639900</v>
+        <v>569000</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cng/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta/</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>639900</t>
+          <t>569000</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cng/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta/</t>
         </is>
       </c>
       <c r="H142" t="n">
-        <v>790140</v>
+        <v>743940</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_cng</t>
+          <t>https://auto-shop-21.ru/lada/vesta</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -6380,40 +6382,40 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Vesta Sedan New</t>
+          <t>Vesta Sport</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>569000</v>
+        <v>839000</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>569000</t>
+          <t>839000</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
       <c r="H143" t="n">
-        <v>743940</v>
+        <v>958740</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta</t>
+          <t>https://auto-shop-21.ru/lada/vesta_sport</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -6423,40 +6425,40 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Vesta Sport</t>
+          <t>Xray</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>839000</v>
+        <v>499000</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sport/</t>
+          <t>https://avto-trend21.ru/auto/lada/xray/</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>839000</t>
+          <t>499000</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sport/</t>
+          <t>https://avto-trend21.ru/auto/lada/xray/</t>
         </is>
       </c>
       <c r="H144" t="n">
-        <v>958740</v>
+        <v>664140</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_sport</t>
+          <t>https://auto-shop-21.ru/lada/xray</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -6466,40 +6468,40 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Xray</t>
+          <t>Xray Cross</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>499000</v>
+        <v>591900</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/xray/</t>
+          <t>https://avto-trend21.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>499000</t>
+          <t>591900</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/xray/</t>
+          <t>https://avto-trend21.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
       <c r="H145" t="n">
-        <v>664140</v>
+        <v>749940</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/xray</t>
+          <t>https://auto-shop-21.ru/lada/xray_cross</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>700</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -6509,73 +6511,73 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Xray Cross</t>
+          <t>ВИС 2349 Фургон</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>591900</v>
+        <v>1364100</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/xray_cross/</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>591900</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/lada/xray_cross/</t>
-        </is>
-      </c>
-      <c r="H146" t="n">
-        <v>749940</v>
-      </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/lada/xray_cross</t>
+          <t>https://alyans-auto.ru/auto/auto_14192.html</t>
+        </is>
+      </c>
+      <c r="J146" t="n">
+        <v>1364100</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_14192.html</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>ВИС 2349 Фургон</t>
+          <t>Murman</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>1364100</v>
+        <v>430000</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_14192.html</t>
-        </is>
-      </c>
-      <c r="J147" t="n">
-        <v>1364100</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_14192.html</t>
+          <t>https://avto-trend21.ru/auto/lifan/murman/</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>430000</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/lifan/murman/</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>611940</v>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/lifan/murman</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -6585,40 +6587,40 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Murman</t>
+          <t>MyWay</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>430000</v>
+        <v>539940</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/murman/</t>
+          <t>https://auto-shop-21.ru/lifan/myway</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>430000</t>
+          <t>685000</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/murman/</t>
+          <t>https://avto-trend21.ru/auto/lifan/myway/</t>
         </is>
       </c>
       <c r="H148" t="n">
-        <v>611940</v>
+        <v>539940</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/murman</t>
+          <t>https://auto-shop-21.ru/lifan/myway</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -6628,40 +6630,40 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>MyWay</t>
+          <t>Solano 2</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>539940</v>
+        <v>425940</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/myway</t>
+          <t>https://auto-shop-21.ru/lifan/solano_ii</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>685000</t>
+          <t>439900</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/myway/</t>
+          <t>https://avto-trend21.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
       <c r="H149" t="n">
-        <v>539940</v>
+        <v>425940</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/myway</t>
+          <t>https://auto-shop-21.ru/lifan/solano_ii</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -6671,40 +6673,40 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Solano 2</t>
+          <t>X50</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>425940</v>
+        <v>368000</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/solano_ii</t>
+          <t>https://avto-trend21.ru/auto/lifan/x50/</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>439900</t>
+          <t>368000</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/solano_ii/</t>
+          <t>https://avto-trend21.ru/auto/lifan/x50/</t>
         </is>
       </c>
       <c r="H150" t="n">
-        <v>425940</v>
+        <v>413940</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/solano_ii</t>
+          <t>https://auto-shop-21.ru/lifan/x50</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -6714,40 +6716,40 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>X50</t>
+          <t>X60</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>368000</v>
+        <v>461940</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/x50/</t>
+          <t>https://auto-shop-21.ru/lifan/x60</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>368000</t>
+          <t>479900</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/x50/</t>
+          <t>https://avto-trend21.ru/auto/lifan/x60/</t>
         </is>
       </c>
       <c r="H151" t="n">
-        <v>413940</v>
+        <v>461940</v>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/x50</t>
+          <t>https://auto-shop-21.ru/lifan/x60</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -6757,83 +6759,83 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>X60</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>461940</v>
+        <v>593400</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/x60</t>
+          <t>https://auto-shop-21.ru/lifan/x70</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>479900</t>
+          <t>737000</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/x60/</t>
+          <t>https://avto-trend21.ru/auto/lifan/x70/</t>
         </is>
       </c>
       <c r="H152" t="n">
-        <v>461940</v>
+        <v>593400</v>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/x60</t>
+          <t>https://auto-shop-21.ru/lifan/x70</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>593400</v>
+        <v>1529940</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/x70</t>
+          <t>https://auto-shop-21.ru/livan/s6pro</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>737000</t>
+          <t>1749900</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/x70/</t>
+          <t>https://avto-trend21.ru/auto/livan/s6pro/</t>
         </is>
       </c>
       <c r="H153" t="n">
-        <v>593400</v>
+        <v>1529940</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/x70</t>
+          <t>https://auto-shop-21.ru/livan/s6pro</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -6843,40 +6845,40 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1529940</v>
+        <v>1127940</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/livan/s6pro</t>
+          <t>https://auto-shop-21.ru/livan/x3pro</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>1749900</t>
+          <t>1279900</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/livan/s6pro/</t>
+          <t>https://avto-trend21.ru/auto/livan/x3pro/</t>
         </is>
       </c>
       <c r="H154" t="n">
-        <v>1529940</v>
+        <v>1127940</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/livan/s6pro</t>
+          <t>https://auto-shop-21.ru/livan/x3pro</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -6886,83 +6888,83 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>X6 Pro</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>1127940</v>
+        <v>1577940</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/livan/x3pro</t>
+          <t>https://auto-shop-21.ru/livan/x6pro</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>1279900</t>
+          <t>1829900</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/livan/x3pro/</t>
+          <t>https://avto-trend21.ru/auto/livan/x6pro/</t>
         </is>
       </c>
       <c r="H155" t="n">
-        <v>1127940</v>
+        <v>1577940</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/livan/x3pro</t>
+          <t>https://auto-shop-21.ru/livan/x6pro</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>X6 Pro</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>1577940</v>
+        <v>960000</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/livan/x6pro</t>
+          <t>https://avto-trend21.ru/auto/moskvich/3/</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>1829900</t>
+          <t>960000</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/livan/x6pro/</t>
+          <t>https://avto-trend21.ru/auto/moskvich/3/</t>
         </is>
       </c>
       <c r="H156" t="n">
-        <v>1577940</v>
+        <v>1332000</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/livan/x6pro</t>
+          <t>https://auto-shop-21.ru/moskvich/3</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -6972,83 +6974,83 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3e</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>960000</v>
+        <v>2370000</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/moskvich/3/</t>
+          <t>https://auto-shop-21.ru/moskvich/3e</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>960000</t>
+          <t>3147000</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/moskvich/3/</t>
+          <t>https://avto-trend21.ru/auto/moskvich/3e/</t>
         </is>
       </c>
       <c r="H157" t="n">
-        <v>1332000</v>
+        <v>2370000</v>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/moskvich/3</t>
+          <t>https://auto-shop-21.ru/moskvich/3e</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>3e</t>
+          <t>Qashqai</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>2370000</v>
+        <v>790000</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/moskvich/3e</t>
+          <t>https://avto-trend21.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>3147000</t>
+          <t>790000</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/moskvich/3e/</t>
+          <t>https://avto-trend21.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
       <c r="H158" t="n">
-        <v>2370000</v>
+        <v>1402200</v>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/moskvich/3e</t>
+          <t>https://auto-shop-21.ru/nissan/qashqai</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -7058,40 +7060,40 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Qashqai</t>
+          <t>Terrano</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>790000</v>
+        <v>619000</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/qashqai/</t>
+          <t>https://avto-trend21.ru/auto/nissan/terrano/</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>790000</t>
+          <t>619000</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/qashqai/</t>
+          <t>https://avto-trend21.ru/auto/nissan/terrano/</t>
         </is>
       </c>
       <c r="H159" t="n">
-        <v>1402200</v>
+        <v>1014000</v>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/nissan/qashqai</t>
+          <t>https://auto-shop-21.ru/nissan/terrano</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -7101,83 +7103,91 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Terrano</t>
+          <t>X-trail</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>619000</v>
+        <v>855000</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/terrano/</t>
+          <t>https://avto-trend21.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>619000</t>
+          <t>855000</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/terrano/</t>
+          <t>https://avto-trend21.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
       <c r="H160" t="n">
-        <v>1014000</v>
+        <v>1657200</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/nissan/terrano</t>
+          <t>https://auto-shop-21.ru/nissan/x-trail</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>X-trail</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>855000</v>
+        <v>1607940</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/x-trail/</t>
+          <t>https://auto-shop-21.ru/omoda/c5</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>855000</t>
+          <t>1999900</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/x-trail/</t>
+          <t>https://avto-trend21.ru/auto/omoda/c5/</t>
         </is>
       </c>
       <c r="H161" t="n">
-        <v>1657200</v>
+        <v>1607940</v>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/nissan/x-trail</t>
+          <t>https://auto-shop-21.ru/omoda/c5</t>
+        </is>
+      </c>
+      <c r="J161" t="n">
+        <v>2049900</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_16286.html</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -7187,99 +7197,91 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>1607940</v>
+        <v>1349940</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/omoda/c5</t>
+          <t>https://auto-shop-21.ru/omoda/s5</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>1999900</t>
+          <t>1689900</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/omoda/c5/</t>
+          <t>https://avto-trend21.ru/auto/omoda/s5/</t>
         </is>
       </c>
       <c r="H162" t="n">
-        <v>1607940</v>
+        <v>1349940</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/omoda/c5</t>
+          <t>https://auto-shop-21.ru/omoda/s5</t>
         </is>
       </c>
       <c r="J162" t="n">
-        <v>2229900</v>
+        <v>1999000</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16263.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16201.html</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>Nexia R3</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1349940</v>
+        <v>339000</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/omoda/s5</t>
+          <t>https://avto-trend21.ru/auto/ravon/nexia_r3/</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>1689900</t>
+          <t>339000</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/omoda/s5/</t>
+          <t>https://avto-trend21.ru/auto/ravon/nexia_r3/</t>
         </is>
       </c>
       <c r="H163" t="n">
-        <v>1349940</v>
+        <v>495000</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/omoda/s5</t>
-        </is>
-      </c>
-      <c r="J163" t="n">
-        <v>1999000</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_15370.html</t>
+          <t>https://auto-shop-21.ru/ravon/nexia_r3</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -7289,7 +7291,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Nexia R3</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="D164" t="n">
@@ -7297,7 +7299,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/nexia_r3/</t>
+          <t>https://avto-trend21.ru/auto/ravon/r2/</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -7307,22 +7309,22 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/nexia_r3/</t>
+          <t>https://avto-trend21.ru/auto/ravon/r2/</t>
         </is>
       </c>
       <c r="H164" t="n">
-        <v>495000</v>
+        <v>529800</v>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/ravon/nexia_r3</t>
+          <t>https://auto-shop-21.ru/ravon/r2</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -7332,83 +7334,83 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R4</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>339000</v>
+        <v>389000</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/r2/</t>
+          <t>https://avto-trend21.ru/auto/ravon/r4/</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>339000</t>
+          <t>389000</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/r2/</t>
+          <t>https://avto-trend21.ru/auto/ravon/r4/</t>
         </is>
       </c>
       <c r="H165" t="n">
-        <v>529800</v>
+        <v>510600</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/ravon/r2</t>
+          <t>https://auto-shop-21.ru/ravon/r4</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>389000</v>
+        <v>690000</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/r4/</t>
+          <t>https://avto-trend21.ru/auto/renault/arkana/</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>389000</t>
+          <t>690000</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/r4/</t>
+          <t>https://avto-trend21.ru/auto/renault/arkana/</t>
         </is>
       </c>
       <c r="H166" t="n">
-        <v>510600</v>
+        <v>1124400</v>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/ravon/r4</t>
+          <t>https://auto-shop-21.ru/renault/arkana</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -7418,40 +7420,40 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>Duster New</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>690000</v>
+        <v>650000</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/arkana/</t>
+          <t>https://avto-trend21.ru/auto/renault/duster/</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>690000</t>
+          <t>650000</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/arkana/</t>
+          <t>https://avto-trend21.ru/auto/renault/duster/</t>
         </is>
       </c>
       <c r="H167" t="n">
-        <v>1124400</v>
+        <v>970800</v>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/arkana</t>
+          <t>https://auto-shop-21.ru/renault/duster</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -7461,40 +7463,40 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Duster New</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>650000</v>
+        <v>659000</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/duster/</t>
+          <t>https://avto-trend21.ru/auto/renault/kaptur/</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>650000</t>
+          <t>659000</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/duster/</t>
+          <t>https://avto-trend21.ru/auto/renault/kaptur/</t>
         </is>
       </c>
       <c r="H168" t="n">
-        <v>970800</v>
+        <v>1034400</v>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/duster</t>
+          <t>https://auto-shop-21.ru/renault/kaptur</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>552</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -7504,40 +7506,40 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>Koleos</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>659000</v>
+        <v>1019400</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/kaptur/</t>
+          <t>https://auto-shop-21.ru/renault/koleos</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>659000</t>
+          <t>1553000</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/kaptur/</t>
+          <t>https://avto-trend21.ru/auto/renault/koleos/</t>
         </is>
       </c>
       <c r="H169" t="n">
-        <v>1034400</v>
+        <v>1019400</v>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/kaptur</t>
+          <t>https://auto-shop-21.ru/renault/koleos</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -7547,40 +7549,40 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Koleos</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1019400</v>
+        <v>490000</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/koleos</t>
+          <t>https://avto-trend21.ru/auto/renault/logan/</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>1553000</t>
+          <t>490000</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/koleos/</t>
+          <t>https://avto-trend21.ru/auto/renault/logan/</t>
         </is>
       </c>
       <c r="H170" t="n">
-        <v>1019400</v>
+        <v>674400</v>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/koleos</t>
+          <t>https://auto-shop-21.ru/renault/logan</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -7590,40 +7592,40 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>490000</v>
+        <v>530000</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/logan/</t>
+          <t>https://avto-trend21.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>490000</t>
+          <t>530000</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/logan/</t>
+          <t>https://avto-trend21.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="H171" t="n">
-        <v>674400</v>
+        <v>780600</v>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/logan</t>
+          <t>https://auto-shop-21.ru/renault/logan_stepway</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -7633,40 +7635,40 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>Logan Stepway City</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>530000</v>
+        <v>715000</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/logan_stepway/</t>
+          <t>https://avto-trend21.ru/auto/renault/logan_stepway_city/</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>530000</t>
+          <t>715000</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/logan_stepway/</t>
+          <t>https://avto-trend21.ru/auto/renault/logan_stepway_city/</t>
         </is>
       </c>
       <c r="H172" t="n">
-        <v>780600</v>
+        <v>792600</v>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/logan_stepway</t>
+          <t>https://auto-shop-21.ru/renault/logan_stepway_city</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -7676,40 +7678,40 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Logan Stepway City</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>715000</v>
+        <v>520000</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/logan_stepway_city/</t>
+          <t>https://avto-trend21.ru/auto/renault/sandero/</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>715000</t>
+          <t>520000</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/logan_stepway_city/</t>
+          <t>https://avto-trend21.ru/auto/renault/sandero/</t>
         </is>
       </c>
       <c r="H173" t="n">
-        <v>792600</v>
+        <v>754800</v>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/logan_stepway_city</t>
+          <t>https://auto-shop-21.ru/renault/sandero</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -7719,40 +7721,40 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>520000</v>
+        <v>550000</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/sandero/</t>
+          <t>https://avto-trend21.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>520000</t>
+          <t>550000</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/sandero/</t>
+          <t>https://avto-trend21.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
       <c r="H174" t="n">
-        <v>754800</v>
+        <v>823800</v>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/sandero</t>
+          <t>https://auto-shop-21.ru/renault/sandero_stepway</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>567</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -7762,83 +7764,83 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>Stepway City</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>550000</v>
+        <v>835800</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/sandero_stepway/</t>
+          <t>https://auto-shop-21.ru/renault/sandero_stepway_city</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>550000</t>
+          <t>1170000</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/sandero_stepway/</t>
+          <t>https://avto-trend21.ru/auto/renault/sandero_stepway_city/</t>
         </is>
       </c>
       <c r="H175" t="n">
-        <v>823800</v>
+        <v>835800</v>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/sandero_stepway</t>
+          <t>https://auto-shop-21.ru/renault/sandero_stepway_city</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Stepway City</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>835800</v>
+        <v>740000</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/sandero_stepway_city</t>
+          <t>https://avto-trend21.ru/auto/skoda/karoq/</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>1170000</t>
+          <t>740000</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/sandero_stepway_city/</t>
+          <t>https://avto-trend21.ru/auto/skoda/karoq/</t>
         </is>
       </c>
       <c r="H176" t="n">
-        <v>835800</v>
+        <v>1629600</v>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/sandero_stepway_city</t>
+          <t>https://auto-shop-21.ru/skoda/karoq</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>590</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -7848,40 +7850,40 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>Kodiaq Hockey Edition</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>740000</v>
+        <v>1421340</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/karoq/</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_hockey_edition</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>740000</t>
+          <t>1581000</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/karoq/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq_hockey_edition/</t>
         </is>
       </c>
       <c r="H177" t="n">
-        <v>1629600</v>
+        <v>1421340</v>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/karoq</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_hockey_edition</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>593</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -7891,40 +7893,40 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Kodiaq Hockey Edition</t>
+          <t>Kodiaq Laurin &amp; Klement</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>1421340</v>
+        <v>3058000</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq_hockey_edition</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq_laurin__klement/</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>1581000</t>
+          <t>3058000</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq_hockey_edition/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq_laurin__klement/</t>
         </is>
       </c>
       <c r="H178" t="n">
-        <v>1421340</v>
+        <v>3483600</v>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq_hockey_edition</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_laurin__klement</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>576</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -7934,40 +7936,40 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Kodiaq Laurin &amp; Klement</t>
+          <t>Kodiaq New</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>3058000</v>
+        <v>1659000</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq_laurin__klement/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>3058000</t>
+          <t>1659000</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq_laurin__klement/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
       <c r="H179" t="n">
-        <v>3483600</v>
+        <v>2184000</v>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq_laurin__klement</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>591</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -7977,40 +7979,40 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Kodiaq New</t>
+          <t>Kodiaq Scout</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>1659000</v>
+        <v>2098800</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq/</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_scout</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>1659000</t>
+          <t>3375000</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq_scout/</t>
         </is>
       </c>
       <c r="H180" t="n">
-        <v>2184000</v>
+        <v>2098800</v>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_scout</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>592</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -8020,40 +8022,40 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Kodiaq Scout</t>
+          <t>Kodiaq Sportline</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>2098800</v>
+        <v>2989000</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq_scout</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq_sportline/</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>3375000</t>
+          <t>2989000</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq_scout/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq_sportline/</t>
         </is>
       </c>
       <c r="H181" t="n">
-        <v>2098800</v>
+        <v>3226800</v>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq_scout</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_sportline</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>589</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -8063,40 +8065,40 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Kodiaq Sportline</t>
+          <t>Octavia Hockey Edition</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>2989000</v>
+        <v>989000</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq_sportline/</t>
+          <t>https://avto-trend21.ru/auto/skoda/octavia_hockey_edition/</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2989000</t>
+          <t>989000</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq_sportline/</t>
+          <t>https://avto-trend21.ru/auto/skoda/octavia_hockey_edition/</t>
         </is>
       </c>
       <c r="H182" t="n">
-        <v>3226800</v>
+        <v>1694340</v>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq_sportline</t>
+          <t>https://auto-shop-21.ru/skoda/octavia_hockey_edition</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -8106,40 +8108,40 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Octavia Hockey Edition</t>
+          <t>Octavia New</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>989000</v>
+        <v>840000</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/octavia_hockey_edition/</t>
+          <t>https://avto-trend21.ru/auto/skoda/octavia/</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>989000</t>
+          <t>840000</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/octavia_hockey_edition/</t>
+          <t>https://avto-trend21.ru/auto/skoda/octavia/</t>
         </is>
       </c>
       <c r="H183" t="n">
-        <v>1694340</v>
+        <v>1567800</v>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/octavia_hockey_edition</t>
+          <t>https://auto-shop-21.ru/skoda/octavia</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -8149,40 +8151,40 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Octavia New</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>840000</v>
+        <v>520000</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/octavia/</t>
+          <t>https://avto-trend21.ru/auto/skoda/rapid/</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>840000</t>
+          <t>520000</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/octavia/</t>
+          <t>https://avto-trend21.ru/auto/skoda/rapid/</t>
         </is>
       </c>
       <c r="H184" t="n">
-        <v>1567800</v>
+        <v>961200</v>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/octavia</t>
+          <t>https://auto-shop-21.ru/skoda/rapid</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -8192,40 +8194,40 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Rapid</t>
+          <t>Superb</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>520000</v>
+        <v>1222000</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/rapid/</t>
+          <t>https://avto-trend21.ru/auto/skoda/superb/</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>520000</t>
+          <t>1222000</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/rapid/</t>
+          <t>https://avto-trend21.ru/auto/skoda/superb/</t>
         </is>
       </c>
       <c r="H185" t="n">
-        <v>961200</v>
+        <v>2031600</v>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/rapid</t>
+          <t>https://auto-shop-21.ru/skoda/superb</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -8235,83 +8237,75 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Superb</t>
+          <t>Superb Combi</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1222000</v>
+        <v>2089000</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/superb/</t>
+          <t>https://avto-trend21.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>1222000</t>
+          <t>2089000</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/superb/</t>
+          <t>https://avto-trend21.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
       <c r="H186" t="n">
-        <v>2031600</v>
+        <v>2290200</v>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/superb</t>
+          <t>https://auto-shop-21.ru/skoda/superb_combi</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Superb Combi</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>2089000</v>
+        <v>1749300</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/superb_combi/</t>
+          <t>https://avto-trend21.ru/auto/solaris/hc/</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2089000</t>
+          <t>1749300</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/superb_combi/</t>
-        </is>
-      </c>
-      <c r="H187" t="n">
-        <v>2290200</v>
-      </c>
-      <c r="I187" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/skoda/superb_combi</t>
+          <t>https://avto-trend21.ru/auto/solaris/hc/</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -8321,32 +8315,32 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>1749300</v>
+        <v>1407000</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/hc/</t>
+          <t>https://avto-trend21.ru/auto/solaris/hs/</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>1749300</t>
+          <t>1407000</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/hc/</t>
+          <t>https://avto-trend21.ru/auto/solaris/hs/</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -8356,32 +8350,32 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>KRS</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>1407000</v>
+        <v>1426600</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/hs/</t>
+          <t>https://avto-trend21.ru/auto/solaris/krs/</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>1407000</t>
+          <t>1426600</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/hs/</t>
+          <t>https://avto-trend21.ru/auto/solaris/krs/</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -8391,67 +8385,65 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>KRS</t>
+          <t>KRX</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>1426600</v>
+        <v>1444800</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/krs/</t>
+          <t>https://avto-trend21.ru/auto/solaris/krx/</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>1426600</t>
+          <t>1444800</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/krs/</t>
+          <t>https://avto-trend21.ru/auto/solaris/krx/</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>KRX</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>1444800</v>
+        <v>2459400</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/krx/</t>
-        </is>
-      </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>1444800</t>
-        </is>
-      </c>
-      <c r="G191" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/solaris/krx/</t>
+          <t>https://auto-shop-21.ru/tank/300</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>2459400</v>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/tank/300</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -8461,63 +8453,73 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>2459400</v>
+        <v>3779400</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/tank/300</t>
+          <t>https://auto-shop-21.ru/tank/500</t>
         </is>
       </c>
       <c r="H192" t="n">
-        <v>2459400</v>
+        <v>3779400</v>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/tank/300</t>
+          <t>https://auto-shop-21.ru/tank/500</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>3779400</v>
+        <v>975000</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/tank/500</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/jetta/</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>975000</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
       <c r="H193" t="n">
-        <v>3779400</v>
+        <v>976200</v>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/tank/500</t>
+          <t>https://auto-shop-21.ru/volkswagen/jetta</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>649</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -8527,40 +8529,40 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Passat</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>975000</v>
+        <v>1050000</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/jetta/</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>975000</t>
+          <t>1050000</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/jetta/</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
       <c r="H194" t="n">
-        <v>976200</v>
+        <v>1593600</v>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/volkswagen/jetta</t>
+          <t>https://auto-shop-21.ru/volkswagen/passat</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -8570,40 +8572,40 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Passat</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>1050000</v>
+        <v>730900</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/passat/</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>1050000</t>
+          <t>730900</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/passat/</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
       <c r="H195" t="n">
-        <v>1593600</v>
+        <v>972540</v>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/volkswagen/passat</t>
+          <t>https://auto-shop-21.ru/volkswagen/polo</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -8613,40 +8615,40 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>Taos</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>730900</v>
+        <v>1399900</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/polo/</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>730900</t>
+          <t>1399900</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/polo/</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
       <c r="H196" t="n">
-        <v>972540</v>
+        <v>1697340</v>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/volkswagen/polo</t>
+          <t>https://auto-shop-21.ru/volkswagen/taos</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>658</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -8656,116 +8658,116 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Taos</t>
+          <t>Tiguan New</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>1399900</v>
+        <v>1579900</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/taos/</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>1399900</t>
+          <t>1579900</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/taos/</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
       <c r="H197" t="n">
-        <v>1697340</v>
+        <v>2025540</v>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/volkswagen/taos</t>
+          <t>https://auto-shop-21.ru/volkswagen/tiguan</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>675</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>XCite</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Tiguan New</t>
+          <t>X-Cross 7</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>1579900</v>
+        <v>2499000</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/tiguan/</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>1579900</t>
-        </is>
-      </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/tiguan/</t>
-        </is>
-      </c>
-      <c r="H198" t="n">
-        <v>2025540</v>
-      </c>
-      <c r="I198" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/volkswagen/tiguan</t>
+          <t>https://alyans-auto.ru/auto/auto_16534.html</t>
+        </is>
+      </c>
+      <c r="J198" t="n">
+        <v>2499000</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_16534.html</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>672</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>XCite</t>
+          <t>Zotye</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>X-Cross 7</t>
+          <t>Coupa</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>2495500</v>
+        <v>713760</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16117.html</t>
-        </is>
-      </c>
-      <c r="J199" t="n">
-        <v>2495500</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_16117.html</t>
+          <t>https://auto-shop-21.ru/zotye/coupa</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>989600</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>713760</v>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/zotye/coupa</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>674</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -8775,74 +8777,31 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Coupa</t>
+          <t>T600</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>713760</v>
+        <v>582960</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/zotye/coupa</t>
+          <t>https://auto-shop-21.ru/zotye/t600</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>989600</t>
+          <t>771600</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/zotye/coupa/</t>
+          <t>https://avto-trend21.ru/auto/zotye/t600/</t>
         </is>
       </c>
       <c r="H200" t="n">
-        <v>713760</v>
+        <v>582960</v>
       </c>
       <c r="I200" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/zotye/coupa</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>674</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>Zotye</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>T600</t>
-        </is>
-      </c>
-      <c r="D201" t="n">
-        <v>582960</v>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/zotye/t600</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>771600</t>
-        </is>
-      </c>
-      <c r="G201" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/zotye/t600/</t>
-        </is>
-      </c>
-      <c r="H201" t="n">
-        <v>582960</v>
-      </c>
-      <c r="I201" t="inlineStr">
         <is>
           <t>https://auto-shop-21.ru/zotye/t600</t>
         </is>

--- a/xlsx/cheboksari.xlsx
+++ b/xlsx/cheboksari.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K200"/>
+  <dimension ref="A1:K201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,58 +686,40 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>110</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Changan</t>
+          <t>Belgee</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Alsvin</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1050000</v>
+        <v>3129990</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/changan/alsvin</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1620000</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/changan/alsvin/</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1050000</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/changan/alsvin</t>
+          <t>https://alyans-auto.ru/auto/auto_16865.html</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1750000</v>
+        <v>3129990</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16005.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16865.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>119</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -747,40 +729,40 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS35</t>
+          <t>Alsvin</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>527940</v>
+        <v>1050000</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/changan/cs35</t>
+          <t>https://auto-shop-21.ru/changan/alsvin</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>732900</t>
+          <t>1620000</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/changan/cs35/</t>
+          <t>https://avto-trend21.ru/auto/changan/alsvin/</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>527940</v>
+        <v>1050000</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/changan/cs35</t>
+          <t>https://auto-shop-21.ru/changan/alsvin</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>116</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -790,30 +772,40 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CS35 Plus</t>
+          <t>CS35</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2399900</v>
+        <v>527940</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_15682.html</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
-        <v>2399900</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_15682.html</t>
+          <t>https://auto-shop-21.ru/changan/cs35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>732900</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/changan/cs35/</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>527940</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/changan/cs35</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>115</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -823,40 +815,30 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CS35 Plus New</t>
+          <t>CS35 Plus</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1403940</v>
+        <v>2399900</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/changan/cs35_plus</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2119900</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/changan/cs35_plus/</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1403940</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/changan/cs35_plus</t>
+          <t>https://alyans-auto.ru/auto/auto_15682.html</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>2399900</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_15682.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>122</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -866,40 +848,40 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CS55</t>
+          <t>CS35 Plus New</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>759900</v>
+        <v>1403940</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/changan/cs55/</t>
+          <t>https://auto-shop-21.ru/changan/cs35_plus</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>759900</t>
+          <t>2119900</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/changan/cs55/</t>
+          <t>https://avto-trend21.ru/auto/changan/cs35_plus/</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1313940</v>
+        <v>1403940</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/changan/cs55</t>
+          <t>https://auto-shop-21.ru/changan/cs35_plus</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>117</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -909,48 +891,40 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CS55 Plus</t>
+          <t>CS55</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1577940</v>
+        <v>759900</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/changan/cs55_plus</t>
+          <t>https://avto-trend21.ru/auto/changan/cs55/</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2449900</t>
+          <t>759900</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/changan/cs55_plus/</t>
+          <t>https://avto-trend21.ru/auto/changan/cs55/</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1577940</v>
+        <v>1313940</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/changan/cs55_plus</t>
-        </is>
-      </c>
-      <c r="J12" t="n">
-        <v>2749900</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_16807.html</t>
+          <t>https://auto-shop-21.ru/changan/cs55</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>121</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -960,40 +934,48 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CS75FL</t>
+          <t>CS55 Plus</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1439900</v>
+        <v>1577940</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/changan/cs75fl/</t>
+          <t>https://auto-shop-21.ru/changan/cs55_plus</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1439900</t>
+          <t>2449900</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/changan/cs75fl/</t>
+          <t>https://avto-trend21.ru/auto/changan/cs55_plus/</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1481940</v>
+        <v>1577940</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/changan/cs75fl</t>
+          <t>https://auto-shop-21.ru/changan/cs55_plus</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>2749900</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_16825.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>118</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1003,40 +985,40 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CS85 Coupe</t>
+          <t>CS75FL</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2225940</v>
+        <v>1439900</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/changan/cs85_coupe</t>
+          <t>https://avto-trend21.ru/auto/changan/cs75fl/</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2369900</t>
+          <t>1439900</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/changan/cs85_coupe/</t>
+          <t>https://avto-trend21.ru/auto/changan/cs75fl/</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>2225940</v>
+        <v>1481940</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/changan/cs85_coupe</t>
+          <t>https://auto-shop-21.ru/changan/cs75fl</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>124</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1046,48 +1028,40 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CS95</t>
+          <t>CS85 Coupe</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2549940</v>
+        <v>2225940</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/changan/cs95</t>
+          <t>https://auto-shop-21.ru/changan/cs85_coupe</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4149900</t>
+          <t>2369900</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/changan/cs95/</t>
+          <t>https://avto-trend21.ru/auto/changan/cs85_coupe/</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>2549940</v>
+        <v>2225940</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/changan/cs95</t>
-        </is>
-      </c>
-      <c r="J15" t="n">
-        <v>4199900</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_14495.html</t>
+          <t>https://auto-shop-21.ru/changan/cs85_coupe</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>125</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1097,48 +1071,48 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Eado Plus</t>
+          <t>CS95</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1397940</v>
+        <v>2549940</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/changan/eado_plus</t>
+          <t>https://auto-shop-21.ru/changan/cs95</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2129900</t>
+          <t>4149900</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/changan/eado_plus/</t>
+          <t>https://avto-trend21.ru/auto/changan/cs95/</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1397940</v>
+        <v>2549940</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/changan/eado_plus</t>
+          <t>https://auto-shop-21.ru/changan/cs95</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>2399900</v>
+        <v>4199900</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_15157.html</t>
+          <t>https://alyans-auto.ru/auto/auto_14495.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>128</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1148,30 +1122,40 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Hunter Plus</t>
+          <t>Eado Plus</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3529900</v>
+        <v>1397940</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_15642.html</t>
-        </is>
-      </c>
-      <c r="J17" t="n">
-        <v>3529900</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_15642.html</t>
+          <t>https://auto-shop-21.ru/changan/eado_plus</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2129900</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/changan/eado_plus/</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1397940</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/changan/eado_plus</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>141</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1181,40 +1165,30 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Lamore</t>
+          <t>Hunter Plus</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2589900</v>
+        <v>3529900</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/changan/lamore/</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2589900</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/changan/lamore/</t>
+          <t>https://alyans-auto.ru/auto/auto_15642.html</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>2789900</v>
+        <v>3529900</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16008.html</t>
+          <t>https://alyans-auto.ru/auto/auto_15642.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>130</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1224,48 +1198,32 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>UNI-K</t>
+          <t>Lamore</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2183940</v>
+        <v>2589900</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/changan/uni-k</t>
+          <t>https://avto-trend21.ru/auto/changan/lamore/</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3449900</t>
+          <t>2589900</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/changan/uni-k/</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>2183940</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/changan/uni-k</t>
-        </is>
-      </c>
-      <c r="J19" t="n">
-        <v>4269900</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_14095.html</t>
+          <t>https://avto-trend21.ru/auto/changan/lamore/</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>120</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1275,30 +1233,48 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>UNI-S</t>
+          <t>UNI-K</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2749900</v>
+        <v>2183940</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16808.html</t>
+          <t>https://auto-shop-21.ru/changan/uni-k</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3449900</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/changan/uni-k/</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2183940</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/changan/uni-k</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>2749900</v>
+        <v>4269900</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16808.html</t>
+          <t>https://alyans-auto.ru/auto/auto_14095.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>127</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1308,40 +1284,30 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>UNI-T</t>
+          <t>UNI-S</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2759900</v>
+        <v>2749900</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/changan/uni-t/</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2759900</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/changan/uni-t/</t>
+          <t>https://alyans-auto.ru/auto/auto_16808.html</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>2999900</v>
+        <v>2749900</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_14535.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16808.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>126</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1351,91 +1317,91 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>UNI-V</t>
+          <t>UNI-T</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1715940</v>
+        <v>2759900</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/changan/uni-v</t>
+          <t>https://avto-trend21.ru/auto/changan/uni-t/</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2739900</t>
+          <t>2759900</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/changan/uni-v/</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>1715940</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/changan/uni-v</t>
+          <t>https://avto-trend21.ru/auto/changan/uni-t/</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>2929900</v>
+        <v>2999900</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_10200.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16337.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>123</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Chery</t>
+          <t>Changan</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Arrizo 8</t>
+          <t>UNI-V</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1414000</v>
+        <v>1715940</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/arrizo_8/</t>
+          <t>https://auto-shop-21.ru/changan/uni-v</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1414000</t>
+          <t>2739900</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/arrizo_8/</t>
+          <t>https://avto-trend21.ru/auto/changan/uni-v/</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>2046000</v>
+        <v>1715940</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chery/arrizo_8</t>
+          <t>https://auto-shop-21.ru/changan/uni-v</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>2929900</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_10200.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>143</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1445,40 +1411,40 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Tiggo 3</t>
+          <t>Arrizo 8</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>509940</v>
+        <v>1414000</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_3</t>
+          <t>https://avto-trend21.ru/auto/chery/arrizo_8/</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>533200</t>
+          <t>1414000</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_3/</t>
+          <t>https://avto-trend21.ru/auto/chery/arrizo_8/</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>509940</v>
+        <v>2046000</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_3</t>
+          <t>https://auto-shop-21.ru/chery/arrizo_8</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>147</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1488,40 +1454,40 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Tiggo 4</t>
+          <t>Tiggo 3</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>690000</v>
+        <v>509940</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_4/</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_3</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>690000</t>
+          <t>533200</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_4/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_3/</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1223940</v>
+        <v>509940</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_4</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_3</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1531,40 +1497,40 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Tiggo 4 Pro</t>
+          <t>Tiggo 4</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>740000</v>
+        <v>690000</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_4_pro/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_4/</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>740000</t>
+          <t>690000</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_4_pro/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_4/</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1272000</v>
+        <v>1223940</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_4_pro</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_4</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1574,40 +1540,40 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Tiggo 7</t>
+          <t>Tiggo 4 Pro</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>737940</v>
+        <v>740000</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_7</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_4_pro/</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>750000</t>
+          <t>740000</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_7/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_4_pro/</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>737940</v>
+        <v>1272000</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_7</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_4_pro</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>154</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1617,40 +1583,40 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Tiggo 7 Pro</t>
+          <t>Tiggo 7</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>890000</v>
+        <v>737940</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro/</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_7</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>890000</t>
+          <t>750000</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_7/</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>1542000</v>
+        <v>737940</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_7_pro</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_7</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1660,40 +1626,40 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Tiggo 7 Pro Max</t>
+          <t>Tiggo 7 Pro</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1090000</v>
+        <v>890000</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro_max_1/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro/</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1090000</t>
+          <t>890000</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro_max_1/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro/</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>1692000</v>
+        <v>1542000</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_7_pro_max</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_7_pro</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1703,32 +1669,40 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Tiggo 7 Pro Max New</t>
+          <t>Tiggo 7 Pro Max</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1939000</v>
+        <v>1090000</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro_max/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro_max_1/</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1939000</t>
+          <t>1090000</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro_max/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro_max_1/</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1692000</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/chery/tiggo_7_pro_max</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1738,40 +1712,32 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Tiggo 8</t>
+          <t>Tiggo 7 Pro Max New</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1189900</v>
+        <v>1939000</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_8/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro_max/</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1189900</t>
+          <t>1939000</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_8/</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>1638000</v>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_8</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro_max/</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1781,40 +1747,40 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Tiggo 8 Pro</t>
+          <t>Tiggo 8</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1229900</v>
+        <v>1189900</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_8/</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1229900</t>
+          <t>1189900</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_8/</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>2058000</v>
+        <v>1638000</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_8_pro</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_8</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1824,40 +1790,40 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Tiggo 8 Pro Max</t>
+          <t>Tiggo 8 Pro</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1549900</v>
+        <v>1229900</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro_max_1/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro/</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1549900</t>
+          <t>1229900</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro_max_1/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro/</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>2310600</v>
+        <v>2058000</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_8_pro_max_1</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_8_pro</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1867,83 +1833,83 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Tiggo 8 Pro Max New</t>
+          <t>Tiggo 8 Pro Max</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2189900</v>
+        <v>1549900</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro_max/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro_max_1/</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2189900</t>
+          <t>1549900</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro_max/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro_max_1/</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>2496000</v>
+        <v>2310600</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_8_pro_max</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_8_pro_max_1</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Chevrolet</t>
+          <t>Chery</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Cobalt</t>
+          <t>Tiggo 8 Pro Max New</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>572340</v>
+        <v>2189900</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chevrolet/cobalt</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro_max/</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>627900</t>
+          <t>2189900</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chevrolet/cobalt/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro_max/</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>572340</v>
+        <v>2496000</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chevrolet/cobalt</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_8_pro_max</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1953,40 +1919,40 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Nexia</t>
+          <t>Cobalt</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>528540</v>
+        <v>572340</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chevrolet/nexia</t>
+          <t>https://auto-shop-21.ru/chevrolet/cobalt</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>577900</t>
+          <t>627900</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chevrolet/nexia/</t>
+          <t>https://avto-trend21.ru/auto/chevrolet/cobalt/</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>528540</v>
+        <v>572340</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chevrolet/nexia</t>
+          <t>https://auto-shop-21.ru/chevrolet/cobalt</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1996,83 +1962,83 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Spark</t>
+          <t>Nexia</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>570540</v>
+        <v>528540</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chevrolet/spark</t>
+          <t>https://auto-shop-21.ru/chevrolet/nexia</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>637900</t>
+          <t>577900</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chevrolet/spark/</t>
+          <t>https://avto-trend21.ru/auto/chevrolet/nexia/</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>570540</v>
+        <v>528540</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chevrolet/spark</t>
+          <t>https://auto-shop-21.ru/chevrolet/nexia</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DFM</t>
+          <t>Chevrolet</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>Spark</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>809000</v>
+        <v>570540</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/dfm/580/</t>
+          <t>https://auto-shop-21.ru/chevrolet/spark</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>809000</t>
+          <t>637900</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/dfm/580/</t>
+          <t>https://avto-trend21.ru/auto/chevrolet/spark/</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>1374000</v>
+        <v>570540</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/dfm/580</t>
+          <t>https://auto-shop-21.ru/chevrolet/spark</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2082,83 +2048,83 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>AX7</t>
+          <t>580</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>710000</v>
+        <v>809000</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/dfm/ax7/</t>
+          <t>https://avto-trend21.ru/auto/dfm/580/</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>710000</t>
+          <t>809000</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/dfm/ax7/</t>
+          <t>https://avto-trend21.ru/auto/dfm/580/</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>737400</v>
+        <v>1374000</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/dfm/ax7</t>
+          <t>https://auto-shop-21.ru/dfm/580</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Datsun</t>
+          <t>DFM</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>MI-DO</t>
+          <t>AX7</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>332400</v>
+        <v>710000</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/datsun/mi-do</t>
+          <t>https://avto-trend21.ru/auto/dfm/ax7/</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>387000</t>
+          <t>710000</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/datsun/mi-do/</t>
+          <t>https://avto-trend21.ru/auto/dfm/ax7/</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>332400</v>
+        <v>737400</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/datsun/mi-do</t>
+          <t>https://auto-shop-21.ru/dfm/ax7</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2168,75 +2134,83 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ON-DO</t>
+          <t>MI-DO</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>318600</v>
+        <v>332400</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/datsun/on-do</t>
+          <t>https://auto-shop-21.ru/datsun/mi-do</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>364000</t>
+          <t>387000</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/datsun/on-do/</t>
+          <t>https://avto-trend21.ru/auto/datsun/mi-do/</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>318600</v>
+        <v>332400</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/datsun/on-do</t>
+          <t>https://auto-shop-21.ru/datsun/mi-do</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>EXEED</t>
+          <t>Datsun</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>LX</t>
+          <t>ON-DO</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1449900</v>
+        <v>318600</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/exeed/lx/</t>
+          <t>https://auto-shop-21.ru/datsun/on-do</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1449900</t>
+          <t>364000</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/exeed/lx/</t>
+          <t>https://avto-trend21.ru/auto/datsun/on-do/</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>318600</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/datsun/on-do</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2246,32 +2220,32 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>RX</t>
+          <t>LX</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2939900</v>
+        <v>1449900</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/exeed/rx/</t>
+          <t>https://avto-trend21.ru/auto/exeed/lx/</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2939900</t>
+          <t>1449900</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/exeed/rx/</t>
+          <t>https://avto-trend21.ru/auto/exeed/lx/</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2281,40 +2255,32 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>TXL</t>
+          <t>RX</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1439900</v>
+        <v>2939900</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/exeed/txl/</t>
+          <t>https://avto-trend21.ru/auto/exeed/rx/</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>1439900</t>
+          <t>2939900</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/exeed/txl/</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>2556000</v>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/exeed/txl</t>
+          <t>https://avto-trend21.ru/auto/exeed/rx/</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2324,75 +2290,75 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>VX</t>
+          <t>TXL</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>2519900</v>
+        <v>1439900</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/exeed/vx/</t>
+          <t>https://avto-trend21.ru/auto/exeed/txl/</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2519900</t>
+          <t>1439900</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/exeed/vx/</t>
+          <t>https://avto-trend21.ru/auto/exeed/txl/</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2556000</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/exeed/txl</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>FAW</t>
+          <t>EXEED</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Bestune B70</t>
+          <t>VX</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1470000</v>
+        <v>2519900</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/faw/bestune_b70</t>
+          <t>https://avto-trend21.ru/auto/exeed/vx/</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>1838000</t>
+          <t>2519900</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/faw/bestune_b70/</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>1470000</v>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/faw/bestune_b70</t>
+          <t>https://avto-trend21.ru/auto/exeed/vx/</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2402,40 +2368,40 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Bestune T55</t>
+          <t>Bestune B70</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1446600</v>
+        <v>1470000</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/faw/bestune_t55</t>
+          <t>https://auto-shop-21.ru/faw/bestune_b70</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1849000</t>
+          <t>1838000</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/faw/bestune_t55/</t>
+          <t>https://avto-trend21.ru/auto/faw/bestune_b70/</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>1446600</v>
+        <v>1470000</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/faw/bestune_t55</t>
+          <t>https://auto-shop-21.ru/faw/bestune_b70</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2445,40 +2411,40 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Bestune T77</t>
+          <t>Bestune T55</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1439000</v>
+        <v>1446600</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/faw/besturn_t77/</t>
+          <t>https://auto-shop-21.ru/faw/bestune_t55</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1439000</t>
+          <t>1849000</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/faw/besturn_t77/</t>
+          <t>https://avto-trend21.ru/auto/faw/bestune_t55/</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>1718400</v>
+        <v>1446600</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/faw/besturn_t77</t>
+          <t>https://auto-shop-21.ru/faw/bestune_t55</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2488,32 +2454,40 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Bestune T99</t>
+          <t>Bestune T77</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2065000</v>
+        <v>1439000</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/faw/bestune_t99/</t>
+          <t>https://avto-trend21.ru/auto/faw/besturn_t77/</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2065000</t>
+          <t>1439000</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/faw/bestune_t99/</t>
+          <t>https://avto-trend21.ru/auto/faw/besturn_t77/</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1718400</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/faw/besturn_t77</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2523,40 +2497,32 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>X40</t>
+          <t>Bestune T99</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>835200</v>
+        <v>2065000</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/faw/x40</t>
+          <t>https://avto-trend21.ru/auto/faw/bestune_t99/</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>889000</t>
+          <t>2065000</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/faw/x40/</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>835200</v>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/faw/x40</t>
+          <t>https://avto-trend21.ru/auto/faw/bestune_t99/</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2566,75 +2532,83 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>X80</t>
+          <t>X40</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>904800</v>
+        <v>835200</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/faw/x80</t>
+          <t>https://auto-shop-21.ru/faw/x40</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>929000</t>
+          <t>889000</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/faw/x80/</t>
+          <t>https://avto-trend21.ru/auto/faw/x40/</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>904800</v>
+        <v>835200</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/faw/x80</t>
+          <t>https://auto-shop-21.ru/faw/x40</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Gac</t>
+          <t>FAW</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>GS5</t>
+          <t>X80</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1574300</v>
+        <v>904800</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/gac/gs5/</t>
+          <t>https://auto-shop-21.ru/faw/x80</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1574300</t>
+          <t>929000</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/gac/gs5/</t>
+          <t>https://avto-trend21.ru/auto/faw/x80/</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>904800</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/faw/x80</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2644,83 +2618,67 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>GS8</t>
+          <t>GS5</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2729300</v>
+        <v>1574300</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/gac/gs8/</t>
+          <t>https://avto-trend21.ru/auto/gac/gs5/</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2729300</t>
+          <t>1574300</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/gac/gs8/</t>
+          <t>https://avto-trend21.ru/auto/gac/gs5/</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>Gac</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>GS8</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>690000</v>
+        <v>2729300</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/atlas_1/</t>
+          <t>https://avto-trend21.ru/auto/gac/gs8/</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>690000</t>
+          <t>2729300</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/atlas_1/</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>1337394</v>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/geely/atlas_1</t>
-        </is>
-      </c>
-      <c r="J54" t="n">
-        <v>3229990</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_15361.html</t>
+          <t>https://avto-trend21.ru/auto/gac/gs8/</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2730,40 +2688,48 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Atlas New</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1916994</v>
+        <v>690000</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/atlas</t>
+          <t>https://avto-trend21.ru/auto/geely/atlas_1/</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2844990</t>
+          <t>690000</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/atlas/</t>
+          <t>https://avto-trend21.ru/auto/geely/atlas_1/</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>1916994</v>
+        <v>1337394</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/atlas</t>
+          <t>https://auto-shop-21.ru/geely/atlas_1</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
+        <v>3229990</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_15361.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2773,48 +2739,40 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Atlas Pro</t>
+          <t>Atlas New</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1658394</v>
+        <v>1916994</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/atlas_pro</t>
+          <t>https://auto-shop-21.ru/geely/atlas</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2233990</t>
+          <t>2844990</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/atlas_pro/</t>
+          <t>https://avto-trend21.ru/auto/geely/atlas/</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>1658394</v>
+        <v>1916994</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/atlas_pro</t>
-        </is>
-      </c>
-      <c r="J56" t="n">
-        <v>2798990</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_16771.html</t>
+          <t>https://auto-shop-21.ru/geely/atlas</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2824,40 +2782,48 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Belgee X50</t>
+          <t>Atlas Pro</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1374594</v>
+        <v>1658394</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/belgee_x50</t>
+          <t>https://auto-shop-21.ru/geely/atlas_pro</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1970990</t>
+          <t>2233990</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/belgee_x50/</t>
+          <t>https://avto-trend21.ru/auto/geely/atlas_pro/</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>1374594</v>
+        <v>1658394</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/belgee_x50</t>
+          <t>https://auto-shop-21.ru/geely/atlas_pro</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>2798990</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_16771.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2867,48 +2833,40 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Coolray</t>
+          <t>Belgee X50</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1406994</v>
+        <v>1374594</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/coolray_1</t>
+          <t>https://auto-shop-21.ru/geely/belgee_x50</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2024990</t>
+          <t>1970990</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/coolray_1/</t>
+          <t>https://avto-trend21.ru/auto/geely/belgee_x50/</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>1406994</v>
+        <v>1374594</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/coolray_1</t>
-        </is>
-      </c>
-      <c r="J58" t="n">
-        <v>2639990</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_16500.html</t>
+          <t>https://auto-shop-21.ru/geely/belgee_x50</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2918,40 +2876,48 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Coolray New</t>
+          <t>Coolray</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1565994</v>
+        <v>1406994</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/coolray</t>
+          <t>https://auto-shop-21.ru/geely/coolray_1</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2309990</t>
+          <t>2024990</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/coolray/</t>
+          <t>https://avto-trend21.ru/auto/geely/coolray_1/</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>1565994</v>
+        <v>1406994</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/coolray</t>
+          <t>https://auto-shop-21.ru/geely/coolray_1</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
+        <v>2639990</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_16500.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2961,30 +2927,40 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Emgrand</t>
+          <t>Coolray New</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2119990</v>
+        <v>1565994</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16732.html</t>
-        </is>
-      </c>
-      <c r="J60" t="n">
-        <v>2119990</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_16732.html</t>
+          <t>https://auto-shop-21.ru/geely/coolray</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2309990</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/geely/coolray/</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1565994</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/geely/coolray</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2994,40 +2970,30 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Emgrand New</t>
+          <t>Emgrand</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1205994</v>
+        <v>2119990</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/emgrand</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>1659990</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/geely/emgrand/</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>1205994</v>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/geely/emgrand</t>
+          <t>https://alyans-auto.ru/auto/auto_16732.html</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>2119990</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_16732.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3037,40 +3003,40 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Emgrand X7</t>
+          <t>Emgrand New</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>725994</v>
+        <v>1205994</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/emgrand_x7</t>
+          <t>https://auto-shop-21.ru/geely/emgrand</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>877990</t>
+          <t>1659990</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/emgrand_x7/</t>
+          <t>https://avto-trend21.ru/auto/geely/emgrand/</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>725994</v>
+        <v>1205994</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/emgrand_x7</t>
+          <t>https://auto-shop-21.ru/geely/emgrand</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3080,40 +3046,40 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>Emgrand X7</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>659994</v>
+        <v>725994</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/gs</t>
+          <t>https://auto-shop-21.ru/geely/emgrand_x7</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>699890</t>
+          <t>877990</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/gs/</t>
+          <t>https://avto-trend21.ru/auto/geely/emgrand_x7/</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>659994</v>
+        <v>725994</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/gs</t>
+          <t>https://auto-shop-21.ru/geely/emgrand_x7</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3123,40 +3089,40 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Monjaro</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2816994</v>
+        <v>659994</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/monjaro</t>
+          <t>https://auto-shop-21.ru/geely/gs</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>3794990</t>
+          <t>699890</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/monjaro/</t>
+          <t>https://avto-trend21.ru/auto/geely/gs/</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>2816994</v>
+        <v>659994</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/monjaro</t>
+          <t>https://auto-shop-21.ru/geely/gs</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3166,38 +3132,48 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Okavango</t>
+          <t>Monjaro</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>2069994</v>
+        <v>2816994</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/okavango</t>
+          <t>https://auto-shop-21.ru/geely/monjaro</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3794990</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/geely/monjaro/</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>2069994</v>
+        <v>2816994</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/okavango</t>
+          <t>https://auto-shop-21.ru/geely/monjaro</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>3479990</v>
+        <v>4574990</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16501.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16160.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3207,32 +3183,38 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Okavango New</t>
+          <t>Okavango</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>2999990</v>
+        <v>2069994</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/okavango/</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>2999990</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/geely/okavango/</t>
+          <t>https://auto-shop-21.ru/geely/okavango</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2069994</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/geely/okavango</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>3479990</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_16501.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3242,124 +3224,108 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Tugella New</t>
+          <t>Okavango New</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>2375994</v>
+        <v>2999990</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/tugella</t>
+          <t>https://avto-trend21.ru/auto/geely/okavango/</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>3319990</t>
+          <t>2999990</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/tugella/</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>2375994</v>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/geely/tugella</t>
+          <t>https://avto-trend21.ru/auto/geely/okavango/</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Great Wall</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>POER</t>
+          <t>Tugella New</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>3239000</v>
+        <v>2375994</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_14970.html</t>
-        </is>
-      </c>
-      <c r="J68" t="n">
-        <v>3239000</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_14970.html</t>
+          <t>https://auto-shop-21.ru/geely/tugella</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3319990</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/geely/tugella/</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2375994</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/geely/tugella</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Great Wall</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Dargo</t>
+          <t>POER</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1779000</v>
+        <v>3239000</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/dargo/</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>1779000</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/haval/dargo/</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
-        <v>1829400</v>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/haval/dargo</t>
+          <t>https://alyans-auto.ru/auto/auto_14970.html</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>3349000</v>
+        <v>3239000</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_15958.html</t>
+          <t>https://alyans-auto.ru/auto/auto_14970.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3369,40 +3335,48 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Dargo X</t>
+          <t>Dargo</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1959000</v>
+        <v>1779000</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/dargo_x/</t>
+          <t>https://avto-trend21.ru/auto/haval/dargo/</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>1959000</t>
+          <t>1779000</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/dargo_x/</t>
+          <t>https://avto-trend21.ru/auto/haval/dargo/</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>2009400</v>
+        <v>1829400</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/dargo_x</t>
+          <t>https://auto-shop-21.ru/haval/dargo</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
+        <v>3449000</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_16158.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3412,40 +3386,40 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>F7 New</t>
+          <t>Dargo X</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1219000</v>
+        <v>1959000</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/f7/</t>
+          <t>https://avto-trend21.ru/auto/haval/dargo_x/</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1219000</t>
+          <t>1959000</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/f7/</t>
+          <t>https://avto-trend21.ru/auto/haval/dargo_x/</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>1469400</v>
+        <v>2009400</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/f7</t>
+          <t>https://auto-shop-21.ru/haval/dargo_x</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3455,30 +3429,40 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>F7x</t>
+          <t>F7 New</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3399000</v>
+        <v>1219000</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_12214.html</t>
-        </is>
-      </c>
-      <c r="J72" t="n">
-        <v>3399000</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_12214.html</t>
+          <t>https://avto-trend21.ru/auto/haval/f7/</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1219000</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/haval/f7/</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1469400</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/haval/f7</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3488,40 +3472,30 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>F7x New</t>
+          <t>F7x</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1269000</v>
+        <v>3399000</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/f7x/</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>1269000</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/haval/f7x/</t>
-        </is>
-      </c>
-      <c r="H73" t="n">
-        <v>1469400</v>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/haval/f7x</t>
+          <t>https://alyans-auto.ru/auto/auto_12214.html</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>3399000</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_12214.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3531,40 +3505,40 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>F7x New</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>676800</v>
+        <v>1269000</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/h2</t>
+          <t>https://avto-trend21.ru/auto/haval/f7x/</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>878000</t>
+          <t>1269000</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/h2/</t>
+          <t>https://avto-trend21.ru/auto/haval/f7x/</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>676800</v>
+        <v>1469400</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/h2</t>
+          <t>https://auto-shop-21.ru/haval/f7x</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3574,30 +3548,40 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>917400</v>
+        <v>676800</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/h5</t>
+          <t>https://auto-shop-21.ru/haval/h2</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>878000</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/haval/h2/</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>917400</v>
+        <v>676800</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/h5</t>
+          <t>https://auto-shop-21.ru/haval/h2</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3607,40 +3591,30 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>H6</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>688800</v>
+        <v>917400</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/h6</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>898000</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/haval/h6/</t>
+          <t>https://auto-shop-21.ru/haval/h5</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>688800</v>
+        <v>917400</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/h6</t>
+          <t>https://auto-shop-21.ru/haval/h5</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3650,30 +3624,40 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>H9</t>
+          <t>H6</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>2459400</v>
+        <v>688800</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/h9</t>
+          <t>https://auto-shop-21.ru/haval/h6</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>898000</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/haval/h6/</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>2459400</v>
+        <v>688800</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/h9</t>
+          <t>https://auto-shop-21.ru/haval/h6</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3683,48 +3667,30 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Jolion</t>
+          <t>H9</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>689900</v>
+        <v>2459400</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/jolion_1/</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>689900</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/haval/jolion_1/</t>
+          <t>https://auto-shop-21.ru/haval/h9</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>1169400</v>
+        <v>2459400</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/jolion_1</t>
-        </is>
-      </c>
-      <c r="J78" t="n">
-        <v>2449000</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_15212.html</t>
+          <t>https://auto-shop-21.ru/haval/h9</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3734,40 +3700,48 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Jolion New</t>
+          <t>Jolion</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>990000</v>
+        <v>689900</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/jolion/</t>
+          <t>https://avto-trend21.ru/auto/haval/jolion_1/</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>990000</t>
+          <t>689900</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/jolion/</t>
+          <t>https://avto-trend21.ru/auto/haval/jolion_1/</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>1199400</v>
+        <v>1169400</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/jolion</t>
+          <t>https://auto-shop-21.ru/haval/jolion_1</t>
+        </is>
+      </c>
+      <c r="J79" t="n">
+        <v>2499000</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_16416.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3777,75 +3751,75 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>M6</t>
+          <t>Jolion New</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>736000</v>
+        <v>990000</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/m6/</t>
+          <t>https://avto-trend21.ru/auto/haval/jolion/</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>736000</t>
+          <t>990000</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/m6/</t>
+          <t>https://avto-trend21.ru/auto/haval/jolion/</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1199400</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/haval/jolion</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Creta New</t>
+          <t>M6</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>864000</v>
+        <v>736000</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/creta/</t>
+          <t>https://avto-trend21.ru/auto/haval/m6/</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>864000</t>
+          <t>736000</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/creta/</t>
-        </is>
-      </c>
-      <c r="H81" t="n">
-        <v>1115400</v>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/hyundai/creta</t>
+          <t>https://avto-trend21.ru/auto/haval/m6/</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3855,40 +3829,40 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Elantra New</t>
+          <t>Creta New</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1069000</v>
+        <v>864000</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/elantra/</t>
+          <t>https://avto-trend21.ru/auto/hyundai/creta/</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>1069000</t>
+          <t>864000</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/elantra/</t>
+          <t>https://avto-trend21.ru/auto/hyundai/creta/</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>1289400</v>
+        <v>1115400</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/hyundai/elantra</t>
+          <t>https://auto-shop-21.ru/hyundai/creta</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3898,40 +3872,40 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Elantra New</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>619000</v>
+        <v>1069000</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/solaris/</t>
+          <t>https://avto-trend21.ru/auto/hyundai/elantra/</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>619000</t>
+          <t>1069000</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/solaris/</t>
+          <t>https://avto-trend21.ru/auto/hyundai/elantra/</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>844800</v>
+        <v>1289400</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/hyundai/solaris</t>
+          <t>https://auto-shop-21.ru/hyundai/elantra</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3941,40 +3915,40 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Sonata</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1370000</v>
+        <v>619000</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/sonata/</t>
+          <t>https://avto-trend21.ru/auto/hyundai/solaris/</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>1370000</t>
+          <t>619000</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/sonata/</t>
+          <t>https://avto-trend21.ru/auto/hyundai/solaris/</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>1661400</v>
+        <v>844800</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/hyundai/sonata</t>
+          <t>https://auto-shop-21.ru/hyundai/solaris</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3984,91 +3958,83 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Tucson New</t>
+          <t>Sonata</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1394000</v>
+        <v>1370000</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/tucson/</t>
+          <t>https://avto-trend21.ru/auto/hyundai/sonata/</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>1394000</t>
+          <t>1370000</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/tucson/</t>
+          <t>https://avto-trend21.ru/auto/hyundai/sonata/</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>1649400</v>
+        <v>1661400</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/hyundai/tucson</t>
+          <t>https://auto-shop-21.ru/hyundai/sonata</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>Tucson New</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1277400</v>
+        <v>1394000</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jac/j7</t>
+          <t>https://avto-trend21.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1799000</t>
+          <t>1394000</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jac/j7/</t>
+          <t>https://avto-trend21.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>1277400</v>
+        <v>1649400</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jac/j7</t>
-        </is>
-      </c>
-      <c r="J86" t="n">
-        <v>2099000</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_8435.html</t>
+          <t>https://auto-shop-21.ru/hyundai/tucson</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4078,30 +4044,48 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>JS3</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1849000</v>
+        <v>1277400</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16272.html</t>
+          <t>https://auto-shop-21.ru/jac/j7</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1799000</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/jac/j7/</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>1277400</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/jac/j7</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>1849000</v>
+        <v>2099000</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16272.html</t>
+          <t>https://alyans-auto.ru/auto/auto_8435.html</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4111,30 +4095,30 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>JS6</t>
+          <t>JS3</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>2399000</v>
+        <v>1849000</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_13473.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16272.html</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>2399000</v>
+        <v>1849000</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_13473.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16272.html</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4144,40 +4128,30 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>JS6</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>439000</v>
+        <v>2399000</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jac/s3/</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>439000</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/jac/s3/</t>
-        </is>
-      </c>
-      <c r="H89" t="n">
-        <v>839400</v>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/jac/s3</t>
+          <t>https://alyans-auto.ru/auto/auto_13473.html</t>
+        </is>
+      </c>
+      <c r="J89" t="n">
+        <v>2399000</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_13473.html</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4187,40 +4161,40 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>683400</v>
+        <v>439000</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jac/s5</t>
+          <t>https://avto-trend21.ru/auto/jac/s3/</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>687000</t>
+          <t>439000</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jac/s5/</t>
+          <t>https://avto-trend21.ru/auto/jac/s3/</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>683400</v>
+        <v>839400</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jac/s5</t>
+          <t>https://auto-shop-21.ru/jac/s3</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4230,40 +4204,40 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1067400</v>
+        <v>683400</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jac/s7</t>
+          <t>https://auto-shop-21.ru/jac/s5</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>1209000</t>
+          <t>687000</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jac/s7/</t>
+          <t>https://avto-trend21.ru/auto/jac/s5/</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>1067400</v>
+        <v>683400</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jac/s7</t>
+          <t>https://auto-shop-21.ru/jac/s5</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4273,30 +4247,40 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>2665500</v>
+        <v>1067400</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_8940.html</t>
-        </is>
-      </c>
-      <c r="J92" t="n">
-        <v>2665500</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_8940.html</t>
+          <t>https://auto-shop-21.ru/jac/s7</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1209000</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/jac/s7/</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>1067400</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/jac/s7</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4306,63 +4290,63 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>T8 Pro</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>3199000</v>
+        <v>2665500</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_15629.html</t>
+          <t>https://alyans-auto.ru/auto/auto_8940.html</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>3199000</v>
+        <v>2665500</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_15629.html</t>
+          <t>https://alyans-auto.ru/auto/auto_8940.html</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>T8 Pro</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>2549900</v>
+        <v>3199000</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16800.html</t>
+          <t>https://alyans-auto.ru/auto/auto_15629.html</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>2549900</v>
+        <v>3199000</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16800.html</t>
+          <t>https://alyans-auto.ru/auto/auto_15629.html</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -4372,65 +4356,63 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>J8</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>4049000</v>
+        <v>2549900</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_15527.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16800.html</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>4049000</v>
+        <v>2549900</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_15527.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16800.html</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Dashing</t>
+          <t>J8</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1399900</v>
+        <v>4049000</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/dashing/</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>1399900</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/jetour/dashing/</t>
+          <t>https://alyans-auto.ru/auto/auto_15527.html</t>
+        </is>
+      </c>
+      <c r="J96" t="n">
+        <v>4049000</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_15527.html</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -4440,32 +4422,32 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>X70 Plus</t>
+          <t>Dashing</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1809900</v>
+        <v>1399900</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/x70_plus/</t>
+          <t>https://avto-trend21.ru/auto/jetour/dashing/</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>1809900</t>
+          <t>1399900</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/x70_plus/</t>
+          <t>https://avto-trend21.ru/auto/jetour/dashing/</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -4475,75 +4457,67 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>X90 Plus</t>
+          <t>X70 Plus</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>2149900</v>
+        <v>1809900</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/x90_plus/</t>
+          <t>https://avto-trend21.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2149900</t>
+          <t>1809900</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/x90_plus/</t>
+          <t>https://avto-trend21.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>VA3</t>
+          <t>X90 Plus</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>890000</v>
+        <v>2149900</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/va3/</t>
+          <t>https://avto-trend21.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>890000</t>
+          <t>2149900</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/va3/</t>
-        </is>
-      </c>
-      <c r="H99" t="n">
-        <v>1232400</v>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/jetta/va3</t>
+          <t>https://avto-trend21.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -4553,40 +4527,40 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>VS5</t>
+          <t>VA3</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1190000</v>
+        <v>890000</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/vs5/</t>
+          <t>https://avto-trend21.ru/auto/jetta/va3/</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>1190000</t>
+          <t>890000</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/vs5/</t>
+          <t>https://avto-trend21.ru/auto/jetta/va3/</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>1477200</v>
+        <v>1232400</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jetta/vs5</t>
+          <t>https://auto-shop-21.ru/jetta/va3</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -4596,83 +4570,83 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>VS7</t>
+          <t>VS5</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1349000</v>
+        <v>1190000</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/vs7/</t>
+          <t>https://avto-trend21.ru/auto/jetta/vs5/</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>1349000</t>
+          <t>1190000</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/vs7/</t>
+          <t>https://avto-trend21.ru/auto/jetta/vs5/</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>1759800</v>
+        <v>1477200</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jetta/vs7</t>
+          <t>https://auto-shop-21.ru/jetta/vs5</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>VS7</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1299000</v>
+        <v>1349000</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kaiyi/e5/</t>
+          <t>https://avto-trend21.ru/auto/jetta/vs7/</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>1299000</t>
+          <t>1349000</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kaiyi/e5/</t>
+          <t>https://avto-trend21.ru/auto/jetta/vs7/</t>
         </is>
       </c>
       <c r="H102" t="n">
-        <v>1317000</v>
+        <v>1759800</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/e5</t>
+          <t>https://auto-shop-21.ru/jetta/vs7</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4682,40 +4656,40 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>X3</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1342800</v>
+        <v>1299000</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x3</t>
+          <t>https://avto-trend21.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>1417650</t>
+          <t>1299000</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kaiyi/x3/</t>
+          <t>https://avto-trend21.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
       <c r="H103" t="n">
-        <v>1342800</v>
+        <v>1317000</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x3</t>
+          <t>https://auto-shop-21.ru/kaiyi/e5</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4725,40 +4699,40 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>X3</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>1508940</v>
+        <v>1342800</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x3_pro</t>
+          <t>https://auto-shop-21.ru/kaiyi/x3</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>1790000</t>
+          <t>1417650</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://avto-trend21.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
       <c r="H104" t="n">
-        <v>1508940</v>
+        <v>1342800</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x3_pro</t>
+          <t>https://auto-shop-21.ru/kaiyi/x3</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -4768,83 +4742,83 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>X7 Kunlun</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1798740</v>
+        <v>1508940</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x7_kunlun</t>
+          <t>https://auto-shop-21.ru/kaiyi/x3_pro</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2197900</t>
+          <t>1790000</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://avto-trend21.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
       <c r="H105" t="n">
-        <v>1798740</v>
+        <v>1508940</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x7_kunlun</t>
+          <t>https://auto-shop-21.ru/kaiyi/x3_pro</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Ceed</t>
+          <t>X7 Kunlun</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>713000</v>
+        <v>1798740</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/ceed/</t>
+          <t>https://auto-shop-21.ru/kaiyi/x7_kunlun</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>713000</t>
+          <t>2197900</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/ceed/</t>
+          <t>https://avto-trend21.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
       <c r="H106" t="n">
-        <v>1346940</v>
+        <v>1798740</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/ceed</t>
+          <t>https://auto-shop-21.ru/kaiyi/x7_kunlun</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4854,40 +4828,40 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Ceed SW</t>
+          <t>Ceed</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>723000</v>
+        <v>713000</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/ceed_sw/</t>
+          <t>https://avto-trend21.ru/auto/kia/ceed/</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>723000</t>
+          <t>713000</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/ceed_sw/</t>
+          <t>https://avto-trend21.ru/auto/kia/ceed/</t>
         </is>
       </c>
       <c r="H107" t="n">
-        <v>1388940</v>
+        <v>1346940</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/ceed_sw</t>
+          <t>https://auto-shop-21.ru/kia/ceed</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4897,40 +4871,40 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Cerato</t>
+          <t>Ceed SW</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>850000</v>
+        <v>723000</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/cerato/</t>
+          <t>https://avto-trend21.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>850000</t>
+          <t>723000</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/cerato/</t>
+          <t>https://avto-trend21.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
       <c r="H108" t="n">
-        <v>1232940</v>
+        <v>1388940</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/cerato</t>
+          <t>https://auto-shop-21.ru/kia/ceed_sw</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4940,40 +4914,40 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>Cerato</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1149000</v>
+        <v>850000</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/k5/</t>
+          <t>https://avto-trend21.ru/auto/kia/cerato/</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>1149000</t>
+          <t>850000</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/k5/</t>
+          <t>https://avto-trend21.ru/auto/kia/cerato/</t>
         </is>
       </c>
       <c r="H109" t="n">
-        <v>1640940</v>
+        <v>1232940</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/k5</t>
+          <t>https://auto-shop-21.ru/kia/cerato</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4983,40 +4957,40 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Picanto</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>619900</v>
+        <v>1149000</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/picanto/</t>
+          <t>https://avto-trend21.ru/auto/kia/k5/</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>619900</t>
+          <t>1149000</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/picanto/</t>
+          <t>https://avto-trend21.ru/auto/kia/k5/</t>
         </is>
       </c>
       <c r="H110" t="n">
-        <v>800940</v>
+        <v>1640940</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/picanto</t>
+          <t>https://auto-shop-21.ru/kia/k5</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -5026,40 +5000,40 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>ProCeed</t>
+          <t>Picanto</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>1121940</v>
+        <v>619900</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/proceed</t>
+          <t>https://avto-trend21.ru/auto/kia/picanto/</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>1134700</t>
+          <t>619900</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/proceed/</t>
+          <t>https://avto-trend21.ru/auto/kia/picanto/</t>
         </is>
       </c>
       <c r="H111" t="n">
-        <v>1121940</v>
+        <v>800940</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/proceed</t>
+          <t>https://auto-shop-21.ru/kia/picanto</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -5069,40 +5043,40 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Rio</t>
+          <t>ProCeed</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>564000</v>
+        <v>1121940</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio/</t>
+          <t>https://auto-shop-21.ru/kia/proceed</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>564000</t>
+          <t>1134700</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio/</t>
+          <t>https://avto-trend21.ru/auto/kia/proceed/</t>
         </is>
       </c>
       <c r="H112" t="n">
-        <v>860940</v>
+        <v>1121940</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/rio</t>
+          <t>https://auto-shop-21.ru/kia/proceed</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -5112,40 +5086,40 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Rio X</t>
+          <t>Rio</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>650000</v>
+        <v>564000</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio_x/</t>
+          <t>https://avto-trend21.ru/auto/kia/rio/</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>650000</t>
+          <t>564000</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio_x/</t>
+          <t>https://avto-trend21.ru/auto/kia/rio/</t>
         </is>
       </c>
       <c r="H113" t="n">
-        <v>944940</v>
+        <v>860940</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/rio_x</t>
+          <t>https://auto-shop-21.ru/kia/rio</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -5155,40 +5129,40 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Rio X-Line</t>
+          <t>Rio X</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>557000</v>
+        <v>650000</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio_x-line/</t>
+          <t>https://avto-trend21.ru/auto/kia/rio_x/</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>557000</t>
+          <t>650000</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio_x-line/</t>
+          <t>https://avto-trend21.ru/auto/kia/rio_x/</t>
         </is>
       </c>
       <c r="H114" t="n">
-        <v>563940</v>
+        <v>944940</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/rio_x-line</t>
+          <t>https://auto-shop-21.ru/kia/rio_x</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -5198,40 +5172,40 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Seltos</t>
+          <t>Rio X-Line</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>790000</v>
+        <v>557000</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/seltos/</t>
+          <t>https://avto-trend21.ru/auto/kia/rio_x-line/</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>790000</t>
+          <t>557000</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/seltos/</t>
+          <t>https://avto-trend21.ru/auto/kia/rio_x-line/</t>
         </is>
       </c>
       <c r="H115" t="n">
-        <v>1175940</v>
+        <v>563940</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/seltos</t>
+          <t>https://auto-shop-21.ru/kia/rio_x-line</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -5241,40 +5215,40 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Soul</t>
+          <t>Seltos</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>638000</v>
+        <v>790000</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/soul/</t>
+          <t>https://avto-trend21.ru/auto/kia/seltos/</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>638000</t>
+          <t>790000</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/soul/</t>
+          <t>https://avto-trend21.ru/auto/kia/seltos/</t>
         </is>
       </c>
       <c r="H116" t="n">
-        <v>1097940</v>
+        <v>1175940</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/soul</t>
+          <t>https://auto-shop-21.ru/kia/seltos</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -5284,40 +5258,40 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Sportage 5</t>
+          <t>Soul</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>1046000</v>
+        <v>638000</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/sportage/</t>
+          <t>https://avto-trend21.ru/auto/kia/soul/</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>1046000</t>
+          <t>638000</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/sportage/</t>
+          <t>https://avto-trend21.ru/auto/kia/soul/</t>
         </is>
       </c>
       <c r="H117" t="n">
-        <v>1709940</v>
+        <v>1097940</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/sportage</t>
+          <t>https://auto-shop-21.ru/kia/soul</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -5327,73 +5301,83 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>XCeed</t>
+          <t>Sportage 5</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>964900</v>
+        <v>1046000</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/xceed/</t>
+          <t>https://avto-trend21.ru/auto/kia/sportage/</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>964900</t>
+          <t>1046000</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/xceed/</t>
+          <t>https://avto-trend21.ru/auto/kia/sportage/</t>
         </is>
       </c>
       <c r="H118" t="n">
-        <v>1580940</v>
+        <v>1709940</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/xceed</t>
+          <t>https://auto-shop-21.ru/kia/sportage</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>701</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>4x4 3 двери</t>
+          <t>XCeed</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>977500</v>
+        <v>964900</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16113.html</t>
-        </is>
-      </c>
-      <c r="J119" t="n">
-        <v>977500</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_16113.html</t>
+          <t>https://avto-trend21.ru/auto/kia/xceed/</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>964900</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/kia/xceed/</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>1580940</v>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/kia/xceed</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>701</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -5403,40 +5387,30 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Granta Cross</t>
+          <t>4x4 3 двери</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>426900</v>
+        <v>977500</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_cross/</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>426900</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_cross/</t>
-        </is>
-      </c>
-      <c r="H120" t="n">
-        <v>567540</v>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/lada/granta_cross</t>
+          <t>https://alyans-auto.ru/auto/auto_16114.html</t>
+        </is>
+      </c>
+      <c r="J120" t="n">
+        <v>977500</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_16114.html</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -5446,40 +5420,40 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Granta Hatchback</t>
+          <t>Granta Cross</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>378810</v>
+        <v>426900</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_hatchback/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>378810</t>
+          <t>426900</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_hatchback/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
       <c r="H121" t="n">
-        <v>467100</v>
+        <v>567540</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/granta_hatchback</t>
+          <t>https://auto-shop-21.ru/lada/granta_cross</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -5489,40 +5463,40 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>Granta Hatchback</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>375610</v>
+        <v>378810</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_liftback/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>375610</t>
+          <t>378810</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_liftback/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
       <c r="H122" t="n">
-        <v>443940</v>
+        <v>467100</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/granta_liftback</t>
+          <t>https://auto-shop-21.ru/lada/granta_hatchback</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -5532,48 +5506,40 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>358510</v>
+        <v>375610</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_sedan/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>358510</t>
+          <t>375610</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_sedan/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
       <c r="H123" t="n">
-        <v>419940</v>
+        <v>443940</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/granta_sedan</t>
-        </is>
-      </c>
-      <c r="J123" t="n">
-        <v>926000</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_16764.html</t>
+          <t>https://auto-shop-21.ru/lada/granta_liftback</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -5583,40 +5549,48 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Granta Sedan Drive Active</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>419000</v>
+        <v>358510</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_drive_active/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>419000</t>
+          <t>358510</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_drive_active/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
       <c r="H124" t="n">
-        <v>620940</v>
+        <v>419940</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/granta_drive_active</t>
+          <t>https://auto-shop-21.ru/lada/granta_sedan</t>
+        </is>
+      </c>
+      <c r="J124" t="n">
+        <v>926000</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_16764.html</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -5626,40 +5600,40 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Granta Universal</t>
+          <t>Granta Sedan Drive Active</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>376800</v>
+        <v>419000</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_universal/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>376800</t>
+          <t>419000</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_universal/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
       <c r="H125" t="n">
-        <v>431580</v>
+        <v>620940</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/granta_universal</t>
+          <t>https://auto-shop-21.ru/lada/granta_drive_active</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -5669,30 +5643,40 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Largus</t>
+          <t>Granta Universal</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1656500</v>
+        <v>376800</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16127.html</t>
-        </is>
-      </c>
-      <c r="J126" t="n">
-        <v>1656500</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_16127.html</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_universal/</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>376800</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/lada/granta_universal/</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>431580</v>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/lada/granta_universal</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -5702,40 +5686,30 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Largus Cross New</t>
+          <t>Largus</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>629000</v>
+        <v>1656500</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/largus_cross/</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>629000</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/lada/largus_cross/</t>
-        </is>
-      </c>
-      <c r="H127" t="n">
-        <v>866340</v>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/lada/largus_cross</t>
+          <t>https://alyans-auto.ru/auto/auto_16127.html</t>
+        </is>
+      </c>
+      <c r="J127" t="n">
+        <v>1656500</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_16127.html</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -5745,40 +5719,40 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Largus New</t>
+          <t>Largus Cross New</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>501000</v>
+        <v>629000</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/largus/</t>
+          <t>https://avto-trend21.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>501000</t>
+          <t>629000</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/largus/</t>
+          <t>https://avto-trend21.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
       <c r="H128" t="n">
-        <v>780540</v>
+        <v>866340</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/largus</t>
+          <t>https://auto-shop-21.ru/lada/largus_cross</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -5788,40 +5762,40 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Largus Фургон New</t>
+          <t>Largus New</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>541610</v>
+        <v>501000</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/largus_furgon/</t>
+          <t>https://avto-trend21.ru/auto/lada/largus/</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>541610</t>
+          <t>501000</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/largus_furgon/</t>
+          <t>https://avto-trend21.ru/auto/lada/largus/</t>
         </is>
       </c>
       <c r="H129" t="n">
-        <v>781140</v>
+        <v>780540</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/largus_furgon</t>
+          <t>https://auto-shop-21.ru/lada/largus</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -5831,40 +5805,40 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Niva</t>
+          <t>Largus Фургон New</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>582200</v>
+        <v>541610</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/niva/</t>
+          <t>https://avto-trend21.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>582200</t>
+          <t>541610</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/niva/</t>
-        </is>
-      </c>
-      <c r="J130" t="n">
-        <v>1310500</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_14903.html</t>
+          <t>https://avto-trend21.ru/auto/lada/largus_furgon/</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>781140</v>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/lada/largus_furgon</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -5874,32 +5848,40 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Niva</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>451710</v>
+        <v>582200</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://avto-trend21.ru/auto/lada/niva/</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>451710</t>
+          <t>582200</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://avto-trend21.ru/auto/lada/niva/</t>
+        </is>
+      </c>
+      <c r="J131" t="n">
+        <v>1310500</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_14903.html</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -5909,32 +5891,32 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Niva Legend 5 дверей</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>490410</v>
+        <v>451710</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://avto-trend21.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>490410</t>
+          <t>451710</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://avto-trend21.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -5944,40 +5926,32 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Niva Legend 5 дверей</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>549000</v>
+        <v>490410</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/niva_travel/</t>
+          <t>https://avto-trend21.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>549000</t>
+          <t>490410</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/niva_travel/</t>
-        </is>
-      </c>
-      <c r="H133" t="n">
-        <v>719340</v>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/lada/niva_travel</t>
+          <t>https://avto-trend21.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -5987,40 +5961,40 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>569000</v>
+        <v>549000</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>569000</t>
+          <t>549000</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
       <c r="H134" t="n">
-        <v>761940</v>
+        <v>719340</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_cross_1</t>
+          <t>https://auto-shop-21.ru/lada/niva_travel</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -6030,40 +6004,40 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Vesta Cross New</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>619000</v>
+        <v>569000</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>619000</t>
+          <t>569000</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
       <c r="H135" t="n">
-        <v>1040340</v>
+        <v>761940</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_cross</t>
+          <t>https://auto-shop-21.ru/lada/vesta_cross_1</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -6073,40 +6047,40 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>Vesta Cross New</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>559000</v>
+        <v>619000</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>559000</t>
+          <t>619000</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="H136" t="n">
-        <v>728340</v>
+        <v>1040340</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_sw_1</t>
+          <t>https://auto-shop-21.ru/lada/vesta_cross</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -6116,40 +6090,40 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>619000</v>
+        <v>559000</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>619000</t>
+          <t>559000</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
       <c r="H137" t="n">
-        <v>797340</v>
+        <v>728340</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_sw_cross_1</t>
+          <t>https://auto-shop-21.ru/lada/vesta_sw_1</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -6159,40 +6133,40 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Vesta SW Cross New</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>669000</v>
+        <v>619000</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>669000</t>
+          <t>619000</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
       <c r="H138" t="n">
-        <v>907140</v>
+        <v>797340</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_sw_cross</t>
+          <t>https://auto-shop-21.ru/lada/vesta_sw_cross_1</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -6202,40 +6176,40 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Vesta SW New</t>
+          <t>Vesta SW Cross New</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>609000</v>
+        <v>669000</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>609000</t>
+          <t>669000</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="H139" t="n">
-        <v>797940</v>
+        <v>907140</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_sw</t>
+          <t>https://auto-shop-21.ru/lada/vesta_sw_cross</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>444</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -6245,48 +6219,40 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>Vesta SW New</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>519000</v>
+        <v>609000</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>519000</t>
+          <t>609000</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="H140" t="n">
-        <v>673140</v>
+        <v>797940</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_1</t>
-        </is>
-      </c>
-      <c r="J140" t="n">
-        <v>1511500</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_15746.html</t>
+          <t>https://auto-shop-21.ru/lada/vesta_sw</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -6296,40 +6262,48 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Vesta Sedan CNG</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>639900</v>
+        <v>519000</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cng/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>639900</t>
+          <t>519000</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cng/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
       <c r="H141" t="n">
-        <v>790140</v>
+        <v>673140</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_cng</t>
+          <t>https://auto-shop-21.ru/lada/vesta_1</t>
+        </is>
+      </c>
+      <c r="J141" t="n">
+        <v>1586500</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_13028.html</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -6339,40 +6313,40 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Vesta Sedan New</t>
+          <t>Vesta Sedan CNG</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>569000</v>
+        <v>639900</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>569000</t>
+          <t>639900</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
       <c r="H142" t="n">
-        <v>743940</v>
+        <v>790140</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta</t>
+          <t>https://auto-shop-21.ru/lada/vesta_cng</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -6382,40 +6356,40 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Vesta Sport</t>
+          <t>Vesta Sedan New</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>839000</v>
+        <v>569000</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sport/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta/</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>839000</t>
+          <t>569000</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sport/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta/</t>
         </is>
       </c>
       <c r="H143" t="n">
-        <v>958740</v>
+        <v>743940</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_sport</t>
+          <t>https://auto-shop-21.ru/lada/vesta</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -6425,40 +6399,40 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Xray</t>
+          <t>Vesta Sport</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>499000</v>
+        <v>839000</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/xray/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>499000</t>
+          <t>839000</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/xray/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
       <c r="H144" t="n">
-        <v>664140</v>
+        <v>958740</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/xray</t>
+          <t>https://auto-shop-21.ru/lada/vesta_sport</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -6468,40 +6442,40 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Xray Cross</t>
+          <t>Xray</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>591900</v>
+        <v>499000</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/xray_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/xray/</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>591900</t>
+          <t>499000</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/xray_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/xray/</t>
         </is>
       </c>
       <c r="H145" t="n">
-        <v>749940</v>
+        <v>664140</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/xray_cross</t>
+          <t>https://auto-shop-21.ru/lada/xray</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -6511,73 +6485,73 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>ВИС 2349 Фургон</t>
+          <t>Xray Cross</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>1364100</v>
+        <v>591900</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_14192.html</t>
-        </is>
-      </c>
-      <c r="J146" t="n">
-        <v>1364100</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_14192.html</t>
+          <t>https://avto-trend21.ru/auto/lada/xray_cross/</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>591900</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/lada/xray_cross/</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>749940</v>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/lada/xray_cross</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>700</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Murman</t>
+          <t>ВИС 2349 Фургон</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>430000</v>
+        <v>1364100</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/murman/</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>430000</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/lifan/murman/</t>
-        </is>
-      </c>
-      <c r="H147" t="n">
-        <v>611940</v>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/lifan/murman</t>
+          <t>https://alyans-auto.ru/auto/auto_14192.html</t>
+        </is>
+      </c>
+      <c r="J147" t="n">
+        <v>1364100</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_14192.html</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -6587,40 +6561,40 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>MyWay</t>
+          <t>Murman</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>539940</v>
+        <v>430000</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/myway</t>
+          <t>https://avto-trend21.ru/auto/lifan/murman/</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>685000</t>
+          <t>430000</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/myway/</t>
+          <t>https://avto-trend21.ru/auto/lifan/murman/</t>
         </is>
       </c>
       <c r="H148" t="n">
-        <v>539940</v>
+        <v>611940</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/myway</t>
+          <t>https://auto-shop-21.ru/lifan/murman</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -6630,40 +6604,40 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Solano 2</t>
+          <t>MyWay</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>425940</v>
+        <v>539940</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/solano_ii</t>
+          <t>https://auto-shop-21.ru/lifan/myway</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>439900</t>
+          <t>685000</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/solano_ii/</t>
+          <t>https://avto-trend21.ru/auto/lifan/myway/</t>
         </is>
       </c>
       <c r="H149" t="n">
-        <v>425940</v>
+        <v>539940</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/solano_ii</t>
+          <t>https://auto-shop-21.ru/lifan/myway</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -6673,40 +6647,40 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>X50</t>
+          <t>Solano 2</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>368000</v>
+        <v>425940</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/x50/</t>
+          <t>https://auto-shop-21.ru/lifan/solano_ii</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>368000</t>
+          <t>439900</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/x50/</t>
+          <t>https://avto-trend21.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
       <c r="H150" t="n">
-        <v>413940</v>
+        <v>425940</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/x50</t>
+          <t>https://auto-shop-21.ru/lifan/solano_ii</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -6716,40 +6690,40 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>X60</t>
+          <t>X50</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>461940</v>
+        <v>368000</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/x60</t>
+          <t>https://avto-trend21.ru/auto/lifan/x50/</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>479900</t>
+          <t>368000</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/x60/</t>
+          <t>https://avto-trend21.ru/auto/lifan/x50/</t>
         </is>
       </c>
       <c r="H151" t="n">
-        <v>461940</v>
+        <v>413940</v>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/x60</t>
+          <t>https://auto-shop-21.ru/lifan/x50</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -6759,83 +6733,83 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>X60</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>593400</v>
+        <v>461940</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/x70</t>
+          <t>https://auto-shop-21.ru/lifan/x60</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>737000</t>
+          <t>479900</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/x70/</t>
+          <t>https://avto-trend21.ru/auto/lifan/x60/</t>
         </is>
       </c>
       <c r="H152" t="n">
-        <v>593400</v>
+        <v>461940</v>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/x70</t>
+          <t>https://auto-shop-21.ru/lifan/x60</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>1529940</v>
+        <v>593400</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/livan/s6pro</t>
+          <t>https://auto-shop-21.ru/lifan/x70</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>1749900</t>
+          <t>737000</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/livan/s6pro/</t>
+          <t>https://avto-trend21.ru/auto/lifan/x70/</t>
         </is>
       </c>
       <c r="H153" t="n">
-        <v>1529940</v>
+        <v>593400</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/livan/s6pro</t>
+          <t>https://auto-shop-21.ru/lifan/x70</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -6845,40 +6819,40 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1127940</v>
+        <v>1529940</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/livan/x3pro</t>
+          <t>https://auto-shop-21.ru/livan/s6pro</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>1279900</t>
+          <t>1749900</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/livan/x3pro/</t>
+          <t>https://avto-trend21.ru/auto/livan/s6pro/</t>
         </is>
       </c>
       <c r="H154" t="n">
-        <v>1127940</v>
+        <v>1529940</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/livan/x3pro</t>
+          <t>https://auto-shop-21.ru/livan/s6pro</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -6888,83 +6862,83 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>X6 Pro</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>1577940</v>
+        <v>1127940</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/livan/x6pro</t>
+          <t>https://auto-shop-21.ru/livan/x3pro</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>1829900</t>
+          <t>1279900</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/livan/x6pro/</t>
+          <t>https://avto-trend21.ru/auto/livan/x3pro/</t>
         </is>
       </c>
       <c r="H155" t="n">
-        <v>1577940</v>
+        <v>1127940</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/livan/x6pro</t>
+          <t>https://auto-shop-21.ru/livan/x3pro</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>X6 Pro</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>960000</v>
+        <v>1577940</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/moskvich/3/</t>
+          <t>https://auto-shop-21.ru/livan/x6pro</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>960000</t>
+          <t>1829900</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/moskvich/3/</t>
+          <t>https://avto-trend21.ru/auto/livan/x6pro/</t>
         </is>
       </c>
       <c r="H156" t="n">
-        <v>1332000</v>
+        <v>1577940</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/moskvich/3</t>
+          <t>https://auto-shop-21.ru/livan/x6pro</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -6974,83 +6948,83 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>3e</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>2370000</v>
+        <v>960000</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/moskvich/3e</t>
+          <t>https://avto-trend21.ru/auto/moskvich/3/</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>3147000</t>
+          <t>960000</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/moskvich/3e/</t>
+          <t>https://avto-trend21.ru/auto/moskvich/3/</t>
         </is>
       </c>
       <c r="H157" t="n">
-        <v>2370000</v>
+        <v>1332000</v>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/moskvich/3e</t>
+          <t>https://auto-shop-21.ru/moskvich/3</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Qashqai</t>
+          <t>3e</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>790000</v>
+        <v>2370000</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/qashqai/</t>
+          <t>https://auto-shop-21.ru/moskvich/3e</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>790000</t>
+          <t>3147000</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/qashqai/</t>
+          <t>https://avto-trend21.ru/auto/moskvich/3e/</t>
         </is>
       </c>
       <c r="H158" t="n">
-        <v>1402200</v>
+        <v>2370000</v>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/nissan/qashqai</t>
+          <t>https://auto-shop-21.ru/moskvich/3e</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -7060,40 +7034,40 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Terrano</t>
+          <t>Qashqai</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>619000</v>
+        <v>790000</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/terrano/</t>
+          <t>https://avto-trend21.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>619000</t>
+          <t>790000</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/terrano/</t>
+          <t>https://avto-trend21.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
       <c r="H159" t="n">
-        <v>1014000</v>
+        <v>1402200</v>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/nissan/terrano</t>
+          <t>https://auto-shop-21.ru/nissan/qashqai</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -7103,91 +7077,83 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>X-trail</t>
+          <t>Terrano</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>855000</v>
+        <v>619000</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/x-trail/</t>
+          <t>https://avto-trend21.ru/auto/nissan/terrano/</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>855000</t>
+          <t>619000</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/x-trail/</t>
+          <t>https://avto-trend21.ru/auto/nissan/terrano/</t>
         </is>
       </c>
       <c r="H160" t="n">
-        <v>1657200</v>
+        <v>1014000</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/nissan/x-trail</t>
+          <t>https://auto-shop-21.ru/nissan/terrano</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>X-trail</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>1607940</v>
+        <v>855000</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/omoda/c5</t>
+          <t>https://avto-trend21.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>1999900</t>
+          <t>855000</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/omoda/c5/</t>
+          <t>https://avto-trend21.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
       <c r="H161" t="n">
-        <v>1607940</v>
+        <v>1657200</v>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/omoda/c5</t>
-        </is>
-      </c>
-      <c r="J161" t="n">
-        <v>2049900</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_16286.html</t>
+          <t>https://auto-shop-21.ru/nissan/x-trail</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -7197,91 +7163,99 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>1349940</v>
+        <v>1607940</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/omoda/s5</t>
+          <t>https://auto-shop-21.ru/omoda/c5</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>1689900</t>
+          <t>1999900</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/omoda/s5/</t>
+          <t>https://avto-trend21.ru/auto/omoda/c5/</t>
         </is>
       </c>
       <c r="H162" t="n">
-        <v>1349940</v>
+        <v>1607940</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/omoda/s5</t>
+          <t>https://auto-shop-21.ru/omoda/c5</t>
         </is>
       </c>
       <c r="J162" t="n">
-        <v>1999000</v>
+        <v>2049900</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16201.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16286.html</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Nexia R3</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>339000</v>
+        <v>1349940</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/nexia_r3/</t>
+          <t>https://auto-shop-21.ru/omoda/s5</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>339000</t>
+          <t>1689900</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/nexia_r3/</t>
+          <t>https://avto-trend21.ru/auto/omoda/s5/</t>
         </is>
       </c>
       <c r="H163" t="n">
-        <v>495000</v>
+        <v>1349940</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/ravon/nexia_r3</t>
+          <t>https://auto-shop-21.ru/omoda/s5</t>
+        </is>
+      </c>
+      <c r="J163" t="n">
+        <v>1999000</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_16822.html</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -7291,7 +7265,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>Nexia R3</t>
         </is>
       </c>
       <c r="D164" t="n">
@@ -7299,7 +7273,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/r2/</t>
+          <t>https://avto-trend21.ru/auto/ravon/nexia_r3/</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -7309,22 +7283,22 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/r2/</t>
+          <t>https://avto-trend21.ru/auto/ravon/nexia_r3/</t>
         </is>
       </c>
       <c r="H164" t="n">
-        <v>529800</v>
+        <v>495000</v>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/ravon/r2</t>
+          <t>https://auto-shop-21.ru/ravon/nexia_r3</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -7334,83 +7308,83 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>389000</v>
+        <v>339000</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/r4/</t>
+          <t>https://avto-trend21.ru/auto/ravon/r2/</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>389000</t>
+          <t>339000</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/r4/</t>
+          <t>https://avto-trend21.ru/auto/ravon/r2/</t>
         </is>
       </c>
       <c r="H165" t="n">
-        <v>510600</v>
+        <v>529800</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/ravon/r4</t>
+          <t>https://auto-shop-21.ru/ravon/r2</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>R4</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>690000</v>
+        <v>389000</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/arkana/</t>
+          <t>https://avto-trend21.ru/auto/ravon/r4/</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>690000</t>
+          <t>389000</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/arkana/</t>
+          <t>https://avto-trend21.ru/auto/ravon/r4/</t>
         </is>
       </c>
       <c r="H166" t="n">
-        <v>1124400</v>
+        <v>510600</v>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/arkana</t>
+          <t>https://auto-shop-21.ru/ravon/r4</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -7420,40 +7394,40 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Duster New</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>650000</v>
+        <v>690000</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/duster/</t>
+          <t>https://avto-trend21.ru/auto/renault/arkana/</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>650000</t>
+          <t>690000</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/duster/</t>
+          <t>https://avto-trend21.ru/auto/renault/arkana/</t>
         </is>
       </c>
       <c r="H167" t="n">
-        <v>970800</v>
+        <v>1124400</v>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/duster</t>
+          <t>https://auto-shop-21.ru/renault/arkana</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -7463,40 +7437,40 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>Duster New</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>659000</v>
+        <v>650000</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/kaptur/</t>
+          <t>https://avto-trend21.ru/auto/renault/duster/</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>659000</t>
+          <t>650000</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/kaptur/</t>
+          <t>https://avto-trend21.ru/auto/renault/duster/</t>
         </is>
       </c>
       <c r="H168" t="n">
-        <v>1034400</v>
+        <v>970800</v>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/kaptur</t>
+          <t>https://auto-shop-21.ru/renault/duster</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -7506,40 +7480,40 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Koleos</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>1019400</v>
+        <v>659000</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/koleos</t>
+          <t>https://avto-trend21.ru/auto/renault/kaptur/</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>1553000</t>
+          <t>659000</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/koleos/</t>
+          <t>https://avto-trend21.ru/auto/renault/kaptur/</t>
         </is>
       </c>
       <c r="H169" t="n">
-        <v>1019400</v>
+        <v>1034400</v>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/koleos</t>
+          <t>https://auto-shop-21.ru/renault/kaptur</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>552</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -7549,40 +7523,40 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Koleos</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>490000</v>
+        <v>1019400</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/logan/</t>
+          <t>https://auto-shop-21.ru/renault/koleos</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>490000</t>
+          <t>1553000</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/logan/</t>
+          <t>https://avto-trend21.ru/auto/renault/koleos/</t>
         </is>
       </c>
       <c r="H170" t="n">
-        <v>674400</v>
+        <v>1019400</v>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/logan</t>
+          <t>https://auto-shop-21.ru/renault/koleos</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -7592,40 +7566,40 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>530000</v>
+        <v>490000</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/logan_stepway/</t>
+          <t>https://avto-trend21.ru/auto/renault/logan/</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>530000</t>
+          <t>490000</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/logan_stepway/</t>
+          <t>https://avto-trend21.ru/auto/renault/logan/</t>
         </is>
       </c>
       <c r="H171" t="n">
-        <v>780600</v>
+        <v>674400</v>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/logan_stepway</t>
+          <t>https://auto-shop-21.ru/renault/logan</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -7635,40 +7609,40 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Logan Stepway City</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>715000</v>
+        <v>530000</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/logan_stepway_city/</t>
+          <t>https://avto-trend21.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>715000</t>
+          <t>530000</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/logan_stepway_city/</t>
+          <t>https://avto-trend21.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="H172" t="n">
-        <v>792600</v>
+        <v>780600</v>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/logan_stepway_city</t>
+          <t>https://auto-shop-21.ru/renault/logan_stepway</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -7678,40 +7652,40 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>Logan Stepway City</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>520000</v>
+        <v>715000</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/sandero/</t>
+          <t>https://avto-trend21.ru/auto/renault/logan_stepway_city/</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>520000</t>
+          <t>715000</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/sandero/</t>
+          <t>https://avto-trend21.ru/auto/renault/logan_stepway_city/</t>
         </is>
       </c>
       <c r="H173" t="n">
-        <v>754800</v>
+        <v>792600</v>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/sandero</t>
+          <t>https://auto-shop-21.ru/renault/logan_stepway_city</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -7721,40 +7695,40 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>550000</v>
+        <v>520000</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/sandero_stepway/</t>
+          <t>https://avto-trend21.ru/auto/renault/sandero/</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>550000</t>
+          <t>520000</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/sandero_stepway/</t>
+          <t>https://avto-trend21.ru/auto/renault/sandero/</t>
         </is>
       </c>
       <c r="H174" t="n">
-        <v>823800</v>
+        <v>754800</v>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/sandero_stepway</t>
+          <t>https://auto-shop-21.ru/renault/sandero</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -7764,83 +7738,83 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Stepway City</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>835800</v>
+        <v>550000</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/sandero_stepway_city</t>
+          <t>https://avto-trend21.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>1170000</t>
+          <t>550000</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/sandero_stepway_city/</t>
+          <t>https://avto-trend21.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
       <c r="H175" t="n">
-        <v>835800</v>
+        <v>823800</v>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/sandero_stepway_city</t>
+          <t>https://auto-shop-21.ru/renault/sandero_stepway</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>567</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>Stepway City</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>740000</v>
+        <v>835800</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/karoq/</t>
+          <t>https://auto-shop-21.ru/renault/sandero_stepway_city</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>740000</t>
+          <t>1170000</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/karoq/</t>
+          <t>https://avto-trend21.ru/auto/renault/sandero_stepway_city/</t>
         </is>
       </c>
       <c r="H176" t="n">
-        <v>1629600</v>
+        <v>835800</v>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/karoq</t>
+          <t>https://auto-shop-21.ru/renault/sandero_stepway_city</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -7850,40 +7824,40 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Kodiaq Hockey Edition</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>1421340</v>
+        <v>740000</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq_hockey_edition</t>
+          <t>https://avto-trend21.ru/auto/skoda/karoq/</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>1581000</t>
+          <t>740000</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq_hockey_edition/</t>
+          <t>https://avto-trend21.ru/auto/skoda/karoq/</t>
         </is>
       </c>
       <c r="H177" t="n">
-        <v>1421340</v>
+        <v>1629600</v>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq_hockey_edition</t>
+          <t>https://auto-shop-21.ru/skoda/karoq</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>590</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -7893,40 +7867,40 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Kodiaq Laurin &amp; Klement</t>
+          <t>Kodiaq Hockey Edition</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>3058000</v>
+        <v>1421340</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq_laurin__klement/</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_hockey_edition</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>3058000</t>
+          <t>1581000</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq_laurin__klement/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq_hockey_edition/</t>
         </is>
       </c>
       <c r="H178" t="n">
-        <v>3483600</v>
+        <v>1421340</v>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq_laurin__klement</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_hockey_edition</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>593</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -7936,40 +7910,40 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Kodiaq New</t>
+          <t>Kodiaq Laurin &amp; Klement</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1659000</v>
+        <v>3058000</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq_laurin__klement/</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>1659000</t>
+          <t>3058000</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq_laurin__klement/</t>
         </is>
       </c>
       <c r="H179" t="n">
-        <v>2184000</v>
+        <v>3483600</v>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_laurin__klement</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>576</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -7979,40 +7953,40 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Kodiaq Scout</t>
+          <t>Kodiaq New</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>2098800</v>
+        <v>1659000</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq_scout</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>3375000</t>
+          <t>1659000</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq_scout/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
       <c r="H180" t="n">
-        <v>2098800</v>
+        <v>2184000</v>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq_scout</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>591</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -8022,40 +7996,40 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Kodiaq Sportline</t>
+          <t>Kodiaq Scout</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>2989000</v>
+        <v>2098800</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq_sportline/</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_scout</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2989000</t>
+          <t>3375000</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq_sportline/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq_scout/</t>
         </is>
       </c>
       <c r="H181" t="n">
-        <v>3226800</v>
+        <v>2098800</v>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq_sportline</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_scout</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>592</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -8065,40 +8039,40 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Octavia Hockey Edition</t>
+          <t>Kodiaq Sportline</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>989000</v>
+        <v>2989000</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/octavia_hockey_edition/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq_sportline/</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>989000</t>
+          <t>2989000</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/octavia_hockey_edition/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq_sportline/</t>
         </is>
       </c>
       <c r="H182" t="n">
-        <v>1694340</v>
+        <v>3226800</v>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/octavia_hockey_edition</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_sportline</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>589</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -8108,40 +8082,40 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Octavia New</t>
+          <t>Octavia Hockey Edition</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>840000</v>
+        <v>989000</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/octavia/</t>
+          <t>https://avto-trend21.ru/auto/skoda/octavia_hockey_edition/</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>840000</t>
+          <t>989000</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/octavia/</t>
+          <t>https://avto-trend21.ru/auto/skoda/octavia_hockey_edition/</t>
         </is>
       </c>
       <c r="H183" t="n">
-        <v>1567800</v>
+        <v>1694340</v>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/octavia</t>
+          <t>https://auto-shop-21.ru/skoda/octavia_hockey_edition</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -8151,40 +8125,40 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Rapid</t>
+          <t>Octavia New</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>520000</v>
+        <v>840000</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/rapid/</t>
+          <t>https://avto-trend21.ru/auto/skoda/octavia/</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>520000</t>
+          <t>840000</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/rapid/</t>
+          <t>https://avto-trend21.ru/auto/skoda/octavia/</t>
         </is>
       </c>
       <c r="H184" t="n">
-        <v>961200</v>
+        <v>1567800</v>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/rapid</t>
+          <t>https://auto-shop-21.ru/skoda/octavia</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -8194,40 +8168,40 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Superb</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>1222000</v>
+        <v>520000</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/superb/</t>
+          <t>https://avto-trend21.ru/auto/skoda/rapid/</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>1222000</t>
+          <t>520000</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/superb/</t>
+          <t>https://avto-trend21.ru/auto/skoda/rapid/</t>
         </is>
       </c>
       <c r="H185" t="n">
-        <v>2031600</v>
+        <v>961200</v>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/superb</t>
+          <t>https://auto-shop-21.ru/skoda/rapid</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -8237,75 +8211,83 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Superb Combi</t>
+          <t>Superb</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>2089000</v>
+        <v>1222000</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/superb_combi/</t>
+          <t>https://avto-trend21.ru/auto/skoda/superb/</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2089000</t>
+          <t>1222000</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/superb_combi/</t>
+          <t>https://avto-trend21.ru/auto/skoda/superb/</t>
         </is>
       </c>
       <c r="H186" t="n">
-        <v>2290200</v>
+        <v>2031600</v>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/superb_combi</t>
+          <t>https://auto-shop-21.ru/skoda/superb</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>Superb Combi</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>1749300</v>
+        <v>2089000</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/hc/</t>
+          <t>https://avto-trend21.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>1749300</t>
+          <t>2089000</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/hc/</t>
+          <t>https://avto-trend21.ru/auto/skoda/superb_combi/</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>2290200</v>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/skoda/superb_combi</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -8315,32 +8297,32 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>1407000</v>
+        <v>1749300</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/hs/</t>
+          <t>https://avto-trend21.ru/auto/solaris/hc/</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>1407000</t>
+          <t>1749300</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/hs/</t>
+          <t>https://avto-trend21.ru/auto/solaris/hc/</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -8350,32 +8332,32 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>KRS</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>1426600</v>
+        <v>1407000</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/krs/</t>
+          <t>https://avto-trend21.ru/auto/solaris/hs/</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>1426600</t>
+          <t>1407000</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/krs/</t>
+          <t>https://avto-trend21.ru/auto/solaris/hs/</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -8385,65 +8367,67 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>KRX</t>
+          <t>KRS</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>1444800</v>
+        <v>1426600</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/krx/</t>
+          <t>https://avto-trend21.ru/auto/solaris/krs/</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>1444800</t>
+          <t>1426600</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/krx/</t>
+          <t>https://avto-trend21.ru/auto/solaris/krs/</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>KRX</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>2459400</v>
+        <v>1444800</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/tank/300</t>
-        </is>
-      </c>
-      <c r="H191" t="n">
-        <v>2459400</v>
-      </c>
-      <c r="I191" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/tank/300</t>
+          <t>https://avto-trend21.ru/auto/solaris/krx/</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>1444800</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/solaris/krx/</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -8453,73 +8437,63 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>3779400</v>
+        <v>2459400</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/tank/500</t>
+          <t>https://auto-shop-21.ru/tank/300</t>
         </is>
       </c>
       <c r="H192" t="n">
-        <v>3779400</v>
+        <v>2459400</v>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/tank/500</t>
+          <t>https://auto-shop-21.ru/tank/300</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>975000</v>
+        <v>3779400</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/jetta/</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>975000</t>
-        </is>
-      </c>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/jetta/</t>
+          <t>https://auto-shop-21.ru/tank/500</t>
         </is>
       </c>
       <c r="H193" t="n">
-        <v>976200</v>
+        <v>3779400</v>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/volkswagen/jetta</t>
+          <t>https://auto-shop-21.ru/tank/500</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -8529,40 +8503,40 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Passat</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>1050000</v>
+        <v>975000</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/passat/</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>1050000</t>
+          <t>975000</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/passat/</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
       <c r="H194" t="n">
-        <v>1593600</v>
+        <v>976200</v>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/volkswagen/passat</t>
+          <t>https://auto-shop-21.ru/volkswagen/jetta</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>649</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -8572,40 +8546,40 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>Passat</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>730900</v>
+        <v>1050000</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/polo/</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>730900</t>
+          <t>1050000</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/polo/</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
       <c r="H195" t="n">
-        <v>972540</v>
+        <v>1593600</v>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/volkswagen/polo</t>
+          <t>https://auto-shop-21.ru/volkswagen/passat</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -8615,40 +8589,40 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Taos</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>1399900</v>
+        <v>730900</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/taos/</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>1399900</t>
+          <t>730900</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/taos/</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
       <c r="H196" t="n">
-        <v>1697340</v>
+        <v>972540</v>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/volkswagen/taos</t>
+          <t>https://auto-shop-21.ru/volkswagen/polo</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -8658,150 +8632,193 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Tiguan New</t>
+          <t>Taos</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>1579900</v>
+        <v>1399900</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/tiguan/</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>1579900</t>
+          <t>1399900</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/tiguan/</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
       <c r="H197" t="n">
-        <v>2025540</v>
+        <v>1697340</v>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/volkswagen/tiguan</t>
+          <t>https://auto-shop-21.ru/volkswagen/taos</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>658</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>XCite</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>X-Cross 7</t>
+          <t>Tiguan New</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>2499000</v>
+        <v>1579900</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16534.html</t>
-        </is>
-      </c>
-      <c r="J198" t="n">
-        <v>2499000</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_16534.html</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/tiguan/</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>1579900</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/volkswagen/tiguan/</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>2025540</v>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/volkswagen/tiguan</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>675</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Zotye</t>
+          <t>XCite</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Coupa</t>
+          <t>X-Cross 7</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>713760</v>
+        <v>2499000</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/zotye/coupa</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>989600</t>
-        </is>
-      </c>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/zotye/coupa/</t>
-        </is>
-      </c>
-      <c r="H199" t="n">
-        <v>713760</v>
-      </c>
-      <c r="I199" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/zotye/coupa</t>
+          <t>https://alyans-auto.ru/auto/auto_16534.html</t>
+        </is>
+      </c>
+      <c r="J199" t="n">
+        <v>2499000</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_16534.html</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
+          <t>672</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Zotye</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Coupa</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>713760</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/zotye/coupa</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>989600</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>713760</v>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/zotye/coupa</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
           <t>674</t>
         </is>
       </c>
-      <c r="B200" t="inlineStr">
+      <c r="B201" t="inlineStr">
         <is>
           <t>Zotye</t>
         </is>
       </c>
-      <c r="C200" t="inlineStr">
+      <c r="C201" t="inlineStr">
         <is>
           <t>T600</t>
         </is>
       </c>
-      <c r="D200" t="n">
+      <c r="D201" t="n">
         <v>582960</v>
       </c>
-      <c r="E200" t="inlineStr">
+      <c r="E201" t="inlineStr">
         <is>
           <t>https://auto-shop-21.ru/zotye/t600</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
+      <c r="F201" t="inlineStr">
         <is>
           <t>771600</t>
         </is>
       </c>
-      <c r="G200" t="inlineStr">
+      <c r="G201" t="inlineStr">
         <is>
           <t>https://avto-trend21.ru/auto/zotye/t600/</t>
         </is>
       </c>
-      <c r="H200" t="n">
+      <c r="H201" t="n">
         <v>582960</v>
       </c>
-      <c r="I200" t="inlineStr">
+      <c r="I201" t="inlineStr">
         <is>
           <t>https://auto-shop-21.ru/zotye/t600</t>
         </is>

--- a/xlsx/cheboksari.xlsx
+++ b/xlsx/cheboksari.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16629.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16836.html</t>
         </is>
       </c>
       <c r="J6" t="n">
@@ -679,7 +679,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16629.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16836.html</t>
         </is>
       </c>
     </row>
@@ -704,7 +704,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16865.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16954.html</t>
         </is>
       </c>
       <c r="J7" t="n">
@@ -712,7 +712,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16865.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16954.html</t>
         </is>
       </c>
     </row>
@@ -758,6 +758,14 @@
           <t>https://auto-shop-21.ru/changan/alsvin</t>
         </is>
       </c>
+      <c r="J8" t="n">
+        <v>1799900</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_17046.html</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -968,7 +976,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16825.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16854.html</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1163,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>130</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1165,30 +1173,32 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Hunter Plus</t>
+          <t>Lamore</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3529900</v>
+        <v>2589900</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_15642.html</t>
-        </is>
-      </c>
-      <c r="J18" t="n">
-        <v>3529900</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_15642.html</t>
+          <t>https://avto-trend21.ru/auto/changan/lamore/</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2589900</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/changan/lamore/</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>120</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1198,32 +1208,48 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Lamore</t>
+          <t>UNI-K</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2589900</v>
+        <v>2183940</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/changan/lamore/</t>
+          <t>https://auto-shop-21.ru/changan/uni-k</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2589900</t>
+          <t>3449900</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/changan/lamore/</t>
+          <t>https://avto-trend21.ru/auto/changan/uni-k/</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2183940</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/changan/uni-k</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>4269900</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_14095.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>127</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1233,48 +1259,30 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>UNI-K</t>
+          <t>UNI-S</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2183940</v>
+        <v>2749900</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/changan/uni-k</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3449900</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/changan/uni-k/</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>2183940</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/changan/uni-k</t>
+          <t>https://alyans-auto.ru/auto/auto_16808.html</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>4269900</v>
+        <v>2749900</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_14095.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16808.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>126</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1284,30 +1292,32 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>UNI-S</t>
+          <t>UNI-T</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2749900</v>
+        <v>2759900</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16808.html</t>
-        </is>
-      </c>
-      <c r="J21" t="n">
-        <v>2749900</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_16808.html</t>
+          <t>https://avto-trend21.ru/auto/changan/uni-t/</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2759900</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/changan/uni-t/</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>123</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1317,91 +1327,91 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>UNI-T</t>
+          <t>UNI-V</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2759900</v>
+        <v>1715940</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/changan/uni-t/</t>
+          <t>https://auto-shop-21.ru/changan/uni-v</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2759900</t>
+          <t>2739900</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/changan/uni-t/</t>
+          <t>https://avto-trend21.ru/auto/changan/uni-v/</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1715940</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/changan/uni-v</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>2999900</v>
+        <v>2929900</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16337.html</t>
+          <t>https://alyans-auto.ru/auto/auto_10200.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>143</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Changan</t>
+          <t>Chery</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>UNI-V</t>
+          <t>Arrizo 8</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1715940</v>
+        <v>1414000</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/changan/uni-v</t>
+          <t>https://avto-trend21.ru/auto/chery/arrizo_8/</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2739900</t>
+          <t>1414000</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/changan/uni-v/</t>
+          <t>https://avto-trend21.ru/auto/chery/arrizo_8/</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1715940</v>
+        <v>2046000</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/changan/uni-v</t>
-        </is>
-      </c>
-      <c r="J23" t="n">
-        <v>2929900</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_10200.html</t>
+          <t>https://auto-shop-21.ru/chery/arrizo_8</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>147</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1411,40 +1421,40 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Arrizo 8</t>
+          <t>Tiggo 3</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1414000</v>
+        <v>509940</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/arrizo_8/</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_3</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1414000</t>
+          <t>533200</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/arrizo_8/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_3/</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>2046000</v>
+        <v>509940</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chery/arrizo_8</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_3</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1454,40 +1464,40 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Tiggo 3</t>
+          <t>Tiggo 4</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>509940</v>
+        <v>690000</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_3</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_4/</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>533200</t>
+          <t>690000</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_3/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_4/</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>509940</v>
+        <v>1223940</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_3</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_4</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1497,40 +1507,40 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Tiggo 4</t>
+          <t>Tiggo 4 Pro</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>690000</v>
+        <v>740000</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_4/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_4_pro/</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>690000</t>
+          <t>740000</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_4/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_4_pro/</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1223940</v>
+        <v>1272000</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_4</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_4_pro</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>154</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1540,40 +1550,40 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Tiggo 4 Pro</t>
+          <t>Tiggo 7</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>740000</v>
+        <v>737940</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_4_pro/</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_7</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>740000</t>
+          <t>750000</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_4_pro/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_7/</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>1272000</v>
+        <v>737940</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_4_pro</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_7</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1583,40 +1593,40 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Tiggo 7</t>
+          <t>Tiggo 7 Pro</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>737940</v>
+        <v>890000</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_7</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro/</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>750000</t>
+          <t>890000</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_7/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro/</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>737940</v>
+        <v>1542000</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_7</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_7_pro</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1626,40 +1636,40 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Tiggo 7 Pro</t>
+          <t>Tiggo 7 Pro Max</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>890000</v>
+        <v>1090000</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro_max_1/</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>890000</t>
+          <t>1090000</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro_max_1/</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>1542000</v>
+        <v>1692000</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_7_pro</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_7_pro_max</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1669,40 +1679,32 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Tiggo 7 Pro Max</t>
+          <t>Tiggo 7 Pro Max New</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1090000</v>
+        <v>1939000</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro_max_1/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro_max/</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1090000</t>
+          <t>1939000</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro_max_1/</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>1692000</v>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_7_pro_max</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro_max/</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1712,32 +1714,40 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Tiggo 7 Pro Max New</t>
+          <t>Tiggo 8</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1939000</v>
+        <v>1189900</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro_max/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_8/</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1939000</t>
+          <t>1189900</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro_max/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_8/</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1638000</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/chery/tiggo_8</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1747,40 +1757,40 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Tiggo 8</t>
+          <t>Tiggo 8 Pro</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1189900</v>
+        <v>1229900</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_8/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro/</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1189900</t>
+          <t>1229900</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_8/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro/</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>1638000</v>
+        <v>2058000</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_8</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_8_pro</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1790,40 +1800,40 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Tiggo 8 Pro</t>
+          <t>Tiggo 8 Pro Max</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1229900</v>
+        <v>1549900</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro_max_1/</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1229900</t>
+          <t>1549900</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro_max_1/</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>2058000</v>
+        <v>2310600</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_8_pro</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_8_pro_max_1</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1833,83 +1843,83 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Tiggo 8 Pro Max</t>
+          <t>Tiggo 8 Pro Max New</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1549900</v>
+        <v>2189900</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro_max_1/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro_max/</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1549900</t>
+          <t>2189900</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro_max_1/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro_max/</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>2310600</v>
+        <v>2496000</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_8_pro_max_1</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_8_pro_max</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Chery</t>
+          <t>Chevrolet</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Tiggo 8 Pro Max New</t>
+          <t>Cobalt</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2189900</v>
+        <v>572340</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro_max/</t>
+          <t>https://auto-shop-21.ru/chevrolet/cobalt</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2189900</t>
+          <t>627900</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro_max/</t>
+          <t>https://avto-trend21.ru/auto/chevrolet/cobalt/</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>2496000</v>
+        <v>572340</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_8_pro_max</t>
+          <t>https://auto-shop-21.ru/chevrolet/cobalt</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1919,40 +1929,40 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Cobalt</t>
+          <t>Nexia</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>572340</v>
+        <v>528540</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chevrolet/cobalt</t>
+          <t>https://auto-shop-21.ru/chevrolet/nexia</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>627900</t>
+          <t>577900</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chevrolet/cobalt/</t>
+          <t>https://avto-trend21.ru/auto/chevrolet/nexia/</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>572340</v>
+        <v>528540</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chevrolet/cobalt</t>
+          <t>https://auto-shop-21.ru/chevrolet/nexia</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1962,83 +1972,83 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Nexia</t>
+          <t>Spark</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>528540</v>
+        <v>570540</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chevrolet/nexia</t>
+          <t>https://auto-shop-21.ru/chevrolet/spark</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>577900</t>
+          <t>637900</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chevrolet/nexia/</t>
+          <t>https://avto-trend21.ru/auto/chevrolet/spark/</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>528540</v>
+        <v>570540</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chevrolet/nexia</t>
+          <t>https://auto-shop-21.ru/chevrolet/spark</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Chevrolet</t>
+          <t>DFM</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Spark</t>
+          <t>580</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>570540</v>
+        <v>809000</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chevrolet/spark</t>
+          <t>https://avto-trend21.ru/auto/dfm/580/</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>637900</t>
+          <t>809000</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chevrolet/spark/</t>
+          <t>https://avto-trend21.ru/auto/dfm/580/</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>570540</v>
+        <v>1374000</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chevrolet/spark</t>
+          <t>https://auto-shop-21.ru/dfm/580</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2048,83 +2058,83 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>AX7</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>809000</v>
+        <v>710000</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/dfm/580/</t>
+          <t>https://avto-trend21.ru/auto/dfm/ax7/</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>809000</t>
+          <t>710000</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/dfm/580/</t>
+          <t>https://avto-trend21.ru/auto/dfm/ax7/</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>1374000</v>
+        <v>737400</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/dfm/580</t>
+          <t>https://auto-shop-21.ru/dfm/ax7</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>DFM</t>
+          <t>Datsun</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>AX7</t>
+          <t>MI-DO</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>710000</v>
+        <v>332400</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/dfm/ax7/</t>
+          <t>https://auto-shop-21.ru/datsun/mi-do</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>710000</t>
+          <t>387000</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/dfm/ax7/</t>
+          <t>https://avto-trend21.ru/auto/datsun/mi-do/</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>737400</v>
+        <v>332400</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/dfm/ax7</t>
+          <t>https://auto-shop-21.ru/datsun/mi-do</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2134,83 +2144,75 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>MI-DO</t>
+          <t>ON-DO</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>332400</v>
+        <v>318600</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/datsun/mi-do</t>
+          <t>https://auto-shop-21.ru/datsun/on-do</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>387000</t>
+          <t>364000</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/datsun/mi-do/</t>
+          <t>https://avto-trend21.ru/auto/datsun/on-do/</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>332400</v>
+        <v>318600</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/datsun/mi-do</t>
+          <t>https://auto-shop-21.ru/datsun/on-do</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Datsun</t>
+          <t>EXEED</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ON-DO</t>
+          <t>LX</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>318600</v>
+        <v>1449900</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/datsun/on-do</t>
+          <t>https://avto-trend21.ru/auto/exeed/lx/</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>364000</t>
+          <t>1449900</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/datsun/on-do/</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>318600</v>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/datsun/on-do</t>
+          <t>https://avto-trend21.ru/auto/exeed/lx/</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2220,32 +2222,32 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>LX</t>
+          <t>RX</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1449900</v>
+        <v>2939900</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/exeed/lx/</t>
+          <t>https://avto-trend21.ru/auto/exeed/rx/</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1449900</t>
+          <t>2939900</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/exeed/lx/</t>
+          <t>https://avto-trend21.ru/auto/exeed/rx/</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2255,32 +2257,40 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>RX</t>
+          <t>TXL</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2939900</v>
+        <v>1439900</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/exeed/rx/</t>
+          <t>https://avto-trend21.ru/auto/exeed/txl/</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2939900</t>
+          <t>1439900</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/exeed/rx/</t>
+          <t>https://avto-trend21.ru/auto/exeed/txl/</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2556000</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/exeed/txl</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2290,75 +2300,75 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>TXL</t>
+          <t>VX</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1439900</v>
+        <v>2519900</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/exeed/txl/</t>
+          <t>https://avto-trend21.ru/auto/exeed/vx/</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>1439900</t>
+          <t>2519900</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/exeed/txl/</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>2556000</v>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/exeed/txl</t>
+          <t>https://avto-trend21.ru/auto/exeed/vx/</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>EXEED</t>
+          <t>FAW</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>VX</t>
+          <t>Bestune B70</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>2519900</v>
+        <v>1470000</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/exeed/vx/</t>
+          <t>https://auto-shop-21.ru/faw/bestune_b70</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2519900</t>
+          <t>1838000</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/exeed/vx/</t>
+          <t>https://avto-trend21.ru/auto/faw/bestune_b70/</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1470000</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/faw/bestune_b70</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2368,40 +2378,40 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Bestune B70</t>
+          <t>Bestune T55</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1470000</v>
+        <v>1446600</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/faw/bestune_b70</t>
+          <t>https://auto-shop-21.ru/faw/bestune_t55</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1838000</t>
+          <t>1849000</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/faw/bestune_b70/</t>
+          <t>https://avto-trend21.ru/auto/faw/bestune_t55/</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>1470000</v>
+        <v>1446600</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/faw/bestune_b70</t>
+          <t>https://auto-shop-21.ru/faw/bestune_t55</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2411,40 +2421,40 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Bestune T55</t>
+          <t>Bestune T77</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1446600</v>
+        <v>1439000</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/faw/bestune_t55</t>
+          <t>https://avto-trend21.ru/auto/faw/besturn_t77/</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1849000</t>
+          <t>1439000</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/faw/bestune_t55/</t>
+          <t>https://avto-trend21.ru/auto/faw/besturn_t77/</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>1446600</v>
+        <v>1718400</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/faw/bestune_t55</t>
+          <t>https://auto-shop-21.ru/faw/besturn_t77</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2454,40 +2464,32 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Bestune T77</t>
+          <t>Bestune T99</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1439000</v>
+        <v>2065000</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/faw/besturn_t77/</t>
+          <t>https://avto-trend21.ru/auto/faw/bestune_t99/</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1439000</t>
+          <t>2065000</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/faw/besturn_t77/</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>1718400</v>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/faw/besturn_t77</t>
+          <t>https://avto-trend21.ru/auto/faw/bestune_t99/</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2497,32 +2499,40 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Bestune T99</t>
+          <t>X40</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>2065000</v>
+        <v>835200</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/faw/bestune_t99/</t>
+          <t>https://auto-shop-21.ru/faw/x40</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2065000</t>
+          <t>889000</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/faw/bestune_t99/</t>
+          <t>https://avto-trend21.ru/auto/faw/x40/</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>835200</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/faw/x40</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2532,83 +2542,75 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>X40</t>
+          <t>X80</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>835200</v>
+        <v>904800</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/faw/x40</t>
+          <t>https://auto-shop-21.ru/faw/x80</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>889000</t>
+          <t>929000</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/faw/x40/</t>
+          <t>https://avto-trend21.ru/auto/faw/x80/</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>835200</v>
+        <v>904800</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/faw/x40</t>
+          <t>https://auto-shop-21.ru/faw/x80</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>FAW</t>
+          <t>Gac</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>X80</t>
+          <t>GS5</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>904800</v>
+        <v>1574300</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/faw/x80</t>
+          <t>https://avto-trend21.ru/auto/gac/gs5/</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>929000</t>
+          <t>1574300</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/faw/x80/</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>904800</v>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/faw/x80</t>
+          <t>https://avto-trend21.ru/auto/gac/gs5/</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2618,67 +2620,83 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>GS5</t>
+          <t>GS8</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1574300</v>
+        <v>2729300</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/gac/gs5/</t>
+          <t>https://avto-trend21.ru/auto/gac/gs8/</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1574300</t>
+          <t>2729300</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/gac/gs5/</t>
+          <t>https://avto-trend21.ru/auto/gac/gs8/</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Gac</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>GS8</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2729300</v>
+        <v>690000</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/gac/gs8/</t>
+          <t>https://avto-trend21.ru/auto/geely/atlas_1/</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2729300</t>
+          <t>690000</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/gac/gs8/</t>
+          <t>https://avto-trend21.ru/auto/geely/atlas_1/</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1337394</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/geely/atlas_1</t>
+        </is>
+      </c>
+      <c r="J54" t="n">
+        <v>3529990</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_16904.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2688,48 +2706,40 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>Atlas New</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>690000</v>
+        <v>1916994</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/atlas_1/</t>
+          <t>https://auto-shop-21.ru/geely/atlas</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>690000</t>
+          <t>2844990</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/atlas_1/</t>
+          <t>https://avto-trend21.ru/auto/geely/atlas/</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>1337394</v>
+        <v>1916994</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/atlas_1</t>
-        </is>
-      </c>
-      <c r="J55" t="n">
-        <v>3229990</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_15361.html</t>
+          <t>https://auto-shop-21.ru/geely/atlas</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2739,40 +2749,48 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Atlas New</t>
+          <t>Atlas Pro</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1916994</v>
+        <v>1658394</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/atlas</t>
+          <t>https://auto-shop-21.ru/geely/atlas_pro</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2844990</t>
+          <t>2233990</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/atlas/</t>
+          <t>https://avto-trend21.ru/auto/geely/atlas_pro/</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>1916994</v>
+        <v>1658394</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/atlas</t>
+          <t>https://auto-shop-21.ru/geely/atlas_pro</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>2798990</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_16772.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2782,48 +2800,40 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Atlas Pro</t>
+          <t>Belgee X50</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1658394</v>
+        <v>1374594</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/atlas_pro</t>
+          <t>https://auto-shop-21.ru/geely/belgee_x50</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2233990</t>
+          <t>1970990</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/atlas_pro/</t>
+          <t>https://avto-trend21.ru/auto/geely/belgee_x50/</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>1658394</v>
+        <v>1374594</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/atlas_pro</t>
-        </is>
-      </c>
-      <c r="J57" t="n">
-        <v>2798990</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_16771.html</t>
+          <t>https://auto-shop-21.ru/geely/belgee_x50</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2833,40 +2843,48 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Belgee X50</t>
+          <t>Coolray</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1374594</v>
+        <v>1406994</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/belgee_x50</t>
+          <t>https://auto-shop-21.ru/geely/coolray_1</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>1970990</t>
+          <t>2024990</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/belgee_x50/</t>
+          <t>https://avto-trend21.ru/auto/geely/coolray_1/</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>1374594</v>
+        <v>1406994</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/belgee_x50</t>
+          <t>https://auto-shop-21.ru/geely/coolray_1</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
+        <v>2639990</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_16500.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2876,48 +2894,40 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Coolray</t>
+          <t>Coolray New</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1406994</v>
+        <v>1565994</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/coolray_1</t>
+          <t>https://auto-shop-21.ru/geely/coolray</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2024990</t>
+          <t>2309990</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/coolray_1/</t>
+          <t>https://avto-trend21.ru/auto/geely/coolray/</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>1406994</v>
+        <v>1565994</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/coolray_1</t>
-        </is>
-      </c>
-      <c r="J59" t="n">
-        <v>2639990</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_16500.html</t>
+          <t>https://auto-shop-21.ru/geely/coolray</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2927,40 +2937,30 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Coolray New</t>
+          <t>Emgrand</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1565994</v>
+        <v>2119990</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/coolray</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>2309990</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/geely/coolray/</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>1565994</v>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/geely/coolray</t>
+          <t>https://alyans-auto.ru/auto/auto_16732.html</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>2119990</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_16732.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2970,30 +2970,40 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Emgrand</t>
+          <t>Emgrand New</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2119990</v>
+        <v>1205994</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16732.html</t>
-        </is>
-      </c>
-      <c r="J61" t="n">
-        <v>2119990</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_16732.html</t>
+          <t>https://auto-shop-21.ru/geely/emgrand</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1659990</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/geely/emgrand/</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1205994</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/geely/emgrand</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3003,40 +3013,40 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Emgrand New</t>
+          <t>Emgrand X7</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1205994</v>
+        <v>725994</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/emgrand</t>
+          <t>https://auto-shop-21.ru/geely/emgrand_x7</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>1659990</t>
+          <t>877990</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/emgrand/</t>
+          <t>https://avto-trend21.ru/auto/geely/emgrand_x7/</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>1205994</v>
+        <v>725994</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/emgrand</t>
+          <t>https://auto-shop-21.ru/geely/emgrand_x7</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3046,40 +3056,40 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Emgrand X7</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>725994</v>
+        <v>659994</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/emgrand_x7</t>
+          <t>https://auto-shop-21.ru/geely/gs</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>877990</t>
+          <t>699890</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/emgrand_x7/</t>
+          <t>https://avto-trend21.ru/auto/geely/gs/</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>725994</v>
+        <v>659994</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/emgrand_x7</t>
+          <t>https://auto-shop-21.ru/geely/gs</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3089,40 +3099,48 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>Monjaro</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>659994</v>
+        <v>2816994</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/gs</t>
+          <t>https://auto-shop-21.ru/geely/monjaro</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>699890</t>
+          <t>3794990</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/gs/</t>
+          <t>https://avto-trend21.ru/auto/geely/monjaro/</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>659994</v>
+        <v>2816994</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/gs</t>
+          <t>https://auto-shop-21.ru/geely/monjaro</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
+        <v>4574990</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_16160.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3132,48 +3150,38 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Monjaro</t>
+          <t>Okavango</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>2816994</v>
+        <v>2069994</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/monjaro</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>3794990</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/geely/monjaro/</t>
+          <t>https://auto-shop-21.ru/geely/okavango</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>2816994</v>
+        <v>2069994</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/monjaro</t>
+          <t>https://auto-shop-21.ru/geely/okavango</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>4574990</v>
+        <v>3479990</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16160.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16501.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3183,38 +3191,32 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Okavango</t>
+          <t>Okavango New</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>2069994</v>
+        <v>2999990</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/okavango</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>2069994</v>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/geely/okavango</t>
-        </is>
-      </c>
-      <c r="J66" t="n">
-        <v>3479990</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_16501.html</t>
+          <t>https://avto-trend21.ru/auto/geely/okavango/</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2999990</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/geely/okavango/</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3224,108 +3226,124 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Okavango New</t>
+          <t>Tugella New</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>2999990</v>
+        <v>2375994</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/okavango/</t>
+          <t>https://auto-shop-21.ru/geely/tugella</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2999990</t>
+          <t>3319990</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/okavango/</t>
+          <t>https://avto-trend21.ru/auto/geely/tugella/</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2375994</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/geely/tugella</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>Great Wall</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Tugella New</t>
+          <t>POER</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>2375994</v>
+        <v>3239000</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/tugella</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>3319990</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/geely/tugella/</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>2375994</v>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/geely/tugella</t>
+          <t>https://alyans-auto.ru/auto/auto_14970.html</t>
+        </is>
+      </c>
+      <c r="J68" t="n">
+        <v>3239000</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_14970.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Great Wall</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>POER</t>
+          <t>Dargo</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>3239000</v>
+        <v>1779000</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_14970.html</t>
+          <t>https://avto-trend21.ru/auto/haval/dargo/</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1779000</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/haval/dargo/</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1829400</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/haval/dargo</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>3239000</v>
+        <v>3449000</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_14970.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16158.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3335,48 +3353,40 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Dargo</t>
+          <t>Dargo X</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1779000</v>
+        <v>1959000</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/dargo/</t>
+          <t>https://avto-trend21.ru/auto/haval/dargo_x/</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>1779000</t>
+          <t>1959000</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/dargo/</t>
+          <t>https://avto-trend21.ru/auto/haval/dargo_x/</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>1829400</v>
+        <v>2009400</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/dargo</t>
-        </is>
-      </c>
-      <c r="J70" t="n">
-        <v>3449000</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_16158.html</t>
+          <t>https://auto-shop-21.ru/haval/dargo_x</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3386,33 +3396,23 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Dargo X</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1959000</v>
+        <v>2899000</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/dargo_x/</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>1959000</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/haval/dargo_x/</t>
-        </is>
-      </c>
-      <c r="H71" t="n">
-        <v>2009400</v>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/haval/dargo_x</t>
+          <t>https://alyans-auto.ru/auto/auto_16931.html</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
+        <v>2899000</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_16931.html</t>
         </is>
       </c>
     </row>
@@ -3730,11 +3730,11 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>2499000</v>
+        <v>2299000</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16416.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17053.html</t>
         </is>
       </c>
     </row>
@@ -4313,40 +4313,40 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>T8 Pro</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>3199000</v>
+        <v>2799900</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_15629.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16637.html</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>3199000</v>
+        <v>2799900</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_15629.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16637.html</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -4356,63 +4356,65 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>J8</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>2549900</v>
+        <v>4399000</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16800.html</t>
+          <t>https://alyans-auto.ru/auto/auto_14544.html</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>2549900</v>
+        <v>4399000</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16800.html</t>
+          <t>https://alyans-auto.ru/auto/auto_14544.html</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>J8</t>
+          <t>Dashing</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>4049000</v>
+        <v>1399900</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_15527.html</t>
-        </is>
-      </c>
-      <c r="J96" t="n">
-        <v>4049000</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_15527.html</t>
+          <t>https://avto-trend21.ru/auto/jetour/dashing/</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1399900</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/jetour/dashing/</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -4422,25 +4424,25 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Dashing</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1399900</v>
+        <v>2631300</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/dashing/</t>
+          <t>https://avto-trend21.ru/auto/jetour/t2/</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>1399900</t>
+          <t>2631300</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/dashing/</t>
+          <t>https://avto-trend21.ru/auto/jetour/t2/</t>
         </is>
       </c>
     </row>
@@ -5391,19 +5393,19 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>977500</v>
+        <v>981000</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16114.html</t>
+          <t>https://alyans-auto.ru/auto/auto_14792.html</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>977500</v>
+        <v>981000</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16114.html</t>
+          <t>https://alyans-auto.ru/auto/auto_14792.html</t>
         </is>
       </c>
     </row>
@@ -5579,11 +5581,11 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>926000</v>
+        <v>942500</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16764.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16930.html</t>
         </is>
       </c>
     </row>
@@ -7193,7 +7195,7 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>2049900</v>
+        <v>2229900</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -8726,7 +8728,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16534.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16765.html</t>
         </is>
       </c>
       <c r="J199" t="n">
@@ -8734,7 +8736,7 @@
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16534.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16765.html</t>
         </is>
       </c>
     </row>

--- a/xlsx/cheboksari.xlsx
+++ b/xlsx/cheboksari.xlsx
@@ -700,19 +700,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3129990</v>
+        <v>2754990</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16954.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17068.html</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>3129990</v>
+        <v>2754990</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16954.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17068.html</t>
         </is>
       </c>
     </row>
@@ -2783,7 +2783,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16772.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16771.html</t>
         </is>
       </c>
     </row>
@@ -3169,14 +3169,6 @@
           <t>https://auto-shop-21.ru/geely/okavango</t>
         </is>
       </c>
-      <c r="J65" t="n">
-        <v>3479990</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_16501.html</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3734,7 +3726,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17053.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17056.html</t>
         </is>
       </c>
     </row>
@@ -5397,7 +5389,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_14792.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16369.html</t>
         </is>
       </c>
       <c r="J120" t="n">
@@ -5405,7 +5397,7 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_14792.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16369.html</t>
         </is>
       </c>
     </row>
@@ -5581,11 +5573,11 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>942500</v>
+        <v>946000</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16930.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17042.html</t>
         </is>
       </c>
     </row>
@@ -7250,7 +7242,7 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16822.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16128.html</t>
         </is>
       </c>
     </row>

--- a/xlsx/cheboksari.xlsx
+++ b/xlsx/cheboksari.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K201"/>
+  <dimension ref="A1:K206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2305990</v>
+        <v>2343990</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>2305990</v>
+        <v>2343990</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -700,19 +700,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2754990</v>
+        <v>3237990</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17068.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16954.html</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>2754990</v>
+        <v>3237990</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17068.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16954.html</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1799900</v>
+        <v>1849900</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_15682.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17113.html</t>
         </is>
       </c>
       <c r="J10" t="n">
@@ -839,7 +839,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_15682.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17113.html</t>
         </is>
       </c>
     </row>
@@ -976,7 +976,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16854.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17112.html</t>
         </is>
       </c>
     </row>
@@ -1163,7 +1163,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>141</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1173,32 +1173,30 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Lamore</t>
+          <t>Hunter Plus</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2589900</v>
+        <v>3629900</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/changan/lamore/</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2589900</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/changan/lamore/</t>
+          <t>https://alyans-auto.ru/auto/auto_17442.html</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>3629900</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_17442.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>130</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1208,48 +1206,40 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>UNI-K</t>
+          <t>Lamore</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2183940</v>
+        <v>2589900</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/changan/uni-k</t>
+          <t>https://avto-trend21.ru/auto/changan/lamore/</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3449900</t>
+          <t>2589900</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/changan/uni-k/</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>2183940</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/changan/uni-k</t>
+          <t>https://avto-trend21.ru/auto/changan/lamore/</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>4269900</v>
+        <v>2839900</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_14095.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17441.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>120</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1259,30 +1249,48 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>UNI-S</t>
+          <t>UNI-K</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2749900</v>
+        <v>2183940</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16808.html</t>
+          <t>https://auto-shop-21.ru/changan/uni-k</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3449900</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/changan/uni-k/</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2183940</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/changan/uni-k</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>2749900</v>
+        <v>4369900</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16808.html</t>
+          <t>https://alyans-auto.ru/auto/auto_14095.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>127</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1292,32 +1300,30 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>UNI-T</t>
+          <t>UNI-S</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2759900</v>
+        <v>2849900</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/changan/uni-t/</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2759900</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/changan/uni-t/</t>
+          <t>https://alyans-auto.ru/auto/auto_16808.html</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>2849900</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_16808.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>126</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1327,91 +1333,91 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>UNI-V</t>
+          <t>UNI-T</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1715940</v>
+        <v>2759900</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/changan/uni-v</t>
+          <t>https://avto-trend21.ru/auto/changan/uni-t/</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2739900</t>
+          <t>2759900</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/changan/uni-v/</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>1715940</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/changan/uni-v</t>
+          <t>https://avto-trend21.ru/auto/changan/uni-t/</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>2929900</v>
+        <v>3169900</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_10200.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17443.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>123</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Chery</t>
+          <t>Changan</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Arrizo 8</t>
+          <t>UNI-V</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1414000</v>
+        <v>1715940</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/arrizo_8/</t>
+          <t>https://auto-shop-21.ru/changan/uni-v</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1414000</t>
+          <t>2739900</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/arrizo_8/</t>
+          <t>https://avto-trend21.ru/auto/changan/uni-v/</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>2046000</v>
+        <v>1715940</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chery/arrizo_8</t>
+          <t>https://auto-shop-21.ru/changan/uni-v</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>2929900</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_10200.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>143</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1421,40 +1427,40 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Tiggo 3</t>
+          <t>Arrizo 8</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>509940</v>
+        <v>1414000</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_3</t>
+          <t>https://avto-trend21.ru/auto/chery/arrizo_8/</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>533200</t>
+          <t>1414000</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_3/</t>
+          <t>https://avto-trend21.ru/auto/chery/arrizo_8/</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>509940</v>
+        <v>2046000</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_3</t>
+          <t>https://auto-shop-21.ru/chery/arrizo_8</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>147</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1464,40 +1470,40 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Tiggo 4</t>
+          <t>Tiggo 3</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>690000</v>
+        <v>509940</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_4/</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_3</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>690000</t>
+          <t>533200</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_4/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_3/</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1223940</v>
+        <v>509940</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_4</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_3</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1507,40 +1513,40 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Tiggo 4 Pro</t>
+          <t>Tiggo 4</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>740000</v>
+        <v>690000</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_4_pro/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_4/</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>740000</t>
+          <t>690000</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_4_pro/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_4/</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1272000</v>
+        <v>1223940</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_4_pro</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_4</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1550,40 +1556,40 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Tiggo 7</t>
+          <t>Tiggo 4 Pro</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>737940</v>
+        <v>740000</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_7</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_4_pro/</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>750000</t>
+          <t>740000</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_7/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_4_pro/</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>737940</v>
+        <v>1272000</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_7</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_4_pro</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>154</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1593,40 +1599,40 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Tiggo 7 Pro</t>
+          <t>Tiggo 7</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>890000</v>
+        <v>737940</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro/</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_7</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>890000</t>
+          <t>750000</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_7/</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>1542000</v>
+        <v>737940</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_7_pro</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_7</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1636,40 +1642,40 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Tiggo 7 Pro Max</t>
+          <t>Tiggo 7 Pro</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1090000</v>
+        <v>890000</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro_max_1/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro/</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1090000</t>
+          <t>890000</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro_max_1/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro/</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>1692000</v>
+        <v>1542000</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_7_pro_max</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_7_pro</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1679,32 +1685,40 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Tiggo 7 Pro Max New</t>
+          <t>Tiggo 7 Pro Max</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1939000</v>
+        <v>1090000</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro_max/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro_max_1/</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1939000</t>
+          <t>1090000</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro_max/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro_max_1/</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1692000</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/chery/tiggo_7_pro_max</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1714,40 +1728,32 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Tiggo 8</t>
+          <t>Tiggo 7 Pro Max New</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1189900</v>
+        <v>1939000</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_8/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro_max/</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1189900</t>
+          <t>1939000</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_8/</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>1638000</v>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_8</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro_max/</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1757,40 +1763,40 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Tiggo 8 Pro</t>
+          <t>Tiggo 8</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1229900</v>
+        <v>1189900</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_8/</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1229900</t>
+          <t>1189900</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_8/</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>2058000</v>
+        <v>1638000</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_8_pro</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_8</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1800,40 +1806,40 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Tiggo 8 Pro Max</t>
+          <t>Tiggo 8 Pro</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1549900</v>
+        <v>1229900</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro_max_1/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro/</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1549900</t>
+          <t>1229900</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro_max_1/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro/</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>2310600</v>
+        <v>2058000</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_8_pro_max_1</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_8_pro</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1843,83 +1849,83 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Tiggo 8 Pro Max New</t>
+          <t>Tiggo 8 Pro Max</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2189900</v>
+        <v>1549900</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro_max/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro_max_1/</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2189900</t>
+          <t>1549900</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro_max/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro_max_1/</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>2496000</v>
+        <v>2310600</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_8_pro_max</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_8_pro_max_1</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Chevrolet</t>
+          <t>Chery</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Cobalt</t>
+          <t>Tiggo 8 Pro Max New</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>572340</v>
+        <v>2189900</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chevrolet/cobalt</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro_max/</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>627900</t>
+          <t>2189900</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chevrolet/cobalt/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro_max/</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>572340</v>
+        <v>2496000</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chevrolet/cobalt</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_8_pro_max</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1929,40 +1935,40 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Nexia</t>
+          <t>Cobalt</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>528540</v>
+        <v>572340</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chevrolet/nexia</t>
+          <t>https://auto-shop-21.ru/chevrolet/cobalt</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>577900</t>
+          <t>627900</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chevrolet/nexia/</t>
+          <t>https://avto-trend21.ru/auto/chevrolet/cobalt/</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>528540</v>
+        <v>572340</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chevrolet/nexia</t>
+          <t>https://auto-shop-21.ru/chevrolet/cobalt</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1972,83 +1978,83 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Spark</t>
+          <t>Nexia</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>570540</v>
+        <v>528540</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chevrolet/spark</t>
+          <t>https://auto-shop-21.ru/chevrolet/nexia</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>637900</t>
+          <t>577900</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chevrolet/spark/</t>
+          <t>https://avto-trend21.ru/auto/chevrolet/nexia/</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>570540</v>
+        <v>528540</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chevrolet/spark</t>
+          <t>https://auto-shop-21.ru/chevrolet/nexia</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DFM</t>
+          <t>Chevrolet</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>Spark</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>809000</v>
+        <v>570540</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/dfm/580/</t>
+          <t>https://auto-shop-21.ru/chevrolet/spark</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>809000</t>
+          <t>637900</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/dfm/580/</t>
+          <t>https://avto-trend21.ru/auto/chevrolet/spark/</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>1374000</v>
+        <v>570540</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/dfm/580</t>
+          <t>https://auto-shop-21.ru/chevrolet/spark</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2058,83 +2064,83 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>AX7</t>
+          <t>580</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>710000</v>
+        <v>809000</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/dfm/ax7/</t>
+          <t>https://avto-trend21.ru/auto/dfm/580/</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>710000</t>
+          <t>809000</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/dfm/ax7/</t>
+          <t>https://avto-trend21.ru/auto/dfm/580/</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>737400</v>
+        <v>1374000</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/dfm/ax7</t>
+          <t>https://auto-shop-21.ru/dfm/580</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Datsun</t>
+          <t>DFM</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>MI-DO</t>
+          <t>AX7</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>332400</v>
+        <v>710000</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/datsun/mi-do</t>
+          <t>https://avto-trend21.ru/auto/dfm/ax7/</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>387000</t>
+          <t>710000</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/datsun/mi-do/</t>
+          <t>https://avto-trend21.ru/auto/dfm/ax7/</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>332400</v>
+        <v>737400</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/datsun/mi-do</t>
+          <t>https://auto-shop-21.ru/dfm/ax7</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2144,75 +2150,83 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ON-DO</t>
+          <t>MI-DO</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>318600</v>
+        <v>332400</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/datsun/on-do</t>
+          <t>https://auto-shop-21.ru/datsun/mi-do</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>364000</t>
+          <t>387000</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/datsun/on-do/</t>
+          <t>https://avto-trend21.ru/auto/datsun/mi-do/</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>318600</v>
+        <v>332400</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/datsun/on-do</t>
+          <t>https://auto-shop-21.ru/datsun/mi-do</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>EXEED</t>
+          <t>Datsun</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>LX</t>
+          <t>ON-DO</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1449900</v>
+        <v>318600</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/exeed/lx/</t>
+          <t>https://auto-shop-21.ru/datsun/on-do</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1449900</t>
+          <t>364000</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/exeed/lx/</t>
+          <t>https://avto-trend21.ru/auto/datsun/on-do/</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>318600</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/datsun/on-do</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2222,32 +2236,32 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>RX</t>
+          <t>LX</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2939900</v>
+        <v>1449900</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/exeed/rx/</t>
+          <t>https://avto-trend21.ru/auto/exeed/lx/</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2939900</t>
+          <t>1449900</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/exeed/rx/</t>
+          <t>https://avto-trend21.ru/auto/exeed/lx/</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2257,40 +2271,32 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>TXL</t>
+          <t>RX</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1439900</v>
+        <v>2939900</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/exeed/txl/</t>
+          <t>https://avto-trend21.ru/auto/exeed/rx/</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>1439900</t>
+          <t>2939900</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/exeed/txl/</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>2556000</v>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/exeed/txl</t>
+          <t>https://avto-trend21.ru/auto/exeed/rx/</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2300,75 +2306,75 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>VX</t>
+          <t>TXL</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>2519900</v>
+        <v>1439900</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/exeed/vx/</t>
+          <t>https://avto-trend21.ru/auto/exeed/txl/</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2519900</t>
+          <t>1439900</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/exeed/vx/</t>
+          <t>https://avto-trend21.ru/auto/exeed/txl/</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2556000</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/exeed/txl</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>FAW</t>
+          <t>EXEED</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Bestune B70</t>
+          <t>VX</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1470000</v>
+        <v>2519900</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/faw/bestune_b70</t>
+          <t>https://avto-trend21.ru/auto/exeed/vx/</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>1838000</t>
+          <t>2519900</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/faw/bestune_b70/</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>1470000</v>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/faw/bestune_b70</t>
+          <t>https://avto-trend21.ru/auto/exeed/vx/</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2378,40 +2384,40 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Bestune T55</t>
+          <t>Bestune B70</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1446600</v>
+        <v>1470000</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/faw/bestune_t55</t>
+          <t>https://auto-shop-21.ru/faw/bestune_b70</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1849000</t>
+          <t>1838000</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/faw/bestune_t55/</t>
+          <t>https://avto-trend21.ru/auto/faw/bestune_b70/</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>1446600</v>
+        <v>1470000</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/faw/bestune_t55</t>
+          <t>https://auto-shop-21.ru/faw/bestune_b70</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2421,40 +2427,40 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Bestune T77</t>
+          <t>Bestune T55</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1439000</v>
+        <v>1446600</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/faw/besturn_t77/</t>
+          <t>https://auto-shop-21.ru/faw/bestune_t55</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1439000</t>
+          <t>1849000</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/faw/besturn_t77/</t>
+          <t>https://avto-trend21.ru/auto/faw/bestune_t55/</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>1718400</v>
+        <v>1446600</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/faw/besturn_t77</t>
+          <t>https://auto-shop-21.ru/faw/bestune_t55</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2464,32 +2470,40 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Bestune T99</t>
+          <t>Bestune T77</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2065000</v>
+        <v>1439000</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/faw/bestune_t99/</t>
+          <t>https://avto-trend21.ru/auto/faw/besturn_t77/</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2065000</t>
+          <t>1439000</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/faw/bestune_t99/</t>
+          <t>https://avto-trend21.ru/auto/faw/besturn_t77/</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1718400</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/faw/besturn_t77</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2499,40 +2513,32 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>X40</t>
+          <t>Bestune T99</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>835200</v>
+        <v>2065000</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/faw/x40</t>
+          <t>https://avto-trend21.ru/auto/faw/bestune_t99/</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>889000</t>
+          <t>2065000</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/faw/x40/</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>835200</v>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/faw/x40</t>
+          <t>https://avto-trend21.ru/auto/faw/bestune_t99/</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2542,75 +2548,83 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>X80</t>
+          <t>X40</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>904800</v>
+        <v>835200</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/faw/x80</t>
+          <t>https://auto-shop-21.ru/faw/x40</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>929000</t>
+          <t>889000</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/faw/x80/</t>
+          <t>https://avto-trend21.ru/auto/faw/x40/</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>904800</v>
+        <v>835200</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/faw/x80</t>
+          <t>https://auto-shop-21.ru/faw/x40</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Gac</t>
+          <t>FAW</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>GS5</t>
+          <t>X80</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1574300</v>
+        <v>904800</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/gac/gs5/</t>
+          <t>https://auto-shop-21.ru/faw/x80</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1574300</t>
+          <t>929000</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/gac/gs5/</t>
+          <t>https://avto-trend21.ru/auto/faw/x80/</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>904800</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/faw/x80</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2620,83 +2634,67 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>GS8</t>
+          <t>GS5</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2729300</v>
+        <v>1574300</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/gac/gs8/</t>
+          <t>https://avto-trend21.ru/auto/gac/gs5/</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2729300</t>
+          <t>1574300</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/gac/gs8/</t>
+          <t>https://avto-trend21.ru/auto/gac/gs5/</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>Gac</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>GS8</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>690000</v>
+        <v>2729300</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/atlas_1/</t>
+          <t>https://avto-trend21.ru/auto/gac/gs8/</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>690000</t>
+          <t>2729300</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/atlas_1/</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>1337394</v>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/geely/atlas_1</t>
-        </is>
-      </c>
-      <c r="J54" t="n">
-        <v>3529990</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_16904.html</t>
+          <t>https://avto-trend21.ru/auto/gac/gs8/</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2706,40 +2704,48 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Atlas New</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1916994</v>
+        <v>690000</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/atlas</t>
+          <t>https://avto-trend21.ru/auto/geely/atlas_1/</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2844990</t>
+          <t>690000</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/atlas/</t>
+          <t>https://avto-trend21.ru/auto/geely/atlas_1/</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>1916994</v>
+        <v>1337394</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/atlas</t>
+          <t>https://auto-shop-21.ru/geely/atlas_1</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
+        <v>3293990</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_17090.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2749,48 +2755,40 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Atlas Pro</t>
+          <t>Atlas New</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1658394</v>
+        <v>1916994</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/atlas_pro</t>
+          <t>https://auto-shop-21.ru/geely/atlas</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2233990</t>
+          <t>2844990</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/atlas_pro/</t>
+          <t>https://avto-trend21.ru/auto/geely/atlas/</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>1658394</v>
+        <v>1916994</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/atlas_pro</t>
-        </is>
-      </c>
-      <c r="J56" t="n">
-        <v>2798990</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_16771.html</t>
+          <t>https://auto-shop-21.ru/geely/atlas</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2800,40 +2798,48 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Belgee X50</t>
+          <t>Atlas Pro</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1374594</v>
+        <v>1658394</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/belgee_x50</t>
+          <t>https://auto-shop-21.ru/geely/atlas_pro</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1970990</t>
+          <t>2233990</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/belgee_x50/</t>
+          <t>https://avto-trend21.ru/auto/geely/atlas_pro/</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>1374594</v>
+        <v>1658394</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/belgee_x50</t>
+          <t>https://auto-shop-21.ru/geely/atlas_pro</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>2836990</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_16771.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2843,48 +2849,40 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Coolray</t>
+          <t>Belgee X50</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1406994</v>
+        <v>1374594</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/coolray_1</t>
+          <t>https://auto-shop-21.ru/geely/belgee_x50</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2024990</t>
+          <t>1970990</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/coolray_1/</t>
+          <t>https://avto-trend21.ru/auto/geely/belgee_x50/</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>1406994</v>
+        <v>1374594</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/coolray_1</t>
-        </is>
-      </c>
-      <c r="J58" t="n">
-        <v>2639990</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_16500.html</t>
+          <t>https://auto-shop-21.ru/geely/belgee_x50</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>772</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2894,40 +2892,30 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Coolray New</t>
+          <t>Cityray</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1565994</v>
+        <v>2699990</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/coolray</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>2309990</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/geely/coolray/</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>1565994</v>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/geely/coolray</t>
+          <t>https://alyans-auto.ru/auto/auto_17236.html</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
+        <v>2699990</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_17236.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2937,30 +2925,48 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Emgrand</t>
+          <t>Coolray</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2119990</v>
+        <v>1406994</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16732.html</t>
+          <t>https://auto-shop-21.ru/geely/coolray_1</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2024990</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/geely/coolray_1/</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1406994</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/geely/coolray_1</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>2119990</v>
+        <v>2639990</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16732.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16505.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2970,40 +2976,40 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Emgrand New</t>
+          <t>Coolray New</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1205994</v>
+        <v>1565994</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/emgrand</t>
+          <t>https://auto-shop-21.ru/geely/coolray</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>1659990</t>
+          <t>2309990</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/emgrand/</t>
+          <t>https://avto-trend21.ru/auto/geely/coolray/</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>1205994</v>
+        <v>1565994</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/emgrand</t>
+          <t>https://auto-shop-21.ru/geely/coolray</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3013,40 +3019,30 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Emgrand X7</t>
+          <t>Emgrand</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>725994</v>
+        <v>2217990</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/emgrand_x7</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>877990</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/geely/emgrand_x7/</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>725994</v>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/geely/emgrand_x7</t>
+          <t>https://alyans-auto.ru/auto/auto_16732.html</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
+        <v>2217990</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_16732.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3056,40 +3052,40 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>Emgrand New</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>659994</v>
+        <v>1205994</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/gs</t>
+          <t>https://auto-shop-21.ru/geely/emgrand</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>699890</t>
+          <t>1659990</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/gs/</t>
+          <t>https://avto-trend21.ru/auto/geely/emgrand/</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>659994</v>
+        <v>1205994</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/gs</t>
+          <t>https://auto-shop-21.ru/geely/emgrand</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3099,48 +3095,40 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Monjaro</t>
+          <t>Emgrand X7</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2816994</v>
+        <v>725994</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/monjaro</t>
+          <t>https://auto-shop-21.ru/geely/emgrand_x7</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>3794990</t>
+          <t>877990</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/monjaro/</t>
+          <t>https://avto-trend21.ru/auto/geely/emgrand_x7/</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>2816994</v>
+        <v>725994</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/monjaro</t>
-        </is>
-      </c>
-      <c r="J64" t="n">
-        <v>4574990</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_16160.html</t>
+          <t>https://auto-shop-21.ru/geely/emgrand_x7</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3150,30 +3138,40 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Okavango</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>2069994</v>
+        <v>659994</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/okavango</t>
+          <t>https://auto-shop-21.ru/geely/gs</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>699890</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/geely/gs/</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>2069994</v>
+        <v>659994</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/okavango</t>
+          <t>https://auto-shop-21.ru/geely/gs</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3183,32 +3181,48 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Okavango New</t>
+          <t>Monjaro</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>2999990</v>
+        <v>2816994</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/okavango/</t>
+          <t>https://auto-shop-21.ru/geely/monjaro</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2999990</t>
+          <t>3794990</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/okavango/</t>
+          <t>https://avto-trend21.ru/auto/geely/monjaro/</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2816994</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/geely/monjaro</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>4732990</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_16160.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3218,200 +3232,182 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Tugella New</t>
+          <t>Okavango</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>2375994</v>
+        <v>2069994</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/tugella</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>3319990</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/geely/tugella/</t>
+          <t>https://auto-shop-21.ru/geely/okavango</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>2375994</v>
+        <v>2069994</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/tugella</t>
+          <t>https://auto-shop-21.ru/geely/okavango</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
+        <v>3528990</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_16501.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Great Wall</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>POER</t>
+          <t>Okavango New</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>3239000</v>
+        <v>2999990</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_14970.html</t>
-        </is>
-      </c>
-      <c r="J68" t="n">
-        <v>3239000</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_14970.html</t>
+          <t>https://avto-trend21.ru/auto/geely/okavango/</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2999990</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/geely/okavango/</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>773</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Dargo</t>
+          <t>Preface FS11</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1779000</v>
+        <v>3338990</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/dargo/</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>1779000</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/haval/dargo/</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
-        <v>1829400</v>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/haval/dargo</t>
+          <t>https://alyans-auto.ru/auto/auto_16141.html</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>3449000</v>
+        <v>3338990</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16158.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16141.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Dargo X</t>
+          <t>Tugella New</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1959000</v>
+        <v>2375994</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/dargo_x/</t>
+          <t>https://auto-shop-21.ru/geely/tugella</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>1959000</t>
+          <t>3319990</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/dargo_x/</t>
+          <t>https://avto-trend21.ru/auto/geely/tugella/</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>2009400</v>
+        <v>2375994</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/dargo_x</t>
+          <t>https://auto-shop-21.ru/geely/tugella</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Great Wall</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>POER</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>2899000</v>
+        <v>3239000</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16931.html</t>
+          <t>https://alyans-auto.ru/auto/auto_14970.html</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>2899000</v>
+        <v>3239000</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16931.html</t>
+          <t>https://alyans-auto.ru/auto/auto_14970.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3421,40 +3417,48 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>F7 New</t>
+          <t>Dargo</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1219000</v>
+        <v>1779000</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/f7/</t>
+          <t>https://avto-trend21.ru/auto/haval/dargo/</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>1219000</t>
+          <t>1779000</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/f7/</t>
+          <t>https://avto-trend21.ru/auto/haval/dargo/</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>1469400</v>
+        <v>1829400</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/f7</t>
+          <t>https://auto-shop-21.ru/haval/dargo</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
+        <v>3449000</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_16159.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3464,30 +3468,40 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>F7x</t>
+          <t>Dargo X</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>3399000</v>
+        <v>1959000</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_12214.html</t>
-        </is>
-      </c>
-      <c r="J73" t="n">
-        <v>3399000</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_12214.html</t>
+          <t>https://avto-trend21.ru/auto/haval/dargo_x/</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1959000</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/haval/dargo_x/</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2009400</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/haval/dargo_x</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3497,40 +3511,30 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>F7x New</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1269000</v>
+        <v>2699000</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/f7x/</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>1269000</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/haval/f7x/</t>
-        </is>
-      </c>
-      <c r="H74" t="n">
-        <v>1469400</v>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/haval/f7x</t>
+          <t>https://alyans-auto.ru/auto/auto_17452.html</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
+        <v>2699000</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_17452.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3540,40 +3544,40 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>F7 New</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>676800</v>
+        <v>1219000</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/h2</t>
+          <t>https://avto-trend21.ru/auto/haval/f7/</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>878000</t>
+          <t>1219000</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/h2/</t>
+          <t>https://avto-trend21.ru/auto/haval/f7/</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>676800</v>
+        <v>1469400</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/h2</t>
+          <t>https://auto-shop-21.ru/haval/f7</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3583,30 +3587,30 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>F7x</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>917400</v>
+        <v>3399000</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/h5</t>
-        </is>
-      </c>
-      <c r="H76" t="n">
-        <v>917400</v>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/haval/h5</t>
+          <t>https://alyans-auto.ru/auto/auto_12322.html</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
+        <v>3399000</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_12322.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3616,40 +3620,40 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>H6</t>
+          <t>F7x New</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>688800</v>
+        <v>1269000</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/h6</t>
+          <t>https://avto-trend21.ru/auto/haval/f7x/</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>898000</t>
+          <t>1269000</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/h6/</t>
+          <t>https://avto-trend21.ru/auto/haval/f7x/</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>688800</v>
+        <v>1469400</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/h6</t>
+          <t>https://auto-shop-21.ru/haval/f7x</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3659,30 +3663,40 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>H9</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>2459400</v>
+        <v>676800</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/h9</t>
+          <t>https://auto-shop-21.ru/haval/h2</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>878000</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/haval/h2/</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>2459400</v>
+        <v>676800</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/h9</t>
+          <t>https://auto-shop-21.ru/haval/h2</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3692,48 +3706,30 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Jolion</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>689900</v>
+        <v>917400</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/jolion_1/</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>689900</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/haval/jolion_1/</t>
+          <t>https://auto-shop-21.ru/haval/h5</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>1169400</v>
+        <v>917400</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/jolion_1</t>
-        </is>
-      </c>
-      <c r="J79" t="n">
-        <v>2299000</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_17056.html</t>
+          <t>https://auto-shop-21.ru/haval/h5</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3743,40 +3739,40 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Jolion New</t>
+          <t>H6</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>990000</v>
+        <v>688800</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/jolion/</t>
+          <t>https://auto-shop-21.ru/haval/h6</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>990000</t>
+          <t>898000</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/jolion/</t>
+          <t>https://avto-trend21.ru/auto/haval/h6/</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>1199400</v>
+        <v>688800</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/jolion</t>
+          <t>https://auto-shop-21.ru/haval/h6</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3786,161 +3782,167 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>M6</t>
+          <t>H9</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>736000</v>
+        <v>2459400</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/m6/</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>736000</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/haval/m6/</t>
+          <t>https://auto-shop-21.ru/haval/h9</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2459400</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/haval/h9</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Creta New</t>
+          <t>Jolion</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>864000</v>
+        <v>689900</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/creta/</t>
+          <t>https://avto-trend21.ru/auto/haval/jolion_1/</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>864000</t>
+          <t>689900</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/creta/</t>
+          <t>https://avto-trend21.ru/auto/haval/jolion_1/</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>1115400</v>
+        <v>1169400</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/hyundai/creta</t>
+          <t>https://auto-shop-21.ru/haval/jolion_1</t>
+        </is>
+      </c>
+      <c r="J82" t="n">
+        <v>2299000</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_17459.html</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Elantra New</t>
+          <t>Jolion New</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1069000</v>
+        <v>990000</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/elantra/</t>
+          <t>https://avto-trend21.ru/auto/haval/jolion/</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>1069000</t>
+          <t>990000</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/elantra/</t>
+          <t>https://avto-trend21.ru/auto/haval/jolion/</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>1289400</v>
+        <v>1199400</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/hyundai/elantra</t>
+          <t>https://auto-shop-21.ru/haval/jolion</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>M6</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>619000</v>
+        <v>736000</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/solaris/</t>
+          <t>https://avto-trend21.ru/auto/haval/m6/</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>619000</t>
+          <t>736000</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/solaris/</t>
-        </is>
-      </c>
-      <c r="H84" t="n">
-        <v>844800</v>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/hyundai/solaris</t>
+          <t>https://avto-trend21.ru/auto/haval/m6/</t>
+        </is>
+      </c>
+      <c r="J84" t="n">
+        <v>2179000</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_17420.html</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3950,40 +3952,40 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Sonata</t>
+          <t>Creta New</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1370000</v>
+        <v>864000</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/sonata/</t>
+          <t>https://avto-trend21.ru/auto/hyundai/creta/</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>1370000</t>
+          <t>864000</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/sonata/</t>
+          <t>https://avto-trend21.ru/auto/hyundai/creta/</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>1661400</v>
+        <v>1115400</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/hyundai/sonata</t>
+          <t>https://auto-shop-21.ru/hyundai/creta</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3993,157 +3995,169 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Tucson New</t>
+          <t>Elantra New</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1394000</v>
+        <v>1069000</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/tucson/</t>
+          <t>https://avto-trend21.ru/auto/hyundai/elantra/</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1394000</t>
+          <t>1069000</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/tucson/</t>
+          <t>https://avto-trend21.ru/auto/hyundai/elantra/</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>1649400</v>
+        <v>1289400</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/hyundai/tucson</t>
+          <t>https://auto-shop-21.ru/hyundai/elantra</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1277400</v>
+        <v>619000</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jac/j7</t>
+          <t>https://avto-trend21.ru/auto/hyundai/solaris/</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>1799000</t>
+          <t>619000</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jac/j7/</t>
+          <t>https://avto-trend21.ru/auto/hyundai/solaris/</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>1277400</v>
+        <v>844800</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jac/j7</t>
-        </is>
-      </c>
-      <c r="J87" t="n">
-        <v>2099000</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_8435.html</t>
+          <t>https://auto-shop-21.ru/hyundai/solaris</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>JS3</t>
+          <t>Sonata</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1849000</v>
+        <v>1370000</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16272.html</t>
-        </is>
-      </c>
-      <c r="J88" t="n">
-        <v>1849000</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_16272.html</t>
+          <t>https://avto-trend21.ru/auto/hyundai/sonata/</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1370000</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/hyundai/sonata/</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1661400</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/hyundai/sonata</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>JS6</t>
+          <t>Tucson New</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>2399000</v>
+        <v>1394000</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_13473.html</t>
-        </is>
-      </c>
-      <c r="J89" t="n">
-        <v>2399000</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_13473.html</t>
+          <t>https://avto-trend21.ru/auto/hyundai/tucson/</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1394000</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/hyundai/tucson/</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1649400</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/hyundai/tucson</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4153,40 +4167,48 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>439000</v>
+        <v>1277400</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jac/s3/</t>
+          <t>https://auto-shop-21.ru/jac/j7</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>439000</t>
+          <t>1799000</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jac/s3/</t>
+          <t>https://avto-trend21.ru/auto/jac/j7/</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>839400</v>
+        <v>1277400</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jac/s3</t>
+          <t>https://auto-shop-21.ru/jac/j7</t>
+        </is>
+      </c>
+      <c r="J90" t="n">
+        <v>2099000</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_8435.html</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4196,40 +4218,30 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>JS3</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>683400</v>
+        <v>1849000</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jac/s5</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>687000</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/jac/s5/</t>
-        </is>
-      </c>
-      <c r="H91" t="n">
-        <v>683400</v>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/jac/s5</t>
+          <t>https://alyans-auto.ru/auto/auto_16272.html</t>
+        </is>
+      </c>
+      <c r="J91" t="n">
+        <v>1849000</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_16272.html</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4239,40 +4251,30 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>JS6</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1067400</v>
+        <v>2399000</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jac/s7</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>1209000</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/jac/s7/</t>
-        </is>
-      </c>
-      <c r="H92" t="n">
-        <v>1067400</v>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/jac/s7</t>
+          <t>https://alyans-auto.ru/auto/auto_13473.html</t>
+        </is>
+      </c>
+      <c r="J92" t="n">
+        <v>2399000</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_13473.html</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4282,752 +4284,732 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2665500</v>
+        <v>439000</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_8940.html</t>
-        </is>
-      </c>
-      <c r="J93" t="n">
-        <v>2665500</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_8940.html</t>
+          <t>https://avto-trend21.ru/auto/jac/s3/</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>439000</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/jac/s3/</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>839400</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/jac/s3</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>2799900</v>
+        <v>683400</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16637.html</t>
-        </is>
-      </c>
-      <c r="J94" t="n">
-        <v>2799900</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_16637.html</t>
+          <t>https://auto-shop-21.ru/jac/s5</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>687000</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/jac/s5/</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>683400</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/jac/s5</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>J8</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>4399000</v>
+        <v>1067400</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_14544.html</t>
-        </is>
-      </c>
-      <c r="J95" t="n">
-        <v>4399000</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_14544.html</t>
+          <t>https://auto-shop-21.ru/jac/s7</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1209000</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/jac/s7/</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>1067400</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/jac/s7</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Dashing</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1399900</v>
+        <v>2665500</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/dashing/</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>1399900</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/jetour/dashing/</t>
+          <t>https://alyans-auto.ru/auto/auto_8940.html</t>
+        </is>
+      </c>
+      <c r="J96" t="n">
+        <v>2665500</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_8940.html</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T8 Pro</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>2631300</v>
+        <v>3199000</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/t2/</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>2631300</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/jetour/t2/</t>
+          <t>https://alyans-auto.ru/auto/auto_15629.html</t>
+        </is>
+      </c>
+      <c r="J97" t="n">
+        <v>3199000</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_15629.html</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>682</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>X70 Plus</t>
+          <t>T9</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1809900</v>
+        <v>3399000</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/x70_plus/</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>1809900</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/jetour/x70_plus/</t>
+          <t>https://alyans-auto.ru/auto/auto_17499.html</t>
+        </is>
+      </c>
+      <c r="J98" t="n">
+        <v>3399000</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_17499.html</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>X90 Plus</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>2149900</v>
+        <v>2649900</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/x90_plus/</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>2149900</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/jetour/x90_plus/</t>
+          <t>https://alyans-auto.ru/auto/auto_16801.html</t>
+        </is>
+      </c>
+      <c r="J99" t="n">
+        <v>2649900</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_16801.html</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>VA3</t>
+          <t>J8</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>890000</v>
+        <v>4499000</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/va3/</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>890000</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/jetta/va3/</t>
-        </is>
-      </c>
-      <c r="H100" t="n">
-        <v>1232400</v>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/jetta/va3</t>
+          <t>https://alyans-auto.ru/auto/auto_17485.html</t>
+        </is>
+      </c>
+      <c r="J100" t="n">
+        <v>4499000</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_17485.html</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>VS5</t>
+          <t>Dashing</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1190000</v>
+        <v>1399900</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/vs5/</t>
+          <t>https://avto-trend21.ru/auto/jetour/dashing/</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>1190000</t>
+          <t>1399900</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/vs5/</t>
-        </is>
-      </c>
-      <c r="H101" t="n">
-        <v>1477200</v>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/jetta/vs5</t>
+          <t>https://avto-trend21.ru/auto/jetour/dashing/</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>VS7</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1349000</v>
+        <v>2631300</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/vs7/</t>
+          <t>https://avto-trend21.ru/auto/jetour/t2/</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>1349000</t>
+          <t>2631300</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/vs7/</t>
-        </is>
-      </c>
-      <c r="H102" t="n">
-        <v>1759800</v>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/jetta/vs7</t>
+          <t>https://avto-trend21.ru/auto/jetour/t2/</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>X70 Plus</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1299000</v>
+        <v>1809900</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kaiyi/e5/</t>
+          <t>https://avto-trend21.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>1299000</t>
+          <t>1809900</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kaiyi/e5/</t>
-        </is>
-      </c>
-      <c r="H103" t="n">
-        <v>1317000</v>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/kaiyi/e5</t>
+          <t>https://avto-trend21.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>X3</t>
+          <t>X90 Plus</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>1342800</v>
+        <v>2149900</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x3</t>
+          <t>https://avto-trend21.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>1417650</t>
+          <t>2149900</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kaiyi/x3/</t>
-        </is>
-      </c>
-      <c r="H104" t="n">
-        <v>1342800</v>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/kaiyi/x3</t>
+          <t>https://avto-trend21.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>VA3</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1508940</v>
+        <v>890000</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x3_pro</t>
+          <t>https://avto-trend21.ru/auto/jetta/va3/</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>1790000</t>
+          <t>890000</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://avto-trend21.ru/auto/jetta/va3/</t>
         </is>
       </c>
       <c r="H105" t="n">
-        <v>1508940</v>
+        <v>1232400</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x3_pro</t>
+          <t>https://auto-shop-21.ru/jetta/va3</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>X7 Kunlun</t>
+          <t>VS5</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1798740</v>
+        <v>1190000</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x7_kunlun</t>
+          <t>https://avto-trend21.ru/auto/jetta/vs5/</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2197900</t>
+          <t>1190000</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://avto-trend21.ru/auto/jetta/vs5/</t>
         </is>
       </c>
       <c r="H106" t="n">
-        <v>1798740</v>
+        <v>1477200</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x7_kunlun</t>
+          <t>https://auto-shop-21.ru/jetta/vs5</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Ceed</t>
+          <t>VS7</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>713000</v>
+        <v>1349000</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/ceed/</t>
+          <t>https://avto-trend21.ru/auto/jetta/vs7/</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>713000</t>
+          <t>1349000</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/ceed/</t>
+          <t>https://avto-trend21.ru/auto/jetta/vs7/</t>
         </is>
       </c>
       <c r="H107" t="n">
-        <v>1346940</v>
+        <v>1759800</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/ceed</t>
+          <t>https://auto-shop-21.ru/jetta/vs7</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Ceed SW</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>723000</v>
+        <v>1299000</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/ceed_sw/</t>
+          <t>https://avto-trend21.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>723000</t>
+          <t>1299000</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/ceed_sw/</t>
+          <t>https://avto-trend21.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
       <c r="H108" t="n">
-        <v>1388940</v>
+        <v>1317000</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/ceed_sw</t>
+          <t>https://auto-shop-21.ru/kaiyi/e5</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Cerato</t>
+          <t>X3</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>850000</v>
+        <v>1342800</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/cerato/</t>
+          <t>https://auto-shop-21.ru/kaiyi/x3</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>850000</t>
+          <t>1417650</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/cerato/</t>
+          <t>https://avto-trend21.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
       <c r="H109" t="n">
-        <v>1232940</v>
+        <v>1342800</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/cerato</t>
+          <t>https://auto-shop-21.ru/kaiyi/x3</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>1149000</v>
+        <v>1508940</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/k5/</t>
+          <t>https://auto-shop-21.ru/kaiyi/x3_pro</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>1149000</t>
+          <t>1790000</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/k5/</t>
+          <t>https://avto-trend21.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
       <c r="H110" t="n">
-        <v>1640940</v>
+        <v>1508940</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/k5</t>
+          <t>https://auto-shop-21.ru/kaiyi/x3_pro</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Picanto</t>
+          <t>X7 Kunlun</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>619900</v>
+        <v>1798740</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/picanto/</t>
+          <t>https://auto-shop-21.ru/kaiyi/x7_kunlun</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>619900</t>
+          <t>2197900</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/picanto/</t>
+          <t>https://avto-trend21.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
       <c r="H111" t="n">
-        <v>800940</v>
+        <v>1798740</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/picanto</t>
+          <t>https://auto-shop-21.ru/kaiyi/x7_kunlun</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -5037,40 +5019,40 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>ProCeed</t>
+          <t>Ceed</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1121940</v>
+        <v>713000</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/proceed</t>
+          <t>https://avto-trend21.ru/auto/kia/ceed/</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>1134700</t>
+          <t>713000</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/proceed/</t>
+          <t>https://avto-trend21.ru/auto/kia/ceed/</t>
         </is>
       </c>
       <c r="H112" t="n">
-        <v>1121940</v>
+        <v>1346940</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/proceed</t>
+          <t>https://auto-shop-21.ru/kia/ceed</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -5080,40 +5062,40 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Rio</t>
+          <t>Ceed SW</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>564000</v>
+        <v>723000</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio/</t>
+          <t>https://avto-trend21.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>564000</t>
+          <t>723000</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio/</t>
+          <t>https://avto-trend21.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
       <c r="H113" t="n">
-        <v>860940</v>
+        <v>1388940</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/rio</t>
+          <t>https://auto-shop-21.ru/kia/ceed_sw</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -5123,40 +5105,40 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Rio X</t>
+          <t>Cerato</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>650000</v>
+        <v>850000</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio_x/</t>
+          <t>https://avto-trend21.ru/auto/kia/cerato/</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>650000</t>
+          <t>850000</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio_x/</t>
+          <t>https://avto-trend21.ru/auto/kia/cerato/</t>
         </is>
       </c>
       <c r="H114" t="n">
-        <v>944940</v>
+        <v>1232940</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/rio_x</t>
+          <t>https://auto-shop-21.ru/kia/cerato</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -5166,40 +5148,40 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Rio X-Line</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>557000</v>
+        <v>1149000</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio_x-line/</t>
+          <t>https://avto-trend21.ru/auto/kia/k5/</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>557000</t>
+          <t>1149000</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio_x-line/</t>
+          <t>https://avto-trend21.ru/auto/kia/k5/</t>
         </is>
       </c>
       <c r="H115" t="n">
-        <v>563940</v>
+        <v>1640940</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/rio_x-line</t>
+          <t>https://auto-shop-21.ru/kia/k5</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -5209,40 +5191,40 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Seltos</t>
+          <t>Picanto</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>790000</v>
+        <v>619900</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/seltos/</t>
+          <t>https://avto-trend21.ru/auto/kia/picanto/</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>790000</t>
+          <t>619900</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/seltos/</t>
+          <t>https://avto-trend21.ru/auto/kia/picanto/</t>
         </is>
       </c>
       <c r="H116" t="n">
-        <v>1175940</v>
+        <v>800940</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/seltos</t>
+          <t>https://auto-shop-21.ru/kia/picanto</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -5252,40 +5234,40 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Soul</t>
+          <t>ProCeed</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>638000</v>
+        <v>1121940</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/soul/</t>
+          <t>https://auto-shop-21.ru/kia/proceed</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>638000</t>
+          <t>1134700</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/soul/</t>
+          <t>https://avto-trend21.ru/auto/kia/proceed/</t>
         </is>
       </c>
       <c r="H117" t="n">
-        <v>1097940</v>
+        <v>1121940</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/soul</t>
+          <t>https://auto-shop-21.ru/kia/proceed</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -5295,40 +5277,40 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Sportage 5</t>
+          <t>Rio</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>1046000</v>
+        <v>564000</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/sportage/</t>
+          <t>https://avto-trend21.ru/auto/kia/rio/</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>1046000</t>
+          <t>564000</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/sportage/</t>
+          <t>https://avto-trend21.ru/auto/kia/rio/</t>
         </is>
       </c>
       <c r="H118" t="n">
-        <v>1709940</v>
+        <v>860940</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/sportage</t>
+          <t>https://auto-shop-21.ru/kia/rio</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -5338,253 +5320,255 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>XCeed</t>
+          <t>Rio X</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>964900</v>
+        <v>650000</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/xceed/</t>
+          <t>https://avto-trend21.ru/auto/kia/rio_x/</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>964900</t>
+          <t>650000</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/xceed/</t>
+          <t>https://avto-trend21.ru/auto/kia/rio_x/</t>
         </is>
       </c>
       <c r="H119" t="n">
-        <v>1580940</v>
+        <v>944940</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/xceed</t>
+          <t>https://auto-shop-21.ru/kia/rio_x</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>701</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>4x4 3 двери</t>
+          <t>Rio X-Line</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>981000</v>
+        <v>557000</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16369.html</t>
-        </is>
-      </c>
-      <c r="J120" t="n">
-        <v>981000</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_16369.html</t>
+          <t>https://avto-trend21.ru/auto/kia/rio_x-line/</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>557000</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/kia/rio_x-line/</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>563940</v>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/kia/rio_x-line</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Granta Cross</t>
+          <t>Seltos</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>426900</v>
+        <v>790000</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_cross/</t>
+          <t>https://avto-trend21.ru/auto/kia/seltos/</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>426900</t>
+          <t>790000</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_cross/</t>
+          <t>https://avto-trend21.ru/auto/kia/seltos/</t>
         </is>
       </c>
       <c r="H121" t="n">
-        <v>567540</v>
+        <v>1175940</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/granta_cross</t>
+          <t>https://auto-shop-21.ru/kia/seltos</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Granta Hatchback</t>
+          <t>Soul</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>378810</v>
+        <v>638000</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_hatchback/</t>
+          <t>https://avto-trend21.ru/auto/kia/soul/</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>378810</t>
+          <t>638000</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_hatchback/</t>
+          <t>https://avto-trend21.ru/auto/kia/soul/</t>
         </is>
       </c>
       <c r="H122" t="n">
-        <v>467100</v>
+        <v>1097940</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/granta_hatchback</t>
+          <t>https://auto-shop-21.ru/kia/soul</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>Sportage 5</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>375610</v>
+        <v>1046000</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_liftback/</t>
+          <t>https://avto-trend21.ru/auto/kia/sportage/</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>375610</t>
+          <t>1046000</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_liftback/</t>
+          <t>https://avto-trend21.ru/auto/kia/sportage/</t>
         </is>
       </c>
       <c r="H123" t="n">
-        <v>443940</v>
+        <v>1709940</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/granta_liftback</t>
+          <t>https://auto-shop-21.ru/kia/sportage</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>XCeed</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>358510</v>
+        <v>964900</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_sedan/</t>
+          <t>https://avto-trend21.ru/auto/kia/xceed/</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>358510</t>
+          <t>964900</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_sedan/</t>
+          <t>https://avto-trend21.ru/auto/kia/xceed/</t>
         </is>
       </c>
       <c r="H124" t="n">
-        <v>419940</v>
+        <v>1580940</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/granta_sedan</t>
-        </is>
-      </c>
-      <c r="J124" t="n">
-        <v>946000</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_17042.html</t>
+          <t>https://auto-shop-21.ru/kia/xceed</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>701</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -5594,40 +5578,30 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Granta Sedan Drive Active</t>
+          <t>4x4 3 двери</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>419000</v>
+        <v>981000</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_drive_active/</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>419000</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_drive_active/</t>
-        </is>
-      </c>
-      <c r="H125" t="n">
-        <v>620940</v>
-      </c>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/lada/granta_drive_active</t>
+          <t>https://alyans-auto.ru/auto/auto_14792.html</t>
+        </is>
+      </c>
+      <c r="J125" t="n">
+        <v>981000</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_14792.html</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -5637,40 +5611,40 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Granta Universal</t>
+          <t>Granta Cross</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>376800</v>
+        <v>426900</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_universal/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>376800</t>
+          <t>426900</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_universal/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
       <c r="H126" t="n">
-        <v>431580</v>
+        <v>567540</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/granta_universal</t>
+          <t>https://auto-shop-21.ru/lada/granta_cross</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -5680,30 +5654,40 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Largus</t>
+          <t>Granta Hatchback</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1656500</v>
+        <v>378810</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16127.html</t>
-        </is>
-      </c>
-      <c r="J127" t="n">
-        <v>1656500</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_16127.html</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_hatchback/</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>378810</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/lada/granta_hatchback/</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>467100</v>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/lada/granta_hatchback</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -5713,40 +5697,40 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Largus Cross New</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>629000</v>
+        <v>375610</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/largus_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>629000</t>
+          <t>375610</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/largus_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
       <c r="H128" t="n">
-        <v>866340</v>
+        <v>443940</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/largus_cross</t>
+          <t>https://auto-shop-21.ru/lada/granta_liftback</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -5756,40 +5740,48 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Largus New</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>501000</v>
+        <v>358510</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/largus/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>501000</t>
+          <t>358510</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/largus/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
       <c r="H129" t="n">
-        <v>780540</v>
+        <v>419940</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/largus</t>
+          <t>https://auto-shop-21.ru/lada/granta_sedan</t>
+        </is>
+      </c>
+      <c r="J129" t="n">
+        <v>926000</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_17489.html</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -5799,40 +5791,40 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Largus Фургон New</t>
+          <t>Granta Sedan Drive Active</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>541610</v>
+        <v>419000</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/largus_furgon/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>541610</t>
+          <t>419000</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/largus_furgon/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
       <c r="H130" t="n">
-        <v>781140</v>
+        <v>620940</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/largus_furgon</t>
+          <t>https://auto-shop-21.ru/lada/granta_drive_active</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -5842,40 +5834,40 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Niva</t>
+          <t>Granta Universal</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>582200</v>
+        <v>376800</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/niva/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>582200</t>
+          <t>376800</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/niva/</t>
-        </is>
-      </c>
-      <c r="J131" t="n">
-        <v>1310500</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_14903.html</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_universal/</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>431580</v>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/lada/granta_universal</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -5885,32 +5877,30 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Largus</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>451710</v>
+        <v>1656500</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/4x4_3_dv/</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>451710</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://alyans-auto.ru/auto/auto_16226.html</t>
+        </is>
+      </c>
+      <c r="J132" t="n">
+        <v>1656500</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_16226.html</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -5920,32 +5910,40 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Niva Legend 5 дверей</t>
+          <t>Largus Cross New</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>490410</v>
+        <v>629000</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://avto-trend21.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>490410</t>
+          <t>629000</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://avto-trend21.ru/auto/lada/largus_cross/</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>866340</v>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/lada/largus_cross</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -5955,40 +5953,40 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Largus New</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>549000</v>
+        <v>501000</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/niva_travel/</t>
+          <t>https://avto-trend21.ru/auto/lada/largus/</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>549000</t>
+          <t>501000</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/niva_travel/</t>
+          <t>https://avto-trend21.ru/auto/lada/largus/</t>
         </is>
       </c>
       <c r="H134" t="n">
-        <v>719340</v>
+        <v>780540</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/niva_travel</t>
+          <t>https://auto-shop-21.ru/lada/largus</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -5998,40 +5996,40 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>Largus Фургон New</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>569000</v>
+        <v>541610</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>569000</t>
+          <t>541610</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
       <c r="H135" t="n">
-        <v>761940</v>
+        <v>781140</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_cross_1</t>
+          <t>https://auto-shop-21.ru/lada/largus_furgon</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -6041,40 +6039,40 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Vesta Cross New</t>
+          <t>Niva</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>619000</v>
+        <v>582200</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/niva/</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>619000</t>
+          <t>582200</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cross/</t>
-        </is>
-      </c>
-      <c r="H136" t="n">
-        <v>1040340</v>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/lada/vesta_cross</t>
+          <t>https://avto-trend21.ru/auto/lada/niva/</t>
+        </is>
+      </c>
+      <c r="J136" t="n">
+        <v>1310500</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_14903.html</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -6084,40 +6082,32 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>559000</v>
+        <v>451710</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>559000</t>
+          <t>451710</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_1/</t>
-        </is>
-      </c>
-      <c r="H137" t="n">
-        <v>728340</v>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/lada/vesta_sw_1</t>
+          <t>https://avto-trend21.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -6127,40 +6117,32 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>Niva Legend 5 дверей</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>619000</v>
+        <v>490410</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>619000</t>
+          <t>490410</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross_1/</t>
-        </is>
-      </c>
-      <c r="H138" t="n">
-        <v>797340</v>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/lada/vesta_sw_cross_1</t>
+          <t>https://avto-trend21.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -6170,40 +6152,40 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Vesta SW Cross New</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>669000</v>
+        <v>549000</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>669000</t>
+          <t>549000</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
       <c r="H139" t="n">
-        <v>907140</v>
+        <v>719340</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_sw_cross</t>
+          <t>https://auto-shop-21.ru/lada/niva_travel</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -6213,40 +6195,40 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Vesta SW New</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>609000</v>
+        <v>569000</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>609000</t>
+          <t>569000</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
       <c r="H140" t="n">
-        <v>797940</v>
+        <v>761940</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_sw</t>
+          <t>https://auto-shop-21.ru/lada/vesta_cross_1</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -6256,48 +6238,40 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>Vesta Cross New</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>519000</v>
+        <v>619000</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>519000</t>
+          <t>619000</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="H141" t="n">
-        <v>673140</v>
+        <v>1040340</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_1</t>
-        </is>
-      </c>
-      <c r="J141" t="n">
-        <v>1586500</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_13028.html</t>
+          <t>https://auto-shop-21.ru/lada/vesta_cross</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -6307,40 +6281,40 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Vesta Sedan CNG</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>639900</v>
+        <v>559000</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cng/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>639900</t>
+          <t>559000</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cng/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
       <c r="H142" t="n">
-        <v>790140</v>
+        <v>728340</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_cng</t>
+          <t>https://auto-shop-21.ru/lada/vesta_sw_1</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -6350,40 +6324,40 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Vesta Sedan New</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>569000</v>
+        <v>619000</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>569000</t>
+          <t>619000</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
       <c r="H143" t="n">
-        <v>743940</v>
+        <v>797340</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta</t>
+          <t>https://auto-shop-21.ru/lada/vesta_sw_cross_1</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -6393,40 +6367,40 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Vesta Sport</t>
+          <t>Vesta SW Cross New</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>839000</v>
+        <v>669000</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sport/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>839000</t>
+          <t>669000</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sport/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="H144" t="n">
-        <v>958740</v>
+        <v>907140</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_sport</t>
+          <t>https://auto-shop-21.ru/lada/vesta_sw_cross</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>444</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -6436,40 +6410,40 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Xray</t>
+          <t>Vesta SW New</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>499000</v>
+        <v>609000</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/xray/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>499000</t>
+          <t>609000</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/xray/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="H145" t="n">
-        <v>664140</v>
+        <v>797940</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/xray</t>
+          <t>https://auto-shop-21.ru/lada/vesta_sw</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -6479,40 +6453,48 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Xray Cross</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>591900</v>
+        <v>519000</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/xray_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>591900</t>
+          <t>519000</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/xray_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
       <c r="H146" t="n">
-        <v>749940</v>
+        <v>673140</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/xray_cross</t>
+          <t>https://auto-shop-21.ru/lada/vesta_1</t>
+        </is>
+      </c>
+      <c r="J146" t="n">
+        <v>1586500</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_13028.html</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -6522,245 +6504,245 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>ВИС 2349 Фургон</t>
+          <t>Vesta Sedan CNG</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>1364100</v>
+        <v>639900</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_14192.html</t>
-        </is>
-      </c>
-      <c r="J147" t="n">
-        <v>1364100</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_14192.html</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_cng/</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>639900</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/lada/vesta_cng/</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>790140</v>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/lada/vesta_cng</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Murman</t>
+          <t>Vesta Sedan New</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>430000</v>
+        <v>569000</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/murman/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta/</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>430000</t>
+          <t>569000</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/murman/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta/</t>
         </is>
       </c>
       <c r="H148" t="n">
-        <v>611940</v>
+        <v>743940</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/murman</t>
+          <t>https://auto-shop-21.ru/lada/vesta</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>MyWay</t>
+          <t>Vesta Sport</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>539940</v>
+        <v>839000</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/myway</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>685000</t>
+          <t>839000</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/myway/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
       <c r="H149" t="n">
-        <v>539940</v>
+        <v>958740</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/myway</t>
+          <t>https://auto-shop-21.ru/lada/vesta_sport</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Solano 2</t>
+          <t>Xray</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>425940</v>
+        <v>499000</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/solano_ii</t>
+          <t>https://avto-trend21.ru/auto/lada/xray/</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>439900</t>
+          <t>499000</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/solano_ii/</t>
+          <t>https://avto-trend21.ru/auto/lada/xray/</t>
         </is>
       </c>
       <c r="H150" t="n">
-        <v>425940</v>
+        <v>664140</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/solano_ii</t>
+          <t>https://auto-shop-21.ru/lada/xray</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>X50</t>
+          <t>Xray Cross</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>368000</v>
+        <v>591900</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/x50/</t>
+          <t>https://avto-trend21.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>368000</t>
+          <t>591900</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/x50/</t>
+          <t>https://avto-trend21.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
       <c r="H151" t="n">
-        <v>413940</v>
+        <v>749940</v>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/x50</t>
+          <t>https://auto-shop-21.ru/lada/xray_cross</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>700</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>X60</t>
+          <t>ВИС 2349 Фургон</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>461940</v>
+        <v>1364100</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/x60</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>479900</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/lifan/x60/</t>
-        </is>
-      </c>
-      <c r="H152" t="n">
-        <v>461940</v>
-      </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/lifan/x60</t>
+          <t>https://alyans-auto.ru/auto/auto_14192.html</t>
+        </is>
+      </c>
+      <c r="J152" t="n">
+        <v>1364100</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_14192.html</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -6770,830 +6752,830 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>Murman</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>593400</v>
+        <v>430000</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/x70</t>
+          <t>https://avto-trend21.ru/auto/lifan/murman/</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>737000</t>
+          <t>430000</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/x70/</t>
+          <t>https://avto-trend21.ru/auto/lifan/murman/</t>
         </is>
       </c>
       <c r="H153" t="n">
-        <v>593400</v>
+        <v>611940</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/x70</t>
+          <t>https://auto-shop-21.ru/lifan/murman</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>MyWay</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1529940</v>
+        <v>539940</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/livan/s6pro</t>
+          <t>https://auto-shop-21.ru/lifan/myway</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>1749900</t>
+          <t>685000</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/livan/s6pro/</t>
+          <t>https://avto-trend21.ru/auto/lifan/myway/</t>
         </is>
       </c>
       <c r="H154" t="n">
-        <v>1529940</v>
+        <v>539940</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/livan/s6pro</t>
+          <t>https://auto-shop-21.ru/lifan/myway</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>Solano 2</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>1127940</v>
+        <v>425940</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/livan/x3pro</t>
+          <t>https://auto-shop-21.ru/lifan/solano_ii</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>1279900</t>
+          <t>439900</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/livan/x3pro/</t>
+          <t>https://avto-trend21.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
       <c r="H155" t="n">
-        <v>1127940</v>
+        <v>425940</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/livan/x3pro</t>
+          <t>https://auto-shop-21.ru/lifan/solano_ii</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>X6 Pro</t>
+          <t>X50</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>1577940</v>
+        <v>368000</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/livan/x6pro</t>
+          <t>https://avto-trend21.ru/auto/lifan/x50/</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>1829900</t>
+          <t>368000</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/livan/x6pro/</t>
+          <t>https://avto-trend21.ru/auto/lifan/x50/</t>
         </is>
       </c>
       <c r="H156" t="n">
-        <v>1577940</v>
+        <v>413940</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/livan/x6pro</t>
+          <t>https://auto-shop-21.ru/lifan/x50</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>X60</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>960000</v>
+        <v>461940</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/moskvich/3/</t>
+          <t>https://auto-shop-21.ru/lifan/x60</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>960000</t>
+          <t>479900</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/moskvich/3/</t>
+          <t>https://avto-trend21.ru/auto/lifan/x60/</t>
         </is>
       </c>
       <c r="H157" t="n">
-        <v>1332000</v>
+        <v>461940</v>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/moskvich/3</t>
+          <t>https://auto-shop-21.ru/lifan/x60</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>3e</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>2370000</v>
+        <v>593400</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/moskvich/3e</t>
+          <t>https://auto-shop-21.ru/lifan/x70</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>3147000</t>
+          <t>737000</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/moskvich/3e/</t>
+          <t>https://avto-trend21.ru/auto/lifan/x70/</t>
         </is>
       </c>
       <c r="H158" t="n">
-        <v>2370000</v>
+        <v>593400</v>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/moskvich/3e</t>
+          <t>https://auto-shop-21.ru/lifan/x70</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Qashqai</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>790000</v>
+        <v>1529940</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/qashqai/</t>
+          <t>https://auto-shop-21.ru/livan/s6pro</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>790000</t>
+          <t>1749900</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/qashqai/</t>
+          <t>https://avto-trend21.ru/auto/livan/s6pro/</t>
         </is>
       </c>
       <c r="H159" t="n">
-        <v>1402200</v>
+        <v>1529940</v>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/nissan/qashqai</t>
+          <t>https://auto-shop-21.ru/livan/s6pro</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Terrano</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>619000</v>
+        <v>1127940</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/terrano/</t>
+          <t>https://auto-shop-21.ru/livan/x3pro</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>619000</t>
+          <t>1279900</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/terrano/</t>
+          <t>https://avto-trend21.ru/auto/livan/x3pro/</t>
         </is>
       </c>
       <c r="H160" t="n">
-        <v>1014000</v>
+        <v>1127940</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/nissan/terrano</t>
+          <t>https://auto-shop-21.ru/livan/x3pro</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>X-trail</t>
+          <t>X6 Pro</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>855000</v>
+        <v>1577940</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/x-trail/</t>
+          <t>https://auto-shop-21.ru/livan/x6pro</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>855000</t>
+          <t>1829900</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/x-trail/</t>
+          <t>https://avto-trend21.ru/auto/livan/x6pro/</t>
         </is>
       </c>
       <c r="H161" t="n">
-        <v>1657200</v>
+        <v>1577940</v>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/nissan/x-trail</t>
+          <t>https://auto-shop-21.ru/livan/x6pro</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>1607940</v>
+        <v>960000</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/omoda/c5</t>
+          <t>https://avto-trend21.ru/auto/moskvich/3/</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>1999900</t>
+          <t>960000</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/omoda/c5/</t>
+          <t>https://avto-trend21.ru/auto/moskvich/3/</t>
         </is>
       </c>
       <c r="H162" t="n">
-        <v>1607940</v>
+        <v>1332000</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/omoda/c5</t>
-        </is>
-      </c>
-      <c r="J162" t="n">
-        <v>2229900</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_16286.html</t>
+          <t>https://auto-shop-21.ru/moskvich/3</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>3e</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1349940</v>
+        <v>2370000</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/omoda/s5</t>
+          <t>https://auto-shop-21.ru/moskvich/3e</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>1689900</t>
+          <t>3147000</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/omoda/s5/</t>
+          <t>https://avto-trend21.ru/auto/moskvich/3e/</t>
         </is>
       </c>
       <c r="H163" t="n">
-        <v>1349940</v>
+        <v>2370000</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/omoda/s5</t>
-        </is>
-      </c>
-      <c r="J163" t="n">
-        <v>1999000</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_16128.html</t>
+          <t>https://auto-shop-21.ru/moskvich/3e</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Nexia R3</t>
+          <t>Qashqai</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>339000</v>
+        <v>790000</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/nexia_r3/</t>
+          <t>https://avto-trend21.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>339000</t>
+          <t>790000</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/nexia_r3/</t>
+          <t>https://avto-trend21.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
       <c r="H164" t="n">
-        <v>495000</v>
+        <v>1402200</v>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/ravon/nexia_r3</t>
+          <t>https://auto-shop-21.ru/nissan/qashqai</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>Terrano</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>339000</v>
+        <v>619000</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/r2/</t>
+          <t>https://avto-trend21.ru/auto/nissan/terrano/</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>339000</t>
+          <t>619000</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/r2/</t>
+          <t>https://avto-trend21.ru/auto/nissan/terrano/</t>
         </is>
       </c>
       <c r="H165" t="n">
-        <v>529800</v>
+        <v>1014000</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/ravon/r2</t>
+          <t>https://auto-shop-21.ru/nissan/terrano</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t>X-trail</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>389000</v>
+        <v>855000</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/r4/</t>
+          <t>https://avto-trend21.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>389000</t>
+          <t>855000</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/r4/</t>
+          <t>https://avto-trend21.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
       <c r="H166" t="n">
-        <v>510600</v>
+        <v>1657200</v>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/ravon/r4</t>
+          <t>https://auto-shop-21.ru/nissan/x-trail</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>690000</v>
+        <v>1607940</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/arkana/</t>
+          <t>https://auto-shop-21.ru/omoda/c5</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>690000</t>
+          <t>1999900</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/arkana/</t>
+          <t>https://avto-trend21.ru/auto/omoda/c5/</t>
         </is>
       </c>
       <c r="H167" t="n">
-        <v>1124400</v>
+        <v>1607940</v>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/arkana</t>
+          <t>https://auto-shop-21.ru/omoda/c5</t>
+        </is>
+      </c>
+      <c r="J167" t="n">
+        <v>2099900</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_16286.html</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Duster New</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>650000</v>
+        <v>1349940</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/duster/</t>
+          <t>https://auto-shop-21.ru/omoda/s5</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>650000</t>
+          <t>1689900</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/duster/</t>
+          <t>https://avto-trend21.ru/auto/omoda/s5/</t>
         </is>
       </c>
       <c r="H168" t="n">
-        <v>970800</v>
+        <v>1349940</v>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/duster</t>
+          <t>https://auto-shop-21.ru/omoda/s5</t>
+        </is>
+      </c>
+      <c r="J168" t="n">
+        <v>1929000</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_16128.html</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>Nexia R3</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>659000</v>
+        <v>339000</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/kaptur/</t>
+          <t>https://avto-trend21.ru/auto/ravon/nexia_r3/</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>659000</t>
+          <t>339000</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/kaptur/</t>
+          <t>https://avto-trend21.ru/auto/ravon/nexia_r3/</t>
         </is>
       </c>
       <c r="H169" t="n">
-        <v>1034400</v>
+        <v>495000</v>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/kaptur</t>
+          <t>https://auto-shop-21.ru/ravon/nexia_r3</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Koleos</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1019400</v>
+        <v>339000</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/koleos</t>
+          <t>https://avto-trend21.ru/auto/ravon/r2/</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>1553000</t>
+          <t>339000</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/koleos/</t>
+          <t>https://avto-trend21.ru/auto/ravon/r2/</t>
         </is>
       </c>
       <c r="H170" t="n">
-        <v>1019400</v>
+        <v>529800</v>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/koleos</t>
+          <t>https://auto-shop-21.ru/ravon/r2</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>R4</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>490000</v>
+        <v>389000</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/logan/</t>
+          <t>https://avto-trend21.ru/auto/ravon/r4/</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>490000</t>
+          <t>389000</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/logan/</t>
+          <t>https://avto-trend21.ru/auto/ravon/r4/</t>
         </is>
       </c>
       <c r="H171" t="n">
-        <v>674400</v>
+        <v>510600</v>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/logan</t>
+          <t>https://auto-shop-21.ru/ravon/r4</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -7603,40 +7585,40 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>530000</v>
+        <v>690000</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/logan_stepway/</t>
+          <t>https://avto-trend21.ru/auto/renault/arkana/</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>530000</t>
+          <t>690000</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/logan_stepway/</t>
+          <t>https://avto-trend21.ru/auto/renault/arkana/</t>
         </is>
       </c>
       <c r="H172" t="n">
-        <v>780600</v>
+        <v>1124400</v>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/logan_stepway</t>
+          <t>https://auto-shop-21.ru/renault/arkana</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -7646,40 +7628,40 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Logan Stepway City</t>
+          <t>Duster New</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>715000</v>
+        <v>650000</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/logan_stepway_city/</t>
+          <t>https://avto-trend21.ru/auto/renault/duster/</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>715000</t>
+          <t>650000</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/logan_stepway_city/</t>
+          <t>https://avto-trend21.ru/auto/renault/duster/</t>
         </is>
       </c>
       <c r="H173" t="n">
-        <v>792600</v>
+        <v>970800</v>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/logan_stepway_city</t>
+          <t>https://auto-shop-21.ru/renault/duster</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -7689,40 +7671,40 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>520000</v>
+        <v>659000</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/sandero/</t>
+          <t>https://avto-trend21.ru/auto/renault/kaptur/</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>520000</t>
+          <t>659000</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/sandero/</t>
+          <t>https://avto-trend21.ru/auto/renault/kaptur/</t>
         </is>
       </c>
       <c r="H174" t="n">
-        <v>754800</v>
+        <v>1034400</v>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/sandero</t>
+          <t>https://auto-shop-21.ru/renault/kaptur</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>552</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -7732,40 +7714,40 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>Koleos</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>550000</v>
+        <v>1019400</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/sandero_stepway/</t>
+          <t>https://auto-shop-21.ru/renault/koleos</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>550000</t>
+          <t>1553000</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/sandero_stepway/</t>
+          <t>https://avto-trend21.ru/auto/renault/koleos/</t>
         </is>
       </c>
       <c r="H175" t="n">
-        <v>823800</v>
+        <v>1019400</v>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/sandero_stepway</t>
+          <t>https://auto-shop-21.ru/renault/koleos</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -7775,255 +7757,255 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Stepway City</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>835800</v>
+        <v>490000</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/sandero_stepway_city</t>
+          <t>https://avto-trend21.ru/auto/renault/logan/</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>1170000</t>
+          <t>490000</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/sandero_stepway_city/</t>
+          <t>https://avto-trend21.ru/auto/renault/logan/</t>
         </is>
       </c>
       <c r="H176" t="n">
-        <v>835800</v>
+        <v>674400</v>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/sandero_stepway_city</t>
+          <t>https://auto-shop-21.ru/renault/logan</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>740000</v>
+        <v>530000</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/karoq/</t>
+          <t>https://avto-trend21.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>740000</t>
+          <t>530000</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/karoq/</t>
+          <t>https://avto-trend21.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="H177" t="n">
-        <v>1629600</v>
+        <v>780600</v>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/karoq</t>
+          <t>https://auto-shop-21.ru/renault/logan_stepway</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Kodiaq Hockey Edition</t>
+          <t>Logan Stepway City</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>1421340</v>
+        <v>715000</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq_hockey_edition</t>
+          <t>https://avto-trend21.ru/auto/renault/logan_stepway_city/</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>1581000</t>
+          <t>715000</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq_hockey_edition/</t>
+          <t>https://avto-trend21.ru/auto/renault/logan_stepway_city/</t>
         </is>
       </c>
       <c r="H178" t="n">
-        <v>1421340</v>
+        <v>792600</v>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq_hockey_edition</t>
+          <t>https://auto-shop-21.ru/renault/logan_stepway_city</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Kodiaq Laurin &amp; Klement</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>3058000</v>
+        <v>520000</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq_laurin__klement/</t>
+          <t>https://avto-trend21.ru/auto/renault/sandero/</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>3058000</t>
+          <t>520000</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq_laurin__klement/</t>
+          <t>https://avto-trend21.ru/auto/renault/sandero/</t>
         </is>
       </c>
       <c r="H179" t="n">
-        <v>3483600</v>
+        <v>754800</v>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq_laurin__klement</t>
+          <t>https://auto-shop-21.ru/renault/sandero</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Kodiaq New</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>1659000</v>
+        <v>550000</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq/</t>
+          <t>https://avto-trend21.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>1659000</t>
+          <t>550000</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq/</t>
+          <t>https://avto-trend21.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
       <c r="H180" t="n">
-        <v>2184000</v>
+        <v>823800</v>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq</t>
+          <t>https://auto-shop-21.ru/renault/sandero_stepway</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>567</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Kodiaq Scout</t>
+          <t>Stepway City</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>2098800</v>
+        <v>835800</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq_scout</t>
+          <t>https://auto-shop-21.ru/renault/sandero_stepway_city</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>3375000</t>
+          <t>1170000</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq_scout/</t>
+          <t>https://avto-trend21.ru/auto/renault/sandero_stepway_city/</t>
         </is>
       </c>
       <c r="H181" t="n">
-        <v>2098800</v>
+        <v>835800</v>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq_scout</t>
+          <t>https://auto-shop-21.ru/renault/sandero_stepway_city</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -8033,40 +8015,40 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Kodiaq Sportline</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>2989000</v>
+        <v>740000</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq_sportline/</t>
+          <t>https://avto-trend21.ru/auto/skoda/karoq/</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2989000</t>
+          <t>740000</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq_sportline/</t>
+          <t>https://avto-trend21.ru/auto/skoda/karoq/</t>
         </is>
       </c>
       <c r="H182" t="n">
-        <v>3226800</v>
+        <v>1629600</v>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq_sportline</t>
+          <t>https://auto-shop-21.ru/skoda/karoq</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>590</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -8076,40 +8058,40 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Octavia Hockey Edition</t>
+          <t>Kodiaq Hockey Edition</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>989000</v>
+        <v>1421340</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/octavia_hockey_edition/</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_hockey_edition</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>989000</t>
+          <t>1581000</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/octavia_hockey_edition/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq_hockey_edition/</t>
         </is>
       </c>
       <c r="H183" t="n">
-        <v>1694340</v>
+        <v>1421340</v>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/octavia_hockey_edition</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_hockey_edition</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>593</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -8119,40 +8101,40 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Octavia New</t>
+          <t>Kodiaq Laurin &amp; Klement</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>840000</v>
+        <v>3058000</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/octavia/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq_laurin__klement/</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>840000</t>
+          <t>3058000</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/octavia/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq_laurin__klement/</t>
         </is>
       </c>
       <c r="H184" t="n">
-        <v>1567800</v>
+        <v>3483600</v>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/octavia</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_laurin__klement</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>576</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -8162,40 +8144,40 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Rapid</t>
+          <t>Kodiaq New</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>520000</v>
+        <v>1659000</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/rapid/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>520000</t>
+          <t>1659000</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/rapid/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
       <c r="H185" t="n">
-        <v>961200</v>
+        <v>2184000</v>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/rapid</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>591</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -8205,40 +8187,40 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Superb</t>
+          <t>Kodiaq Scout</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1222000</v>
+        <v>2098800</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/superb/</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_scout</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>1222000</t>
+          <t>3375000</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/superb/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq_scout/</t>
         </is>
       </c>
       <c r="H186" t="n">
-        <v>2031600</v>
+        <v>2098800</v>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/superb</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_scout</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>592</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -8248,571 +8230,786 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Superb Combi</t>
+          <t>Kodiaq Sportline</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>2089000</v>
+        <v>2989000</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/superb_combi/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq_sportline/</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2089000</t>
+          <t>2989000</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/superb_combi/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq_sportline/</t>
         </is>
       </c>
       <c r="H187" t="n">
-        <v>2290200</v>
+        <v>3226800</v>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/superb_combi</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_sportline</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>589</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>Octavia Hockey Edition</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>1749300</v>
+        <v>989000</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/hc/</t>
+          <t>https://avto-trend21.ru/auto/skoda/octavia_hockey_edition/</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>1749300</t>
+          <t>989000</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/hc/</t>
+          <t>https://avto-trend21.ru/auto/skoda/octavia_hockey_edition/</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>1694340</v>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/skoda/octavia_hockey_edition</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>Octavia New</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>1407000</v>
+        <v>840000</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/hs/</t>
+          <t>https://avto-trend21.ru/auto/skoda/octavia/</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>1407000</t>
+          <t>840000</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/hs/</t>
+          <t>https://avto-trend21.ru/auto/skoda/octavia/</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>1567800</v>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/skoda/octavia</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>KRS</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>1426600</v>
+        <v>520000</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/krs/</t>
+          <t>https://avto-trend21.ru/auto/skoda/rapid/</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>1426600</t>
+          <t>520000</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/krs/</t>
+          <t>https://avto-trend21.ru/auto/skoda/rapid/</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>961200</v>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/skoda/rapid</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>KRX</t>
+          <t>Superb</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>1444800</v>
+        <v>1222000</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/krx/</t>
+          <t>https://avto-trend21.ru/auto/skoda/superb/</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>1444800</t>
+          <t>1222000</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/krx/</t>
+          <t>https://avto-trend21.ru/auto/skoda/superb/</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>2031600</v>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/skoda/superb</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>Superb Combi</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>2459400</v>
+        <v>2089000</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/tank/300</t>
+          <t>https://avto-trend21.ru/auto/skoda/superb_combi/</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>2089000</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
       <c r="H192" t="n">
-        <v>2459400</v>
+        <v>2290200</v>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/tank/300</t>
+          <t>https://auto-shop-21.ru/skoda/superb_combi</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>3779400</v>
+        <v>1749300</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/tank/500</t>
-        </is>
-      </c>
-      <c r="H193" t="n">
-        <v>3779400</v>
-      </c>
-      <c r="I193" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/tank/500</t>
+          <t>https://avto-trend21.ru/auto/solaris/hc/</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>1749300</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/solaris/hc/</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>975000</v>
+        <v>1407000</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/jetta/</t>
+          <t>https://avto-trend21.ru/auto/solaris/hs/</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>975000</t>
+          <t>1407000</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/jetta/</t>
-        </is>
-      </c>
-      <c r="H194" t="n">
-        <v>976200</v>
-      </c>
-      <c r="I194" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/volkswagen/jetta</t>
+          <t>https://avto-trend21.ru/auto/solaris/hs/</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Passat</t>
+          <t>KRS</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>1050000</v>
+        <v>1426600</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/passat/</t>
+          <t>https://avto-trend21.ru/auto/solaris/krs/</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>1050000</t>
+          <t>1426600</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/passat/</t>
-        </is>
-      </c>
-      <c r="H195" t="n">
-        <v>1593600</v>
-      </c>
-      <c r="I195" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/volkswagen/passat</t>
+          <t>https://avto-trend21.ru/auto/solaris/krs/</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>KRX</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>730900</v>
+        <v>1444800</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/polo/</t>
+          <t>https://avto-trend21.ru/auto/solaris/krx/</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>730900</t>
+          <t>1444800</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/polo/</t>
-        </is>
-      </c>
-      <c r="H196" t="n">
-        <v>972540</v>
-      </c>
-      <c r="I196" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/volkswagen/polo</t>
+          <t>https://avto-trend21.ru/auto/solaris/krx/</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Taos</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>1399900</v>
+        <v>2459400</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/taos/</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>1399900</t>
-        </is>
-      </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/taos/</t>
+          <t>https://auto-shop-21.ru/tank/300</t>
         </is>
       </c>
       <c r="H197" t="n">
-        <v>1697340</v>
+        <v>2459400</v>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/volkswagen/taos</t>
+          <t>https://auto-shop-21.ru/tank/300</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Tiguan New</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>1579900</v>
+        <v>3779400</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/tiguan/</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>1579900</t>
-        </is>
-      </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/tiguan/</t>
+          <t>https://auto-shop-21.ru/tank/500</t>
         </is>
       </c>
       <c r="H198" t="n">
-        <v>2025540</v>
+        <v>3779400</v>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/volkswagen/tiguan</t>
+          <t>https://auto-shop-21.ru/tank/500</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>XCite</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>X-Cross 7</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>2499000</v>
+        <v>975000</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16765.html</t>
-        </is>
-      </c>
-      <c r="J199" t="n">
-        <v>2499000</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_16765.html</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/jetta/</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>975000</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/volkswagen/jetta/</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>976200</v>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/volkswagen/jetta</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>649</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Zotye</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Coupa</t>
+          <t>Passat</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>713760</v>
+        <v>1050000</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/zotye/coupa</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>989600</t>
+          <t>1050000</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/zotye/coupa/</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
       <c r="H200" t="n">
-        <v>713760</v>
+        <v>1593600</v>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/zotye/coupa</t>
+          <t>https://auto-shop-21.ru/volkswagen/passat</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Polo</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>730900</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/volkswagen/polo/</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>730900</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/volkswagen/polo/</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>972540</v>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/volkswagen/polo</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>653</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Taos</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>1399900</v>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/volkswagen/taos/</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>1399900</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/volkswagen/taos/</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>1697340</v>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/volkswagen/taos</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Tiguan New</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>1579900</v>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/volkswagen/tiguan/</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>1579900</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/volkswagen/tiguan/</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>2025540</v>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/volkswagen/tiguan</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>675</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>XCite</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>X-Cross 7</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>2499000</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_16765.html</t>
+        </is>
+      </c>
+      <c r="J204" t="n">
+        <v>2499000</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_16765.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>672</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Zotye</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Coupa</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>713760</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/zotye/coupa</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>989600</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>713760</v>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/zotye/coupa</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
           <t>674</t>
         </is>
       </c>
-      <c r="B201" t="inlineStr">
+      <c r="B206" t="inlineStr">
         <is>
           <t>Zotye</t>
         </is>
       </c>
-      <c r="C201" t="inlineStr">
+      <c r="C206" t="inlineStr">
         <is>
           <t>T600</t>
         </is>
       </c>
-      <c r="D201" t="n">
+      <c r="D206" t="n">
         <v>582960</v>
       </c>
-      <c r="E201" t="inlineStr">
+      <c r="E206" t="inlineStr">
         <is>
           <t>https://auto-shop-21.ru/zotye/t600</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
+      <c r="F206" t="inlineStr">
         <is>
           <t>771600</t>
         </is>
       </c>
-      <c r="G201" t="inlineStr">
+      <c r="G206" t="inlineStr">
         <is>
           <t>https://avto-trend21.ru/auto/zotye/t600/</t>
         </is>
       </c>
-      <c r="H201" t="n">
+      <c r="H206" t="n">
         <v>582960</v>
       </c>
-      <c r="I201" t="inlineStr">
+      <c r="I206" t="inlineStr">
         <is>
           <t>https://auto-shop-21.ru/zotye/t600</t>
         </is>

--- a/xlsx/cheboksari.xlsx
+++ b/xlsx/cheboksari.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K206"/>
+  <dimension ref="A1:K205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -700,19 +700,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3237990</v>
+        <v>2672990</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16954.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17697.html</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>3237990</v>
+        <v>2672990</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16954.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17697.html</t>
         </is>
       </c>
     </row>
@@ -1109,11 +1109,11 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>4199900</v>
+        <v>4269900</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_14495.html</t>
+          <t>https://alyans-auto.ru/auto/auto_15532.html</t>
         </is>
       </c>
     </row>
@@ -2828,11 +2828,11 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>2836990</v>
+        <v>3026990</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16771.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17094.html</t>
         </is>
       </c>
     </row>
@@ -3023,19 +3023,19 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2217990</v>
+        <v>2367990</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16732.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16753.html</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>2217990</v>
+        <v>2367990</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16732.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16753.html</t>
         </is>
       </c>
     </row>
@@ -3211,11 +3211,11 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>4732990</v>
+        <v>4326990</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16160.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17560.html</t>
         </is>
       </c>
     </row>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16501.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17103.html</t>
         </is>
       </c>
     </row>
@@ -3316,7 +3316,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16141.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16504.html</t>
         </is>
       </c>
       <c r="J69" t="n">
@@ -3324,7 +3324,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16141.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16504.html</t>
         </is>
       </c>
     </row>
@@ -3388,19 +3388,19 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>3239000</v>
+        <v>3399000</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_14970.html</t>
+          <t>https://alyans-auto.ru/auto/auto_10637.html</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>3239000</v>
+        <v>3399000</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_14970.html</t>
+          <t>https://alyans-auto.ru/auto/auto_10637.html</t>
         </is>
       </c>
     </row>
@@ -3447,11 +3447,11 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>3449000</v>
+        <v>3349000</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16159.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17851.html</t>
         </is>
       </c>
     </row>
@@ -3515,19 +3515,19 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>2699000</v>
+        <v>2899000</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17452.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17727.html</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>2699000</v>
+        <v>2899000</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17452.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17727.html</t>
         </is>
       </c>
     </row>
@@ -3845,11 +3845,11 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>2299000</v>
+        <v>2449000</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17459.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17149.html</t>
         </is>
       </c>
     </row>
@@ -3931,11 +3931,11 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>2179000</v>
+        <v>2299000</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17420.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17684.html</t>
         </is>
       </c>
     </row>
@@ -4226,7 +4226,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16272.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16614.html</t>
         </is>
       </c>
       <c r="J91" t="n">
@@ -4234,7 +4234,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16272.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16614.html</t>
         </is>
       </c>
     </row>
@@ -4436,7 +4436,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>682</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -4446,63 +4446,63 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>T8 Pro</t>
+          <t>T9</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>3199000</v>
+        <v>3399000</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_15629.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17752.html</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>3199000</v>
+        <v>3399000</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_15629.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17752.html</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>682</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>T9</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>3399000</v>
+        <v>2429900</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17499.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17864.html</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>3399000</v>
+        <v>2429900</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17499.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17864.html</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -4512,63 +4512,65 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>J8</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>2649900</v>
+        <v>4199000</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16801.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17485.html</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>2649900</v>
+        <v>4199000</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16801.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17485.html</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>J8</t>
+          <t>Dashing</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>4499000</v>
+        <v>1399900</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17485.html</t>
-        </is>
-      </c>
-      <c r="J100" t="n">
-        <v>4499000</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_17485.html</t>
+          <t>https://avto-trend21.ru/auto/jetour/dashing/</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1399900</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/jetour/dashing/</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -4578,32 +4580,32 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Dashing</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1399900</v>
+        <v>2631300</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/dashing/</t>
+          <t>https://avto-trend21.ru/auto/jetour/t2/</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>1399900</t>
+          <t>2631300</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/dashing/</t>
+          <t>https://avto-trend21.ru/auto/jetour/t2/</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -4613,32 +4615,32 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>X70 Plus</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2631300</v>
+        <v>1809900</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/t2/</t>
+          <t>https://avto-trend21.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2631300</t>
+          <t>1809900</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/t2/</t>
+          <t>https://avto-trend21.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4648,67 +4650,75 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>X70 Plus</t>
+          <t>X90 Plus</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1809900</v>
+        <v>2149900</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/x70_plus/</t>
+          <t>https://avto-trend21.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>1809900</t>
+          <t>2149900</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/x70_plus/</t>
+          <t>https://avto-trend21.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>X90 Plus</t>
+          <t>VA3</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>2149900</v>
+        <v>890000</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/x90_plus/</t>
+          <t>https://avto-trend21.ru/auto/jetta/va3/</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2149900</t>
+          <t>890000</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/x90_plus/</t>
+          <t>https://avto-trend21.ru/auto/jetta/va3/</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>1232400</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/jetta/va3</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -4718,40 +4728,40 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>VA3</t>
+          <t>VS5</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>890000</v>
+        <v>1190000</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/va3/</t>
+          <t>https://avto-trend21.ru/auto/jetta/vs5/</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>890000</t>
+          <t>1190000</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/va3/</t>
+          <t>https://avto-trend21.ru/auto/jetta/vs5/</t>
         </is>
       </c>
       <c r="H105" t="n">
-        <v>1232400</v>
+        <v>1477200</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jetta/va3</t>
+          <t>https://auto-shop-21.ru/jetta/vs5</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4761,83 +4771,83 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>VS5</t>
+          <t>VS7</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1190000</v>
+        <v>1349000</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/vs5/</t>
+          <t>https://avto-trend21.ru/auto/jetta/vs7/</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>1190000</t>
+          <t>1349000</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/vs5/</t>
+          <t>https://avto-trend21.ru/auto/jetta/vs7/</t>
         </is>
       </c>
       <c r="H106" t="n">
-        <v>1477200</v>
+        <v>1759800</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jetta/vs5</t>
+          <t>https://auto-shop-21.ru/jetta/vs7</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>VS7</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1349000</v>
+        <v>1299000</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/vs7/</t>
+          <t>https://avto-trend21.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>1349000</t>
+          <t>1299000</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/vs7/</t>
+          <t>https://avto-trend21.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
       <c r="H107" t="n">
-        <v>1759800</v>
+        <v>1317000</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jetta/vs7</t>
+          <t>https://auto-shop-21.ru/kaiyi/e5</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4847,40 +4857,40 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>X3</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>1299000</v>
+        <v>1342800</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kaiyi/e5/</t>
+          <t>https://auto-shop-21.ru/kaiyi/x3</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>1299000</t>
+          <t>1417650</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kaiyi/e5/</t>
+          <t>https://avto-trend21.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
       <c r="H108" t="n">
-        <v>1317000</v>
+        <v>1342800</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/e5</t>
+          <t>https://auto-shop-21.ru/kaiyi/x3</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4890,40 +4900,40 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>X3</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1342800</v>
+        <v>1508940</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x3</t>
+          <t>https://auto-shop-21.ru/kaiyi/x3_pro</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>1417650</t>
+          <t>1790000</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kaiyi/x3/</t>
+          <t>https://avto-trend21.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
       <c r="H109" t="n">
-        <v>1342800</v>
+        <v>1508940</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x3</t>
+          <t>https://auto-shop-21.ru/kaiyi/x3_pro</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4933,83 +4943,83 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>X7 Kunlun</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>1508940</v>
+        <v>1798740</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x3_pro</t>
+          <t>https://auto-shop-21.ru/kaiyi/x7_kunlun</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>1790000</t>
+          <t>2197900</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://avto-trend21.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
       <c r="H110" t="n">
-        <v>1508940</v>
+        <v>1798740</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x3_pro</t>
+          <t>https://auto-shop-21.ru/kaiyi/x7_kunlun</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>X7 Kunlun</t>
+          <t>Ceed</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>1798740</v>
+        <v>713000</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x7_kunlun</t>
+          <t>https://avto-trend21.ru/auto/kia/ceed/</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2197900</t>
+          <t>713000</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://avto-trend21.ru/auto/kia/ceed/</t>
         </is>
       </c>
       <c r="H111" t="n">
-        <v>1798740</v>
+        <v>1346940</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x7_kunlun</t>
+          <t>https://auto-shop-21.ru/kia/ceed</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -5019,40 +5029,40 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Ceed</t>
+          <t>Ceed SW</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>713000</v>
+        <v>723000</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/ceed/</t>
+          <t>https://avto-trend21.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>713000</t>
+          <t>723000</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/ceed/</t>
+          <t>https://avto-trend21.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
       <c r="H112" t="n">
-        <v>1346940</v>
+        <v>1388940</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/ceed</t>
+          <t>https://auto-shop-21.ru/kia/ceed_sw</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -5062,40 +5072,40 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Ceed SW</t>
+          <t>Cerato</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>723000</v>
+        <v>850000</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/ceed_sw/</t>
+          <t>https://avto-trend21.ru/auto/kia/cerato/</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>723000</t>
+          <t>850000</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/ceed_sw/</t>
+          <t>https://avto-trend21.ru/auto/kia/cerato/</t>
         </is>
       </c>
       <c r="H113" t="n">
-        <v>1388940</v>
+        <v>1232940</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/ceed_sw</t>
+          <t>https://auto-shop-21.ru/kia/cerato</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -5105,40 +5115,40 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Cerato</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>850000</v>
+        <v>1149000</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/cerato/</t>
+          <t>https://avto-trend21.ru/auto/kia/k5/</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>850000</t>
+          <t>1149000</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/cerato/</t>
+          <t>https://avto-trend21.ru/auto/kia/k5/</t>
         </is>
       </c>
       <c r="H114" t="n">
-        <v>1232940</v>
+        <v>1640940</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/cerato</t>
+          <t>https://auto-shop-21.ru/kia/k5</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -5148,40 +5158,40 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>Picanto</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1149000</v>
+        <v>619900</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/k5/</t>
+          <t>https://avto-trend21.ru/auto/kia/picanto/</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>1149000</t>
+          <t>619900</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/k5/</t>
+          <t>https://avto-trend21.ru/auto/kia/picanto/</t>
         </is>
       </c>
       <c r="H115" t="n">
-        <v>1640940</v>
+        <v>800940</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/k5</t>
+          <t>https://auto-shop-21.ru/kia/picanto</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -5191,40 +5201,40 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Picanto</t>
+          <t>ProCeed</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>619900</v>
+        <v>1121940</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/picanto/</t>
+          <t>https://auto-shop-21.ru/kia/proceed</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>619900</t>
+          <t>1134700</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/picanto/</t>
+          <t>https://avto-trend21.ru/auto/kia/proceed/</t>
         </is>
       </c>
       <c r="H116" t="n">
-        <v>800940</v>
+        <v>1121940</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/picanto</t>
+          <t>https://auto-shop-21.ru/kia/proceed</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -5234,40 +5244,40 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>ProCeed</t>
+          <t>Rio</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>1121940</v>
+        <v>564000</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/proceed</t>
+          <t>https://avto-trend21.ru/auto/kia/rio/</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>1134700</t>
+          <t>564000</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/proceed/</t>
+          <t>https://avto-trend21.ru/auto/kia/rio/</t>
         </is>
       </c>
       <c r="H117" t="n">
-        <v>1121940</v>
+        <v>860940</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/proceed</t>
+          <t>https://auto-shop-21.ru/kia/rio</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -5277,40 +5287,40 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Rio</t>
+          <t>Rio X</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>564000</v>
+        <v>650000</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio/</t>
+          <t>https://avto-trend21.ru/auto/kia/rio_x/</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>564000</t>
+          <t>650000</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio/</t>
+          <t>https://avto-trend21.ru/auto/kia/rio_x/</t>
         </is>
       </c>
       <c r="H118" t="n">
-        <v>860940</v>
+        <v>944940</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/rio</t>
+          <t>https://auto-shop-21.ru/kia/rio_x</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -5320,40 +5330,40 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Rio X</t>
+          <t>Rio X-Line</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>650000</v>
+        <v>557000</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio_x/</t>
+          <t>https://avto-trend21.ru/auto/kia/rio_x-line/</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>650000</t>
+          <t>557000</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio_x/</t>
+          <t>https://avto-trend21.ru/auto/kia/rio_x-line/</t>
         </is>
       </c>
       <c r="H119" t="n">
-        <v>944940</v>
+        <v>563940</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/rio_x</t>
+          <t>https://auto-shop-21.ru/kia/rio_x-line</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -5363,40 +5373,40 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Rio X-Line</t>
+          <t>Seltos</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>557000</v>
+        <v>790000</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio_x-line/</t>
+          <t>https://avto-trend21.ru/auto/kia/seltos/</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>557000</t>
+          <t>790000</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio_x-line/</t>
+          <t>https://avto-trend21.ru/auto/kia/seltos/</t>
         </is>
       </c>
       <c r="H120" t="n">
-        <v>563940</v>
+        <v>1175940</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/rio_x-line</t>
+          <t>https://auto-shop-21.ru/kia/seltos</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -5406,40 +5416,40 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Seltos</t>
+          <t>Soul</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>790000</v>
+        <v>638000</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/seltos/</t>
+          <t>https://avto-trend21.ru/auto/kia/soul/</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>790000</t>
+          <t>638000</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/seltos/</t>
+          <t>https://avto-trend21.ru/auto/kia/soul/</t>
         </is>
       </c>
       <c r="H121" t="n">
-        <v>1175940</v>
+        <v>1097940</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/seltos</t>
+          <t>https://auto-shop-21.ru/kia/soul</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -5449,40 +5459,40 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Soul</t>
+          <t>Sportage 5</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>638000</v>
+        <v>1046000</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/soul/</t>
+          <t>https://avto-trend21.ru/auto/kia/sportage/</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>638000</t>
+          <t>1046000</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/soul/</t>
+          <t>https://avto-trend21.ru/auto/kia/sportage/</t>
         </is>
       </c>
       <c r="H122" t="n">
-        <v>1097940</v>
+        <v>1709940</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/soul</t>
+          <t>https://auto-shop-21.ru/kia/sportage</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -5492,83 +5502,73 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Sportage 5</t>
+          <t>XCeed</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>1046000</v>
+        <v>964900</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/sportage/</t>
+          <t>https://avto-trend21.ru/auto/kia/xceed/</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>1046000</t>
+          <t>964900</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/sportage/</t>
+          <t>https://avto-trend21.ru/auto/kia/xceed/</t>
         </is>
       </c>
       <c r="H123" t="n">
-        <v>1709940</v>
+        <v>1580940</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/sportage</t>
+          <t>https://auto-shop-21.ru/kia/xceed</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>701</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>XCeed</t>
+          <t>4x4 3 двери</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>964900</v>
+        <v>1015500</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/xceed/</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>964900</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/kia/xceed/</t>
-        </is>
-      </c>
-      <c r="H124" t="n">
-        <v>1580940</v>
-      </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/kia/xceed</t>
+          <t>https://alyans-auto.ru/auto/auto_16878.html</t>
+        </is>
+      </c>
+      <c r="J124" t="n">
+        <v>1015500</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_16878.html</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>701</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -5578,30 +5578,40 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>4x4 3 двери</t>
+          <t>Granta Cross</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>981000</v>
+        <v>426900</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_14792.html</t>
-        </is>
-      </c>
-      <c r="J125" t="n">
-        <v>981000</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_14792.html</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_cross/</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>426900</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/lada/granta_cross/</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>567540</v>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/lada/granta_cross</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -5611,40 +5621,40 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Granta Cross</t>
+          <t>Granta Hatchback</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>426900</v>
+        <v>378810</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>426900</t>
+          <t>378810</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
       <c r="H126" t="n">
-        <v>567540</v>
+        <v>467100</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/granta_cross</t>
+          <t>https://auto-shop-21.ru/lada/granta_hatchback</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -5654,40 +5664,40 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Granta Hatchback</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>378810</v>
+        <v>375610</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_hatchback/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>378810</t>
+          <t>375610</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_hatchback/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
       <c r="H127" t="n">
-        <v>467100</v>
+        <v>443940</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/granta_hatchback</t>
+          <t>https://auto-shop-21.ru/lada/granta_liftback</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -5697,40 +5707,48 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>375610</v>
+        <v>358510</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_liftback/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>375610</t>
+          <t>358510</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_liftback/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
       <c r="H128" t="n">
-        <v>443940</v>
+        <v>419940</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/granta_liftback</t>
+          <t>https://auto-shop-21.ru/lada/granta_sedan</t>
+        </is>
+      </c>
+      <c r="J128" t="n">
+        <v>931000</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_17336.html</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -5740,48 +5758,40 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>Granta Sedan Drive Active</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>358510</v>
+        <v>419000</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_sedan/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>358510</t>
+          <t>419000</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_sedan/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
       <c r="H129" t="n">
-        <v>419940</v>
+        <v>620940</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/granta_sedan</t>
-        </is>
-      </c>
-      <c r="J129" t="n">
-        <v>926000</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_17489.html</t>
+          <t>https://auto-shop-21.ru/lada/granta_drive_active</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -5791,40 +5801,40 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Granta Sedan Drive Active</t>
+          <t>Granta Universal</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>419000</v>
+        <v>376800</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_drive_active/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>419000</t>
+          <t>376800</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_drive_active/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
       <c r="H130" t="n">
-        <v>620940</v>
+        <v>431580</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/granta_drive_active</t>
+          <t>https://auto-shop-21.ru/lada/granta_universal</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -5834,40 +5844,30 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Granta Universal</t>
+          <t>Largus</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>376800</v>
+        <v>1656500</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_universal/</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>376800</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_universal/</t>
-        </is>
-      </c>
-      <c r="H131" t="n">
-        <v>431580</v>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/lada/granta_universal</t>
+          <t>https://alyans-auto.ru/auto/auto_17527.html</t>
+        </is>
+      </c>
+      <c r="J131" t="n">
+        <v>1656500</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_17527.html</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -5877,30 +5877,40 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Largus</t>
+          <t>Largus Cross New</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>1656500</v>
+        <v>629000</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16226.html</t>
-        </is>
-      </c>
-      <c r="J132" t="n">
-        <v>1656500</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_16226.html</t>
+          <t>https://avto-trend21.ru/auto/lada/largus_cross/</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>629000</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/lada/largus_cross/</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>866340</v>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/lada/largus_cross</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -5910,40 +5920,40 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Largus Cross New</t>
+          <t>Largus New</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>629000</v>
+        <v>501000</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/largus_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/largus/</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>629000</t>
+          <t>501000</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/largus_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/largus/</t>
         </is>
       </c>
       <c r="H133" t="n">
-        <v>866340</v>
+        <v>780540</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/largus_cross</t>
+          <t>https://auto-shop-21.ru/lada/largus</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -5953,40 +5963,40 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Largus New</t>
+          <t>Largus Фургон New</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>501000</v>
+        <v>541610</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/largus/</t>
+          <t>https://avto-trend21.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>501000</t>
+          <t>541610</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/largus/</t>
+          <t>https://avto-trend21.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
       <c r="H134" t="n">
-        <v>780540</v>
+        <v>781140</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/largus</t>
+          <t>https://auto-shop-21.ru/lada/largus_furgon</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -5996,40 +6006,40 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Largus Фургон New</t>
+          <t>Niva</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>541610</v>
+        <v>582200</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/largus_furgon/</t>
+          <t>https://avto-trend21.ru/auto/lada/niva/</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>541610</t>
+          <t>582200</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/largus_furgon/</t>
-        </is>
-      </c>
-      <c r="H135" t="n">
-        <v>781140</v>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/lada/largus_furgon</t>
+          <t>https://avto-trend21.ru/auto/lada/niva/</t>
+        </is>
+      </c>
+      <c r="J135" t="n">
+        <v>1310500</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_14903.html</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -6039,40 +6049,32 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Niva</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>582200</v>
+        <v>451710</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/niva/</t>
+          <t>https://avto-trend21.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>582200</t>
+          <t>451710</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/niva/</t>
-        </is>
-      </c>
-      <c r="J136" t="n">
-        <v>1310500</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_14903.html</t>
+          <t>https://avto-trend21.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -6082,32 +6084,32 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Niva Legend 5 дверей</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>451710</v>
+        <v>490410</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://avto-trend21.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>451710</t>
+          <t>490410</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://avto-trend21.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -6117,32 +6119,40 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Niva Legend 5 дверей</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>490410</v>
+        <v>549000</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://avto-trend21.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>490410</t>
+          <t>549000</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://avto-trend21.ru/auto/lada/niva_travel/</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>719340</v>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/lada/niva_travel</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -6152,40 +6162,40 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>549000</v>
+        <v>569000</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/niva_travel/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>549000</t>
+          <t>569000</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/niva_travel/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
       <c r="H139" t="n">
-        <v>719340</v>
+        <v>761940</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/niva_travel</t>
+          <t>https://auto-shop-21.ru/lada/vesta_cross_1</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -6195,40 +6205,40 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>Vesta Cross New</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>569000</v>
+        <v>619000</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>569000</t>
+          <t>619000</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="H140" t="n">
-        <v>761940</v>
+        <v>1040340</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_cross_1</t>
+          <t>https://auto-shop-21.ru/lada/vesta_cross</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -6238,40 +6248,40 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Vesta Cross New</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>619000</v>
+        <v>559000</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>619000</t>
+          <t>559000</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
       <c r="H141" t="n">
-        <v>1040340</v>
+        <v>728340</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_cross</t>
+          <t>https://auto-shop-21.ru/lada/vesta_sw_1</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -6281,40 +6291,40 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>559000</v>
+        <v>619000</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>559000</t>
+          <t>619000</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
       <c r="H142" t="n">
-        <v>728340</v>
+        <v>797340</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_sw_1</t>
+          <t>https://auto-shop-21.ru/lada/vesta_sw_cross_1</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -6324,40 +6334,40 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>Vesta SW Cross New</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>619000</v>
+        <v>669000</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>619000</t>
+          <t>669000</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="H143" t="n">
-        <v>797340</v>
+        <v>907140</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_sw_cross_1</t>
+          <t>https://auto-shop-21.ru/lada/vesta_sw_cross</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>444</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -6367,40 +6377,40 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Vesta SW Cross New</t>
+          <t>Vesta SW New</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>669000</v>
+        <v>609000</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>669000</t>
+          <t>609000</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="H144" t="n">
-        <v>907140</v>
+        <v>797940</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_sw_cross</t>
+          <t>https://auto-shop-21.ru/lada/vesta_sw</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -6410,40 +6420,48 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Vesta SW New</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>609000</v>
+        <v>519000</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>609000</t>
+          <t>519000</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
       <c r="H145" t="n">
-        <v>797940</v>
+        <v>673140</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_sw</t>
+          <t>https://auto-shop-21.ru/lada/vesta_1</t>
+        </is>
+      </c>
+      <c r="J145" t="n">
+        <v>1521500</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_17606.html</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -6453,48 +6471,40 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>Vesta Sedan CNG</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>519000</v>
+        <v>639900</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>519000</t>
+          <t>639900</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
       <c r="H146" t="n">
-        <v>673140</v>
+        <v>790140</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_1</t>
-        </is>
-      </c>
-      <c r="J146" t="n">
-        <v>1586500</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_13028.html</t>
+          <t>https://auto-shop-21.ru/lada/vesta_cng</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -6504,40 +6514,40 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Vesta Sedan CNG</t>
+          <t>Vesta Sedan New</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>639900</v>
+        <v>569000</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cng/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta/</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>639900</t>
+          <t>569000</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cng/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta/</t>
         </is>
       </c>
       <c r="H147" t="n">
-        <v>790140</v>
+        <v>743940</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_cng</t>
+          <t>https://auto-shop-21.ru/lada/vesta</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -6547,40 +6557,40 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Vesta Sedan New</t>
+          <t>Vesta Sport</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>569000</v>
+        <v>839000</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>569000</t>
+          <t>839000</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
       <c r="H148" t="n">
-        <v>743940</v>
+        <v>958740</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta</t>
+          <t>https://auto-shop-21.ru/lada/vesta_sport</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -6590,40 +6600,40 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Vesta Sport</t>
+          <t>Xray</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>839000</v>
+        <v>499000</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sport/</t>
+          <t>https://avto-trend21.ru/auto/lada/xray/</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>839000</t>
+          <t>499000</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sport/</t>
+          <t>https://avto-trend21.ru/auto/lada/xray/</t>
         </is>
       </c>
       <c r="H149" t="n">
-        <v>958740</v>
+        <v>664140</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_sport</t>
+          <t>https://auto-shop-21.ru/lada/xray</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -6633,40 +6643,40 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Xray</t>
+          <t>Xray Cross</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>499000</v>
+        <v>591900</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/xray/</t>
+          <t>https://avto-trend21.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>499000</t>
+          <t>591900</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/xray/</t>
+          <t>https://avto-trend21.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
       <c r="H150" t="n">
-        <v>664140</v>
+        <v>749940</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/xray</t>
+          <t>https://auto-shop-21.ru/lada/xray_cross</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>700</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -6676,73 +6686,73 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Xray Cross</t>
+          <t>ВИС 2349 Фургон</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>591900</v>
+        <v>1364100</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/xray_cross/</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>591900</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/lada/xray_cross/</t>
-        </is>
-      </c>
-      <c r="H151" t="n">
-        <v>749940</v>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/lada/xray_cross</t>
+          <t>https://alyans-auto.ru/auto/auto_14192.html</t>
+        </is>
+      </c>
+      <c r="J151" t="n">
+        <v>1364100</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_14192.html</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>ВИС 2349 Фургон</t>
+          <t>Murman</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1364100</v>
+        <v>430000</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_14192.html</t>
-        </is>
-      </c>
-      <c r="J152" t="n">
-        <v>1364100</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_14192.html</t>
+          <t>https://avto-trend21.ru/auto/lifan/murman/</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>430000</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/lifan/murman/</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>611940</v>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/lifan/murman</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -6752,40 +6762,40 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Murman</t>
+          <t>MyWay</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>430000</v>
+        <v>539940</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/murman/</t>
+          <t>https://auto-shop-21.ru/lifan/myway</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>430000</t>
+          <t>685000</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/murman/</t>
+          <t>https://avto-trend21.ru/auto/lifan/myway/</t>
         </is>
       </c>
       <c r="H153" t="n">
-        <v>611940</v>
+        <v>539940</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/murman</t>
+          <t>https://auto-shop-21.ru/lifan/myway</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -6795,40 +6805,40 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>MyWay</t>
+          <t>Solano 2</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>539940</v>
+        <v>425940</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/myway</t>
+          <t>https://auto-shop-21.ru/lifan/solano_ii</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>685000</t>
+          <t>439900</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/myway/</t>
+          <t>https://avto-trend21.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
       <c r="H154" t="n">
-        <v>539940</v>
+        <v>425940</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/myway</t>
+          <t>https://auto-shop-21.ru/lifan/solano_ii</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -6838,40 +6848,40 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Solano 2</t>
+          <t>X50</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>425940</v>
+        <v>368000</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/solano_ii</t>
+          <t>https://avto-trend21.ru/auto/lifan/x50/</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>439900</t>
+          <t>368000</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/solano_ii/</t>
+          <t>https://avto-trend21.ru/auto/lifan/x50/</t>
         </is>
       </c>
       <c r="H155" t="n">
-        <v>425940</v>
+        <v>413940</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/solano_ii</t>
+          <t>https://auto-shop-21.ru/lifan/x50</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -6881,40 +6891,40 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>X50</t>
+          <t>X60</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>368000</v>
+        <v>461940</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/x50/</t>
+          <t>https://auto-shop-21.ru/lifan/x60</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>368000</t>
+          <t>479900</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/x50/</t>
+          <t>https://avto-trend21.ru/auto/lifan/x60/</t>
         </is>
       </c>
       <c r="H156" t="n">
-        <v>413940</v>
+        <v>461940</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/x50</t>
+          <t>https://auto-shop-21.ru/lifan/x60</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -6924,83 +6934,83 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>X60</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>461940</v>
+        <v>593400</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/x60</t>
+          <t>https://auto-shop-21.ru/lifan/x70</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>479900</t>
+          <t>737000</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/x60/</t>
+          <t>https://avto-trend21.ru/auto/lifan/x70/</t>
         </is>
       </c>
       <c r="H157" t="n">
-        <v>461940</v>
+        <v>593400</v>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/x60</t>
+          <t>https://auto-shop-21.ru/lifan/x70</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>593400</v>
+        <v>1529940</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/x70</t>
+          <t>https://auto-shop-21.ru/livan/s6pro</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>737000</t>
+          <t>1749900</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/x70/</t>
+          <t>https://avto-trend21.ru/auto/livan/s6pro/</t>
         </is>
       </c>
       <c r="H158" t="n">
-        <v>593400</v>
+        <v>1529940</v>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/x70</t>
+          <t>https://auto-shop-21.ru/livan/s6pro</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -7010,40 +7020,40 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>1529940</v>
+        <v>1127940</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/livan/s6pro</t>
+          <t>https://auto-shop-21.ru/livan/x3pro</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>1749900</t>
+          <t>1279900</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/livan/s6pro/</t>
+          <t>https://avto-trend21.ru/auto/livan/x3pro/</t>
         </is>
       </c>
       <c r="H159" t="n">
-        <v>1529940</v>
+        <v>1127940</v>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/livan/s6pro</t>
+          <t>https://auto-shop-21.ru/livan/x3pro</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -7053,83 +7063,83 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>X6 Pro</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>1127940</v>
+        <v>1577940</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/livan/x3pro</t>
+          <t>https://auto-shop-21.ru/livan/x6pro</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>1279900</t>
+          <t>1829900</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/livan/x3pro/</t>
+          <t>https://avto-trend21.ru/auto/livan/x6pro/</t>
         </is>
       </c>
       <c r="H160" t="n">
-        <v>1127940</v>
+        <v>1577940</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/livan/x3pro</t>
+          <t>https://auto-shop-21.ru/livan/x6pro</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>X6 Pro</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>1577940</v>
+        <v>960000</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/livan/x6pro</t>
+          <t>https://avto-trend21.ru/auto/moskvich/3/</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>1829900</t>
+          <t>960000</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/livan/x6pro/</t>
+          <t>https://avto-trend21.ru/auto/moskvich/3/</t>
         </is>
       </c>
       <c r="H161" t="n">
-        <v>1577940</v>
+        <v>1332000</v>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/livan/x6pro</t>
+          <t>https://auto-shop-21.ru/moskvich/3</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -7139,83 +7149,83 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3e</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>960000</v>
+        <v>2370000</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/moskvich/3/</t>
+          <t>https://auto-shop-21.ru/moskvich/3e</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>960000</t>
+          <t>3147000</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/moskvich/3/</t>
+          <t>https://avto-trend21.ru/auto/moskvich/3e/</t>
         </is>
       </c>
       <c r="H162" t="n">
-        <v>1332000</v>
+        <v>2370000</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/moskvich/3</t>
+          <t>https://auto-shop-21.ru/moskvich/3e</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>3e</t>
+          <t>Qashqai</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>2370000</v>
+        <v>790000</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/moskvich/3e</t>
+          <t>https://avto-trend21.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>3147000</t>
+          <t>790000</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/moskvich/3e/</t>
+          <t>https://avto-trend21.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
       <c r="H163" t="n">
-        <v>2370000</v>
+        <v>1402200</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/moskvich/3e</t>
+          <t>https://auto-shop-21.ru/nissan/qashqai</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -7225,40 +7235,40 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Qashqai</t>
+          <t>Terrano</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>790000</v>
+        <v>619000</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/qashqai/</t>
+          <t>https://avto-trend21.ru/auto/nissan/terrano/</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>790000</t>
+          <t>619000</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/qashqai/</t>
+          <t>https://avto-trend21.ru/auto/nissan/terrano/</t>
         </is>
       </c>
       <c r="H164" t="n">
-        <v>1402200</v>
+        <v>1014000</v>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/nissan/qashqai</t>
+          <t>https://auto-shop-21.ru/nissan/terrano</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -7268,83 +7278,91 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Terrano</t>
+          <t>X-trail</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>619000</v>
+        <v>855000</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/terrano/</t>
+          <t>https://avto-trend21.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>619000</t>
+          <t>855000</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/terrano/</t>
+          <t>https://avto-trend21.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
       <c r="H165" t="n">
-        <v>1014000</v>
+        <v>1657200</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/nissan/terrano</t>
+          <t>https://auto-shop-21.ru/nissan/x-trail</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>X-trail</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>855000</v>
+        <v>1607940</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/x-trail/</t>
+          <t>https://auto-shop-21.ru/omoda/c5</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>855000</t>
+          <t>1999900</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/x-trail/</t>
+          <t>https://avto-trend21.ru/auto/omoda/c5/</t>
         </is>
       </c>
       <c r="H166" t="n">
-        <v>1657200</v>
+        <v>1607940</v>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/nissan/x-trail</t>
+          <t>https://auto-shop-21.ru/omoda/c5</t>
+        </is>
+      </c>
+      <c r="J166" t="n">
+        <v>1899900</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_17869.html</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -7354,99 +7372,91 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>1607940</v>
+        <v>1349940</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/omoda/c5</t>
+          <t>https://auto-shop-21.ru/omoda/s5</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>1999900</t>
+          <t>1689900</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/omoda/c5/</t>
+          <t>https://avto-trend21.ru/auto/omoda/s5/</t>
         </is>
       </c>
       <c r="H167" t="n">
-        <v>1607940</v>
+        <v>1349940</v>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/omoda/c5</t>
+          <t>https://auto-shop-21.ru/omoda/s5</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>2099900</v>
+        <v>1729000</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16286.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16128.html</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>Nexia R3</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>1349940</v>
+        <v>339000</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/omoda/s5</t>
+          <t>https://avto-trend21.ru/auto/ravon/nexia_r3/</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>1689900</t>
+          <t>339000</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/omoda/s5/</t>
+          <t>https://avto-trend21.ru/auto/ravon/nexia_r3/</t>
         </is>
       </c>
       <c r="H168" t="n">
-        <v>1349940</v>
+        <v>495000</v>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/omoda/s5</t>
-        </is>
-      </c>
-      <c r="J168" t="n">
-        <v>1929000</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_16128.html</t>
+          <t>https://auto-shop-21.ru/ravon/nexia_r3</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -7456,7 +7466,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Nexia R3</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="D169" t="n">
@@ -7464,7 +7474,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/nexia_r3/</t>
+          <t>https://avto-trend21.ru/auto/ravon/r2/</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -7474,22 +7484,22 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/nexia_r3/</t>
+          <t>https://avto-trend21.ru/auto/ravon/r2/</t>
         </is>
       </c>
       <c r="H169" t="n">
-        <v>495000</v>
+        <v>529800</v>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/ravon/nexia_r3</t>
+          <t>https://auto-shop-21.ru/ravon/r2</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -7499,83 +7509,83 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R4</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>339000</v>
+        <v>389000</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/r2/</t>
+          <t>https://avto-trend21.ru/auto/ravon/r4/</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>339000</t>
+          <t>389000</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/r2/</t>
+          <t>https://avto-trend21.ru/auto/ravon/r4/</t>
         </is>
       </c>
       <c r="H170" t="n">
-        <v>529800</v>
+        <v>510600</v>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/ravon/r2</t>
+          <t>https://auto-shop-21.ru/ravon/r4</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>389000</v>
+        <v>690000</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/r4/</t>
+          <t>https://avto-trend21.ru/auto/renault/arkana/</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>389000</t>
+          <t>690000</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/r4/</t>
+          <t>https://avto-trend21.ru/auto/renault/arkana/</t>
         </is>
       </c>
       <c r="H171" t="n">
-        <v>510600</v>
+        <v>1124400</v>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/ravon/r4</t>
+          <t>https://auto-shop-21.ru/renault/arkana</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -7585,40 +7595,40 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>Duster New</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>690000</v>
+        <v>650000</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/arkana/</t>
+          <t>https://avto-trend21.ru/auto/renault/duster/</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>690000</t>
+          <t>650000</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/arkana/</t>
+          <t>https://avto-trend21.ru/auto/renault/duster/</t>
         </is>
       </c>
       <c r="H172" t="n">
-        <v>1124400</v>
+        <v>970800</v>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/arkana</t>
+          <t>https://auto-shop-21.ru/renault/duster</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -7628,40 +7638,40 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Duster New</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>650000</v>
+        <v>659000</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/duster/</t>
+          <t>https://avto-trend21.ru/auto/renault/kaptur/</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>650000</t>
+          <t>659000</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/duster/</t>
+          <t>https://avto-trend21.ru/auto/renault/kaptur/</t>
         </is>
       </c>
       <c r="H173" t="n">
-        <v>970800</v>
+        <v>1034400</v>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/duster</t>
+          <t>https://auto-shop-21.ru/renault/kaptur</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>552</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -7671,40 +7681,40 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>Koleos</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>659000</v>
+        <v>1019400</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/kaptur/</t>
+          <t>https://auto-shop-21.ru/renault/koleos</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>659000</t>
+          <t>1553000</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/kaptur/</t>
+          <t>https://avto-trend21.ru/auto/renault/koleos/</t>
         </is>
       </c>
       <c r="H174" t="n">
-        <v>1034400</v>
+        <v>1019400</v>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/kaptur</t>
+          <t>https://auto-shop-21.ru/renault/koleos</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -7714,40 +7724,40 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Koleos</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>1019400</v>
+        <v>490000</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/koleos</t>
+          <t>https://avto-trend21.ru/auto/renault/logan/</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>1553000</t>
+          <t>490000</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/koleos/</t>
+          <t>https://avto-trend21.ru/auto/renault/logan/</t>
         </is>
       </c>
       <c r="H175" t="n">
-        <v>1019400</v>
+        <v>674400</v>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/koleos</t>
+          <t>https://auto-shop-21.ru/renault/logan</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -7757,40 +7767,40 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>490000</v>
+        <v>530000</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/logan/</t>
+          <t>https://avto-trend21.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>490000</t>
+          <t>530000</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/logan/</t>
+          <t>https://avto-trend21.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="H176" t="n">
-        <v>674400</v>
+        <v>780600</v>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/logan</t>
+          <t>https://auto-shop-21.ru/renault/logan_stepway</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -7800,40 +7810,40 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>Logan Stepway City</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>530000</v>
+        <v>715000</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/logan_stepway/</t>
+          <t>https://avto-trend21.ru/auto/renault/logan_stepway_city/</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>530000</t>
+          <t>715000</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/logan_stepway/</t>
+          <t>https://avto-trend21.ru/auto/renault/logan_stepway_city/</t>
         </is>
       </c>
       <c r="H177" t="n">
-        <v>780600</v>
+        <v>792600</v>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/logan_stepway</t>
+          <t>https://auto-shop-21.ru/renault/logan_stepway_city</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -7843,40 +7853,40 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Logan Stepway City</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>715000</v>
+        <v>520000</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/logan_stepway_city/</t>
+          <t>https://avto-trend21.ru/auto/renault/sandero/</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>715000</t>
+          <t>520000</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/logan_stepway_city/</t>
+          <t>https://avto-trend21.ru/auto/renault/sandero/</t>
         </is>
       </c>
       <c r="H178" t="n">
-        <v>792600</v>
+        <v>754800</v>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/logan_stepway_city</t>
+          <t>https://auto-shop-21.ru/renault/sandero</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -7886,40 +7896,40 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>520000</v>
+        <v>550000</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/sandero/</t>
+          <t>https://avto-trend21.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>520000</t>
+          <t>550000</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/sandero/</t>
+          <t>https://avto-trend21.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
       <c r="H179" t="n">
-        <v>754800</v>
+        <v>823800</v>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/sandero</t>
+          <t>https://auto-shop-21.ru/renault/sandero_stepway</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>567</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -7929,83 +7939,83 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>Stepway City</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>550000</v>
+        <v>835800</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/sandero_stepway/</t>
+          <t>https://auto-shop-21.ru/renault/sandero_stepway_city</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>550000</t>
+          <t>1170000</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/sandero_stepway/</t>
+          <t>https://avto-trend21.ru/auto/renault/sandero_stepway_city/</t>
         </is>
       </c>
       <c r="H180" t="n">
-        <v>823800</v>
+        <v>835800</v>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/sandero_stepway</t>
+          <t>https://auto-shop-21.ru/renault/sandero_stepway_city</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Stepway City</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>835800</v>
+        <v>740000</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/sandero_stepway_city</t>
+          <t>https://avto-trend21.ru/auto/skoda/karoq/</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>1170000</t>
+          <t>740000</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/sandero_stepway_city/</t>
+          <t>https://avto-trend21.ru/auto/skoda/karoq/</t>
         </is>
       </c>
       <c r="H181" t="n">
-        <v>835800</v>
+        <v>1629600</v>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/sandero_stepway_city</t>
+          <t>https://auto-shop-21.ru/skoda/karoq</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>590</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -8015,40 +8025,40 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>Kodiaq Hockey Edition</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>740000</v>
+        <v>1421340</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/karoq/</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_hockey_edition</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>740000</t>
+          <t>1581000</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/karoq/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq_hockey_edition/</t>
         </is>
       </c>
       <c r="H182" t="n">
-        <v>1629600</v>
+        <v>1421340</v>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/karoq</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_hockey_edition</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>593</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -8058,40 +8068,40 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Kodiaq Hockey Edition</t>
+          <t>Kodiaq Laurin &amp; Klement</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>1421340</v>
+        <v>3058000</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq_hockey_edition</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq_laurin__klement/</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>1581000</t>
+          <t>3058000</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq_hockey_edition/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq_laurin__klement/</t>
         </is>
       </c>
       <c r="H183" t="n">
-        <v>1421340</v>
+        <v>3483600</v>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq_hockey_edition</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_laurin__klement</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>576</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -8101,40 +8111,40 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Kodiaq Laurin &amp; Klement</t>
+          <t>Kodiaq New</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>3058000</v>
+        <v>1659000</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq_laurin__klement/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>3058000</t>
+          <t>1659000</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq_laurin__klement/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
       <c r="H184" t="n">
-        <v>3483600</v>
+        <v>2184000</v>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq_laurin__klement</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>591</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -8144,40 +8154,40 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Kodiaq New</t>
+          <t>Kodiaq Scout</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>1659000</v>
+        <v>2098800</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq/</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_scout</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>1659000</t>
+          <t>3375000</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq_scout/</t>
         </is>
       </c>
       <c r="H185" t="n">
-        <v>2184000</v>
+        <v>2098800</v>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_scout</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>592</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -8187,40 +8197,40 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Kodiaq Scout</t>
+          <t>Kodiaq Sportline</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>2098800</v>
+        <v>2989000</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq_scout</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq_sportline/</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>3375000</t>
+          <t>2989000</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq_scout/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq_sportline/</t>
         </is>
       </c>
       <c r="H186" t="n">
-        <v>2098800</v>
+        <v>3226800</v>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq_scout</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_sportline</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>589</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -8230,40 +8240,40 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Kodiaq Sportline</t>
+          <t>Octavia Hockey Edition</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>2989000</v>
+        <v>989000</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq_sportline/</t>
+          <t>https://avto-trend21.ru/auto/skoda/octavia_hockey_edition/</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2989000</t>
+          <t>989000</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq_sportline/</t>
+          <t>https://avto-trend21.ru/auto/skoda/octavia_hockey_edition/</t>
         </is>
       </c>
       <c r="H187" t="n">
-        <v>3226800</v>
+        <v>1694340</v>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq_sportline</t>
+          <t>https://auto-shop-21.ru/skoda/octavia_hockey_edition</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -8273,40 +8283,40 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Octavia Hockey Edition</t>
+          <t>Octavia New</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>989000</v>
+        <v>840000</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/octavia_hockey_edition/</t>
+          <t>https://avto-trend21.ru/auto/skoda/octavia/</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>989000</t>
+          <t>840000</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/octavia_hockey_edition/</t>
+          <t>https://avto-trend21.ru/auto/skoda/octavia/</t>
         </is>
       </c>
       <c r="H188" t="n">
-        <v>1694340</v>
+        <v>1567800</v>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/octavia_hockey_edition</t>
+          <t>https://auto-shop-21.ru/skoda/octavia</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -8316,40 +8326,40 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Octavia New</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>840000</v>
+        <v>520000</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/octavia/</t>
+          <t>https://avto-trend21.ru/auto/skoda/rapid/</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>840000</t>
+          <t>520000</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/octavia/</t>
+          <t>https://avto-trend21.ru/auto/skoda/rapid/</t>
         </is>
       </c>
       <c r="H189" t="n">
-        <v>1567800</v>
+        <v>961200</v>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/octavia</t>
+          <t>https://auto-shop-21.ru/skoda/rapid</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -8359,40 +8369,40 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Rapid</t>
+          <t>Superb</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>520000</v>
+        <v>1222000</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/rapid/</t>
+          <t>https://avto-trend21.ru/auto/skoda/superb/</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>520000</t>
+          <t>1222000</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/rapid/</t>
+          <t>https://avto-trend21.ru/auto/skoda/superb/</t>
         </is>
       </c>
       <c r="H190" t="n">
-        <v>961200</v>
+        <v>2031600</v>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/rapid</t>
+          <t>https://auto-shop-21.ru/skoda/superb</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -8402,83 +8412,75 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Superb</t>
+          <t>Superb Combi</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>1222000</v>
+        <v>2089000</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/superb/</t>
+          <t>https://avto-trend21.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>1222000</t>
+          <t>2089000</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/superb/</t>
+          <t>https://avto-trend21.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
       <c r="H191" t="n">
-        <v>2031600</v>
+        <v>2290200</v>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/superb</t>
+          <t>https://auto-shop-21.ru/skoda/superb_combi</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Superb Combi</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>2089000</v>
+        <v>1749300</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/superb_combi/</t>
+          <t>https://avto-trend21.ru/auto/solaris/hc/</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>2089000</t>
+          <t>1749300</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/superb_combi/</t>
-        </is>
-      </c>
-      <c r="H192" t="n">
-        <v>2290200</v>
-      </c>
-      <c r="I192" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/skoda/superb_combi</t>
+          <t>https://avto-trend21.ru/auto/solaris/hc/</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -8488,32 +8490,32 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>1749300</v>
+        <v>1407000</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/hc/</t>
+          <t>https://avto-trend21.ru/auto/solaris/hs/</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>1749300</t>
+          <t>1407000</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/hc/</t>
+          <t>https://avto-trend21.ru/auto/solaris/hs/</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -8523,32 +8525,32 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>KRS</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>1407000</v>
+        <v>1426600</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/hs/</t>
+          <t>https://avto-trend21.ru/auto/solaris/krs/</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>1407000</t>
+          <t>1426600</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/hs/</t>
+          <t>https://avto-trend21.ru/auto/solaris/krs/</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -8558,67 +8560,65 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>KRS</t>
+          <t>KRX</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>1426600</v>
+        <v>1444800</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/krs/</t>
+          <t>https://avto-trend21.ru/auto/solaris/krx/</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>1426600</t>
+          <t>1444800</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/krs/</t>
+          <t>https://avto-trend21.ru/auto/solaris/krx/</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>KRX</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>1444800</v>
+        <v>2459400</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/krx/</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>1444800</t>
-        </is>
-      </c>
-      <c r="G196" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/solaris/krx/</t>
+          <t>https://auto-shop-21.ru/tank/300</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>2459400</v>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/tank/300</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -8628,63 +8628,73 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>2459400</v>
+        <v>3779400</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/tank/300</t>
+          <t>https://auto-shop-21.ru/tank/500</t>
         </is>
       </c>
       <c r="H197" t="n">
-        <v>2459400</v>
+        <v>3779400</v>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/tank/300</t>
+          <t>https://auto-shop-21.ru/tank/500</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>3779400</v>
+        <v>975000</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/tank/500</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/jetta/</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>975000</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
       <c r="H198" t="n">
-        <v>3779400</v>
+        <v>976200</v>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/tank/500</t>
+          <t>https://auto-shop-21.ru/volkswagen/jetta</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>649</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -8694,40 +8704,40 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Passat</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>975000</v>
+        <v>1050000</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/jetta/</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>975000</t>
+          <t>1050000</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/jetta/</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
       <c r="H199" t="n">
-        <v>976200</v>
+        <v>1593600</v>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/volkswagen/jetta</t>
+          <t>https://auto-shop-21.ru/volkswagen/passat</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -8737,40 +8747,40 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Passat</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>1050000</v>
+        <v>730900</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/passat/</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>1050000</t>
+          <t>730900</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/passat/</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
       <c r="H200" t="n">
-        <v>1593600</v>
+        <v>972540</v>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/volkswagen/passat</t>
+          <t>https://auto-shop-21.ru/volkswagen/polo</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -8780,40 +8790,40 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>Taos</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>730900</v>
+        <v>1399900</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/polo/</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>730900</t>
+          <t>1399900</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/polo/</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
       <c r="H201" t="n">
-        <v>972540</v>
+        <v>1697340</v>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/volkswagen/polo</t>
+          <t>https://auto-shop-21.ru/volkswagen/taos</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>658</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -8823,116 +8833,116 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Taos</t>
+          <t>Tiguan New</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>1399900</v>
+        <v>1579900</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/taos/</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>1399900</t>
+          <t>1579900</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/taos/</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
       <c r="H202" t="n">
-        <v>1697340</v>
+        <v>2025540</v>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/volkswagen/taos</t>
+          <t>https://auto-shop-21.ru/volkswagen/tiguan</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>675</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>XCite</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Tiguan New</t>
+          <t>X-Cross 7</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>1579900</v>
+        <v>2495500</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/tiguan/</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>1579900</t>
-        </is>
-      </c>
-      <c r="G203" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/tiguan/</t>
-        </is>
-      </c>
-      <c r="H203" t="n">
-        <v>2025540</v>
-      </c>
-      <c r="I203" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/volkswagen/tiguan</t>
+          <t>https://alyans-auto.ru/auto/auto_17597.html</t>
+        </is>
+      </c>
+      <c r="J203" t="n">
+        <v>2495500</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_17597.html</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>672</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>XCite</t>
+          <t>Zotye</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>X-Cross 7</t>
+          <t>Coupa</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>2499000</v>
+        <v>713760</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16765.html</t>
-        </is>
-      </c>
-      <c r="J204" t="n">
-        <v>2499000</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_16765.html</t>
+          <t>https://auto-shop-21.ru/zotye/coupa</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>989600</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>713760</v>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/zotye/coupa</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>674</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -8942,74 +8952,31 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Coupa</t>
+          <t>T600</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>713760</v>
+        <v>582960</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/zotye/coupa</t>
+          <t>https://auto-shop-21.ru/zotye/t600</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>989600</t>
+          <t>771600</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/zotye/coupa/</t>
+          <t>https://avto-trend21.ru/auto/zotye/t600/</t>
         </is>
       </c>
       <c r="H205" t="n">
-        <v>713760</v>
+        <v>582960</v>
       </c>
       <c r="I205" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/zotye/coupa</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>674</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Zotye</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>T600</t>
-        </is>
-      </c>
-      <c r="D206" t="n">
-        <v>582960</v>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/zotye/t600</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>771600</t>
-        </is>
-      </c>
-      <c r="G206" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/zotye/t600/</t>
-        </is>
-      </c>
-      <c r="H206" t="n">
-        <v>582960</v>
-      </c>
-      <c r="I206" t="inlineStr">
         <is>
           <t>https://auto-shop-21.ru/zotye/t600</t>
         </is>

--- a/xlsx/cheboksari.xlsx
+++ b/xlsx/cheboksari.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K205"/>
+  <dimension ref="A1:K207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2343990</v>
+        <v>2446190</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>2343990</v>
+        <v>2446190</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -700,19 +700,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2672990</v>
+        <v>2862990</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17697.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17695.html</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>2672990</v>
+        <v>2862990</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17697.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17695.html</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1849900</v>
+        <v>1879900</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>4269900</v>
+        <v>4249900</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>130</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1173,30 +1173,40 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Hunter Plus</t>
+          <t>Lamore</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3629900</v>
+        <v>2589900</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17442.html</t>
+          <t>https://avto-trend21.ru/auto/changan/lamore/</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2589900</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/changan/lamore/</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>3629900</v>
+        <v>2869900</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17442.html</t>
+          <t>https://alyans-auto.ru/auto/auto_18039.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>120</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1206,40 +1216,48 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Lamore</t>
+          <t>UNI-K</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2589900</v>
+        <v>2183940</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/changan/lamore/</t>
+          <t>https://auto-shop-21.ru/changan/uni-k</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2589900</t>
+          <t>3449900</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/changan/lamore/</t>
+          <t>https://avto-trend21.ru/auto/changan/uni-k/</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2183940</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/changan/uni-k</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>2839900</v>
+        <v>4449900</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17441.html</t>
+          <t>https://alyans-auto.ru/auto/auto_14095.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>127</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1249,48 +1267,30 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>UNI-K</t>
+          <t>UNI-S</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2183940</v>
+        <v>2909900</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/changan/uni-k</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3449900</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/changan/uni-k/</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>2183940</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/changan/uni-k</t>
+          <t>https://alyans-auto.ru/auto/auto_16808.html</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>4369900</v>
+        <v>2909900</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_14095.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16808.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>126</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1300,30 +1300,40 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>UNI-S</t>
+          <t>UNI-T</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2849900</v>
+        <v>2759900</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16808.html</t>
+          <t>https://avto-trend21.ru/auto/changan/uni-t/</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2759900</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/changan/uni-t/</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>2849900</v>
+        <v>3219900</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16808.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17443.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>123</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1333,91 +1343,91 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>UNI-T</t>
+          <t>UNI-V</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2759900</v>
+        <v>1715940</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/changan/uni-t/</t>
+          <t>https://auto-shop-21.ru/changan/uni-v</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2759900</t>
+          <t>2739900</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/changan/uni-t/</t>
+          <t>https://avto-trend21.ru/auto/changan/uni-v/</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1715940</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/changan/uni-v</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>3169900</v>
+        <v>2929900</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17443.html</t>
+          <t>https://alyans-auto.ru/auto/auto_10200.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>143</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Changan</t>
+          <t>Chery</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>UNI-V</t>
+          <t>Arrizo 8</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1715940</v>
+        <v>1414000</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/changan/uni-v</t>
+          <t>https://avto-trend21.ru/auto/chery/arrizo_8/</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2739900</t>
+          <t>1414000</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/changan/uni-v/</t>
+          <t>https://avto-trend21.ru/auto/chery/arrizo_8/</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1715940</v>
+        <v>2046000</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/changan/uni-v</t>
-        </is>
-      </c>
-      <c r="J23" t="n">
-        <v>2929900</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_10200.html</t>
+          <t>https://auto-shop-21.ru/chery/arrizo_8</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>147</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1427,40 +1437,40 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Arrizo 8</t>
+          <t>Tiggo 3</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1414000</v>
+        <v>509940</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/arrizo_8/</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_3</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1414000</t>
+          <t>533200</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/arrizo_8/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_3/</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>2046000</v>
+        <v>509940</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chery/arrizo_8</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_3</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1470,40 +1480,40 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Tiggo 3</t>
+          <t>Tiggo 4</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>509940</v>
+        <v>690000</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_3</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_4/</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>533200</t>
+          <t>690000</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_3/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_4/</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>509940</v>
+        <v>1223940</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_3</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_4</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1513,40 +1523,40 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Tiggo 4</t>
+          <t>Tiggo 4 Pro</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>690000</v>
+        <v>740000</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_4/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_4_pro/</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>690000</t>
+          <t>740000</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_4/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_4_pro/</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1223940</v>
+        <v>1272000</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_4</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_4_pro</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>154</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1556,40 +1566,40 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Tiggo 4 Pro</t>
+          <t>Tiggo 7</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>740000</v>
+        <v>737940</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_4_pro/</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_7</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>740000</t>
+          <t>750000</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_4_pro/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_7/</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>1272000</v>
+        <v>737940</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_4_pro</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_7</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1599,40 +1609,40 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Tiggo 7</t>
+          <t>Tiggo 7 Pro</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>737940</v>
+        <v>890000</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_7</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro/</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>750000</t>
+          <t>890000</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_7/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro/</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>737940</v>
+        <v>1542000</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_7</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_7_pro</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1642,40 +1652,40 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Tiggo 7 Pro</t>
+          <t>Tiggo 7 Pro Max</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>890000</v>
+        <v>1090000</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro_max_1/</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>890000</t>
+          <t>1090000</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro_max_1/</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>1542000</v>
+        <v>1692000</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_7_pro</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_7_pro_max</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1685,40 +1695,32 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Tiggo 7 Pro Max</t>
+          <t>Tiggo 7 Pro Max New</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1090000</v>
+        <v>1939000</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro_max_1/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro_max/</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1090000</t>
+          <t>1939000</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro_max_1/</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>1692000</v>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_7_pro_max</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro_max/</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1728,32 +1730,40 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Tiggo 7 Pro Max New</t>
+          <t>Tiggo 8</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1939000</v>
+        <v>1189900</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro_max/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_8/</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1939000</t>
+          <t>1189900</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro_max/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_8/</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1638000</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/chery/tiggo_8</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1763,40 +1773,40 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Tiggo 8</t>
+          <t>Tiggo 8 Pro</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1189900</v>
+        <v>1229900</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_8/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro/</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1189900</t>
+          <t>1229900</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_8/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro/</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>1638000</v>
+        <v>2058000</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_8</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_8_pro</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1806,40 +1816,40 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Tiggo 8 Pro</t>
+          <t>Tiggo 8 Pro Max</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1229900</v>
+        <v>1549900</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro_max_1/</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1229900</t>
+          <t>1549900</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro_max_1/</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>2058000</v>
+        <v>2310600</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_8_pro</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_8_pro_max_1</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1849,83 +1859,83 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Tiggo 8 Pro Max</t>
+          <t>Tiggo 8 Pro Max New</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1549900</v>
+        <v>2189900</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro_max_1/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro_max/</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1549900</t>
+          <t>2189900</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro_max_1/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro_max/</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>2310600</v>
+        <v>2496000</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_8_pro_max_1</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_8_pro_max</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Chery</t>
+          <t>Chevrolet</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Tiggo 8 Pro Max New</t>
+          <t>Cobalt</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2189900</v>
+        <v>572340</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro_max/</t>
+          <t>https://auto-shop-21.ru/chevrolet/cobalt</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2189900</t>
+          <t>627900</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro_max/</t>
+          <t>https://avto-trend21.ru/auto/chevrolet/cobalt/</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>2496000</v>
+        <v>572340</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_8_pro_max</t>
+          <t>https://auto-shop-21.ru/chevrolet/cobalt</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1935,40 +1945,40 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Cobalt</t>
+          <t>Nexia</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>572340</v>
+        <v>528540</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chevrolet/cobalt</t>
+          <t>https://auto-shop-21.ru/chevrolet/nexia</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>627900</t>
+          <t>577900</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chevrolet/cobalt/</t>
+          <t>https://avto-trend21.ru/auto/chevrolet/nexia/</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>572340</v>
+        <v>528540</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chevrolet/cobalt</t>
+          <t>https://auto-shop-21.ru/chevrolet/nexia</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1978,83 +1988,83 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Nexia</t>
+          <t>Spark</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>528540</v>
+        <v>570540</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chevrolet/nexia</t>
+          <t>https://auto-shop-21.ru/chevrolet/spark</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>577900</t>
+          <t>637900</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chevrolet/nexia/</t>
+          <t>https://avto-trend21.ru/auto/chevrolet/spark/</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>528540</v>
+        <v>570540</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chevrolet/nexia</t>
+          <t>https://auto-shop-21.ru/chevrolet/spark</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Chevrolet</t>
+          <t>DFM</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Spark</t>
+          <t>580</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>570540</v>
+        <v>809000</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chevrolet/spark</t>
+          <t>https://avto-trend21.ru/auto/dfm/580/</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>637900</t>
+          <t>809000</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chevrolet/spark/</t>
+          <t>https://avto-trend21.ru/auto/dfm/580/</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>570540</v>
+        <v>1374000</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chevrolet/spark</t>
+          <t>https://auto-shop-21.ru/dfm/580</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2064,83 +2074,83 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>AX7</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>809000</v>
+        <v>710000</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/dfm/580/</t>
+          <t>https://avto-trend21.ru/auto/dfm/ax7/</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>809000</t>
+          <t>710000</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/dfm/580/</t>
+          <t>https://avto-trend21.ru/auto/dfm/ax7/</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>1374000</v>
+        <v>737400</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/dfm/580</t>
+          <t>https://auto-shop-21.ru/dfm/ax7</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>DFM</t>
+          <t>Datsun</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>AX7</t>
+          <t>MI-DO</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>710000</v>
+        <v>332400</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/dfm/ax7/</t>
+          <t>https://auto-shop-21.ru/datsun/mi-do</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>710000</t>
+          <t>387000</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/dfm/ax7/</t>
+          <t>https://avto-trend21.ru/auto/datsun/mi-do/</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>737400</v>
+        <v>332400</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/dfm/ax7</t>
+          <t>https://auto-shop-21.ru/datsun/mi-do</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2150,83 +2160,75 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>MI-DO</t>
+          <t>ON-DO</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>332400</v>
+        <v>318600</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/datsun/mi-do</t>
+          <t>https://auto-shop-21.ru/datsun/on-do</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>387000</t>
+          <t>364000</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/datsun/mi-do/</t>
+          <t>https://avto-trend21.ru/auto/datsun/on-do/</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>332400</v>
+        <v>318600</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/datsun/mi-do</t>
+          <t>https://auto-shop-21.ru/datsun/on-do</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Datsun</t>
+          <t>EXEED</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ON-DO</t>
+          <t>LX</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>318600</v>
+        <v>1449900</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/datsun/on-do</t>
+          <t>https://avto-trend21.ru/auto/exeed/lx/</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>364000</t>
+          <t>1449900</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/datsun/on-do/</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>318600</v>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/datsun/on-do</t>
+          <t>https://avto-trend21.ru/auto/exeed/lx/</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2236,32 +2238,32 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>LX</t>
+          <t>RX</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1449900</v>
+        <v>2939900</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/exeed/lx/</t>
+          <t>https://avto-trend21.ru/auto/exeed/rx/</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1449900</t>
+          <t>2939900</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/exeed/lx/</t>
+          <t>https://avto-trend21.ru/auto/exeed/rx/</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2271,32 +2273,40 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>RX</t>
+          <t>TXL</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2939900</v>
+        <v>1439900</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/exeed/rx/</t>
+          <t>https://avto-trend21.ru/auto/exeed/txl/</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2939900</t>
+          <t>1439900</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/exeed/rx/</t>
+          <t>https://avto-trend21.ru/auto/exeed/txl/</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2556000</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/exeed/txl</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2306,75 +2316,75 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>TXL</t>
+          <t>VX</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1439900</v>
+        <v>2519900</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/exeed/txl/</t>
+          <t>https://avto-trend21.ru/auto/exeed/vx/</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>1439900</t>
+          <t>2519900</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/exeed/txl/</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>2556000</v>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/exeed/txl</t>
+          <t>https://avto-trend21.ru/auto/exeed/vx/</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>EXEED</t>
+          <t>FAW</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>VX</t>
+          <t>Bestune B70</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>2519900</v>
+        <v>1470000</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/exeed/vx/</t>
+          <t>https://auto-shop-21.ru/faw/bestune_b70</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2519900</t>
+          <t>1838000</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/exeed/vx/</t>
+          <t>https://avto-trend21.ru/auto/faw/bestune_b70/</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1470000</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/faw/bestune_b70</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2384,40 +2394,40 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Bestune B70</t>
+          <t>Bestune T55</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1470000</v>
+        <v>1446600</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/faw/bestune_b70</t>
+          <t>https://auto-shop-21.ru/faw/bestune_t55</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1838000</t>
+          <t>1849000</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/faw/bestune_b70/</t>
+          <t>https://avto-trend21.ru/auto/faw/bestune_t55/</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>1470000</v>
+        <v>1446600</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/faw/bestune_b70</t>
+          <t>https://auto-shop-21.ru/faw/bestune_t55</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2427,40 +2437,40 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Bestune T55</t>
+          <t>Bestune T77</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1446600</v>
+        <v>1439000</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/faw/bestune_t55</t>
+          <t>https://avto-trend21.ru/auto/faw/besturn_t77/</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1849000</t>
+          <t>1439000</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/faw/bestune_t55/</t>
+          <t>https://avto-trend21.ru/auto/faw/besturn_t77/</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>1446600</v>
+        <v>1718400</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/faw/bestune_t55</t>
+          <t>https://auto-shop-21.ru/faw/besturn_t77</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2470,40 +2480,32 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Bestune T77</t>
+          <t>Bestune T99</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1439000</v>
+        <v>2065000</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/faw/besturn_t77/</t>
+          <t>https://avto-trend21.ru/auto/faw/bestune_t99/</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1439000</t>
+          <t>2065000</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/faw/besturn_t77/</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>1718400</v>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/faw/besturn_t77</t>
+          <t>https://avto-trend21.ru/auto/faw/bestune_t99/</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2513,32 +2515,40 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Bestune T99</t>
+          <t>X40</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>2065000</v>
+        <v>835200</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/faw/bestune_t99/</t>
+          <t>https://auto-shop-21.ru/faw/x40</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2065000</t>
+          <t>889000</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/faw/bestune_t99/</t>
+          <t>https://avto-trend21.ru/auto/faw/x40/</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>835200</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/faw/x40</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2548,83 +2558,75 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>X40</t>
+          <t>X80</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>835200</v>
+        <v>904800</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/faw/x40</t>
+          <t>https://auto-shop-21.ru/faw/x80</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>889000</t>
+          <t>929000</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/faw/x40/</t>
+          <t>https://avto-trend21.ru/auto/faw/x80/</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>835200</v>
+        <v>904800</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/faw/x40</t>
+          <t>https://auto-shop-21.ru/faw/x80</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>FAW</t>
+          <t>Gac</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>X80</t>
+          <t>GS5</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>904800</v>
+        <v>1574300</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/faw/x80</t>
+          <t>https://avto-trend21.ru/auto/gac/gs5/</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>929000</t>
+          <t>1574300</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/faw/x80/</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>904800</v>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/faw/x80</t>
+          <t>https://avto-trend21.ru/auto/gac/gs5/</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2634,67 +2636,83 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>GS5</t>
+          <t>GS8</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1574300</v>
+        <v>2729300</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/gac/gs5/</t>
+          <t>https://avto-trend21.ru/auto/gac/gs8/</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1574300</t>
+          <t>2729300</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/gac/gs5/</t>
+          <t>https://avto-trend21.ru/auto/gac/gs8/</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Gac</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>GS8</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2729300</v>
+        <v>690000</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/gac/gs8/</t>
+          <t>https://avto-trend21.ru/auto/geely/atlas_1/</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2729300</t>
+          <t>690000</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/gac/gs8/</t>
+          <t>https://avto-trend21.ru/auto/geely/atlas_1/</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1337394</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/geely/atlas_1</t>
+        </is>
+      </c>
+      <c r="J54" t="n">
+        <v>3624190</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_17379.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2704,48 +2722,40 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>Atlas New</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>690000</v>
+        <v>1916994</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/atlas_1/</t>
+          <t>https://auto-shop-21.ru/geely/atlas</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>690000</t>
+          <t>2844990</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/atlas_1/</t>
+          <t>https://avto-trend21.ru/auto/geely/atlas/</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>1337394</v>
+        <v>1916994</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/atlas_1</t>
-        </is>
-      </c>
-      <c r="J55" t="n">
-        <v>3293990</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_17090.html</t>
+          <t>https://auto-shop-21.ru/geely/atlas</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2755,40 +2765,48 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Atlas New</t>
+          <t>Atlas Pro</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1916994</v>
+        <v>1658394</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/atlas</t>
+          <t>https://auto-shop-21.ru/geely/atlas_pro</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2844990</t>
+          <t>2233990</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/atlas/</t>
+          <t>https://avto-trend21.ru/auto/geely/atlas_pro/</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>1916994</v>
+        <v>1658394</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/atlas</t>
+          <t>https://auto-shop-21.ru/geely/atlas_pro</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>3026990</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_17094.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2798,48 +2816,40 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Atlas Pro</t>
+          <t>Belgee X50</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1658394</v>
+        <v>1374594</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/atlas_pro</t>
+          <t>https://auto-shop-21.ru/geely/belgee_x50</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2233990</t>
+          <t>1970990</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/atlas_pro/</t>
+          <t>https://avto-trend21.ru/auto/geely/belgee_x50/</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>1658394</v>
+        <v>1374594</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/atlas_pro</t>
-        </is>
-      </c>
-      <c r="J57" t="n">
-        <v>3026990</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_17094.html</t>
+          <t>https://auto-shop-21.ru/geely/belgee_x50</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>772</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2849,40 +2859,30 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Belgee X50</t>
+          <t>Cityray</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1374594</v>
+        <v>3058190</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/belgee_x50</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>1970990</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/geely/belgee_x50/</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>1374594</v>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/geely/belgee_x50</t>
+          <t>https://alyans-auto.ru/auto/auto_18214.html</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
+        <v>3058190</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_18214.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2892,30 +2892,48 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Cityray</t>
+          <t>Coolray</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2699990</v>
+        <v>1406994</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17236.html</t>
+          <t>https://auto-shop-21.ru/geely/coolray_1</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2024990</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/geely/coolray_1/</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1406994</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/geely/coolray_1</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>2699990</v>
+        <v>2713190</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17236.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16505.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2925,48 +2943,40 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Coolray</t>
+          <t>Coolray New</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1406994</v>
+        <v>1565994</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/coolray_1</t>
+          <t>https://auto-shop-21.ru/geely/coolray</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2024990</t>
+          <t>2309990</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/coolray_1/</t>
+          <t>https://avto-trend21.ru/auto/geely/coolray/</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>1406994</v>
+        <v>1565994</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/coolray_1</t>
-        </is>
-      </c>
-      <c r="J60" t="n">
-        <v>2639990</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_16505.html</t>
+          <t>https://auto-shop-21.ru/geely/coolray</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2976,40 +2986,30 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Coolray New</t>
+          <t>Emgrand</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1565994</v>
+        <v>2217990</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/coolray</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>2309990</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/geely/coolray/</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>1565994</v>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/geely/coolray</t>
+          <t>https://alyans-auto.ru/auto/auto_18097.html</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>2217990</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_18097.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3019,30 +3019,40 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Emgrand</t>
+          <t>Emgrand New</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2367990</v>
+        <v>1205994</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16753.html</t>
-        </is>
-      </c>
-      <c r="J62" t="n">
-        <v>2367990</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_16753.html</t>
+          <t>https://auto-shop-21.ru/geely/emgrand</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1659990</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/geely/emgrand/</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1205994</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/geely/emgrand</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3052,40 +3062,40 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Emgrand New</t>
+          <t>Emgrand X7</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1205994</v>
+        <v>725994</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/emgrand</t>
+          <t>https://auto-shop-21.ru/geely/emgrand_x7</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1659990</t>
+          <t>877990</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/emgrand/</t>
+          <t>https://avto-trend21.ru/auto/geely/emgrand_x7/</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>1205994</v>
+        <v>725994</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/emgrand</t>
+          <t>https://auto-shop-21.ru/geely/emgrand_x7</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3095,40 +3105,40 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Emgrand X7</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>725994</v>
+        <v>659994</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/emgrand_x7</t>
+          <t>https://auto-shop-21.ru/geely/gs</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>877990</t>
+          <t>699890</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/emgrand_x7/</t>
+          <t>https://avto-trend21.ru/auto/geely/gs/</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>725994</v>
+        <v>659994</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/emgrand_x7</t>
+          <t>https://auto-shop-21.ru/geely/gs</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3138,40 +3148,48 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>Monjaro</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>659994</v>
+        <v>2816994</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/gs</t>
+          <t>https://auto-shop-21.ru/geely/monjaro</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>699890</t>
+          <t>3794990</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/gs/</t>
+          <t>https://avto-trend21.ru/auto/geely/monjaro/</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>659994</v>
+        <v>2816994</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/gs</t>
+          <t>https://auto-shop-21.ru/geely/monjaro</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>4790190</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_17394.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3181,48 +3199,38 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Monjaro</t>
+          <t>Okavango</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>2816994</v>
+        <v>2069994</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/monjaro</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>3794990</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/geely/monjaro/</t>
+          <t>https://auto-shop-21.ru/geely/okavango</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>2816994</v>
+        <v>2069994</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/monjaro</t>
+          <t>https://auto-shop-21.ru/geely/okavango</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>4326990</v>
+        <v>3528990</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17560.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17103.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3232,38 +3240,32 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Okavango</t>
+          <t>Okavango New</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>2069994</v>
+        <v>2999990</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/okavango</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>2069994</v>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/geely/okavango</t>
-        </is>
-      </c>
-      <c r="J67" t="n">
-        <v>3528990</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_17103.html</t>
+          <t>https://avto-trend21.ru/auto/geely/okavango/</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2999990</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/geely/okavango/</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>773</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3273,32 +3275,30 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Okavango New</t>
+          <t>Preface FS11</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>2999990</v>
+        <v>3188190</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/okavango/</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>2999990</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/geely/okavango/</t>
+          <t>https://alyans-auto.ru/auto/auto_18229.html</t>
+        </is>
+      </c>
+      <c r="J68" t="n">
+        <v>3188190</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_18229.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>773</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3308,106 +3308,124 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Preface FS11</t>
+          <t>Tugella New</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>3338990</v>
+        <v>2375994</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16504.html</t>
-        </is>
-      </c>
-      <c r="J69" t="n">
-        <v>3338990</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_16504.html</t>
+          <t>https://auto-shop-21.ru/geely/tugella</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3319990</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/geely/tugella/</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2375994</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/geely/tugella</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>Great Wall</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Tugella New</t>
+          <t>POER</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>2375994</v>
+        <v>3399000</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/tugella</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>3319990</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/geely/tugella/</t>
-        </is>
-      </c>
-      <c r="H70" t="n">
-        <v>2375994</v>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/geely/tugella</t>
+          <t>https://alyans-auto.ru/auto/auto_13123.html</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
+        <v>3399000</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_13123.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Great Wall</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>POER</t>
+          <t>Dargo</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>3399000</v>
+        <v>1779000</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_10637.html</t>
+          <t>https://avto-trend21.ru/auto/haval/dargo/</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1779000</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/haval/dargo/</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1829400</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/haval/dargo</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>3399000</v>
+        <v>3249000</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_10637.html</t>
+          <t>https://alyans-auto.ru/auto/auto_18204.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3417,48 +3435,40 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Dargo</t>
+          <t>Dargo X</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1779000</v>
+        <v>1959000</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/dargo/</t>
+          <t>https://avto-trend21.ru/auto/haval/dargo_x/</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>1779000</t>
+          <t>1959000</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/dargo/</t>
+          <t>https://avto-trend21.ru/auto/haval/dargo_x/</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>1829400</v>
+        <v>2009400</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/dargo</t>
-        </is>
-      </c>
-      <c r="J72" t="n">
-        <v>3349000</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_17851.html</t>
+          <t>https://auto-shop-21.ru/haval/dargo_x</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3468,40 +3478,30 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Dargo X</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1959000</v>
+        <v>2699000</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/dargo_x/</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>1959000</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/haval/dargo_x/</t>
-        </is>
-      </c>
-      <c r="H73" t="n">
-        <v>2009400</v>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/haval/dargo_x</t>
+          <t>https://alyans-auto.ru/auto/auto_18203.html</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>2699000</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_18203.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3511,30 +3511,40 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>F7 New</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>2899000</v>
+        <v>1219000</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17727.html</t>
-        </is>
-      </c>
-      <c r="J74" t="n">
-        <v>2899000</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_17727.html</t>
+          <t>https://avto-trend21.ru/auto/haval/f7/</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1219000</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/haval/f7/</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1469400</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/haval/f7</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3544,40 +3554,30 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>F7 New</t>
+          <t>F7x</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1219000</v>
+        <v>3399000</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/f7/</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>1219000</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/haval/f7/</t>
-        </is>
-      </c>
-      <c r="H75" t="n">
-        <v>1469400</v>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/haval/f7</t>
+          <t>https://alyans-auto.ru/auto/auto_12322.html</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>3399000</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_12322.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3587,30 +3587,40 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>F7x</t>
+          <t>F7x New</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>3399000</v>
+        <v>1269000</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_12322.html</t>
-        </is>
-      </c>
-      <c r="J76" t="n">
-        <v>3399000</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_12322.html</t>
+          <t>https://avto-trend21.ru/auto/haval/f7x/</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1269000</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/haval/f7x/</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1469400</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/haval/f7x</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3620,40 +3630,40 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>F7x New</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1269000</v>
+        <v>676800</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/f7x/</t>
+          <t>https://auto-shop-21.ru/haval/h2</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>1269000</t>
+          <t>878000</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/f7x/</t>
+          <t>https://avto-trend21.ru/auto/haval/h2/</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>1469400</v>
+        <v>676800</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/f7x</t>
+          <t>https://auto-shop-21.ru/haval/h2</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3663,40 +3673,30 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>676800</v>
+        <v>917400</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/h2</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>878000</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/haval/h2/</t>
+          <t>https://auto-shop-21.ru/haval/h5</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>676800</v>
+        <v>917400</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/h2</t>
+          <t>https://auto-shop-21.ru/haval/h5</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3706,30 +3706,40 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>H6</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>917400</v>
+        <v>688800</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/h5</t>
+          <t>https://auto-shop-21.ru/haval/h6</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>898000</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/haval/h6/</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>917400</v>
+        <v>688800</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/h5</t>
+          <t>https://auto-shop-21.ru/haval/h6</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3739,40 +3749,30 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>H6</t>
+          <t>H9</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>688800</v>
+        <v>2459400</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/h6</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>898000</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/haval/h6/</t>
+          <t>https://auto-shop-21.ru/haval/h9</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>688800</v>
+        <v>2459400</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/h6</t>
+          <t>https://auto-shop-21.ru/haval/h9</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3782,30 +3782,48 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>H9</t>
+          <t>Jolion</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>2459400</v>
+        <v>689900</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/h9</t>
+          <t>https://avto-trend21.ru/auto/haval/jolion_1/</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>689900</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/haval/jolion_1/</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>2459400</v>
+        <v>1169400</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/h9</t>
+          <t>https://auto-shop-21.ru/haval/jolion_1</t>
+        </is>
+      </c>
+      <c r="J81" t="n">
+        <v>2299000</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_18267.html</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3815,48 +3833,40 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Jolion</t>
+          <t>Jolion New</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>689900</v>
+        <v>990000</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/jolion_1/</t>
+          <t>https://avto-trend21.ru/auto/haval/jolion/</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>689900</t>
+          <t>990000</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/jolion_1/</t>
+          <t>https://avto-trend21.ru/auto/haval/jolion/</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>1169400</v>
+        <v>1199400</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/jolion_1</t>
-        </is>
-      </c>
-      <c r="J82" t="n">
-        <v>2449000</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_17149.html</t>
+          <t>https://auto-shop-21.ru/haval/jolion</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3866,83 +3876,83 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Jolion New</t>
+          <t>M6</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>990000</v>
+        <v>736000</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/jolion/</t>
+          <t>https://avto-trend21.ru/auto/haval/m6/</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>990000</t>
+          <t>736000</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/jolion/</t>
-        </is>
-      </c>
-      <c r="H83" t="n">
-        <v>1199400</v>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/haval/jolion</t>
+          <t>https://avto-trend21.ru/auto/haval/m6/</t>
+        </is>
+      </c>
+      <c r="J83" t="n">
+        <v>2179000</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_18134.html</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>M6</t>
+          <t>Creta New</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>736000</v>
+        <v>864000</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/m6/</t>
+          <t>https://avto-trend21.ru/auto/hyundai/creta/</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>736000</t>
+          <t>864000</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/m6/</t>
-        </is>
-      </c>
-      <c r="J84" t="n">
-        <v>2299000</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_17684.html</t>
+          <t>https://avto-trend21.ru/auto/hyundai/creta/</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1115400</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/hyundai/creta</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3952,40 +3962,40 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Creta New</t>
+          <t>Elantra New</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>864000</v>
+        <v>1069000</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/creta/</t>
+          <t>https://avto-trend21.ru/auto/hyundai/elantra/</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>864000</t>
+          <t>1069000</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/creta/</t>
+          <t>https://avto-trend21.ru/auto/hyundai/elantra/</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>1115400</v>
+        <v>1289400</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/hyundai/creta</t>
+          <t>https://auto-shop-21.ru/hyundai/elantra</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3995,40 +4005,40 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Elantra New</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1069000</v>
+        <v>619000</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/elantra/</t>
+          <t>https://avto-trend21.ru/auto/hyundai/solaris/</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1069000</t>
+          <t>619000</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/elantra/</t>
+          <t>https://avto-trend21.ru/auto/hyundai/solaris/</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>1289400</v>
+        <v>844800</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/hyundai/elantra</t>
+          <t>https://auto-shop-21.ru/hyundai/solaris</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4038,40 +4048,40 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Sonata</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>619000</v>
+        <v>1370000</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/solaris/</t>
+          <t>https://avto-trend21.ru/auto/hyundai/sonata/</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>619000</t>
+          <t>1370000</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/solaris/</t>
+          <t>https://avto-trend21.ru/auto/hyundai/sonata/</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>844800</v>
+        <v>1661400</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/hyundai/solaris</t>
+          <t>https://auto-shop-21.ru/hyundai/sonata</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4081,83 +4091,91 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Sonata</t>
+          <t>Tucson New</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1370000</v>
+        <v>1394000</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/sonata/</t>
+          <t>https://avto-trend21.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>1370000</t>
+          <t>1394000</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/sonata/</t>
+          <t>https://avto-trend21.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>1661400</v>
+        <v>1649400</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/hyundai/sonata</t>
+          <t>https://auto-shop-21.ru/hyundai/tucson</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Tucson New</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1394000</v>
+        <v>1277400</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/tucson/</t>
+          <t>https://auto-shop-21.ru/jac/j7</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>1394000</t>
+          <t>1799000</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/tucson/</t>
+          <t>https://avto-trend21.ru/auto/jac/j7/</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>1649400</v>
+        <v>1277400</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/hyundai/tucson</t>
+          <t>https://auto-shop-21.ru/jac/j7</t>
+        </is>
+      </c>
+      <c r="J89" t="n">
+        <v>2099000</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_8435.html</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4167,48 +4185,30 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>JS3</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1277400</v>
+        <v>1849000</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jac/j7</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>1799000</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/jac/j7/</t>
-        </is>
-      </c>
-      <c r="H90" t="n">
-        <v>1277400</v>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/jac/j7</t>
+          <t>https://alyans-auto.ru/auto/auto_16614.html</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>2099000</v>
+        <v>1849000</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_8435.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16614.html</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4218,30 +4218,30 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>JS3</t>
+          <t>JS6</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1849000</v>
+        <v>2399000</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16614.html</t>
+          <t>https://alyans-auto.ru/auto/auto_13473.html</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>1849000</v>
+        <v>2399000</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16614.html</t>
+          <t>https://alyans-auto.ru/auto/auto_13473.html</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4251,30 +4251,40 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>JS6</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>2399000</v>
+        <v>439000</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_13473.html</t>
-        </is>
-      </c>
-      <c r="J92" t="n">
-        <v>2399000</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_13473.html</t>
+          <t>https://avto-trend21.ru/auto/jac/s3/</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>439000</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/jac/s3/</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>839400</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/jac/s3</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4284,40 +4294,40 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>439000</v>
+        <v>683400</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jac/s3/</t>
+          <t>https://auto-shop-21.ru/jac/s5</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>439000</t>
+          <t>687000</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jac/s3/</t>
+          <t>https://avto-trend21.ru/auto/jac/s5/</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>839400</v>
+        <v>683400</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jac/s3</t>
+          <t>https://auto-shop-21.ru/jac/s5</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -4327,40 +4337,40 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>683400</v>
+        <v>1067400</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jac/s5</t>
+          <t>https://auto-shop-21.ru/jac/s7</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>687000</t>
+          <t>1209000</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jac/s5/</t>
+          <t>https://avto-trend21.ru/auto/jac/s7/</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>683400</v>
+        <v>1067400</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jac/s5</t>
+          <t>https://auto-shop-21.ru/jac/s7</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -4370,40 +4380,30 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1067400</v>
+        <v>2665500</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jac/s7</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>1209000</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/jac/s7/</t>
-        </is>
-      </c>
-      <c r="H95" t="n">
-        <v>1067400</v>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/jac/s7</t>
+          <t>https://alyans-auto.ru/auto/auto_8942.html</t>
+        </is>
+      </c>
+      <c r="J95" t="n">
+        <v>2665500</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_8942.html</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -4413,63 +4413,63 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>T8 Pro</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>2665500</v>
+        <v>3199000</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_8940.html</t>
+          <t>https://alyans-auto.ru/auto/auto_18037.html</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>2665500</v>
+        <v>3199000</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_8940.html</t>
+          <t>https://alyans-auto.ru/auto/auto_18037.html</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>682</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>T9</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>3399000</v>
+        <v>2429900</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17752.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17868.html</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>3399000</v>
+        <v>2429900</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17752.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17868.html</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -4479,63 +4479,65 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>J8</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>2429900</v>
+        <v>3849000</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17864.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17622.html</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>2429900</v>
+        <v>3849000</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17864.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17622.html</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>J8</t>
+          <t>Dashing</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>4199000</v>
+        <v>1399900</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17485.html</t>
-        </is>
-      </c>
-      <c r="J99" t="n">
-        <v>4199000</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_17485.html</t>
+          <t>https://avto-trend21.ru/auto/jetour/dashing/</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1399900</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/jetour/dashing/</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -4545,32 +4547,32 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Dashing</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1399900</v>
+        <v>2631300</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/dashing/</t>
+          <t>https://avto-trend21.ru/auto/jetour/t2/</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>1399900</t>
+          <t>2631300</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/dashing/</t>
+          <t>https://avto-trend21.ru/auto/jetour/t2/</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -4580,32 +4582,32 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>X70 Plus</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>2631300</v>
+        <v>1809900</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/t2/</t>
+          <t>https://avto-trend21.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2631300</t>
+          <t>1809900</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/t2/</t>
+          <t>https://avto-trend21.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -4615,67 +4617,75 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>X70 Plus</t>
+          <t>X90 Plus</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1809900</v>
+        <v>2149900</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/x70_plus/</t>
+          <t>https://avto-trend21.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>1809900</t>
+          <t>2149900</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/x70_plus/</t>
+          <t>https://avto-trend21.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>X90 Plus</t>
+          <t>VA3</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2149900</v>
+        <v>890000</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/x90_plus/</t>
+          <t>https://avto-trend21.ru/auto/jetta/va3/</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2149900</t>
+          <t>890000</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/x90_plus/</t>
+          <t>https://avto-trend21.ru/auto/jetta/va3/</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>1232400</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/jetta/va3</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4685,40 +4695,40 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>VA3</t>
+          <t>VS5</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>890000</v>
+        <v>1190000</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/va3/</t>
+          <t>https://avto-trend21.ru/auto/jetta/vs5/</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>890000</t>
+          <t>1190000</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/va3/</t>
+          <t>https://avto-trend21.ru/auto/jetta/vs5/</t>
         </is>
       </c>
       <c r="H104" t="n">
-        <v>1232400</v>
+        <v>1477200</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jetta/va3</t>
+          <t>https://auto-shop-21.ru/jetta/vs5</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -4728,83 +4738,83 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>VS5</t>
+          <t>VS7</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1190000</v>
+        <v>1349000</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/vs5/</t>
+          <t>https://avto-trend21.ru/auto/jetta/vs7/</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>1190000</t>
+          <t>1349000</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/vs5/</t>
+          <t>https://avto-trend21.ru/auto/jetta/vs7/</t>
         </is>
       </c>
       <c r="H105" t="n">
-        <v>1477200</v>
+        <v>1759800</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jetta/vs5</t>
+          <t>https://auto-shop-21.ru/jetta/vs7</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>VS7</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1349000</v>
+        <v>1299000</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/vs7/</t>
+          <t>https://avto-trend21.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>1349000</t>
+          <t>1299000</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/vs7/</t>
+          <t>https://avto-trend21.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
       <c r="H106" t="n">
-        <v>1759800</v>
+        <v>1317000</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jetta/vs7</t>
+          <t>https://auto-shop-21.ru/kaiyi/e5</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4814,40 +4824,40 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>X3</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1299000</v>
+        <v>1342800</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kaiyi/e5/</t>
+          <t>https://auto-shop-21.ru/kaiyi/x3</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>1299000</t>
+          <t>1417650</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kaiyi/e5/</t>
+          <t>https://avto-trend21.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
       <c r="H107" t="n">
-        <v>1317000</v>
+        <v>1342800</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/e5</t>
+          <t>https://auto-shop-21.ru/kaiyi/x3</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4857,40 +4867,40 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>X3</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>1342800</v>
+        <v>1508940</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x3</t>
+          <t>https://auto-shop-21.ru/kaiyi/x3_pro</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>1417650</t>
+          <t>1790000</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kaiyi/x3/</t>
+          <t>https://avto-trend21.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
       <c r="H108" t="n">
-        <v>1342800</v>
+        <v>1508940</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x3</t>
+          <t>https://auto-shop-21.ru/kaiyi/x3_pro</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4900,83 +4910,83 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>X7 Kunlun</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1508940</v>
+        <v>1798740</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x3_pro</t>
+          <t>https://auto-shop-21.ru/kaiyi/x7_kunlun</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>1790000</t>
+          <t>2197900</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://avto-trend21.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
       <c r="H109" t="n">
-        <v>1508940</v>
+        <v>1798740</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x3_pro</t>
+          <t>https://auto-shop-21.ru/kaiyi/x7_kunlun</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>X7 Kunlun</t>
+          <t>Ceed</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>1798740</v>
+        <v>713000</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x7_kunlun</t>
+          <t>https://avto-trend21.ru/auto/kia/ceed/</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2197900</t>
+          <t>713000</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://avto-trend21.ru/auto/kia/ceed/</t>
         </is>
       </c>
       <c r="H110" t="n">
-        <v>1798740</v>
+        <v>1346940</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x7_kunlun</t>
+          <t>https://auto-shop-21.ru/kia/ceed</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4986,40 +4996,40 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Ceed</t>
+          <t>Ceed SW</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>713000</v>
+        <v>723000</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/ceed/</t>
+          <t>https://avto-trend21.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>713000</t>
+          <t>723000</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/ceed/</t>
+          <t>https://avto-trend21.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
       <c r="H111" t="n">
-        <v>1346940</v>
+        <v>1388940</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/ceed</t>
+          <t>https://auto-shop-21.ru/kia/ceed_sw</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -5029,40 +5039,40 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Ceed SW</t>
+          <t>Cerato</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>723000</v>
+        <v>850000</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/ceed_sw/</t>
+          <t>https://avto-trend21.ru/auto/kia/cerato/</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>723000</t>
+          <t>850000</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/ceed_sw/</t>
+          <t>https://avto-trend21.ru/auto/kia/cerato/</t>
         </is>
       </c>
       <c r="H112" t="n">
-        <v>1388940</v>
+        <v>1232940</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/ceed_sw</t>
+          <t>https://auto-shop-21.ru/kia/cerato</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -5072,40 +5082,40 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Cerato</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>850000</v>
+        <v>1149000</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/cerato/</t>
+          <t>https://avto-trend21.ru/auto/kia/k5/</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>850000</t>
+          <t>1149000</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/cerato/</t>
+          <t>https://avto-trend21.ru/auto/kia/k5/</t>
         </is>
       </c>
       <c r="H113" t="n">
-        <v>1232940</v>
+        <v>1640940</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/cerato</t>
+          <t>https://auto-shop-21.ru/kia/k5</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -5115,40 +5125,40 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>Picanto</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>1149000</v>
+        <v>619900</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/k5/</t>
+          <t>https://avto-trend21.ru/auto/kia/picanto/</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>1149000</t>
+          <t>619900</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/k5/</t>
+          <t>https://avto-trend21.ru/auto/kia/picanto/</t>
         </is>
       </c>
       <c r="H114" t="n">
-        <v>1640940</v>
+        <v>800940</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/k5</t>
+          <t>https://auto-shop-21.ru/kia/picanto</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -5158,40 +5168,40 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Picanto</t>
+          <t>ProCeed</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>619900</v>
+        <v>1121940</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/picanto/</t>
+          <t>https://auto-shop-21.ru/kia/proceed</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>619900</t>
+          <t>1134700</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/picanto/</t>
+          <t>https://avto-trend21.ru/auto/kia/proceed/</t>
         </is>
       </c>
       <c r="H115" t="n">
-        <v>800940</v>
+        <v>1121940</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/picanto</t>
+          <t>https://auto-shop-21.ru/kia/proceed</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -5201,40 +5211,40 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>ProCeed</t>
+          <t>Rio</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>1121940</v>
+        <v>564000</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/proceed</t>
+          <t>https://avto-trend21.ru/auto/kia/rio/</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>1134700</t>
+          <t>564000</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/proceed/</t>
+          <t>https://avto-trend21.ru/auto/kia/rio/</t>
         </is>
       </c>
       <c r="H116" t="n">
-        <v>1121940</v>
+        <v>860940</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/proceed</t>
+          <t>https://auto-shop-21.ru/kia/rio</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -5244,40 +5254,40 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Rio</t>
+          <t>Rio X</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>564000</v>
+        <v>650000</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio/</t>
+          <t>https://avto-trend21.ru/auto/kia/rio_x/</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>564000</t>
+          <t>650000</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio/</t>
+          <t>https://avto-trend21.ru/auto/kia/rio_x/</t>
         </is>
       </c>
       <c r="H117" t="n">
-        <v>860940</v>
+        <v>944940</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/rio</t>
+          <t>https://auto-shop-21.ru/kia/rio_x</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -5287,40 +5297,40 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Rio X</t>
+          <t>Rio X-Line</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>650000</v>
+        <v>557000</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio_x/</t>
+          <t>https://avto-trend21.ru/auto/kia/rio_x-line/</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>650000</t>
+          <t>557000</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio_x/</t>
+          <t>https://avto-trend21.ru/auto/kia/rio_x-line/</t>
         </is>
       </c>
       <c r="H118" t="n">
-        <v>944940</v>
+        <v>563940</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/rio_x</t>
+          <t>https://auto-shop-21.ru/kia/rio_x-line</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -5330,40 +5340,40 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Rio X-Line</t>
+          <t>Seltos</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>557000</v>
+        <v>790000</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio_x-line/</t>
+          <t>https://avto-trend21.ru/auto/kia/seltos/</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>557000</t>
+          <t>790000</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio_x-line/</t>
+          <t>https://avto-trend21.ru/auto/kia/seltos/</t>
         </is>
       </c>
       <c r="H119" t="n">
-        <v>563940</v>
+        <v>1175940</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/rio_x-line</t>
+          <t>https://auto-shop-21.ru/kia/seltos</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -5373,40 +5383,40 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Seltos</t>
+          <t>Soul</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>790000</v>
+        <v>638000</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/seltos/</t>
+          <t>https://avto-trend21.ru/auto/kia/soul/</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>790000</t>
+          <t>638000</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/seltos/</t>
+          <t>https://avto-trend21.ru/auto/kia/soul/</t>
         </is>
       </c>
       <c r="H120" t="n">
-        <v>1175940</v>
+        <v>1097940</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/seltos</t>
+          <t>https://auto-shop-21.ru/kia/soul</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -5416,40 +5426,40 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Soul</t>
+          <t>Sportage 5</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>638000</v>
+        <v>1046000</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/soul/</t>
+          <t>https://avto-trend21.ru/auto/kia/sportage/</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>638000</t>
+          <t>1046000</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/soul/</t>
+          <t>https://avto-trend21.ru/auto/kia/sportage/</t>
         </is>
       </c>
       <c r="H121" t="n">
-        <v>1097940</v>
+        <v>1709940</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/soul</t>
+          <t>https://auto-shop-21.ru/kia/sportage</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -5459,76 +5469,66 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Sportage 5</t>
+          <t>XCeed</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>1046000</v>
+        <v>964900</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/sportage/</t>
+          <t>https://avto-trend21.ru/auto/kia/xceed/</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>1046000</t>
+          <t>964900</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/sportage/</t>
+          <t>https://avto-trend21.ru/auto/kia/xceed/</t>
         </is>
       </c>
       <c r="H122" t="n">
-        <v>1709940</v>
+        <v>1580940</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/sportage</t>
+          <t>https://auto-shop-21.ru/kia/xceed</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>775</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Knewstar</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>XCeed</t>
+          <t>001</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>964900</v>
+        <v>4115990</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/xceed/</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>964900</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/kia/xceed/</t>
-        </is>
-      </c>
-      <c r="H123" t="n">
-        <v>1580940</v>
-      </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/kia/xceed</t>
+          <t>https://alyans-auto.ru/auto/auto_17364.html</t>
+        </is>
+      </c>
+      <c r="J123" t="n">
+        <v>4115990</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_17364.html</t>
         </is>
       </c>
     </row>
@@ -6450,11 +6450,11 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>1521500</v>
+        <v>1525000</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17606.html</t>
+          <t>https://alyans-auto.ru/auto/auto_18232.html</t>
         </is>
       </c>
     </row>
@@ -6676,7 +6676,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>784</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -6686,73 +6686,63 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>ВИС 2349 Фургон</t>
+          <t>ВИС 2346</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1364100</v>
+        <v>1466000</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_14192.html</t>
+          <t>https://alyans-auto.ru/auto/auto_18062.html</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>1364100</v>
+        <v>1466000</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_14192.html</t>
+          <t>https://alyans-auto.ru/auto/auto_18062.html</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>700</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Murman</t>
+          <t>ВИС 2349 Фургон</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>430000</v>
+        <v>1364100</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/murman/</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>430000</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/lifan/murman/</t>
-        </is>
-      </c>
-      <c r="H152" t="n">
-        <v>611940</v>
-      </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/lifan/murman</t>
+          <t>https://alyans-auto.ru/auto/auto_14192.html</t>
+        </is>
+      </c>
+      <c r="J152" t="n">
+        <v>1364100</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_14192.html</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -6762,40 +6752,40 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>MyWay</t>
+          <t>Murman</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>539940</v>
+        <v>430000</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/myway</t>
+          <t>https://avto-trend21.ru/auto/lifan/murman/</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>685000</t>
+          <t>430000</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/myway/</t>
+          <t>https://avto-trend21.ru/auto/lifan/murman/</t>
         </is>
       </c>
       <c r="H153" t="n">
-        <v>539940</v>
+        <v>611940</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/myway</t>
+          <t>https://auto-shop-21.ru/lifan/murman</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -6805,40 +6795,40 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Solano 2</t>
+          <t>MyWay</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>425940</v>
+        <v>539940</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/solano_ii</t>
+          <t>https://auto-shop-21.ru/lifan/myway</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>439900</t>
+          <t>685000</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/solano_ii/</t>
+          <t>https://avto-trend21.ru/auto/lifan/myway/</t>
         </is>
       </c>
       <c r="H154" t="n">
-        <v>425940</v>
+        <v>539940</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/solano_ii</t>
+          <t>https://auto-shop-21.ru/lifan/myway</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -6848,40 +6838,40 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>X50</t>
+          <t>Solano 2</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>368000</v>
+        <v>425940</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/x50/</t>
+          <t>https://auto-shop-21.ru/lifan/solano_ii</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>368000</t>
+          <t>439900</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/x50/</t>
+          <t>https://avto-trend21.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
       <c r="H155" t="n">
-        <v>413940</v>
+        <v>425940</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/x50</t>
+          <t>https://auto-shop-21.ru/lifan/solano_ii</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -6891,40 +6881,40 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>X60</t>
+          <t>X50</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>461940</v>
+        <v>368000</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/x60</t>
+          <t>https://avto-trend21.ru/auto/lifan/x50/</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>479900</t>
+          <t>368000</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/x60/</t>
+          <t>https://avto-trend21.ru/auto/lifan/x50/</t>
         </is>
       </c>
       <c r="H156" t="n">
-        <v>461940</v>
+        <v>413940</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/x60</t>
+          <t>https://auto-shop-21.ru/lifan/x50</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -6934,83 +6924,83 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>X60</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>593400</v>
+        <v>461940</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/x70</t>
+          <t>https://auto-shop-21.ru/lifan/x60</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>737000</t>
+          <t>479900</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/x70/</t>
+          <t>https://avto-trend21.ru/auto/lifan/x60/</t>
         </is>
       </c>
       <c r="H157" t="n">
-        <v>593400</v>
+        <v>461940</v>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/x70</t>
+          <t>https://auto-shop-21.ru/lifan/x60</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1529940</v>
+        <v>593400</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/livan/s6pro</t>
+          <t>https://auto-shop-21.ru/lifan/x70</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>1749900</t>
+          <t>737000</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/livan/s6pro/</t>
+          <t>https://avto-trend21.ru/auto/lifan/x70/</t>
         </is>
       </c>
       <c r="H158" t="n">
-        <v>1529940</v>
+        <v>593400</v>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/livan/s6pro</t>
+          <t>https://auto-shop-21.ru/lifan/x70</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -7020,40 +7010,40 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>1127940</v>
+        <v>1529940</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/livan/x3pro</t>
+          <t>https://auto-shop-21.ru/livan/s6pro</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>1279900</t>
+          <t>1749900</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/livan/x3pro/</t>
+          <t>https://avto-trend21.ru/auto/livan/s6pro/</t>
         </is>
       </c>
       <c r="H159" t="n">
-        <v>1127940</v>
+        <v>1529940</v>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/livan/x3pro</t>
+          <t>https://auto-shop-21.ru/livan/s6pro</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -7063,83 +7053,83 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>X6 Pro</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>1577940</v>
+        <v>1127940</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/livan/x6pro</t>
+          <t>https://auto-shop-21.ru/livan/x3pro</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>1829900</t>
+          <t>1279900</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/livan/x6pro/</t>
+          <t>https://avto-trend21.ru/auto/livan/x3pro/</t>
         </is>
       </c>
       <c r="H160" t="n">
-        <v>1577940</v>
+        <v>1127940</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/livan/x6pro</t>
+          <t>https://auto-shop-21.ru/livan/x3pro</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>X6 Pro</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>960000</v>
+        <v>1577940</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/moskvich/3/</t>
+          <t>https://auto-shop-21.ru/livan/x6pro</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>960000</t>
+          <t>1829900</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/moskvich/3/</t>
+          <t>https://avto-trend21.ru/auto/livan/x6pro/</t>
         </is>
       </c>
       <c r="H161" t="n">
-        <v>1332000</v>
+        <v>1577940</v>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/moskvich/3</t>
+          <t>https://auto-shop-21.ru/livan/x6pro</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -7149,83 +7139,83 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>3e</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>2370000</v>
+        <v>960000</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/moskvich/3e</t>
+          <t>https://avto-trend21.ru/auto/moskvich/3/</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>3147000</t>
+          <t>960000</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/moskvich/3e/</t>
+          <t>https://avto-trend21.ru/auto/moskvich/3/</t>
         </is>
       </c>
       <c r="H162" t="n">
-        <v>2370000</v>
+        <v>1332000</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/moskvich/3e</t>
+          <t>https://auto-shop-21.ru/moskvich/3</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Qashqai</t>
+          <t>3e</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>790000</v>
+        <v>2370000</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/qashqai/</t>
+          <t>https://auto-shop-21.ru/moskvich/3e</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>790000</t>
+          <t>3147000</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/qashqai/</t>
+          <t>https://avto-trend21.ru/auto/moskvich/3e/</t>
         </is>
       </c>
       <c r="H163" t="n">
-        <v>1402200</v>
+        <v>2370000</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/nissan/qashqai</t>
+          <t>https://auto-shop-21.ru/moskvich/3e</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -7235,40 +7225,40 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Terrano</t>
+          <t>Qashqai</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>619000</v>
+        <v>790000</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/terrano/</t>
+          <t>https://avto-trend21.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>619000</t>
+          <t>790000</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/terrano/</t>
+          <t>https://avto-trend21.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
       <c r="H164" t="n">
-        <v>1014000</v>
+        <v>1402200</v>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/nissan/terrano</t>
+          <t>https://auto-shop-21.ru/nissan/qashqai</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -7278,91 +7268,83 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>X-trail</t>
+          <t>Terrano</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>855000</v>
+        <v>619000</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/x-trail/</t>
+          <t>https://avto-trend21.ru/auto/nissan/terrano/</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>855000</t>
+          <t>619000</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/x-trail/</t>
+          <t>https://avto-trend21.ru/auto/nissan/terrano/</t>
         </is>
       </c>
       <c r="H165" t="n">
-        <v>1657200</v>
+        <v>1014000</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/nissan/x-trail</t>
+          <t>https://auto-shop-21.ru/nissan/terrano</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>X-trail</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>1607940</v>
+        <v>855000</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/omoda/c5</t>
+          <t>https://avto-trend21.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>1999900</t>
+          <t>855000</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/omoda/c5/</t>
+          <t>https://avto-trend21.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
       <c r="H166" t="n">
-        <v>1607940</v>
+        <v>1657200</v>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/omoda/c5</t>
-        </is>
-      </c>
-      <c r="J166" t="n">
-        <v>1899900</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_17869.html</t>
+          <t>https://auto-shop-21.ru/nissan/x-trail</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -7372,91 +7354,99 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>1349940</v>
+        <v>1607940</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/omoda/s5</t>
+          <t>https://auto-shop-21.ru/omoda/c5</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>1689900</t>
+          <t>1999900</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/omoda/s5/</t>
+          <t>https://avto-trend21.ru/auto/omoda/c5/</t>
         </is>
       </c>
       <c r="H167" t="n">
-        <v>1349940</v>
+        <v>1607940</v>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/omoda/s5</t>
+          <t>https://auto-shop-21.ru/omoda/c5</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>1729000</v>
+        <v>1999900</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16128.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17979.html</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Nexia R3</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>339000</v>
+        <v>1349940</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/nexia_r3/</t>
+          <t>https://auto-shop-21.ru/omoda/s5</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>339000</t>
+          <t>1689900</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/nexia_r3/</t>
+          <t>https://avto-trend21.ru/auto/omoda/s5/</t>
         </is>
       </c>
       <c r="H168" t="n">
-        <v>495000</v>
+        <v>1349940</v>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/ravon/nexia_r3</t>
+          <t>https://auto-shop-21.ru/omoda/s5</t>
+        </is>
+      </c>
+      <c r="J168" t="n">
+        <v>1729000</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_16128.html</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -7466,7 +7456,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>Nexia R3</t>
         </is>
       </c>
       <c r="D169" t="n">
@@ -7474,7 +7464,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/r2/</t>
+          <t>https://avto-trend21.ru/auto/ravon/nexia_r3/</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -7484,22 +7474,22 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/r2/</t>
+          <t>https://avto-trend21.ru/auto/ravon/nexia_r3/</t>
         </is>
       </c>
       <c r="H169" t="n">
-        <v>529800</v>
+        <v>495000</v>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/ravon/r2</t>
+          <t>https://auto-shop-21.ru/ravon/nexia_r3</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -7509,83 +7499,83 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>389000</v>
+        <v>339000</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/r4/</t>
+          <t>https://avto-trend21.ru/auto/ravon/r2/</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>389000</t>
+          <t>339000</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/r4/</t>
+          <t>https://avto-trend21.ru/auto/ravon/r2/</t>
         </is>
       </c>
       <c r="H170" t="n">
-        <v>510600</v>
+        <v>529800</v>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/ravon/r4</t>
+          <t>https://auto-shop-21.ru/ravon/r2</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>R4</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>690000</v>
+        <v>389000</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/arkana/</t>
+          <t>https://avto-trend21.ru/auto/ravon/r4/</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>690000</t>
+          <t>389000</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/arkana/</t>
+          <t>https://avto-trend21.ru/auto/ravon/r4/</t>
         </is>
       </c>
       <c r="H171" t="n">
-        <v>1124400</v>
+        <v>510600</v>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/arkana</t>
+          <t>https://auto-shop-21.ru/ravon/r4</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -7595,40 +7585,40 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Duster New</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>650000</v>
+        <v>690000</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/duster/</t>
+          <t>https://avto-trend21.ru/auto/renault/arkana/</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>650000</t>
+          <t>690000</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/duster/</t>
+          <t>https://avto-trend21.ru/auto/renault/arkana/</t>
         </is>
       </c>
       <c r="H172" t="n">
-        <v>970800</v>
+        <v>1124400</v>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/duster</t>
+          <t>https://auto-shop-21.ru/renault/arkana</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -7638,40 +7628,40 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>Duster New</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>659000</v>
+        <v>650000</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/kaptur/</t>
+          <t>https://avto-trend21.ru/auto/renault/duster/</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>659000</t>
+          <t>650000</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/kaptur/</t>
+          <t>https://avto-trend21.ru/auto/renault/duster/</t>
         </is>
       </c>
       <c r="H173" t="n">
-        <v>1034400</v>
+        <v>970800</v>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/kaptur</t>
+          <t>https://auto-shop-21.ru/renault/duster</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -7681,40 +7671,40 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Koleos</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>1019400</v>
+        <v>659000</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/koleos</t>
+          <t>https://avto-trend21.ru/auto/renault/kaptur/</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>1553000</t>
+          <t>659000</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/koleos/</t>
+          <t>https://avto-trend21.ru/auto/renault/kaptur/</t>
         </is>
       </c>
       <c r="H174" t="n">
-        <v>1019400</v>
+        <v>1034400</v>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/koleos</t>
+          <t>https://auto-shop-21.ru/renault/kaptur</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>552</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -7724,40 +7714,40 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Koleos</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>490000</v>
+        <v>1019400</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/logan/</t>
+          <t>https://auto-shop-21.ru/renault/koleos</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>490000</t>
+          <t>1553000</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/logan/</t>
+          <t>https://avto-trend21.ru/auto/renault/koleos/</t>
         </is>
       </c>
       <c r="H175" t="n">
-        <v>674400</v>
+        <v>1019400</v>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/logan</t>
+          <t>https://auto-shop-21.ru/renault/koleos</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -7767,40 +7757,40 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>530000</v>
+        <v>490000</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/logan_stepway/</t>
+          <t>https://avto-trend21.ru/auto/renault/logan/</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>530000</t>
+          <t>490000</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/logan_stepway/</t>
+          <t>https://avto-trend21.ru/auto/renault/logan/</t>
         </is>
       </c>
       <c r="H176" t="n">
-        <v>780600</v>
+        <v>674400</v>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/logan_stepway</t>
+          <t>https://auto-shop-21.ru/renault/logan</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -7810,40 +7800,40 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Logan Stepway City</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>715000</v>
+        <v>530000</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/logan_stepway_city/</t>
+          <t>https://avto-trend21.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>715000</t>
+          <t>530000</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/logan_stepway_city/</t>
+          <t>https://avto-trend21.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="H177" t="n">
-        <v>792600</v>
+        <v>780600</v>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/logan_stepway_city</t>
+          <t>https://auto-shop-21.ru/renault/logan_stepway</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -7853,40 +7843,40 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>Logan Stepway City</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>520000</v>
+        <v>715000</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/sandero/</t>
+          <t>https://avto-trend21.ru/auto/renault/logan_stepway_city/</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>520000</t>
+          <t>715000</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/sandero/</t>
+          <t>https://avto-trend21.ru/auto/renault/logan_stepway_city/</t>
         </is>
       </c>
       <c r="H178" t="n">
-        <v>754800</v>
+        <v>792600</v>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/sandero</t>
+          <t>https://auto-shop-21.ru/renault/logan_stepway_city</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -7896,40 +7886,40 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>550000</v>
+        <v>520000</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/sandero_stepway/</t>
+          <t>https://avto-trend21.ru/auto/renault/sandero/</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>550000</t>
+          <t>520000</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/sandero_stepway/</t>
+          <t>https://avto-trend21.ru/auto/renault/sandero/</t>
         </is>
       </c>
       <c r="H179" t="n">
-        <v>823800</v>
+        <v>754800</v>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/sandero_stepway</t>
+          <t>https://auto-shop-21.ru/renault/sandero</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -7939,83 +7929,83 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Stepway City</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>835800</v>
+        <v>550000</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/sandero_stepway_city</t>
+          <t>https://avto-trend21.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>1170000</t>
+          <t>550000</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/sandero_stepway_city/</t>
+          <t>https://avto-trend21.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
       <c r="H180" t="n">
-        <v>835800</v>
+        <v>823800</v>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/sandero_stepway_city</t>
+          <t>https://auto-shop-21.ru/renault/sandero_stepway</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>567</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>Stepway City</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>740000</v>
+        <v>835800</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/karoq/</t>
+          <t>https://auto-shop-21.ru/renault/sandero_stepway_city</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>740000</t>
+          <t>1170000</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/karoq/</t>
+          <t>https://avto-trend21.ru/auto/renault/sandero_stepway_city/</t>
         </is>
       </c>
       <c r="H181" t="n">
-        <v>1629600</v>
+        <v>835800</v>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/karoq</t>
+          <t>https://auto-shop-21.ru/renault/sandero_stepway_city</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -8025,40 +8015,40 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Kodiaq Hockey Edition</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>1421340</v>
+        <v>740000</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq_hockey_edition</t>
+          <t>https://avto-trend21.ru/auto/skoda/karoq/</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>1581000</t>
+          <t>740000</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq_hockey_edition/</t>
+          <t>https://avto-trend21.ru/auto/skoda/karoq/</t>
         </is>
       </c>
       <c r="H182" t="n">
-        <v>1421340</v>
+        <v>1629600</v>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq_hockey_edition</t>
+          <t>https://auto-shop-21.ru/skoda/karoq</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>590</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -8068,40 +8058,40 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Kodiaq Laurin &amp; Klement</t>
+          <t>Kodiaq Hockey Edition</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>3058000</v>
+        <v>1421340</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq_laurin__klement/</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_hockey_edition</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>3058000</t>
+          <t>1581000</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq_laurin__klement/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq_hockey_edition/</t>
         </is>
       </c>
       <c r="H183" t="n">
-        <v>3483600</v>
+        <v>1421340</v>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq_laurin__klement</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_hockey_edition</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>593</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -8111,40 +8101,40 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Kodiaq New</t>
+          <t>Kodiaq Laurin &amp; Klement</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>1659000</v>
+        <v>3058000</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq_laurin__klement/</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>1659000</t>
+          <t>3058000</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq_laurin__klement/</t>
         </is>
       </c>
       <c r="H184" t="n">
-        <v>2184000</v>
+        <v>3483600</v>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_laurin__klement</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>576</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -8154,40 +8144,40 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Kodiaq Scout</t>
+          <t>Kodiaq New</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>2098800</v>
+        <v>1659000</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq_scout</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>3375000</t>
+          <t>1659000</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq_scout/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
       <c r="H185" t="n">
-        <v>2098800</v>
+        <v>2184000</v>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq_scout</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>591</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -8197,40 +8187,40 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Kodiaq Sportline</t>
+          <t>Kodiaq Scout</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>2989000</v>
+        <v>2098800</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq_sportline/</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_scout</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2989000</t>
+          <t>3375000</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq_sportline/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq_scout/</t>
         </is>
       </c>
       <c r="H186" t="n">
-        <v>3226800</v>
+        <v>2098800</v>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq_sportline</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_scout</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>592</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -8240,40 +8230,40 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Octavia Hockey Edition</t>
+          <t>Kodiaq Sportline</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>989000</v>
+        <v>2989000</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/octavia_hockey_edition/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq_sportline/</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>989000</t>
+          <t>2989000</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/octavia_hockey_edition/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq_sportline/</t>
         </is>
       </c>
       <c r="H187" t="n">
-        <v>1694340</v>
+        <v>3226800</v>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/octavia_hockey_edition</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_sportline</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>589</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -8283,40 +8273,40 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Octavia New</t>
+          <t>Octavia Hockey Edition</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>840000</v>
+        <v>989000</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/octavia/</t>
+          <t>https://avto-trend21.ru/auto/skoda/octavia_hockey_edition/</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>840000</t>
+          <t>989000</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/octavia/</t>
+          <t>https://avto-trend21.ru/auto/skoda/octavia_hockey_edition/</t>
         </is>
       </c>
       <c r="H188" t="n">
-        <v>1567800</v>
+        <v>1694340</v>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/octavia</t>
+          <t>https://auto-shop-21.ru/skoda/octavia_hockey_edition</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -8326,40 +8316,40 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Rapid</t>
+          <t>Octavia New</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>520000</v>
+        <v>840000</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/rapid/</t>
+          <t>https://avto-trend21.ru/auto/skoda/octavia/</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>520000</t>
+          <t>840000</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/rapid/</t>
+          <t>https://avto-trend21.ru/auto/skoda/octavia/</t>
         </is>
       </c>
       <c r="H189" t="n">
-        <v>961200</v>
+        <v>1567800</v>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/rapid</t>
+          <t>https://auto-shop-21.ru/skoda/octavia</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -8369,40 +8359,40 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Superb</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>1222000</v>
+        <v>520000</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/superb/</t>
+          <t>https://avto-trend21.ru/auto/skoda/rapid/</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>1222000</t>
+          <t>520000</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/superb/</t>
+          <t>https://avto-trend21.ru/auto/skoda/rapid/</t>
         </is>
       </c>
       <c r="H190" t="n">
-        <v>2031600</v>
+        <v>961200</v>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/superb</t>
+          <t>https://auto-shop-21.ru/skoda/rapid</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -8412,75 +8402,83 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Superb Combi</t>
+          <t>Superb</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>2089000</v>
+        <v>1222000</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/superb_combi/</t>
+          <t>https://avto-trend21.ru/auto/skoda/superb/</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>2089000</t>
+          <t>1222000</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/superb_combi/</t>
+          <t>https://avto-trend21.ru/auto/skoda/superb/</t>
         </is>
       </c>
       <c r="H191" t="n">
-        <v>2290200</v>
+        <v>2031600</v>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/superb_combi</t>
+          <t>https://auto-shop-21.ru/skoda/superb</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>Superb Combi</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>1749300</v>
+        <v>2089000</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/hc/</t>
+          <t>https://avto-trend21.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>1749300</t>
+          <t>2089000</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/hc/</t>
+          <t>https://avto-trend21.ru/auto/skoda/superb_combi/</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>2290200</v>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/skoda/superb_combi</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -8490,32 +8488,32 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>1407000</v>
+        <v>1749300</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/hs/</t>
+          <t>https://avto-trend21.ru/auto/solaris/hc/</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>1407000</t>
+          <t>1749300</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/hs/</t>
+          <t>https://avto-trend21.ru/auto/solaris/hc/</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -8525,32 +8523,32 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>KRS</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>1426600</v>
+        <v>1407000</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/krs/</t>
+          <t>https://avto-trend21.ru/auto/solaris/hs/</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>1426600</t>
+          <t>1407000</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/krs/</t>
+          <t>https://avto-trend21.ru/auto/solaris/hs/</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -8560,65 +8558,67 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>KRX</t>
+          <t>KRS</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>1444800</v>
+        <v>1426600</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/krx/</t>
+          <t>https://avto-trend21.ru/auto/solaris/krs/</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>1444800</t>
+          <t>1426600</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/krx/</t>
+          <t>https://avto-trend21.ru/auto/solaris/krs/</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>KRX</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>2459400</v>
+        <v>1444800</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/tank/300</t>
-        </is>
-      </c>
-      <c r="H196" t="n">
-        <v>2459400</v>
-      </c>
-      <c r="I196" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/tank/300</t>
+          <t>https://avto-trend21.ru/auto/solaris/krx/</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>1444800</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/solaris/krx/</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -8628,73 +8628,63 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>3779400</v>
+        <v>2459400</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/tank/500</t>
+          <t>https://auto-shop-21.ru/tank/300</t>
         </is>
       </c>
       <c r="H197" t="n">
-        <v>3779400</v>
+        <v>2459400</v>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/tank/500</t>
+          <t>https://auto-shop-21.ru/tank/300</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>975000</v>
+        <v>3779400</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/jetta/</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>975000</t>
-        </is>
-      </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/jetta/</t>
+          <t>https://auto-shop-21.ru/tank/500</t>
         </is>
       </c>
       <c r="H198" t="n">
-        <v>976200</v>
+        <v>3779400</v>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/volkswagen/jetta</t>
+          <t>https://auto-shop-21.ru/tank/500</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -8704,40 +8694,40 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Passat</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>1050000</v>
+        <v>975000</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/passat/</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>1050000</t>
+          <t>975000</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/passat/</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
       <c r="H199" t="n">
-        <v>1593600</v>
+        <v>976200</v>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/volkswagen/passat</t>
+          <t>https://auto-shop-21.ru/volkswagen/jetta</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>649</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -8747,40 +8737,40 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>Passat</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>730900</v>
+        <v>1050000</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/polo/</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>730900</t>
+          <t>1050000</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/polo/</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
       <c r="H200" t="n">
-        <v>972540</v>
+        <v>1593600</v>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/volkswagen/polo</t>
+          <t>https://auto-shop-21.ru/volkswagen/passat</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -8790,40 +8780,40 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Taos</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>1399900</v>
+        <v>730900</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/taos/</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>1399900</t>
+          <t>730900</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/taos/</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
       <c r="H201" t="n">
-        <v>1697340</v>
+        <v>972540</v>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/volkswagen/taos</t>
+          <t>https://auto-shop-21.ru/volkswagen/polo</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -8833,152 +8823,228 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Tiguan New</t>
+          <t>Taos</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>1579900</v>
+        <v>1399900</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/tiguan/</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>1579900</t>
+          <t>1399900</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/tiguan/</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
       <c r="H202" t="n">
-        <v>2025540</v>
+        <v>1697340</v>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/volkswagen/tiguan</t>
+          <t>https://auto-shop-21.ru/volkswagen/taos</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>658</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>XCite</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>X-Cross 7</t>
+          <t>Tiguan New</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>2495500</v>
+        <v>1579900</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17597.html</t>
-        </is>
-      </c>
-      <c r="J203" t="n">
-        <v>2495500</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_17597.html</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/tiguan/</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>1579900</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/volkswagen/tiguan/</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>2025540</v>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/volkswagen/tiguan</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>675</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Zotye</t>
+          <t>XCite</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Coupa</t>
+          <t>X-Cross 7</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>713760</v>
+        <v>2495500</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/zotye/coupa</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>989600</t>
-        </is>
-      </c>
-      <c r="G204" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/zotye/coupa/</t>
-        </is>
-      </c>
-      <c r="H204" t="n">
-        <v>713760</v>
-      </c>
-      <c r="I204" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/zotye/coupa</t>
+          <t>https://alyans-auto.ru/auto/auto_17597.html</t>
+        </is>
+      </c>
+      <c r="J204" t="n">
+        <v>2495500</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_17597.html</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
+          <t>672</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Zotye</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Coupa</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>713760</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/zotye/coupa</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>989600</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>713760</v>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/zotye/coupa</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
           <t>674</t>
         </is>
       </c>
-      <c r="B205" t="inlineStr">
+      <c r="B206" t="inlineStr">
         <is>
           <t>Zotye</t>
         </is>
       </c>
-      <c r="C205" t="inlineStr">
+      <c r="C206" t="inlineStr">
         <is>
           <t>T600</t>
         </is>
       </c>
-      <c r="D205" t="n">
+      <c r="D206" t="n">
         <v>582960</v>
       </c>
-      <c r="E205" t="inlineStr">
+      <c r="E206" t="inlineStr">
         <is>
           <t>https://auto-shop-21.ru/zotye/t600</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
+      <c r="F206" t="inlineStr">
         <is>
           <t>771600</t>
         </is>
       </c>
-      <c r="G205" t="inlineStr">
+      <c r="G206" t="inlineStr">
         <is>
           <t>https://avto-trend21.ru/auto/zotye/t600/</t>
         </is>
       </c>
-      <c r="H205" t="n">
+      <c r="H206" t="n">
         <v>582960</v>
       </c>
-      <c r="I205" t="inlineStr">
+      <c r="I206" t="inlineStr">
         <is>
           <t>https://auto-shop-21.ru/zotye/t600</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Новая машина, необходимо назначить id</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>xcite</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>x-cross8</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>2999000</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_18333.html</t>
+        </is>
+      </c>
+      <c r="J207" t="n">
+        <v>2999000</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_18333.html</t>
         </is>
       </c>
     </row>

--- a/xlsx/cheboksari.xlsx
+++ b/xlsx/cheboksari.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K207"/>
+  <dimension ref="A1:K206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -763,7 +763,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17046.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17047.html</t>
         </is>
       </c>
     </row>
@@ -4370,7 +4370,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -4380,63 +4380,63 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>T8 Pro</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>2665500</v>
+        <v>3199000</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_8942.html</t>
+          <t>https://alyans-auto.ru/auto/auto_18037.html</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>2665500</v>
+        <v>3199000</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_8942.html</t>
+          <t>https://alyans-auto.ru/auto/auto_18037.html</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>T8 Pro</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>3199000</v>
+        <v>2429900</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_18037.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17868.html</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>3199000</v>
+        <v>2429900</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_18037.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17868.html</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -4446,63 +4446,65 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>J8</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>2429900</v>
+        <v>3849000</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17868.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17622.html</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>2429900</v>
+        <v>3849000</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17868.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17622.html</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>J8</t>
+          <t>Dashing</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>3849000</v>
+        <v>1399900</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17622.html</t>
-        </is>
-      </c>
-      <c r="J98" t="n">
-        <v>3849000</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_17622.html</t>
+          <t>https://avto-trend21.ru/auto/jetour/dashing/</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1399900</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/jetour/dashing/</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -4512,32 +4514,32 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Dashing</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1399900</v>
+        <v>2631300</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/dashing/</t>
+          <t>https://avto-trend21.ru/auto/jetour/t2/</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>1399900</t>
+          <t>2631300</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/dashing/</t>
+          <t>https://avto-trend21.ru/auto/jetour/t2/</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -4547,32 +4549,32 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>X70 Plus</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>2631300</v>
+        <v>1809900</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/t2/</t>
+          <t>https://avto-trend21.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2631300</t>
+          <t>1809900</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/t2/</t>
+          <t>https://avto-trend21.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -4582,67 +4584,75 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>X70 Plus</t>
+          <t>X90 Plus</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1809900</v>
+        <v>2149900</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/x70_plus/</t>
+          <t>https://avto-trend21.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>1809900</t>
+          <t>2149900</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/x70_plus/</t>
+          <t>https://avto-trend21.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>X90 Plus</t>
+          <t>VA3</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2149900</v>
+        <v>890000</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/x90_plus/</t>
+          <t>https://avto-trend21.ru/auto/jetta/va3/</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2149900</t>
+          <t>890000</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/x90_plus/</t>
+          <t>https://avto-trend21.ru/auto/jetta/va3/</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1232400</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/jetta/va3</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4652,40 +4662,40 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>VA3</t>
+          <t>VS5</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>890000</v>
+        <v>1190000</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/va3/</t>
+          <t>https://avto-trend21.ru/auto/jetta/vs5/</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>890000</t>
+          <t>1190000</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/va3/</t>
+          <t>https://avto-trend21.ru/auto/jetta/vs5/</t>
         </is>
       </c>
       <c r="H103" t="n">
-        <v>1232400</v>
+        <v>1477200</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jetta/va3</t>
+          <t>https://auto-shop-21.ru/jetta/vs5</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4695,83 +4705,83 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>VS5</t>
+          <t>VS7</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>1190000</v>
+        <v>1349000</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/vs5/</t>
+          <t>https://avto-trend21.ru/auto/jetta/vs7/</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>1190000</t>
+          <t>1349000</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/vs5/</t>
+          <t>https://avto-trend21.ru/auto/jetta/vs7/</t>
         </is>
       </c>
       <c r="H104" t="n">
-        <v>1477200</v>
+        <v>1759800</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jetta/vs5</t>
+          <t>https://auto-shop-21.ru/jetta/vs7</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>VS7</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1349000</v>
+        <v>1299000</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/vs7/</t>
+          <t>https://avto-trend21.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>1349000</t>
+          <t>1299000</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/vs7/</t>
+          <t>https://avto-trend21.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
       <c r="H105" t="n">
-        <v>1759800</v>
+        <v>1317000</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jetta/vs7</t>
+          <t>https://auto-shop-21.ru/kaiyi/e5</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4781,40 +4791,40 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>X3</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1299000</v>
+        <v>1342800</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kaiyi/e5/</t>
+          <t>https://auto-shop-21.ru/kaiyi/x3</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>1299000</t>
+          <t>1417650</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kaiyi/e5/</t>
+          <t>https://avto-trend21.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
       <c r="H106" t="n">
-        <v>1317000</v>
+        <v>1342800</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/e5</t>
+          <t>https://auto-shop-21.ru/kaiyi/x3</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4824,40 +4834,40 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>X3</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1342800</v>
+        <v>1508940</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x3</t>
+          <t>https://auto-shop-21.ru/kaiyi/x3_pro</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>1417650</t>
+          <t>1790000</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kaiyi/x3/</t>
+          <t>https://avto-trend21.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
       <c r="H107" t="n">
-        <v>1342800</v>
+        <v>1508940</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x3</t>
+          <t>https://auto-shop-21.ru/kaiyi/x3_pro</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4867,83 +4877,83 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>X7 Kunlun</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>1508940</v>
+        <v>1798740</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x3_pro</t>
+          <t>https://auto-shop-21.ru/kaiyi/x7_kunlun</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>1790000</t>
+          <t>2197900</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://avto-trend21.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
       <c r="H108" t="n">
-        <v>1508940</v>
+        <v>1798740</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x3_pro</t>
+          <t>https://auto-shop-21.ru/kaiyi/x7_kunlun</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>X7 Kunlun</t>
+          <t>Ceed</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1798740</v>
+        <v>713000</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x7_kunlun</t>
+          <t>https://avto-trend21.ru/auto/kia/ceed/</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2197900</t>
+          <t>713000</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://avto-trend21.ru/auto/kia/ceed/</t>
         </is>
       </c>
       <c r="H109" t="n">
-        <v>1798740</v>
+        <v>1346940</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x7_kunlun</t>
+          <t>https://auto-shop-21.ru/kia/ceed</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4953,40 +4963,40 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Ceed</t>
+          <t>Ceed SW</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>713000</v>
+        <v>723000</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/ceed/</t>
+          <t>https://avto-trend21.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>713000</t>
+          <t>723000</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/ceed/</t>
+          <t>https://avto-trend21.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
       <c r="H110" t="n">
-        <v>1346940</v>
+        <v>1388940</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/ceed</t>
+          <t>https://auto-shop-21.ru/kia/ceed_sw</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4996,40 +5006,40 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Ceed SW</t>
+          <t>Cerato</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>723000</v>
+        <v>850000</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/ceed_sw/</t>
+          <t>https://avto-trend21.ru/auto/kia/cerato/</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>723000</t>
+          <t>850000</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/ceed_sw/</t>
+          <t>https://avto-trend21.ru/auto/kia/cerato/</t>
         </is>
       </c>
       <c r="H111" t="n">
-        <v>1388940</v>
+        <v>1232940</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/ceed_sw</t>
+          <t>https://auto-shop-21.ru/kia/cerato</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -5039,40 +5049,40 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Cerato</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>850000</v>
+        <v>1149000</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/cerato/</t>
+          <t>https://avto-trend21.ru/auto/kia/k5/</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>850000</t>
+          <t>1149000</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/cerato/</t>
+          <t>https://avto-trend21.ru/auto/kia/k5/</t>
         </is>
       </c>
       <c r="H112" t="n">
-        <v>1232940</v>
+        <v>1640940</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/cerato</t>
+          <t>https://auto-shop-21.ru/kia/k5</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -5082,40 +5092,40 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>Picanto</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1149000</v>
+        <v>619900</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/k5/</t>
+          <t>https://avto-trend21.ru/auto/kia/picanto/</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>1149000</t>
+          <t>619900</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/k5/</t>
+          <t>https://avto-trend21.ru/auto/kia/picanto/</t>
         </is>
       </c>
       <c r="H113" t="n">
-        <v>1640940</v>
+        <v>800940</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/k5</t>
+          <t>https://auto-shop-21.ru/kia/picanto</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -5125,40 +5135,40 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Picanto</t>
+          <t>ProCeed</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>619900</v>
+        <v>1121940</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/picanto/</t>
+          <t>https://auto-shop-21.ru/kia/proceed</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>619900</t>
+          <t>1134700</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/picanto/</t>
+          <t>https://avto-trend21.ru/auto/kia/proceed/</t>
         </is>
       </c>
       <c r="H114" t="n">
-        <v>800940</v>
+        <v>1121940</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/picanto</t>
+          <t>https://auto-shop-21.ru/kia/proceed</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -5168,40 +5178,40 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>ProCeed</t>
+          <t>Rio</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1121940</v>
+        <v>564000</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/proceed</t>
+          <t>https://avto-trend21.ru/auto/kia/rio/</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>1134700</t>
+          <t>564000</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/proceed/</t>
+          <t>https://avto-trend21.ru/auto/kia/rio/</t>
         </is>
       </c>
       <c r="H115" t="n">
-        <v>1121940</v>
+        <v>860940</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/proceed</t>
+          <t>https://auto-shop-21.ru/kia/rio</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -5211,40 +5221,40 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Rio</t>
+          <t>Rio X</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>564000</v>
+        <v>650000</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio/</t>
+          <t>https://avto-trend21.ru/auto/kia/rio_x/</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>564000</t>
+          <t>650000</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio/</t>
+          <t>https://avto-trend21.ru/auto/kia/rio_x/</t>
         </is>
       </c>
       <c r="H116" t="n">
-        <v>860940</v>
+        <v>944940</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/rio</t>
+          <t>https://auto-shop-21.ru/kia/rio_x</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -5254,40 +5264,40 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Rio X</t>
+          <t>Rio X-Line</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>650000</v>
+        <v>557000</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio_x/</t>
+          <t>https://avto-trend21.ru/auto/kia/rio_x-line/</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>650000</t>
+          <t>557000</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio_x/</t>
+          <t>https://avto-trend21.ru/auto/kia/rio_x-line/</t>
         </is>
       </c>
       <c r="H117" t="n">
-        <v>944940</v>
+        <v>563940</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/rio_x</t>
+          <t>https://auto-shop-21.ru/kia/rio_x-line</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -5297,40 +5307,40 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Rio X-Line</t>
+          <t>Seltos</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>557000</v>
+        <v>790000</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio_x-line/</t>
+          <t>https://avto-trend21.ru/auto/kia/seltos/</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>557000</t>
+          <t>790000</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio_x-line/</t>
+          <t>https://avto-trend21.ru/auto/kia/seltos/</t>
         </is>
       </c>
       <c r="H118" t="n">
-        <v>563940</v>
+        <v>1175940</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/rio_x-line</t>
+          <t>https://auto-shop-21.ru/kia/seltos</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -5340,40 +5350,40 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Seltos</t>
+          <t>Soul</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>790000</v>
+        <v>638000</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/seltos/</t>
+          <t>https://avto-trend21.ru/auto/kia/soul/</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>790000</t>
+          <t>638000</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/seltos/</t>
+          <t>https://avto-trend21.ru/auto/kia/soul/</t>
         </is>
       </c>
       <c r="H119" t="n">
-        <v>1175940</v>
+        <v>1097940</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/seltos</t>
+          <t>https://auto-shop-21.ru/kia/soul</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -5383,40 +5393,40 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Soul</t>
+          <t>Sportage 5</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>638000</v>
+        <v>1046000</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/soul/</t>
+          <t>https://avto-trend21.ru/auto/kia/sportage/</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>638000</t>
+          <t>1046000</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/soul/</t>
+          <t>https://avto-trend21.ru/auto/kia/sportage/</t>
         </is>
       </c>
       <c r="H120" t="n">
-        <v>1097940</v>
+        <v>1709940</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/soul</t>
+          <t>https://auto-shop-21.ru/kia/sportage</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -5426,116 +5436,106 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Sportage 5</t>
+          <t>XCeed</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>1046000</v>
+        <v>964900</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/sportage/</t>
+          <t>https://avto-trend21.ru/auto/kia/xceed/</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>1046000</t>
+          <t>964900</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/sportage/</t>
+          <t>https://avto-trend21.ru/auto/kia/xceed/</t>
         </is>
       </c>
       <c r="H121" t="n">
-        <v>1709940</v>
+        <v>1580940</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/sportage</t>
+          <t>https://auto-shop-21.ru/kia/xceed</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>775</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Knewstar</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>XCeed</t>
+          <t>001</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>964900</v>
+        <v>4115990</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/xceed/</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>964900</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/kia/xceed/</t>
-        </is>
-      </c>
-      <c r="H122" t="n">
-        <v>1580940</v>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/kia/xceed</t>
+          <t>https://alyans-auto.ru/auto/auto_17364.html</t>
+        </is>
+      </c>
+      <c r="J122" t="n">
+        <v>4115990</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_17364.html</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>775</t>
+          <t>701</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Knewstar</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>001</t>
+          <t>4x4 3 двери</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>4115990</v>
+        <v>1015500</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17364.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16878.html</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>4115990</v>
+        <v>1015500</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17364.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16878.html</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>701</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -5545,30 +5545,40 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>4x4 3 двери</t>
+          <t>Granta Cross</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1015500</v>
+        <v>426900</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16878.html</t>
-        </is>
-      </c>
-      <c r="J124" t="n">
-        <v>1015500</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_16878.html</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_cross/</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>426900</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/lada/granta_cross/</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>567540</v>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/lada/granta_cross</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -5578,40 +5588,40 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Granta Cross</t>
+          <t>Granta Hatchback</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>426900</v>
+        <v>378810</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>426900</t>
+          <t>378810</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
       <c r="H125" t="n">
-        <v>567540</v>
+        <v>467100</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/granta_cross</t>
+          <t>https://auto-shop-21.ru/lada/granta_hatchback</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -5621,40 +5631,40 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Granta Hatchback</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>378810</v>
+        <v>375610</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_hatchback/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>378810</t>
+          <t>375610</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_hatchback/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
       <c r="H126" t="n">
-        <v>467100</v>
+        <v>443940</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/granta_hatchback</t>
+          <t>https://auto-shop-21.ru/lada/granta_liftback</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -5664,40 +5674,48 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>375610</v>
+        <v>358510</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_liftback/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>375610</t>
+          <t>358510</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_liftback/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
       <c r="H127" t="n">
-        <v>443940</v>
+        <v>419940</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/granta_liftback</t>
+          <t>https://auto-shop-21.ru/lada/granta_sedan</t>
+        </is>
+      </c>
+      <c r="J127" t="n">
+        <v>931000</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_17398.html</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -5707,48 +5725,40 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>Granta Sedan Drive Active</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>358510</v>
+        <v>419000</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_sedan/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>358510</t>
+          <t>419000</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_sedan/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
       <c r="H128" t="n">
-        <v>419940</v>
+        <v>620940</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/granta_sedan</t>
-        </is>
-      </c>
-      <c r="J128" t="n">
-        <v>931000</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_17336.html</t>
+          <t>https://auto-shop-21.ru/lada/granta_drive_active</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -5758,40 +5768,40 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Granta Sedan Drive Active</t>
+          <t>Granta Universal</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>419000</v>
+        <v>376800</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_drive_active/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>419000</t>
+          <t>376800</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_drive_active/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
       <c r="H129" t="n">
-        <v>620940</v>
+        <v>431580</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/granta_drive_active</t>
+          <t>https://auto-shop-21.ru/lada/granta_universal</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -5801,40 +5811,30 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Granta Universal</t>
+          <t>Largus</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>376800</v>
+        <v>1656500</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_universal/</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>376800</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_universal/</t>
-        </is>
-      </c>
-      <c r="H130" t="n">
-        <v>431580</v>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/lada/granta_universal</t>
+          <t>https://alyans-auto.ru/auto/auto_17527.html</t>
+        </is>
+      </c>
+      <c r="J130" t="n">
+        <v>1656500</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_17527.html</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -5844,30 +5844,40 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Largus</t>
+          <t>Largus Cross New</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1656500</v>
+        <v>629000</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17527.html</t>
-        </is>
-      </c>
-      <c r="J131" t="n">
-        <v>1656500</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_17527.html</t>
+          <t>https://avto-trend21.ru/auto/lada/largus_cross/</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>629000</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/lada/largus_cross/</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>866340</v>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/lada/largus_cross</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -5877,40 +5887,40 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Largus Cross New</t>
+          <t>Largus New</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>629000</v>
+        <v>501000</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/largus_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/largus/</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>629000</t>
+          <t>501000</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/largus_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/largus/</t>
         </is>
       </c>
       <c r="H132" t="n">
-        <v>866340</v>
+        <v>780540</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/largus_cross</t>
+          <t>https://auto-shop-21.ru/lada/largus</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -5920,40 +5930,40 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Largus New</t>
+          <t>Largus Фургон New</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>501000</v>
+        <v>541610</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/largus/</t>
+          <t>https://avto-trend21.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>501000</t>
+          <t>541610</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/largus/</t>
+          <t>https://avto-trend21.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
       <c r="H133" t="n">
-        <v>780540</v>
+        <v>781140</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/largus</t>
+          <t>https://auto-shop-21.ru/lada/largus_furgon</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -5963,40 +5973,40 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Largus Фургон New</t>
+          <t>Niva</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>541610</v>
+        <v>582200</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/largus_furgon/</t>
+          <t>https://avto-trend21.ru/auto/lada/niva/</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>541610</t>
+          <t>582200</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/largus_furgon/</t>
-        </is>
-      </c>
-      <c r="H134" t="n">
-        <v>781140</v>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/lada/largus_furgon</t>
+          <t>https://avto-trend21.ru/auto/lada/niva/</t>
+        </is>
+      </c>
+      <c r="J134" t="n">
+        <v>1310500</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_14903.html</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -6006,40 +6016,32 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Niva</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>582200</v>
+        <v>451710</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/niva/</t>
+          <t>https://avto-trend21.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>582200</t>
+          <t>451710</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/niva/</t>
-        </is>
-      </c>
-      <c r="J135" t="n">
-        <v>1310500</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_14903.html</t>
+          <t>https://avto-trend21.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -6049,32 +6051,32 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Niva Legend 5 дверей</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>451710</v>
+        <v>490410</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://avto-trend21.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>451710</t>
+          <t>490410</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://avto-trend21.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -6084,32 +6086,40 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Niva Legend 5 дверей</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>490410</v>
+        <v>549000</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://avto-trend21.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>490410</t>
+          <t>549000</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://avto-trend21.ru/auto/lada/niva_travel/</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>719340</v>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/lada/niva_travel</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -6119,40 +6129,40 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>549000</v>
+        <v>569000</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/niva_travel/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>549000</t>
+          <t>569000</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/niva_travel/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
       <c r="H138" t="n">
-        <v>719340</v>
+        <v>761940</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/niva_travel</t>
+          <t>https://auto-shop-21.ru/lada/vesta_cross_1</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -6162,40 +6172,40 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>Vesta Cross New</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>569000</v>
+        <v>619000</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>569000</t>
+          <t>619000</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="H139" t="n">
-        <v>761940</v>
+        <v>1040340</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_cross_1</t>
+          <t>https://auto-shop-21.ru/lada/vesta_cross</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -6205,40 +6215,40 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Vesta Cross New</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>619000</v>
+        <v>559000</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>619000</t>
+          <t>559000</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
       <c r="H140" t="n">
-        <v>1040340</v>
+        <v>728340</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_cross</t>
+          <t>https://auto-shop-21.ru/lada/vesta_sw_1</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -6248,40 +6258,40 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>559000</v>
+        <v>619000</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>559000</t>
+          <t>619000</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
       <c r="H141" t="n">
-        <v>728340</v>
+        <v>797340</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_sw_1</t>
+          <t>https://auto-shop-21.ru/lada/vesta_sw_cross_1</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -6291,40 +6301,40 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>Vesta SW Cross New</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>619000</v>
+        <v>669000</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>619000</t>
+          <t>669000</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="H142" t="n">
-        <v>797340</v>
+        <v>907140</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_sw_cross_1</t>
+          <t>https://auto-shop-21.ru/lada/vesta_sw_cross</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>444</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -6334,40 +6344,40 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Vesta SW Cross New</t>
+          <t>Vesta SW New</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>669000</v>
+        <v>609000</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>669000</t>
+          <t>609000</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="H143" t="n">
-        <v>907140</v>
+        <v>797940</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_sw_cross</t>
+          <t>https://auto-shop-21.ru/lada/vesta_sw</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -6377,40 +6387,48 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Vesta SW New</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>609000</v>
+        <v>519000</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>609000</t>
+          <t>519000</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
       <c r="H144" t="n">
-        <v>797940</v>
+        <v>673140</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_sw</t>
+          <t>https://auto-shop-21.ru/lada/vesta_1</t>
+        </is>
+      </c>
+      <c r="J144" t="n">
+        <v>1571500</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_18373.html</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -6420,48 +6438,40 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>Vesta Sedan CNG</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>519000</v>
+        <v>639900</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>519000</t>
+          <t>639900</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
       <c r="H145" t="n">
-        <v>673140</v>
+        <v>790140</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_1</t>
-        </is>
-      </c>
-      <c r="J145" t="n">
-        <v>1525000</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_18232.html</t>
+          <t>https://auto-shop-21.ru/lada/vesta_cng</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -6471,40 +6481,40 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Vesta Sedan CNG</t>
+          <t>Vesta Sedan New</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>639900</v>
+        <v>569000</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cng/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta/</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>639900</t>
+          <t>569000</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cng/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta/</t>
         </is>
       </c>
       <c r="H146" t="n">
-        <v>790140</v>
+        <v>743940</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_cng</t>
+          <t>https://auto-shop-21.ru/lada/vesta</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -6514,40 +6524,40 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Vesta Sedan New</t>
+          <t>Vesta Sport</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>569000</v>
+        <v>839000</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>569000</t>
+          <t>839000</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
       <c r="H147" t="n">
-        <v>743940</v>
+        <v>958740</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta</t>
+          <t>https://auto-shop-21.ru/lada/vesta_sport</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -6557,40 +6567,40 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Vesta Sport</t>
+          <t>Xray</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>839000</v>
+        <v>499000</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sport/</t>
+          <t>https://avto-trend21.ru/auto/lada/xray/</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>839000</t>
+          <t>499000</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sport/</t>
+          <t>https://avto-trend21.ru/auto/lada/xray/</t>
         </is>
       </c>
       <c r="H148" t="n">
-        <v>958740</v>
+        <v>664140</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_sport</t>
+          <t>https://auto-shop-21.ru/lada/xray</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -6600,40 +6610,40 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Xray</t>
+          <t>Xray Cross</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>499000</v>
+        <v>591900</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/xray/</t>
+          <t>https://avto-trend21.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>499000</t>
+          <t>591900</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/xray/</t>
+          <t>https://avto-trend21.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
       <c r="H149" t="n">
-        <v>664140</v>
+        <v>749940</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/xray</t>
+          <t>https://auto-shop-21.ru/lada/xray_cross</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>784</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -6643,40 +6653,30 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Xray Cross</t>
+          <t>ВИС 2346</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>591900</v>
+        <v>1466000</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/xray_cross/</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>591900</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/lada/xray_cross/</t>
-        </is>
-      </c>
-      <c r="H150" t="n">
-        <v>749940</v>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/lada/xray_cross</t>
+          <t>https://alyans-auto.ru/auto/auto_18062.html</t>
+        </is>
+      </c>
+      <c r="J150" t="n">
+        <v>1466000</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_18062.html</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>784</t>
+          <t>700</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -6686,63 +6686,73 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>ВИС 2346</t>
+          <t>ВИС 2349 Фургон</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1466000</v>
+        <v>1364100</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_18062.html</t>
+          <t>https://alyans-auto.ru/auto/auto_14192.html</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>1466000</v>
+        <v>1364100</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_18062.html</t>
+          <t>https://alyans-auto.ru/auto/auto_14192.html</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>ВИС 2349 Фургон</t>
+          <t>Murman</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1364100</v>
+        <v>430000</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_14192.html</t>
-        </is>
-      </c>
-      <c r="J152" t="n">
-        <v>1364100</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_14192.html</t>
+          <t>https://avto-trend21.ru/auto/lifan/murman/</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>430000</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/lifan/murman/</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>611940</v>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/lifan/murman</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -6752,40 +6762,40 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Murman</t>
+          <t>MyWay</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>430000</v>
+        <v>539940</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/murman/</t>
+          <t>https://auto-shop-21.ru/lifan/myway</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>430000</t>
+          <t>685000</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/murman/</t>
+          <t>https://avto-trend21.ru/auto/lifan/myway/</t>
         </is>
       </c>
       <c r="H153" t="n">
-        <v>611940</v>
+        <v>539940</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/murman</t>
+          <t>https://auto-shop-21.ru/lifan/myway</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -6795,40 +6805,40 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>MyWay</t>
+          <t>Solano 2</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>539940</v>
+        <v>425940</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/myway</t>
+          <t>https://auto-shop-21.ru/lifan/solano_ii</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>685000</t>
+          <t>439900</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/myway/</t>
+          <t>https://avto-trend21.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
       <c r="H154" t="n">
-        <v>539940</v>
+        <v>425940</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/myway</t>
+          <t>https://auto-shop-21.ru/lifan/solano_ii</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -6838,40 +6848,40 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Solano 2</t>
+          <t>X50</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>425940</v>
+        <v>368000</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/solano_ii</t>
+          <t>https://avto-trend21.ru/auto/lifan/x50/</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>439900</t>
+          <t>368000</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/solano_ii/</t>
+          <t>https://avto-trend21.ru/auto/lifan/x50/</t>
         </is>
       </c>
       <c r="H155" t="n">
-        <v>425940</v>
+        <v>413940</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/solano_ii</t>
+          <t>https://auto-shop-21.ru/lifan/x50</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -6881,40 +6891,40 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>X50</t>
+          <t>X60</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>368000</v>
+        <v>461940</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/x50/</t>
+          <t>https://auto-shop-21.ru/lifan/x60</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>368000</t>
+          <t>479900</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/x50/</t>
+          <t>https://avto-trend21.ru/auto/lifan/x60/</t>
         </is>
       </c>
       <c r="H156" t="n">
-        <v>413940</v>
+        <v>461940</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/x50</t>
+          <t>https://auto-shop-21.ru/lifan/x60</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -6924,83 +6934,83 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>X60</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>461940</v>
+        <v>593400</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/x60</t>
+          <t>https://auto-shop-21.ru/lifan/x70</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>479900</t>
+          <t>737000</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/x60/</t>
+          <t>https://avto-trend21.ru/auto/lifan/x70/</t>
         </is>
       </c>
       <c r="H157" t="n">
-        <v>461940</v>
+        <v>593400</v>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/x60</t>
+          <t>https://auto-shop-21.ru/lifan/x70</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>593400</v>
+        <v>1529940</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/x70</t>
+          <t>https://auto-shop-21.ru/livan/s6pro</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>737000</t>
+          <t>1749900</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/x70/</t>
+          <t>https://avto-trend21.ru/auto/livan/s6pro/</t>
         </is>
       </c>
       <c r="H158" t="n">
-        <v>593400</v>
+        <v>1529940</v>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/x70</t>
+          <t>https://auto-shop-21.ru/livan/s6pro</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -7010,40 +7020,40 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>1529940</v>
+        <v>1127940</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/livan/s6pro</t>
+          <t>https://auto-shop-21.ru/livan/x3pro</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>1749900</t>
+          <t>1279900</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/livan/s6pro/</t>
+          <t>https://avto-trend21.ru/auto/livan/x3pro/</t>
         </is>
       </c>
       <c r="H159" t="n">
-        <v>1529940</v>
+        <v>1127940</v>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/livan/s6pro</t>
+          <t>https://auto-shop-21.ru/livan/x3pro</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -7053,83 +7063,83 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>X6 Pro</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>1127940</v>
+        <v>1577940</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/livan/x3pro</t>
+          <t>https://auto-shop-21.ru/livan/x6pro</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>1279900</t>
+          <t>1829900</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/livan/x3pro/</t>
+          <t>https://avto-trend21.ru/auto/livan/x6pro/</t>
         </is>
       </c>
       <c r="H160" t="n">
-        <v>1127940</v>
+        <v>1577940</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/livan/x3pro</t>
+          <t>https://auto-shop-21.ru/livan/x6pro</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>X6 Pro</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>1577940</v>
+        <v>960000</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/livan/x6pro</t>
+          <t>https://avto-trend21.ru/auto/moskvich/3/</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>1829900</t>
+          <t>960000</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/livan/x6pro/</t>
+          <t>https://avto-trend21.ru/auto/moskvich/3/</t>
         </is>
       </c>
       <c r="H161" t="n">
-        <v>1577940</v>
+        <v>1332000</v>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/livan/x6pro</t>
+          <t>https://auto-shop-21.ru/moskvich/3</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -7139,83 +7149,83 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3e</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>960000</v>
+        <v>2370000</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/moskvich/3/</t>
+          <t>https://auto-shop-21.ru/moskvich/3e</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>960000</t>
+          <t>3147000</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/moskvich/3/</t>
+          <t>https://avto-trend21.ru/auto/moskvich/3e/</t>
         </is>
       </c>
       <c r="H162" t="n">
-        <v>1332000</v>
+        <v>2370000</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/moskvich/3</t>
+          <t>https://auto-shop-21.ru/moskvich/3e</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>3e</t>
+          <t>Qashqai</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>2370000</v>
+        <v>790000</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/moskvich/3e</t>
+          <t>https://avto-trend21.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>3147000</t>
+          <t>790000</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/moskvich/3e/</t>
+          <t>https://avto-trend21.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
       <c r="H163" t="n">
-        <v>2370000</v>
+        <v>1402200</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/moskvich/3e</t>
+          <t>https://auto-shop-21.ru/nissan/qashqai</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -7225,40 +7235,40 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Qashqai</t>
+          <t>Terrano</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>790000</v>
+        <v>619000</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/qashqai/</t>
+          <t>https://avto-trend21.ru/auto/nissan/terrano/</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>790000</t>
+          <t>619000</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/qashqai/</t>
+          <t>https://avto-trend21.ru/auto/nissan/terrano/</t>
         </is>
       </c>
       <c r="H164" t="n">
-        <v>1402200</v>
+        <v>1014000</v>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/nissan/qashqai</t>
+          <t>https://auto-shop-21.ru/nissan/terrano</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -7268,83 +7278,91 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Terrano</t>
+          <t>X-trail</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>619000</v>
+        <v>855000</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/terrano/</t>
+          <t>https://avto-trend21.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>619000</t>
+          <t>855000</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/terrano/</t>
+          <t>https://avto-trend21.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
       <c r="H165" t="n">
-        <v>1014000</v>
+        <v>1657200</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/nissan/terrano</t>
+          <t>https://auto-shop-21.ru/nissan/x-trail</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>X-trail</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>855000</v>
+        <v>1607940</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/x-trail/</t>
+          <t>https://auto-shop-21.ru/omoda/c5</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>855000</t>
+          <t>1999900</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/x-trail/</t>
+          <t>https://avto-trend21.ru/auto/omoda/c5/</t>
         </is>
       </c>
       <c r="H166" t="n">
-        <v>1657200</v>
+        <v>1607940</v>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/nissan/x-trail</t>
+          <t>https://auto-shop-21.ru/omoda/c5</t>
+        </is>
+      </c>
+      <c r="J166" t="n">
+        <v>1999900</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_17979.html</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -7354,99 +7372,91 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>1607940</v>
+        <v>1349940</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/omoda/c5</t>
+          <t>https://auto-shop-21.ru/omoda/s5</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>1999900</t>
+          <t>1689900</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/omoda/c5/</t>
+          <t>https://avto-trend21.ru/auto/omoda/s5/</t>
         </is>
       </c>
       <c r="H167" t="n">
-        <v>1607940</v>
+        <v>1349940</v>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/omoda/c5</t>
+          <t>https://auto-shop-21.ru/omoda/s5</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>1999900</v>
+        <v>1729000</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17979.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16128.html</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>Nexia R3</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>1349940</v>
+        <v>339000</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/omoda/s5</t>
+          <t>https://avto-trend21.ru/auto/ravon/nexia_r3/</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>1689900</t>
+          <t>339000</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/omoda/s5/</t>
+          <t>https://avto-trend21.ru/auto/ravon/nexia_r3/</t>
         </is>
       </c>
       <c r="H168" t="n">
-        <v>1349940</v>
+        <v>495000</v>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/omoda/s5</t>
-        </is>
-      </c>
-      <c r="J168" t="n">
-        <v>1729000</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_16128.html</t>
+          <t>https://auto-shop-21.ru/ravon/nexia_r3</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -7456,7 +7466,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Nexia R3</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="D169" t="n">
@@ -7464,7 +7474,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/nexia_r3/</t>
+          <t>https://avto-trend21.ru/auto/ravon/r2/</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -7474,22 +7484,22 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/nexia_r3/</t>
+          <t>https://avto-trend21.ru/auto/ravon/r2/</t>
         </is>
       </c>
       <c r="H169" t="n">
-        <v>495000</v>
+        <v>529800</v>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/ravon/nexia_r3</t>
+          <t>https://auto-shop-21.ru/ravon/r2</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -7499,83 +7509,83 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R4</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>339000</v>
+        <v>389000</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/r2/</t>
+          <t>https://avto-trend21.ru/auto/ravon/r4/</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>339000</t>
+          <t>389000</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/r2/</t>
+          <t>https://avto-trend21.ru/auto/ravon/r4/</t>
         </is>
       </c>
       <c r="H170" t="n">
-        <v>529800</v>
+        <v>510600</v>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/ravon/r2</t>
+          <t>https://auto-shop-21.ru/ravon/r4</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>389000</v>
+        <v>690000</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/r4/</t>
+          <t>https://avto-trend21.ru/auto/renault/arkana/</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>389000</t>
+          <t>690000</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/r4/</t>
+          <t>https://avto-trend21.ru/auto/renault/arkana/</t>
         </is>
       </c>
       <c r="H171" t="n">
-        <v>510600</v>
+        <v>1124400</v>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/ravon/r4</t>
+          <t>https://auto-shop-21.ru/renault/arkana</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -7585,40 +7595,40 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>Duster New</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>690000</v>
+        <v>650000</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/arkana/</t>
+          <t>https://avto-trend21.ru/auto/renault/duster/</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>690000</t>
+          <t>650000</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/arkana/</t>
+          <t>https://avto-trend21.ru/auto/renault/duster/</t>
         </is>
       </c>
       <c r="H172" t="n">
-        <v>1124400</v>
+        <v>970800</v>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/arkana</t>
+          <t>https://auto-shop-21.ru/renault/duster</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -7628,40 +7638,40 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Duster New</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>650000</v>
+        <v>659000</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/duster/</t>
+          <t>https://avto-trend21.ru/auto/renault/kaptur/</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>650000</t>
+          <t>659000</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/duster/</t>
+          <t>https://avto-trend21.ru/auto/renault/kaptur/</t>
         </is>
       </c>
       <c r="H173" t="n">
-        <v>970800</v>
+        <v>1034400</v>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/duster</t>
+          <t>https://auto-shop-21.ru/renault/kaptur</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>552</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -7671,40 +7681,40 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>Koleos</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>659000</v>
+        <v>1019400</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/kaptur/</t>
+          <t>https://auto-shop-21.ru/renault/koleos</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>659000</t>
+          <t>1553000</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/kaptur/</t>
+          <t>https://avto-trend21.ru/auto/renault/koleos/</t>
         </is>
       </c>
       <c r="H174" t="n">
-        <v>1034400</v>
+        <v>1019400</v>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/kaptur</t>
+          <t>https://auto-shop-21.ru/renault/koleos</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -7714,40 +7724,40 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Koleos</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>1019400</v>
+        <v>490000</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/koleos</t>
+          <t>https://avto-trend21.ru/auto/renault/logan/</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>1553000</t>
+          <t>490000</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/koleos/</t>
+          <t>https://avto-trend21.ru/auto/renault/logan/</t>
         </is>
       </c>
       <c r="H175" t="n">
-        <v>1019400</v>
+        <v>674400</v>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/koleos</t>
+          <t>https://auto-shop-21.ru/renault/logan</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -7757,40 +7767,40 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>490000</v>
+        <v>530000</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/logan/</t>
+          <t>https://avto-trend21.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>490000</t>
+          <t>530000</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/logan/</t>
+          <t>https://avto-trend21.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="H176" t="n">
-        <v>674400</v>
+        <v>780600</v>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/logan</t>
+          <t>https://auto-shop-21.ru/renault/logan_stepway</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -7800,40 +7810,40 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>Logan Stepway City</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>530000</v>
+        <v>715000</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/logan_stepway/</t>
+          <t>https://avto-trend21.ru/auto/renault/logan_stepway_city/</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>530000</t>
+          <t>715000</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/logan_stepway/</t>
+          <t>https://avto-trend21.ru/auto/renault/logan_stepway_city/</t>
         </is>
       </c>
       <c r="H177" t="n">
-        <v>780600</v>
+        <v>792600</v>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/logan_stepway</t>
+          <t>https://auto-shop-21.ru/renault/logan_stepway_city</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -7843,40 +7853,40 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Logan Stepway City</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>715000</v>
+        <v>520000</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/logan_stepway_city/</t>
+          <t>https://avto-trend21.ru/auto/renault/sandero/</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>715000</t>
+          <t>520000</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/logan_stepway_city/</t>
+          <t>https://avto-trend21.ru/auto/renault/sandero/</t>
         </is>
       </c>
       <c r="H178" t="n">
-        <v>792600</v>
+        <v>754800</v>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/logan_stepway_city</t>
+          <t>https://auto-shop-21.ru/renault/sandero</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -7886,40 +7896,40 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>520000</v>
+        <v>550000</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/sandero/</t>
+          <t>https://avto-trend21.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>520000</t>
+          <t>550000</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/sandero/</t>
+          <t>https://avto-trend21.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
       <c r="H179" t="n">
-        <v>754800</v>
+        <v>823800</v>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/sandero</t>
+          <t>https://auto-shop-21.ru/renault/sandero_stepway</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>567</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -7929,83 +7939,83 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>Stepway City</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>550000</v>
+        <v>835800</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/sandero_stepway/</t>
+          <t>https://auto-shop-21.ru/renault/sandero_stepway_city</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>550000</t>
+          <t>1170000</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/sandero_stepway/</t>
+          <t>https://avto-trend21.ru/auto/renault/sandero_stepway_city/</t>
         </is>
       </c>
       <c r="H180" t="n">
-        <v>823800</v>
+        <v>835800</v>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/sandero_stepway</t>
+          <t>https://auto-shop-21.ru/renault/sandero_stepway_city</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Stepway City</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>835800</v>
+        <v>740000</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/sandero_stepway_city</t>
+          <t>https://avto-trend21.ru/auto/skoda/karoq/</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>1170000</t>
+          <t>740000</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/sandero_stepway_city/</t>
+          <t>https://avto-trend21.ru/auto/skoda/karoq/</t>
         </is>
       </c>
       <c r="H181" t="n">
-        <v>835800</v>
+        <v>1629600</v>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/sandero_stepway_city</t>
+          <t>https://auto-shop-21.ru/skoda/karoq</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>590</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -8015,40 +8025,40 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>Kodiaq Hockey Edition</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>740000</v>
+        <v>1421340</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/karoq/</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_hockey_edition</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>740000</t>
+          <t>1581000</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/karoq/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq_hockey_edition/</t>
         </is>
       </c>
       <c r="H182" t="n">
-        <v>1629600</v>
+        <v>1421340</v>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/karoq</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_hockey_edition</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>593</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -8058,40 +8068,40 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Kodiaq Hockey Edition</t>
+          <t>Kodiaq Laurin &amp; Klement</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>1421340</v>
+        <v>3058000</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq_hockey_edition</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq_laurin__klement/</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>1581000</t>
+          <t>3058000</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq_hockey_edition/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq_laurin__klement/</t>
         </is>
       </c>
       <c r="H183" t="n">
-        <v>1421340</v>
+        <v>3483600</v>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq_hockey_edition</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_laurin__klement</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>576</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -8101,40 +8111,40 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Kodiaq Laurin &amp; Klement</t>
+          <t>Kodiaq New</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>3058000</v>
+        <v>1659000</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq_laurin__klement/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>3058000</t>
+          <t>1659000</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq_laurin__klement/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
       <c r="H184" t="n">
-        <v>3483600</v>
+        <v>2184000</v>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq_laurin__klement</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>591</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -8144,40 +8154,40 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Kodiaq New</t>
+          <t>Kodiaq Scout</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>1659000</v>
+        <v>2098800</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq/</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_scout</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>1659000</t>
+          <t>3375000</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq_scout/</t>
         </is>
       </c>
       <c r="H185" t="n">
-        <v>2184000</v>
+        <v>2098800</v>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_scout</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>592</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -8187,40 +8197,40 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Kodiaq Scout</t>
+          <t>Kodiaq Sportline</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>2098800</v>
+        <v>2989000</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq_scout</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq_sportline/</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>3375000</t>
+          <t>2989000</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq_scout/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq_sportline/</t>
         </is>
       </c>
       <c r="H186" t="n">
-        <v>2098800</v>
+        <v>3226800</v>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq_scout</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_sportline</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>589</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -8230,40 +8240,40 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Kodiaq Sportline</t>
+          <t>Octavia Hockey Edition</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>2989000</v>
+        <v>989000</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq_sportline/</t>
+          <t>https://avto-trend21.ru/auto/skoda/octavia_hockey_edition/</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2989000</t>
+          <t>989000</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq_sportline/</t>
+          <t>https://avto-trend21.ru/auto/skoda/octavia_hockey_edition/</t>
         </is>
       </c>
       <c r="H187" t="n">
-        <v>3226800</v>
+        <v>1694340</v>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq_sportline</t>
+          <t>https://auto-shop-21.ru/skoda/octavia_hockey_edition</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -8273,40 +8283,40 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Octavia Hockey Edition</t>
+          <t>Octavia New</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>989000</v>
+        <v>840000</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/octavia_hockey_edition/</t>
+          <t>https://avto-trend21.ru/auto/skoda/octavia/</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>989000</t>
+          <t>840000</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/octavia_hockey_edition/</t>
+          <t>https://avto-trend21.ru/auto/skoda/octavia/</t>
         </is>
       </c>
       <c r="H188" t="n">
-        <v>1694340</v>
+        <v>1567800</v>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/octavia_hockey_edition</t>
+          <t>https://auto-shop-21.ru/skoda/octavia</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -8316,40 +8326,40 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Octavia New</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>840000</v>
+        <v>520000</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/octavia/</t>
+          <t>https://avto-trend21.ru/auto/skoda/rapid/</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>840000</t>
+          <t>520000</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/octavia/</t>
+          <t>https://avto-trend21.ru/auto/skoda/rapid/</t>
         </is>
       </c>
       <c r="H189" t="n">
-        <v>1567800</v>
+        <v>961200</v>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/octavia</t>
+          <t>https://auto-shop-21.ru/skoda/rapid</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -8359,40 +8369,40 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Rapid</t>
+          <t>Superb</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>520000</v>
+        <v>1222000</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/rapid/</t>
+          <t>https://avto-trend21.ru/auto/skoda/superb/</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>520000</t>
+          <t>1222000</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/rapid/</t>
+          <t>https://avto-trend21.ru/auto/skoda/superb/</t>
         </is>
       </c>
       <c r="H190" t="n">
-        <v>961200</v>
+        <v>2031600</v>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/rapid</t>
+          <t>https://auto-shop-21.ru/skoda/superb</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -8402,83 +8412,75 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Superb</t>
+          <t>Superb Combi</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>1222000</v>
+        <v>2089000</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/superb/</t>
+          <t>https://avto-trend21.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>1222000</t>
+          <t>2089000</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/superb/</t>
+          <t>https://avto-trend21.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
       <c r="H191" t="n">
-        <v>2031600</v>
+        <v>2290200</v>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/superb</t>
+          <t>https://auto-shop-21.ru/skoda/superb_combi</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Superb Combi</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>2089000</v>
+        <v>1749300</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/superb_combi/</t>
+          <t>https://avto-trend21.ru/auto/solaris/hc/</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>2089000</t>
+          <t>1749300</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/superb_combi/</t>
-        </is>
-      </c>
-      <c r="H192" t="n">
-        <v>2290200</v>
-      </c>
-      <c r="I192" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/skoda/superb_combi</t>
+          <t>https://avto-trend21.ru/auto/solaris/hc/</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -8488,32 +8490,32 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>1749300</v>
+        <v>1407000</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/hc/</t>
+          <t>https://avto-trend21.ru/auto/solaris/hs/</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>1749300</t>
+          <t>1407000</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/hc/</t>
+          <t>https://avto-trend21.ru/auto/solaris/hs/</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -8523,32 +8525,32 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>KRS</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>1407000</v>
+        <v>1426600</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/hs/</t>
+          <t>https://avto-trend21.ru/auto/solaris/krs/</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>1407000</t>
+          <t>1426600</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/hs/</t>
+          <t>https://avto-trend21.ru/auto/solaris/krs/</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -8558,67 +8560,65 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>KRS</t>
+          <t>KRX</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>1426600</v>
+        <v>1444800</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/krs/</t>
+          <t>https://avto-trend21.ru/auto/solaris/krx/</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>1426600</t>
+          <t>1444800</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/krs/</t>
+          <t>https://avto-trend21.ru/auto/solaris/krx/</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>KRX</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>1444800</v>
+        <v>2459400</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/krx/</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>1444800</t>
-        </is>
-      </c>
-      <c r="G196" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/solaris/krx/</t>
+          <t>https://auto-shop-21.ru/tank/300</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>2459400</v>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/tank/300</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -8628,63 +8628,73 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>2459400</v>
+        <v>3779400</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/tank/300</t>
+          <t>https://auto-shop-21.ru/tank/500</t>
         </is>
       </c>
       <c r="H197" t="n">
-        <v>2459400</v>
+        <v>3779400</v>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/tank/300</t>
+          <t>https://auto-shop-21.ru/tank/500</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>3779400</v>
+        <v>975000</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/tank/500</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/jetta/</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>975000</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
       <c r="H198" t="n">
-        <v>3779400</v>
+        <v>976200</v>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/tank/500</t>
+          <t>https://auto-shop-21.ru/volkswagen/jetta</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>649</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -8694,40 +8704,40 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Passat</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>975000</v>
+        <v>1050000</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/jetta/</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>975000</t>
+          <t>1050000</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/jetta/</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
       <c r="H199" t="n">
-        <v>976200</v>
+        <v>1593600</v>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/volkswagen/jetta</t>
+          <t>https://auto-shop-21.ru/volkswagen/passat</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -8737,40 +8747,40 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Passat</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>1050000</v>
+        <v>730900</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/passat/</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>1050000</t>
+          <t>730900</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/passat/</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
       <c r="H200" t="n">
-        <v>1593600</v>
+        <v>972540</v>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/volkswagen/passat</t>
+          <t>https://auto-shop-21.ru/volkswagen/polo</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -8780,40 +8790,40 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>Taos</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>730900</v>
+        <v>1399900</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/polo/</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>730900</t>
+          <t>1399900</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/polo/</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
       <c r="H201" t="n">
-        <v>972540</v>
+        <v>1697340</v>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/volkswagen/polo</t>
+          <t>https://auto-shop-21.ru/volkswagen/taos</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>658</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -8823,83 +8833,73 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Taos</t>
+          <t>Tiguan New</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>1399900</v>
+        <v>1579900</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/taos/</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>1399900</t>
+          <t>1579900</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/taos/</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
       <c r="H202" t="n">
-        <v>1697340</v>
+        <v>2025540</v>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/volkswagen/taos</t>
+          <t>https://auto-shop-21.ru/volkswagen/tiguan</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>675</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>XCite</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Tiguan New</t>
+          <t>X-Cross 7</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>1579900</v>
+        <v>2495500</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/tiguan/</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>1579900</t>
-        </is>
-      </c>
-      <c r="G203" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/tiguan/</t>
-        </is>
-      </c>
-      <c r="H203" t="n">
-        <v>2025540</v>
-      </c>
-      <c r="I203" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/volkswagen/tiguan</t>
+          <t>https://alyans-auto.ru/auto/auto_17597.html</t>
+        </is>
+      </c>
+      <c r="J203" t="n">
+        <v>2495500</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_17597.html</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>787</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -8909,23 +8909,23 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>X-Cross 7</t>
+          <t>X-Cross 8</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>2495500</v>
+        <v>2999000</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17597.html</t>
+          <t>https://alyans-auto.ru/auto/auto_18333.html</t>
         </is>
       </c>
       <c r="J204" t="n">
-        <v>2495500</v>
+        <v>2999000</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17597.html</t>
+          <t>https://alyans-auto.ru/auto/auto_18333.html</t>
         </is>
       </c>
     </row>
@@ -9012,39 +9012,6 @@
       <c r="I206" t="inlineStr">
         <is>
           <t>https://auto-shop-21.ru/zotye/t600</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>Новая машина, необходимо назначить id</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>xcite</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>x-cross8</t>
-        </is>
-      </c>
-      <c r="D207" t="n">
-        <v>2999000</v>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_18333.html</t>
-        </is>
-      </c>
-      <c r="J207" t="n">
-        <v>2999000</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_18333.html</t>
         </is>
       </c>
     </row>

--- a/xlsx/cheboksari.xlsx
+++ b/xlsx/cheboksari.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K206"/>
+  <dimension ref="A1:K210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -700,19 +700,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2862990</v>
+        <v>2905190</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17695.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17663.html</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>2862990</v>
+        <v>2905190</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17695.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17663.html</t>
         </is>
       </c>
     </row>
@@ -827,19 +827,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2399900</v>
+        <v>2599900</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17113.html</t>
+          <t>https://alyans-auto.ru/auto/auto_15682.html</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>2399900</v>
+        <v>2599900</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17113.html</t>
+          <t>https://alyans-auto.ru/auto/auto_15682.html</t>
         </is>
       </c>
     </row>
@@ -860,11 +860,11 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1403940</v>
+        <v>2119900</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/changan/cs35_plus</t>
+          <t>https://avto-trend21.ru/auto/changan/cs35_plus/</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -878,7 +878,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1403940</v>
+        <v>2339900</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -907,21 +907,21 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>https://auto-shop-21.ru/changan/cs55</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>759900</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>https://avto-trend21.ru/auto/changan/cs55/</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>759900</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/changan/cs55/</t>
-        </is>
-      </c>
       <c r="H12" t="n">
-        <v>1313940</v>
+        <v>759900</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -972,11 +972,11 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>2749900</v>
+        <v>2909900</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17112.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16913.html</t>
         </is>
       </c>
     </row>
@@ -1001,21 +1001,21 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>https://auto-shop-21.ru/changan/cs75fl</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1439900</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>https://avto-trend21.ru/auto/changan/cs75fl/</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1439900</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/changan/cs75fl/</t>
-        </is>
-      </c>
       <c r="H14" t="n">
-        <v>1481940</v>
+        <v>1439900</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16808.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17978.html</t>
         </is>
       </c>
       <c r="J20" t="n">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16808.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17978.html</t>
         </is>
       </c>
     </row>
@@ -1402,21 +1402,21 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>https://auto-shop-21.ru/chery/arrizo_8</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1414000</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>https://avto-trend21.ru/auto/chery/arrizo_8/</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1414000</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/chery/arrizo_8/</t>
-        </is>
-      </c>
       <c r="H23" t="n">
-        <v>2046000</v>
+        <v>1414000</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_4/</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_4</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1498,11 +1498,11 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_4/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_4_i_restailing/</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1223940</v>
+        <v>690000</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1523,40 +1523,32 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Tiggo 4 Pro</t>
+          <t>Tiggo 4 New</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>740000</v>
+        <v>1631000</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_4_pro/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_4/</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>740000</t>
+          <t>1631000</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_4_pro/</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>1272000</v>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_4_pro</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_4/</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1566,40 +1558,40 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Tiggo 7</t>
+          <t>Tiggo 4 Pro</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>737940</v>
+        <v>740000</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_7</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_4_pro</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>750000</t>
+          <t>740000</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_7/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_4_pro/</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>737940</v>
+        <v>740000</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_7</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_4_pro</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>154</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1609,40 +1601,40 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Tiggo 7 Pro</t>
+          <t>Tiggo 7</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>890000</v>
+        <v>737940</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro/</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_7</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>890000</t>
+          <t>750000</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_7/</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>1542000</v>
+        <v>737940</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_7_pro</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_7</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1652,40 +1644,40 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Tiggo 7 Pro Max</t>
+          <t>Tiggo 7 Pro</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1090000</v>
+        <v>890000</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro_max_1/</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_7_pro</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1090000</t>
+          <t>890000</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro_max_1/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro/</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>1692000</v>
+        <v>890000</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_7_pro_max</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_7_pro</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1695,32 +1687,40 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Tiggo 7 Pro Max New</t>
+          <t>Tiggo 7 Pro Max</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1939000</v>
+        <v>1090000</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro_max/</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_7_pro_max</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1939000</t>
+          <t>1090000</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro_max/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro_max_1/</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1090000</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/chery/tiggo_7_pro_max</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1730,40 +1730,32 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Tiggo 8</t>
+          <t>Tiggo 7 Pro Max New</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1189900</v>
+        <v>1939000</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_8/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro_max/</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1189900</t>
+          <t>1939000</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_8/</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>1638000</v>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_8</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro_max/</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1773,40 +1765,40 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Tiggo 8 Pro</t>
+          <t>Tiggo 8</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1229900</v>
+        <v>1189900</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro/</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_8</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1229900</t>
+          <t>1189900</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_8/</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>2058000</v>
+        <v>1189900</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_8_pro</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_8</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1816,40 +1808,40 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Tiggo 8 Pro Max</t>
+          <t>Tiggo 8 Pro</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1549900</v>
+        <v>1229900</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro_max_1/</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_8_pro</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1549900</t>
+          <t>1229900</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro_max_1/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro/</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>2310600</v>
+        <v>1229900</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_8_pro_max_1</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_8_pro</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1859,83 +1851,83 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Tiggo 8 Pro Max New</t>
+          <t>Tiggo 8 Pro Max</t>
         </is>
       </c>
       <c r="D34" t="n">
+        <v>1549900</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro_max_1/</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1549900</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro_max_1/</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
         <v>2189900</v>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro_max/</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>2189900</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro_max/</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>2496000</v>
-      </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chery/tiggo_8_pro_max</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_8_pro_max_1</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Chevrolet</t>
+          <t>Chery</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Cobalt</t>
+          <t>Tiggo 8 Pro Max New</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>572340</v>
+        <v>1549900</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chevrolet/cobalt</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_8_pro_max</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>627900</t>
+          <t>2189900</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chevrolet/cobalt/</t>
+          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro_max/</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>572340</v>
+        <v>1549900</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chevrolet/cobalt</t>
+          <t>https://auto-shop-21.ru/chery/tiggo_8_pro_max</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1945,40 +1937,40 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Nexia</t>
+          <t>Cobalt</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>528540</v>
+        <v>572340</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chevrolet/nexia</t>
+          <t>https://auto-shop-21.ru/chevrolet/cobalt</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>577900</t>
+          <t>627900</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chevrolet/nexia/</t>
+          <t>https://avto-trend21.ru/auto/chevrolet/cobalt/</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>528540</v>
+        <v>572340</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chevrolet/nexia</t>
+          <t>https://auto-shop-21.ru/chevrolet/cobalt</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1988,83 +1980,83 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Spark</t>
+          <t>Nexia</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>570540</v>
+        <v>528540</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chevrolet/spark</t>
+          <t>https://auto-shop-21.ru/chevrolet/nexia</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>637900</t>
+          <t>577900</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chevrolet/spark/</t>
+          <t>https://avto-trend21.ru/auto/chevrolet/nexia/</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>570540</v>
+        <v>528540</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chevrolet/spark</t>
+          <t>https://auto-shop-21.ru/chevrolet/nexia</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DFM</t>
+          <t>Chevrolet</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>Spark</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>809000</v>
+        <v>570540</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/dfm/580/</t>
+          <t>https://auto-shop-21.ru/chevrolet/spark</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>809000</t>
+          <t>637900</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/dfm/580/</t>
+          <t>https://avto-trend21.ru/auto/chevrolet/spark/</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>1374000</v>
+        <v>570540</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/dfm/580</t>
+          <t>https://auto-shop-21.ru/chevrolet/spark</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2074,83 +2066,83 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>AX7</t>
+          <t>580</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>710000</v>
+        <v>809000</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/dfm/ax7/</t>
+          <t>https://auto-shop-21.ru/dfm/580</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>710000</t>
+          <t>809000</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/dfm/ax7/</t>
+          <t>https://avto-trend21.ru/auto/dfm/580/</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>737400</v>
+        <v>809000</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/dfm/ax7</t>
+          <t>https://auto-shop-21.ru/dfm/580</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Datsun</t>
+          <t>DFM</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>MI-DO</t>
+          <t>AX7</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>332400</v>
+        <v>710000</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/datsun/mi-do</t>
+          <t>https://auto-shop-21.ru/dfm/ax7</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>387000</t>
+          <t>710000</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/datsun/mi-do/</t>
+          <t>https://avto-trend21.ru/auto/dfm/ax7/</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>332400</v>
+        <v>710000</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/datsun/mi-do</t>
+          <t>https://auto-shop-21.ru/dfm/ax7</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2160,75 +2152,83 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ON-DO</t>
+          <t>MI-DO</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>318600</v>
+        <v>332400</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/datsun/on-do</t>
+          <t>https://auto-shop-21.ru/datsun/mi-do</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>364000</t>
+          <t>387000</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/datsun/on-do/</t>
+          <t>https://avto-trend21.ru/auto/datsun/mi-do/</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>318600</v>
+        <v>332400</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/datsun/on-do</t>
+          <t>https://auto-shop-21.ru/datsun/mi-do</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>EXEED</t>
+          <t>Datsun</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>LX</t>
+          <t>ON-DO</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1449900</v>
+        <v>318600</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/exeed/lx/</t>
+          <t>https://auto-shop-21.ru/datsun/on-do</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1449900</t>
+          <t>364000</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/exeed/lx/</t>
+          <t>https://avto-trend21.ru/auto/datsun/on-do/</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>318600</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/datsun/on-do</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2238,32 +2238,32 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>RX</t>
+          <t>LX</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2939900</v>
+        <v>1449900</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/exeed/rx/</t>
+          <t>https://avto-trend21.ru/auto/exeed/lx/</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2939900</t>
+          <t>1449900</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/exeed/rx/</t>
+          <t>https://avto-trend21.ru/auto/exeed/lx/</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2273,40 +2273,32 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>TXL</t>
+          <t>RX</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1439900</v>
+        <v>2939900</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/exeed/txl/</t>
+          <t>https://avto-trend21.ru/auto/exeed/rx/</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>1439900</t>
+          <t>2939900</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/exeed/txl/</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>2556000</v>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/exeed/txl</t>
+          <t>https://avto-trend21.ru/auto/exeed/rx/</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2316,75 +2308,75 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>VX</t>
+          <t>TXL</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>2519900</v>
+        <v>1439900</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/exeed/vx/</t>
+          <t>https://auto-shop-21.ru/exeed/txl</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2519900</t>
+          <t>1439900</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/exeed/vx/</t>
+          <t>https://avto-trend21.ru/auto/exeed/txl/</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1439900</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/exeed/txl</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>FAW</t>
+          <t>EXEED</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Bestune B70</t>
+          <t>VX</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1470000</v>
+        <v>2519900</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/faw/bestune_b70</t>
+          <t>https://avto-trend21.ru/auto/exeed/vx/</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>1838000</t>
+          <t>2519900</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/faw/bestune_b70/</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>1470000</v>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/faw/bestune_b70</t>
+          <t>https://avto-trend21.ru/auto/exeed/vx/</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2394,40 +2386,40 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Bestune T55</t>
+          <t>Bestune B70</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1446600</v>
+        <v>1470000</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/faw/bestune_t55</t>
+          <t>https://auto-shop-21.ru/faw/bestune_b70</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1849000</t>
+          <t>1838000</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/faw/bestune_t55/</t>
+          <t>https://avto-trend21.ru/auto/faw/bestune_b70/</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>1446600</v>
+        <v>1470000</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/faw/bestune_t55</t>
+          <t>https://auto-shop-21.ru/faw/bestune_b70</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2437,40 +2429,40 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Bestune T77</t>
+          <t>Bestune T55</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1439000</v>
+        <v>1446600</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/faw/besturn_t77/</t>
+          <t>https://auto-shop-21.ru/faw/bestune_t55</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1439000</t>
+          <t>1849000</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/faw/besturn_t77/</t>
+          <t>https://avto-trend21.ru/auto/faw/bestune_t55/</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>1718400</v>
+        <v>1446600</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/faw/besturn_t77</t>
+          <t>https://auto-shop-21.ru/faw/bestune_t55</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2480,32 +2472,40 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Bestune T99</t>
+          <t>Bestune T77</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2065000</v>
+        <v>1439000</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/faw/bestune_t99/</t>
+          <t>https://avto-trend21.ru/auto/faw/besturn_t77/</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2065000</t>
+          <t>1439000</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/faw/bestune_t99/</t>
+          <t>https://avto-trend21.ru/auto/faw/besturn_t77/</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1718400</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/faw/besturn_t77</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2515,40 +2515,32 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>X40</t>
+          <t>Bestune T99</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>835200</v>
+        <v>2065000</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/faw/x40</t>
+          <t>https://avto-trend21.ru/auto/faw/bestune_t99/</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>889000</t>
+          <t>2065000</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/faw/x40/</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>835200</v>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/faw/x40</t>
+          <t>https://avto-trend21.ru/auto/faw/bestune_t99/</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2558,75 +2550,83 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>X80</t>
+          <t>X40</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>904800</v>
+        <v>835200</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/faw/x80</t>
+          <t>https://auto-shop-21.ru/faw/x40</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>929000</t>
+          <t>889000</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/faw/x80/</t>
+          <t>https://avto-trend21.ru/auto/faw/x40/</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>904800</v>
+        <v>835200</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/faw/x80</t>
+          <t>https://auto-shop-21.ru/faw/x40</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Gac</t>
+          <t>FAW</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>GS5</t>
+          <t>X80</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1574300</v>
+        <v>904800</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/gac/gs5/</t>
+          <t>https://auto-shop-21.ru/faw/x80</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1574300</t>
+          <t>929000</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/gac/gs5/</t>
+          <t>https://avto-trend21.ru/auto/faw/x80/</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>904800</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/faw/x80</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2636,126 +2636,102 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>GS8</t>
+          <t>GS3</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2729300</v>
+        <v>1379400</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/gac/gs8/</t>
+          <t>https://avto-trend21.ru/auto/gac/gs3/</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2729300</t>
+          <t>1379400</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/gac/gs8/</t>
+          <t>https://avto-trend21.ru/auto/gac/gs3/</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>Gac</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>GS5</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>690000</v>
+        <v>1574300</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/atlas_1/</t>
+          <t>https://avto-trend21.ru/auto/gac/gs5/</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>690000</t>
+          <t>1574300</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/atlas_1/</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>1337394</v>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/geely/atlas_1</t>
-        </is>
-      </c>
-      <c r="J54" t="n">
-        <v>3624190</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_17379.html</t>
+          <t>https://avto-trend21.ru/auto/gac/gs5/</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>Gac</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Atlas New</t>
+          <t>GS8</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1916994</v>
+        <v>2729300</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/atlas</t>
+          <t>https://avto-trend21.ru/auto/gac/gs8/</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2844990</t>
+          <t>2729300</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/atlas/</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>1916994</v>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/geely/atlas</t>
+          <t>https://avto-trend21.ru/auto/gac/gs8/</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2765,48 +2741,48 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Atlas Pro</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1658394</v>
+        <v>690000</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/atlas_pro</t>
+          <t>https://avto-trend21.ru/auto/geely/atlas_1/</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2233990</t>
+          <t>690000</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/atlas_pro/</t>
+          <t>https://avto-trend21.ru/auto/geely/atlas_1/</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>1658394</v>
+        <v>1916994</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/atlas_pro</t>
+          <t>https://auto-shop-21.ru/geely/atlas_1</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>3026990</v>
+        <v>3674190</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17094.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17820.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2816,40 +2792,40 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Belgee X50</t>
+          <t>Atlas New</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1374594</v>
+        <v>690000</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/belgee_x50</t>
+          <t>https://auto-shop-21.ru/geely/atlas</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1970990</t>
+          <t>2844990</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/belgee_x50/</t>
+          <t>https://avto-trend21.ru/auto/geely/atlas/</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>1374594</v>
+        <v>690000</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/belgee_x50</t>
+          <t>https://auto-shop-21.ru/geely/atlas</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2859,30 +2835,48 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Cityray</t>
+          <t>Atlas Pro</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>3058190</v>
+        <v>1658394</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_18214.html</t>
+          <t>https://auto-shop-21.ru/geely/atlas_pro</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2233990</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/geely/atlas_pro/</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1658394</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/geely/atlas_pro</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>3058190</v>
+        <v>3026990</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_18214.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17094.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2892,48 +2886,40 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Coolray</t>
+          <t>Belgee X50</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1406994</v>
+        <v>1374594</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/coolray_1</t>
+          <t>https://auto-shop-21.ru/geely/belgee_x50</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2024990</t>
+          <t>1970990</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/coolray_1/</t>
+          <t>https://avto-trend21.ru/auto/geely/belgee_x50/</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>1406994</v>
+        <v>1374594</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/coolray_1</t>
-        </is>
-      </c>
-      <c r="J59" t="n">
-        <v>2713190</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_16505.html</t>
+          <t>https://auto-shop-21.ru/geely/belgee_x50</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>772</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2943,40 +2929,30 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Coolray New</t>
+          <t>Cityray</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1565994</v>
+        <v>3058190</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/coolray</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>2309990</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/geely/coolray/</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>1565994</v>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/geely/coolray</t>
+          <t>https://alyans-auto.ru/auto/auto_18214.html</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>3058190</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_18214.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2986,30 +2962,48 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Emgrand</t>
+          <t>Coolray</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2217990</v>
+        <v>1565994</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_18097.html</t>
+          <t>https://auto-shop-21.ru/geely/coolray_1</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2024990</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/geely/coolray_1/</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1565994</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/geely/coolray_1</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>2217990</v>
+        <v>2763190</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_18097.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16731.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3019,40 +3013,40 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Emgrand New</t>
+          <t>Coolray New</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1205994</v>
+        <v>1406994</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/emgrand</t>
+          <t>https://auto-shop-21.ru/geely/coolray</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>1659990</t>
+          <t>2309990</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/emgrand/</t>
+          <t>https://avto-trend21.ru/auto/geely/coolray/</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>1205994</v>
+        <v>1406994</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/emgrand</t>
+          <t>https://auto-shop-21.ru/geely/coolray</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3062,40 +3056,30 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Emgrand X7</t>
+          <t>Emgrand</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>725994</v>
+        <v>2217990</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/emgrand_x7</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>877990</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/geely/emgrand_x7/</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>725994</v>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/geely/emgrand_x7</t>
+          <t>https://alyans-auto.ru/auto/auto_18097.html</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
+        <v>2217990</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_18097.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3105,40 +3089,40 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>Emgrand New</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>659994</v>
+        <v>1659990</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/gs</t>
+          <t>https://avto-trend21.ru/auto/geely/emgrand/</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>699890</t>
+          <t>1659990</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/gs/</t>
+          <t>https://avto-trend21.ru/auto/geely/emgrand/</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>659994</v>
+        <v>2009990</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/gs</t>
+          <t>https://auto-shop-21.ru/geely/emgrand</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3148,48 +3132,40 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Monjaro</t>
+          <t>Emgrand X7</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>2816994</v>
+        <v>725994</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/monjaro</t>
+          <t>https://auto-shop-21.ru/geely/emgrand_x7</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>3794990</t>
+          <t>877990</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/monjaro/</t>
+          <t>https://avto-trend21.ru/auto/geely/emgrand_x7/</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>2816994</v>
+        <v>725994</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/monjaro</t>
-        </is>
-      </c>
-      <c r="J65" t="n">
-        <v>4790190</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_17394.html</t>
+          <t>https://auto-shop-21.ru/geely/emgrand_x7</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3199,38 +3175,40 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Okavango</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>2069994</v>
+        <v>659994</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/okavango</t>
+          <t>https://auto-shop-21.ru/geely/gs</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>699890</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/geely/gs/</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>2069994</v>
+        <v>659994</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/okavango</t>
-        </is>
-      </c>
-      <c r="J66" t="n">
-        <v>3528990</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_17103.html</t>
+          <t>https://auto-shop-21.ru/geely/gs</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3240,32 +3218,48 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Okavango New</t>
+          <t>Monjaro</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>2999990</v>
+        <v>2816994</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/okavango/</t>
+          <t>https://auto-shop-21.ru/geely/monjaro</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2999990</t>
+          <t>3794990</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/okavango/</t>
+          <t>https://avto-trend21.ru/auto/geely/monjaro/</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2816994</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/geely/monjaro</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
+        <v>4490190</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_18581.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>773</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3275,30 +3269,38 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Preface FS11</t>
+          <t>Okavango</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>3188190</v>
+        <v>2069994</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_18229.html</t>
+          <t>https://auto-shop-21.ru/geely/okavango</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2069994</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/geely/okavango</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>3188190</v>
+        <v>3528990</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_18229.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17103.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3308,167 +3310,141 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Tugella New</t>
+          <t>Okavango New</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2375994</v>
+        <v>2999990</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/tugella</t>
+          <t>https://avto-trend21.ru/auto/geely/okavango/</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>3319990</t>
+          <t>2999990</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/tugella/</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
-        <v>2375994</v>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/geely/tugella</t>
+          <t>https://avto-trend21.ru/auto/geely/okavango/</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>773</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Great Wall</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>POER</t>
+          <t>Preface FS11</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3399000</v>
+        <v>3238190</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_13123.html</t>
+          <t>https://alyans-auto.ru/auto/auto_18229.html</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>3399000</v>
+        <v>3238190</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_13123.html</t>
+          <t>https://alyans-auto.ru/auto/auto_18229.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Dargo</t>
+          <t>Tugella New</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1779000</v>
+        <v>2375994</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/dargo/</t>
+          <t>https://auto-shop-21.ru/geely/tugella</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1779000</t>
+          <t>3319990</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/dargo/</t>
+          <t>https://avto-trend21.ru/auto/geely/tugella/</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>1829400</v>
+        <v>2375994</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/dargo</t>
-        </is>
-      </c>
-      <c r="J71" t="n">
-        <v>3249000</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_18204.html</t>
+          <t>https://auto-shop-21.ru/geely/tugella</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Great Wall</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Dargo X</t>
+          <t>POER</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1959000</v>
+        <v>3399000</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/dargo_x/</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>1959000</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/haval/dargo_x/</t>
-        </is>
-      </c>
-      <c r="H72" t="n">
-        <v>2009400</v>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/haval/dargo_x</t>
+          <t>https://alyans-auto.ru/auto/auto_13123.html</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
+        <v>3399000</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_13123.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3478,30 +3454,48 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>Dargo</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>2699000</v>
+        <v>1779000</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_18203.html</t>
+          <t>https://auto-shop-21.ru/haval/dargo</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1779000</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/haval/dargo/</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1779000</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/haval/dargo</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>2699000</v>
+        <v>3249000</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_18203.html</t>
+          <t>https://alyans-auto.ru/auto/auto_18204.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3511,40 +3505,40 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>F7 New</t>
+          <t>Dargo X</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1219000</v>
+        <v>1959000</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/f7/</t>
+          <t>https://auto-shop-21.ru/haval/dargo_x</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>1219000</t>
+          <t>1959000</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/f7/</t>
+          <t>https://avto-trend21.ru/auto/haval/dargo_x/</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>1469400</v>
+        <v>1959000</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/f7</t>
+          <t>https://auto-shop-21.ru/haval/dargo_x</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3554,30 +3548,30 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>F7x</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>3399000</v>
+        <v>2899000</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_12322.html</t>
+          <t>https://alyans-auto.ru/auto/auto_18610.html</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>3399000</v>
+        <v>2899000</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_12322.html</t>
+          <t>https://alyans-auto.ru/auto/auto_18610.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3587,25 +3581,25 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>F7x New</t>
+          <t>F7 New</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1269000</v>
+        <v>1219000</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/f7x/</t>
+          <t>https://avto-trend21.ru/auto/haval/f7/</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>1269000</t>
+          <t>1219000</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/f7x/</t>
+          <t>https://avto-trend21.ru/auto/haval/f7/</t>
         </is>
       </c>
       <c r="H76" t="n">
@@ -3613,14 +3607,14 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/f7x</t>
+          <t>https://auto-shop-21.ru/haval/f7</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3630,40 +3624,30 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>F7x</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>676800</v>
+        <v>3399000</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/h2</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>878000</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/haval/h2/</t>
-        </is>
-      </c>
-      <c r="H77" t="n">
-        <v>676800</v>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/haval/h2</t>
+          <t>https://alyans-auto.ru/auto/auto_13126.html</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
+        <v>3399000</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_13126.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3673,30 +3657,40 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>F7x New</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>917400</v>
+        <v>1269000</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/h5</t>
+          <t>https://avto-trend21.ru/auto/haval/f7x/</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1269000</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/haval/f7x/</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>917400</v>
+        <v>2449000</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/h5</t>
+          <t>https://auto-shop-21.ru/haval/f7x</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3706,40 +3700,40 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>H6</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>688800</v>
+        <v>676800</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/h6</t>
+          <t>https://auto-shop-21.ru/haval/h2</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>898000</t>
+          <t>878000</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/h6/</t>
+          <t>https://avto-trend21.ru/auto/haval/h2/</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>688800</v>
+        <v>676800</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/h6</t>
+          <t>https://auto-shop-21.ru/haval/h2</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3749,30 +3743,30 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>H9</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2459400</v>
+        <v>917400</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/h9</t>
+          <t>https://auto-shop-21.ru/haval/h5</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>2459400</v>
+        <v>917400</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/h9</t>
+          <t>https://auto-shop-21.ru/haval/h5</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3782,48 +3776,40 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Jolion</t>
+          <t>H6</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>689900</v>
+        <v>688800</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/jolion_1/</t>
+          <t>https://auto-shop-21.ru/haval/h6</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>689900</t>
+          <t>898000</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/jolion_1/</t>
+          <t>https://avto-trend21.ru/auto/haval/h6/</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>1169400</v>
+        <v>688800</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/jolion_1</t>
-        </is>
-      </c>
-      <c r="J81" t="n">
-        <v>2299000</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_18267.html</t>
+          <t>https://auto-shop-21.ru/haval/h6</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3833,40 +3819,30 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Jolion New</t>
+          <t>H9</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>990000</v>
+        <v>2459400</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/jolion/</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>990000</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/haval/jolion/</t>
+          <t>https://auto-shop-21.ru/haval/h9</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>1199400</v>
+        <v>2459400</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/jolion</t>
+          <t>https://auto-shop-21.ru/haval/h9</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3876,126 +3852,134 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>M6</t>
+          <t>Jolion</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>736000</v>
+        <v>689900</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/m6/</t>
+          <t>https://avto-trend21.ru/auto/haval/jolion_1/</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>736000</t>
+          <t>689900</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/m6/</t>
+          <t>https://avto-trend21.ru/auto/haval/jolion_1/</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>990000</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/haval/jolion_1</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>2179000</v>
+        <v>1999000</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_18134.html</t>
+          <t>https://alyans-auto.ru/auto/auto_18614.html</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Creta New</t>
+          <t>Jolion New</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>864000</v>
+        <v>689900</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/creta/</t>
+          <t>https://auto-shop-21.ru/haval/jolion</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>864000</t>
+          <t>990000</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/creta/</t>
+          <t>https://avto-trend21.ru/auto/haval/jolion/</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>1115400</v>
+        <v>689900</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/hyundai/creta</t>
+          <t>https://auto-shop-21.ru/haval/jolion</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Elantra New</t>
+          <t>M6</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1069000</v>
+        <v>736000</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/elantra/</t>
+          <t>https://avto-trend21.ru/auto/haval/m6/</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>1069000</t>
+          <t>736000</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/elantra/</t>
-        </is>
-      </c>
-      <c r="H85" t="n">
-        <v>1289400</v>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/hyundai/elantra</t>
+          <t>https://avto-trend21.ru/auto/haval/m6/</t>
+        </is>
+      </c>
+      <c r="J85" t="n">
+        <v>2179000</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_18644.html</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4005,40 +3989,40 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Creta New</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>619000</v>
+        <v>864000</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/solaris/</t>
+          <t>https://avto-trend21.ru/auto/hyundai/creta/</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>619000</t>
+          <t>864000</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/solaris/</t>
+          <t>https://avto-trend21.ru/auto/hyundai/creta/</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>844800</v>
+        <v>1115400</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/hyundai/solaris</t>
+          <t>https://auto-shop-21.ru/hyundai/creta</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4048,40 +4032,40 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Sonata</t>
+          <t>Elantra New</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1370000</v>
+        <v>1069000</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/sonata/</t>
+          <t>https://avto-trend21.ru/auto/hyundai/elantra/</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>1370000</t>
+          <t>1069000</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/sonata/</t>
+          <t>https://avto-trend21.ru/auto/hyundai/elantra/</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>1661400</v>
+        <v>1289400</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/hyundai/sonata</t>
+          <t>https://auto-shop-21.ru/hyundai/elantra</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4091,124 +4075,126 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Tucson New</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1394000</v>
+        <v>619000</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/tucson/</t>
+          <t>https://auto-shop-21.ru/hyundai/solaris</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>1394000</t>
+          <t>619000</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/tucson/</t>
+          <t>https://avto-trend21.ru/auto/hyundai/solaris/</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>1649400</v>
+        <v>619000</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/hyundai/tucson</t>
+          <t>https://auto-shop-21.ru/hyundai/solaris</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>Sonata</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1277400</v>
+        <v>1370000</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jac/j7</t>
+          <t>https://auto-shop-21.ru/hyundai/sonata</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>1799000</t>
+          <t>1370000</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jac/j7/</t>
+          <t>https://avto-trend21.ru/auto/hyundai/sonata/</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>1277400</v>
+        <v>1370000</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jac/j7</t>
-        </is>
-      </c>
-      <c r="J89" t="n">
-        <v>2099000</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_8435.html</t>
+          <t>https://auto-shop-21.ru/hyundai/sonata</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>JS3</t>
+          <t>Tucson New</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1849000</v>
+        <v>1394000</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16614.html</t>
-        </is>
-      </c>
-      <c r="J90" t="n">
-        <v>1849000</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_16614.html</t>
+          <t>https://avto-trend21.ru/auto/hyundai/tucson/</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1394000</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/hyundai/tucson/</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1649400</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/hyundai/tucson</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4218,30 +4204,48 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>JS6</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>2399000</v>
+        <v>1277400</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_13473.html</t>
+          <t>https://auto-shop-21.ru/jac/j7</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1799000</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/jac/j7/</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1277400</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/jac/j7</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>2399000</v>
+        <v>2099000</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_13473.html</t>
+          <t>https://alyans-auto.ru/auto/auto_15496.html</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4251,40 +4255,30 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>JS3</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>439000</v>
+        <v>1849000</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jac/s3/</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>439000</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/jac/s3/</t>
-        </is>
-      </c>
-      <c r="H92" t="n">
-        <v>839400</v>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/jac/s3</t>
+          <t>https://alyans-auto.ru/auto/auto_16614.html</t>
+        </is>
+      </c>
+      <c r="J92" t="n">
+        <v>1849000</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_16614.html</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4294,40 +4288,30 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>JS6</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>683400</v>
+        <v>2399000</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jac/s5</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>687000</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/jac/s5/</t>
-        </is>
-      </c>
-      <c r="H93" t="n">
-        <v>683400</v>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/jac/s5</t>
+          <t>https://alyans-auto.ru/auto/auto_13473.html</t>
+        </is>
+      </c>
+      <c r="J93" t="n">
+        <v>2399000</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_13473.html</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -4337,40 +4321,40 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1067400</v>
+        <v>439000</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jac/s7</t>
+          <t>https://auto-shop-21.ru/jac/s3</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>1209000</t>
+          <t>439000</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jac/s7/</t>
+          <t>https://avto-trend21.ru/auto/jac/s3/</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>1067400</v>
+        <v>439000</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jac/s7</t>
+          <t>https://auto-shop-21.ru/jac/s3</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -4380,709 +4364,699 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>T8 Pro</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>3199000</v>
+        <v>683400</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_18037.html</t>
-        </is>
-      </c>
-      <c r="J95" t="n">
-        <v>3199000</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_18037.html</t>
+          <t>https://auto-shop-21.ru/jac/s5</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>687000</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/jac/s5/</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>683400</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/jac/s5</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>2429900</v>
+        <v>1067400</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17868.html</t>
-        </is>
-      </c>
-      <c r="J96" t="n">
-        <v>2429900</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_17868.html</t>
+          <t>https://auto-shop-21.ru/jac/s7</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1209000</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/jac/s7/</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1067400</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/jac/s7</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>J8</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>3849000</v>
+        <v>2665500</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17622.html</t>
+          <t>https://alyans-auto.ru/auto/auto_8942.html</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>3849000</v>
+        <v>2665500</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17622.html</t>
+          <t>https://alyans-auto.ru/auto/auto_8942.html</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Dashing</t>
+          <t>T8 Pro</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1399900</v>
+        <v>3199000</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/dashing/</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>1399900</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/jetour/dashing/</t>
+          <t>https://alyans-auto.ru/auto/auto_18037.html</t>
+        </is>
+      </c>
+      <c r="J98" t="n">
+        <v>3199000</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_18037.html</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>682</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T9</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>2631300</v>
+        <v>3399000</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/t2/</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>2631300</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/jetour/t2/</t>
+          <t>https://alyans-auto.ru/auto/auto_18643.html</t>
+        </is>
+      </c>
+      <c r="J99" t="n">
+        <v>3399000</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_18643.html</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>X70 Plus</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1809900</v>
+        <v>2889900</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/x70_plus/</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>1809900</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/jetour/x70_plus/</t>
+          <t>https://alyans-auto.ru/auto/auto_18075.html</t>
+        </is>
+      </c>
+      <c r="J100" t="n">
+        <v>2889900</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_18075.html</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>X90 Plus</t>
+          <t>J8</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>2149900</v>
+        <v>4099000</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/x90_plus/</t>
+          <t>https://avto-trend21.ru/auto/jaecoo/j8/</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2149900</t>
+          <t>4099000</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/x90_plus/</t>
+          <t>https://avto-trend21.ru/auto/jaecoo/j8/</t>
+        </is>
+      </c>
+      <c r="J101" t="n">
+        <v>4899000</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_17485.html</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>VA3</t>
+          <t>Dashing</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>890000</v>
+        <v>1399900</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/va3/</t>
+          <t>https://avto-trend21.ru/auto/jetour/dashing/</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>890000</t>
+          <t>1399900</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/va3/</t>
-        </is>
-      </c>
-      <c r="H102" t="n">
-        <v>1232400</v>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/jetta/va3</t>
+          <t>https://avto-trend21.ru/auto/jetour/dashing/</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>VS5</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1190000</v>
+        <v>2631300</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/vs5/</t>
+          <t>https://avto-trend21.ru/auto/jetour/t2/</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>1190000</t>
+          <t>2631300</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/vs5/</t>
-        </is>
-      </c>
-      <c r="H103" t="n">
-        <v>1477200</v>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/jetta/vs5</t>
+          <t>https://avto-trend21.ru/auto/jetour/t2/</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>VS7</t>
+          <t>X70 Plus</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>1349000</v>
+        <v>1809900</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/vs7/</t>
+          <t>https://avto-trend21.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>1349000</t>
+          <t>1809900</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/vs7/</t>
-        </is>
-      </c>
-      <c r="H104" t="n">
-        <v>1759800</v>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/jetta/vs7</t>
+          <t>https://avto-trend21.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>X90 Plus</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1299000</v>
+        <v>2149900</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kaiyi/e5/</t>
+          <t>https://avto-trend21.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>1299000</t>
+          <t>2149900</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kaiyi/e5/</t>
-        </is>
-      </c>
-      <c r="H105" t="n">
-        <v>1317000</v>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/kaiyi/e5</t>
+          <t>https://avto-trend21.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>X3</t>
+          <t>VA3</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1342800</v>
+        <v>890000</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x3</t>
+          <t>https://auto-shop-21.ru/jetta/va3</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>1417650</t>
+          <t>890000</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kaiyi/x3/</t>
+          <t>https://avto-trend21.ru/auto/jetta/va3/</t>
         </is>
       </c>
       <c r="H106" t="n">
-        <v>1342800</v>
+        <v>890000</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x3</t>
+          <t>https://auto-shop-21.ru/jetta/va3</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>VS5</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1508940</v>
+        <v>1190000</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x3_pro</t>
+          <t>https://auto-shop-21.ru/jetta/vs5</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>1790000</t>
+          <t>1190000</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://avto-trend21.ru/auto/jetta/vs5/</t>
         </is>
       </c>
       <c r="H107" t="n">
-        <v>1508940</v>
+        <v>1190000</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x3_pro</t>
+          <t>https://auto-shop-21.ru/jetta/vs5</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>X7 Kunlun</t>
+          <t>VS7</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>1798740</v>
+        <v>1349000</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x7_kunlun</t>
+          <t>https://auto-shop-21.ru/jetta/vs7</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2197900</t>
+          <t>1349000</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://avto-trend21.ru/auto/jetta/vs7/</t>
         </is>
       </c>
       <c r="H108" t="n">
-        <v>1798740</v>
+        <v>1349000</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x7_kunlun</t>
+          <t>https://auto-shop-21.ru/jetta/vs7</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Ceed</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>713000</v>
+        <v>1299000</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/ceed/</t>
+          <t>https://auto-shop-21.ru/kaiyi/e5</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>713000</t>
+          <t>1299000</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/ceed/</t>
+          <t>https://avto-trend21.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
       <c r="H109" t="n">
-        <v>1346940</v>
+        <v>1299000</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/ceed</t>
+          <t>https://auto-shop-21.ru/kaiyi/e5</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Ceed SW</t>
+          <t>X3</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>723000</v>
+        <v>1342800</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/ceed_sw/</t>
+          <t>https://auto-shop-21.ru/kaiyi/x3</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>723000</t>
+          <t>1417650</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/ceed_sw/</t>
+          <t>https://avto-trend21.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
       <c r="H110" t="n">
-        <v>1388940</v>
+        <v>1342800</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/ceed_sw</t>
+          <t>https://auto-shop-21.ru/kaiyi/x3</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Cerato</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>850000</v>
+        <v>1508940</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/cerato/</t>
+          <t>https://auto-shop-21.ru/kaiyi/x3_pro</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>850000</t>
+          <t>1790000</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/cerato/</t>
+          <t>https://avto-trend21.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
       <c r="H111" t="n">
-        <v>1232940</v>
+        <v>1508940</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/cerato</t>
+          <t>https://auto-shop-21.ru/kaiyi/x3_pro</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>X7 Kunlun</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1149000</v>
+        <v>1798740</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/k5/</t>
+          <t>https://auto-shop-21.ru/kaiyi/x7_kunlun</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>1149000</t>
+          <t>2197900</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/k5/</t>
+          <t>https://avto-trend21.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
       <c r="H112" t="n">
-        <v>1640940</v>
+        <v>1798740</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/k5</t>
+          <t>https://auto-shop-21.ru/kaiyi/x7_kunlun</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -5092,40 +5066,40 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Picanto</t>
+          <t>Ceed</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>619900</v>
+        <v>713000</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/picanto/</t>
+          <t>https://auto-shop-21.ru/kia/ceed</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>619900</t>
+          <t>713000</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/picanto/</t>
+          <t>https://avto-trend21.ru/auto/kia/ceed/</t>
         </is>
       </c>
       <c r="H113" t="n">
-        <v>800940</v>
+        <v>713000</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/picanto</t>
+          <t>https://auto-shop-21.ru/kia/ceed</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -5135,40 +5109,40 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>ProCeed</t>
+          <t>Ceed SW</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>1121940</v>
+        <v>723000</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/proceed</t>
+          <t>https://auto-shop-21.ru/kia/ceed_sw</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>1134700</t>
+          <t>723000</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/proceed/</t>
+          <t>https://avto-trend21.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
       <c r="H114" t="n">
-        <v>1121940</v>
+        <v>723000</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/proceed</t>
+          <t>https://auto-shop-21.ru/kia/ceed_sw</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -5178,40 +5152,40 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Rio</t>
+          <t>Cerato</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>564000</v>
+        <v>850000</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio/</t>
+          <t>https://auto-shop-21.ru/kia/cerato</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>564000</t>
+          <t>850000</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio/</t>
+          <t>https://avto-trend21.ru/auto/kia/cerato/</t>
         </is>
       </c>
       <c r="H115" t="n">
-        <v>860940</v>
+        <v>850000</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/rio</t>
+          <t>https://auto-shop-21.ru/kia/cerato</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -5221,40 +5195,40 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Rio X</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>650000</v>
+        <v>1149000</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio_x/</t>
+          <t>https://auto-shop-21.ru/kia/k5</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>650000</t>
+          <t>1149000</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio_x/</t>
+          <t>https://avto-trend21.ru/auto/kia/k5/</t>
         </is>
       </c>
       <c r="H116" t="n">
-        <v>944940</v>
+        <v>1149000</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/rio_x</t>
+          <t>https://auto-shop-21.ru/kia/k5</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -5264,40 +5238,40 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Rio X-Line</t>
+          <t>Picanto</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>557000</v>
+        <v>619900</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio_x-line/</t>
+          <t>https://auto-shop-21.ru/kia/picanto</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>557000</t>
+          <t>619900</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio_x-line/</t>
+          <t>https://avto-trend21.ru/auto/kia/picanto/</t>
         </is>
       </c>
       <c r="H117" t="n">
-        <v>563940</v>
+        <v>619900</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/rio_x-line</t>
+          <t>https://auto-shop-21.ru/kia/picanto</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -5307,40 +5281,40 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Seltos</t>
+          <t>ProCeed</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>790000</v>
+        <v>1121940</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/seltos/</t>
+          <t>https://auto-shop-21.ru/kia/proceed</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>790000</t>
+          <t>1134700</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/seltos/</t>
+          <t>https://avto-trend21.ru/auto/kia/proceed/</t>
         </is>
       </c>
       <c r="H118" t="n">
-        <v>1175940</v>
+        <v>1121940</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/seltos</t>
+          <t>https://auto-shop-21.ru/kia/proceed</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -5350,40 +5324,40 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Soul</t>
+          <t>Rio</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>638000</v>
+        <v>564000</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/soul/</t>
+          <t>https://auto-shop-21.ru/kia/rio</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>638000</t>
+          <t>564000</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/soul/</t>
+          <t>https://avto-trend21.ru/auto/kia/rio/</t>
         </is>
       </c>
       <c r="H119" t="n">
-        <v>1097940</v>
+        <v>564000</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/soul</t>
+          <t>https://auto-shop-21.ru/kia/rio</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -5393,40 +5367,40 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Sportage 5</t>
+          <t>Rio X</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1046000</v>
+        <v>650000</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/sportage/</t>
+          <t>https://auto-shop-21.ru/kia/rio_x</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>1046000</t>
+          <t>650000</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/sportage/</t>
+          <t>https://avto-trend21.ru/auto/kia/rio_x/</t>
         </is>
       </c>
       <c r="H120" t="n">
-        <v>1709940</v>
+        <v>650000</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/sportage</t>
+          <t>https://auto-shop-21.ru/kia/rio_x</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -5436,235 +5410,245 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>XCeed</t>
+          <t>Rio X-Line</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>964900</v>
+        <v>557000</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/xceed/</t>
+          <t>https://auto-shop-21.ru/kia/rio_x-line</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>964900</t>
+          <t>557000</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/xceed/</t>
+          <t>https://avto-trend21.ru/auto/kia/rio_x-line/</t>
         </is>
       </c>
       <c r="H121" t="n">
-        <v>1580940</v>
+        <v>557000</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/xceed</t>
+          <t>https://auto-shop-21.ru/kia/rio_x-line</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>775</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Knewstar</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>001</t>
+          <t>Seltos</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>4115990</v>
+        <v>790000</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17364.html</t>
-        </is>
-      </c>
-      <c r="J122" t="n">
-        <v>4115990</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_17364.html</t>
+          <t>https://auto-shop-21.ru/kia/seltos</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>790000</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/kia/seltos/</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>790000</v>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/kia/seltos</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>701</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>4x4 3 двери</t>
+          <t>Soul</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>1015500</v>
+        <v>638000</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16878.html</t>
-        </is>
-      </c>
-      <c r="J123" t="n">
-        <v>1015500</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_16878.html</t>
+          <t>https://auto-shop-21.ru/kia/soul</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>638000</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/kia/soul/</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>638000</v>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/kia/soul</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Granta Cross</t>
+          <t>Sportage 5</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>426900</v>
+        <v>1046000</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_cross/</t>
+          <t>https://avto-trend21.ru/auto/kia/sportage/</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>426900</t>
+          <t>1046000</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_cross/</t>
+          <t>https://avto-trend21.ru/auto/kia/sportage/</t>
         </is>
       </c>
       <c r="H124" t="n">
-        <v>567540</v>
+        <v>1709940</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/granta_cross</t>
+          <t>https://auto-shop-21.ru/kia/sportage</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Granta Hatchback</t>
+          <t>XCeed</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>378810</v>
+        <v>964900</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_hatchback/</t>
+          <t>https://auto-shop-21.ru/kia/xceed</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>378810</t>
+          <t>964900</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_hatchback/</t>
+          <t>https://avto-trend21.ru/auto/kia/xceed/</t>
         </is>
       </c>
       <c r="H125" t="n">
-        <v>467100</v>
+        <v>964900</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/granta_hatchback</t>
+          <t>https://auto-shop-21.ru/kia/xceed</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>775</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Knewstar</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>001</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>375610</v>
+        <v>4115990</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_liftback/</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>375610</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_liftback/</t>
-        </is>
-      </c>
-      <c r="H126" t="n">
-        <v>443940</v>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/lada/granta_liftback</t>
+          <t>https://alyans-auto.ru/auto/auto_17481.html</t>
+        </is>
+      </c>
+      <c r="J126" t="n">
+        <v>4115990</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_17481.html</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>701</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -5674,48 +5658,30 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>4x4 3 двери</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>358510</v>
+        <v>1019000</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_sedan/</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>358510</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_sedan/</t>
-        </is>
-      </c>
-      <c r="H127" t="n">
-        <v>419940</v>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/lada/granta_sedan</t>
+          <t>https://alyans-auto.ru/auto/auto_17133.html</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>931000</v>
+        <v>1019000</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17398.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17133.html</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -5725,40 +5691,40 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Granta Sedan Drive Active</t>
+          <t>Granta Cross</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>419000</v>
+        <v>426900</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_drive_active/</t>
+          <t>https://auto-shop-21.ru/lada/granta_cross</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>419000</t>
+          <t>426900</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_drive_active/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
       <c r="H128" t="n">
-        <v>620940</v>
+        <v>426900</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/granta_drive_active</t>
+          <t>https://auto-shop-21.ru/lada/granta_cross</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -5768,40 +5734,40 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Granta Universal</t>
+          <t>Granta Hatchback</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>376800</v>
+        <v>378810</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_universal/</t>
+          <t>https://auto-shop-21.ru/lada/granta_hatchback</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>376800</t>
+          <t>378810</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_universal/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
       <c r="H129" t="n">
-        <v>431580</v>
+        <v>378810</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/granta_universal</t>
+          <t>https://auto-shop-21.ru/lada/granta_hatchback</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -5811,30 +5777,40 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Largus</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1656500</v>
+        <v>375610</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17527.html</t>
-        </is>
-      </c>
-      <c r="J130" t="n">
-        <v>1656500</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_17527.html</t>
+          <t>https://auto-shop-21.ru/lada/granta_liftback</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>375610</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/lada/granta_liftback/</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>375610</v>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/lada/granta_liftback</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -5844,40 +5820,48 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Largus Cross New</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>629000</v>
+        <v>358510</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/largus_cross/</t>
+          <t>https://auto-shop-21.ru/lada/granta_sedan</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>629000</t>
+          <t>358510</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/largus_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
       <c r="H131" t="n">
-        <v>866340</v>
+        <v>358510</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/largus_cross</t>
+          <t>https://auto-shop-21.ru/lada/granta_sedan</t>
+        </is>
+      </c>
+      <c r="J131" t="n">
+        <v>926000</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_18591.html</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -5887,40 +5871,40 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Largus New</t>
+          <t>Granta Sedan Drive Active</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>501000</v>
+        <v>419000</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/largus/</t>
+          <t>https://auto-shop-21.ru/lada/granta_drive_active</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>501000</t>
+          <t>419000</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/largus/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
       <c r="H132" t="n">
-        <v>780540</v>
+        <v>419000</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/largus</t>
+          <t>https://auto-shop-21.ru/lada/granta_drive_active</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -5930,40 +5914,40 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Largus Фургон New</t>
+          <t>Granta Universal</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>541610</v>
+        <v>376800</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/largus_furgon/</t>
+          <t>https://auto-shop-21.ru/lada/granta_universal</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>541610</t>
+          <t>376800</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/largus_furgon/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
       <c r="H133" t="n">
-        <v>781140</v>
+        <v>376800</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/largus_furgon</t>
+          <t>https://auto-shop-21.ru/lada/granta_universal</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -5973,40 +5957,30 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Niva</t>
+          <t>Largus</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>582200</v>
+        <v>1670000</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/niva/</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>582200</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/lada/niva/</t>
+          <t>https://alyans-auto.ru/auto/auto_16658.html</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>1310500</v>
+        <v>1670000</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_14903.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16658.html</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -6016,32 +5990,40 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Largus Cross New</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>451710</v>
+        <v>629000</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://avto-trend21.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>451710</t>
+          <t>629000</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://avto-trend21.ru/auto/lada/largus_cross/</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>866340</v>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/lada/largus_cross</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -6051,32 +6033,40 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Niva Legend 5 дверей</t>
+          <t>Largus New</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>490410</v>
+        <v>501000</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://avto-trend21.ru/auto/lada/largus/</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>490410</t>
+          <t>501000</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://avto-trend21.ru/auto/lada/largus/</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>1300900</v>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/lada/largus</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -6086,40 +6076,40 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Largus Фургон New</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>549000</v>
+        <v>541610</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/niva_travel/</t>
+          <t>https://avto-trend21.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>549000</t>
+          <t>541610</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/niva_travel/</t>
+          <t>https://avto-trend21.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
       <c r="H137" t="n">
-        <v>719340</v>
+        <v>781140</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/niva_travel</t>
+          <t>https://auto-shop-21.ru/lada/largus_furgon</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -6129,40 +6119,40 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>Niva</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>569000</v>
+        <v>582200</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/niva/</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>569000</t>
+          <t>582200</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cross_1/</t>
-        </is>
-      </c>
-      <c r="H138" t="n">
-        <v>761940</v>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/lada/vesta_cross_1</t>
+          <t>https://avto-trend21.ru/auto/lada/niva/</t>
+        </is>
+      </c>
+      <c r="J138" t="n">
+        <v>1310500</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_14903.html</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -6172,40 +6162,32 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Vesta Cross New</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>619000</v>
+        <v>451710</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>619000</t>
+          <t>451710</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cross/</t>
-        </is>
-      </c>
-      <c r="H139" t="n">
-        <v>1040340</v>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/lada/vesta_cross</t>
+          <t>https://avto-trend21.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -6215,40 +6197,32 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>Niva Legend 5 дверей</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>559000</v>
+        <v>490410</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>559000</t>
+          <t>490410</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_1/</t>
-        </is>
-      </c>
-      <c r="H140" t="n">
-        <v>728340</v>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/lada/vesta_sw_1</t>
+          <t>https://avto-trend21.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -6258,40 +6232,40 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>619000</v>
+        <v>549000</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://auto-shop-21.ru/lada/niva_travel</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>619000</t>
+          <t>549000</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
       <c r="H141" t="n">
-        <v>797340</v>
+        <v>549000</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_sw_cross_1</t>
+          <t>https://auto-shop-21.ru/lada/niva_travel</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -6301,40 +6275,40 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Vesta SW Cross New</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>669000</v>
+        <v>569000</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>669000</t>
+          <t>569000</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
       <c r="H142" t="n">
-        <v>907140</v>
+        <v>619000</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_sw_cross</t>
+          <t>https://auto-shop-21.ru/lada/vesta_cross_1</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -6344,40 +6318,40 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Vesta SW New</t>
+          <t>Vesta Cross New</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>609000</v>
+        <v>569000</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw/</t>
+          <t>https://auto-shop-21.ru/lada/vesta_cross</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>609000</t>
+          <t>619000</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="H143" t="n">
-        <v>797940</v>
+        <v>569000</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_sw</t>
+          <t>https://auto-shop-21.ru/lada/vesta_cross</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -6387,48 +6361,40 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>519000</v>
+        <v>559000</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>519000</t>
+          <t>559000</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
       <c r="H144" t="n">
-        <v>673140</v>
+        <v>609000</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_1</t>
-        </is>
-      </c>
-      <c r="J144" t="n">
-        <v>1571500</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_18373.html</t>
+          <t>https://auto-shop-21.ru/lada/vesta_sw_1</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -6438,40 +6404,40 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Vesta Sedan CNG</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>639900</v>
+        <v>619000</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cng/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>639900</t>
+          <t>619000</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cng/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
       <c r="H145" t="n">
-        <v>790140</v>
+        <v>669000</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_cng</t>
+          <t>https://auto-shop-21.ru/lada/vesta_sw_cross_1</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -6481,40 +6447,40 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Vesta Sedan New</t>
+          <t>Vesta SW Cross New</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>569000</v>
+        <v>619000</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta/</t>
+          <t>https://auto-shop-21.ru/lada/vesta_sw_cross</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>569000</t>
+          <t>669000</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="H146" t="n">
-        <v>743940</v>
+        <v>619000</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta</t>
+          <t>https://auto-shop-21.ru/lada/vesta_sw_cross</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>444</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -6524,40 +6490,40 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Vesta Sport</t>
+          <t>Vesta SW New</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>839000</v>
+        <v>559000</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sport/</t>
+          <t>https://auto-shop-21.ru/lada/vesta_sw</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>839000</t>
+          <t>609000</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sport/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="H147" t="n">
-        <v>958740</v>
+        <v>559000</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_sport</t>
+          <t>https://auto-shop-21.ru/lada/vesta_sw</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -6567,40 +6533,48 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Xray</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>499000</v>
+        <v>519000</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/xray/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>499000</t>
+          <t>519000</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/xray/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
       <c r="H148" t="n">
-        <v>664140</v>
+        <v>569000</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/xray</t>
+          <t>https://auto-shop-21.ru/lada/vesta_1</t>
+        </is>
+      </c>
+      <c r="J148" t="n">
+        <v>1571500</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_18373.html</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -6610,40 +6584,40 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Xray Cross</t>
+          <t>Vesta Sedan CNG</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>591900</v>
+        <v>639900</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/xray_cross/</t>
+          <t>https://auto-shop-21.ru/lada/vesta_cng</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>591900</t>
+          <t>639900</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/xray_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
       <c r="H149" t="n">
-        <v>749940</v>
+        <v>639900</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/xray_cross</t>
+          <t>https://auto-shop-21.ru/lada/vesta_cng</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>784</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -6653,30 +6627,40 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>ВИС 2346</t>
+          <t>Vesta Sedan New</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>1466000</v>
+        <v>519000</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_18062.html</t>
-        </is>
-      </c>
-      <c r="J150" t="n">
-        <v>1466000</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_18062.html</t>
+          <t>https://auto-shop-21.ru/lada/vesta</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>569000</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/lada/vesta/</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>519000</v>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/lada/vesta</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -6686,202 +6670,192 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>ВИС 2349 Фургон</t>
+          <t>Vesta Sport</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1364100</v>
+        <v>839000</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_14192.html</t>
-        </is>
-      </c>
-      <c r="J151" t="n">
-        <v>1364100</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_14192.html</t>
+          <t>https://auto-shop-21.ru/lada/vesta_sport</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>839000</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sport/</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>839000</v>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/lada/vesta_sport</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Murman</t>
+          <t>Xray</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>430000</v>
+        <v>499000</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/murman/</t>
+          <t>https://auto-shop-21.ru/lada/xray</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>430000</t>
+          <t>499000</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/murman/</t>
+          <t>https://avto-trend21.ru/auto/lada/xray/</t>
         </is>
       </c>
       <c r="H152" t="n">
-        <v>611940</v>
+        <v>499000</v>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/murman</t>
+          <t>https://auto-shop-21.ru/lada/xray</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>MyWay</t>
+          <t>Xray Cross</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>539940</v>
+        <v>591900</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/myway</t>
+          <t>https://auto-shop-21.ru/lada/xray_cross</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>685000</t>
+          <t>591900</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/myway/</t>
+          <t>https://avto-trend21.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
       <c r="H153" t="n">
-        <v>539940</v>
+        <v>591900</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/myway</t>
+          <t>https://auto-shop-21.ru/lada/xray_cross</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>784</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Solano 2</t>
+          <t>ВИС 2346</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>425940</v>
+        <v>1466000</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/solano_ii</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>439900</t>
-        </is>
-      </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/lifan/solano_ii/</t>
-        </is>
-      </c>
-      <c r="H154" t="n">
-        <v>425940</v>
-      </c>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/lifan/solano_ii</t>
+          <t>https://alyans-auto.ru/auto/auto_18062.html</t>
+        </is>
+      </c>
+      <c r="J154" t="n">
+        <v>1466000</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_18062.html</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>700</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>X50</t>
+          <t>ВИС 2349 Фургон</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>368000</v>
+        <v>1364100</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/x50/</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>368000</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/lifan/x50/</t>
-        </is>
-      </c>
-      <c r="H155" t="n">
-        <v>413940</v>
-      </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/lifan/x50</t>
+          <t>https://alyans-auto.ru/auto/auto_14192.html</t>
+        </is>
+      </c>
+      <c r="J155" t="n">
+        <v>1364100</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_14192.html</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -6891,40 +6865,40 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>X60</t>
+          <t>Murman</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>461940</v>
+        <v>430000</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/x60</t>
+          <t>https://auto-shop-21.ru/lifan/murman</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>479900</t>
+          <t>430000</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/x60/</t>
+          <t>https://avto-trend21.ru/auto/lifan/murman/</t>
         </is>
       </c>
       <c r="H156" t="n">
-        <v>461940</v>
+        <v>430000</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/x60</t>
+          <t>https://auto-shop-21.ru/lifan/murman</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -6934,787 +6908,787 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>MyWay</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>593400</v>
+        <v>539940</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/x70</t>
+          <t>https://auto-shop-21.ru/lifan/myway</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>737000</t>
+          <t>685000</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/x70/</t>
+          <t>https://avto-trend21.ru/auto/lifan/myway/</t>
         </is>
       </c>
       <c r="H157" t="n">
-        <v>593400</v>
+        <v>539940</v>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/x70</t>
+          <t>https://auto-shop-21.ru/lifan/myway</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>Solano 2</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1529940</v>
+        <v>425940</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/livan/s6pro</t>
+          <t>https://auto-shop-21.ru/lifan/solano_ii</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>1749900</t>
+          <t>439900</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/livan/s6pro/</t>
+          <t>https://avto-trend21.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
       <c r="H158" t="n">
-        <v>1529940</v>
+        <v>425940</v>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/livan/s6pro</t>
+          <t>https://auto-shop-21.ru/lifan/solano_ii</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>X50</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>1127940</v>
+        <v>368000</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/livan/x3pro</t>
+          <t>https://auto-shop-21.ru/lifan/x50</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>1279900</t>
+          <t>368000</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/livan/x3pro/</t>
+          <t>https://avto-trend21.ru/auto/lifan/x50/</t>
         </is>
       </c>
       <c r="H159" t="n">
-        <v>1127940</v>
+        <v>368000</v>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/livan/x3pro</t>
+          <t>https://auto-shop-21.ru/lifan/x50</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>X6 Pro</t>
+          <t>X60</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>1577940</v>
+        <v>461940</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/livan/x6pro</t>
+          <t>https://auto-shop-21.ru/lifan/x60</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>1829900</t>
+          <t>479900</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/livan/x6pro/</t>
+          <t>https://avto-trend21.ru/auto/lifan/x60/</t>
         </is>
       </c>
       <c r="H160" t="n">
-        <v>1577940</v>
+        <v>461940</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/livan/x6pro</t>
+          <t>https://auto-shop-21.ru/lifan/x60</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>960000</v>
+        <v>593400</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/moskvich/3/</t>
+          <t>https://auto-shop-21.ru/lifan/x70</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>960000</t>
+          <t>737000</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/moskvich/3/</t>
+          <t>https://avto-trend21.ru/auto/lifan/x70/</t>
         </is>
       </c>
       <c r="H161" t="n">
-        <v>1332000</v>
+        <v>593400</v>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/moskvich/3</t>
+          <t>https://auto-shop-21.ru/lifan/x70</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>3e</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>2370000</v>
+        <v>1529940</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/moskvich/3e</t>
+          <t>https://auto-shop-21.ru/livan/s6pro</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>3147000</t>
+          <t>1749900</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/moskvich/3e/</t>
+          <t>https://avto-trend21.ru/auto/livan/s6pro/</t>
         </is>
       </c>
       <c r="H162" t="n">
-        <v>2370000</v>
+        <v>1529940</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/moskvich/3e</t>
+          <t>https://auto-shop-21.ru/livan/s6pro</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Qashqai</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>790000</v>
+        <v>1127940</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/qashqai/</t>
+          <t>https://auto-shop-21.ru/livan/x3pro</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>790000</t>
+          <t>1279900</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/qashqai/</t>
+          <t>https://avto-trend21.ru/auto/livan/x3pro/</t>
         </is>
       </c>
       <c r="H163" t="n">
-        <v>1402200</v>
+        <v>1127940</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/nissan/qashqai</t>
+          <t>https://auto-shop-21.ru/livan/x3pro</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Terrano</t>
+          <t>X6 Pro</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>619000</v>
+        <v>1577940</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/terrano/</t>
+          <t>https://auto-shop-21.ru/livan/x6pro</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>619000</t>
+          <t>1829900</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/terrano/</t>
+          <t>https://avto-trend21.ru/auto/livan/x6pro/</t>
         </is>
       </c>
       <c r="H164" t="n">
-        <v>1014000</v>
+        <v>1577940</v>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/nissan/terrano</t>
+          <t>https://auto-shop-21.ru/livan/x6pro</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>X-trail</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>855000</v>
+        <v>960000</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/x-trail/</t>
+          <t>https://auto-shop-21.ru/moskvich/3</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>855000</t>
+          <t>960000</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/x-trail/</t>
+          <t>https://avto-trend21.ru/auto/moskvich/3/</t>
         </is>
       </c>
       <c r="H165" t="n">
-        <v>1657200</v>
+        <v>960000</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/nissan/x-trail</t>
+          <t>https://auto-shop-21.ru/moskvich/3</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>3e</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>1607940</v>
+        <v>2370000</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/omoda/c5</t>
+          <t>https://auto-shop-21.ru/moskvich/3e</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>1999900</t>
+          <t>3147000</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/omoda/c5/</t>
+          <t>https://avto-trend21.ru/auto/moskvich/3e/</t>
         </is>
       </c>
       <c r="H166" t="n">
-        <v>1607940</v>
+        <v>2370000</v>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/omoda/c5</t>
-        </is>
-      </c>
-      <c r="J166" t="n">
-        <v>1999900</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_17979.html</t>
+          <t>https://auto-shop-21.ru/moskvich/3e</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>Qashqai</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>1349940</v>
+        <v>790000</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/omoda/s5</t>
+          <t>https://auto-shop-21.ru/nissan/qashqai</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>1689900</t>
+          <t>790000</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/omoda/s5/</t>
+          <t>https://avto-trend21.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
       <c r="H167" t="n">
-        <v>1349940</v>
+        <v>790000</v>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/omoda/s5</t>
-        </is>
-      </c>
-      <c r="J167" t="n">
-        <v>1729000</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_16128.html</t>
+          <t>https://auto-shop-21.ru/nissan/qashqai</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Nexia R3</t>
+          <t>Terrano</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>339000</v>
+        <v>619000</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/nexia_r3/</t>
+          <t>https://auto-shop-21.ru/nissan/terrano</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>339000</t>
+          <t>619000</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/nexia_r3/</t>
+          <t>https://avto-trend21.ru/auto/nissan/terrano/</t>
         </is>
       </c>
       <c r="H168" t="n">
-        <v>495000</v>
+        <v>619000</v>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/ravon/nexia_r3</t>
+          <t>https://auto-shop-21.ru/nissan/terrano</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>X-trail</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>339000</v>
+        <v>855000</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/r2/</t>
+          <t>https://auto-shop-21.ru/nissan/x-trail</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>339000</t>
+          <t>855000</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/r2/</t>
+          <t>https://avto-trend21.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
       <c r="H169" t="n">
-        <v>529800</v>
+        <v>855000</v>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/ravon/r2</t>
+          <t>https://auto-shop-21.ru/nissan/x-trail</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>389000</v>
+        <v>1607940</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/r4/</t>
+          <t>https://auto-shop-21.ru/omoda/c5</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>389000</t>
+          <t>1999900</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/r4/</t>
+          <t>https://avto-trend21.ru/auto/omoda/c5/</t>
         </is>
       </c>
       <c r="H170" t="n">
-        <v>510600</v>
+        <v>1607940</v>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/ravon/r4</t>
+          <t>https://auto-shop-21.ru/omoda/c5</t>
+        </is>
+      </c>
+      <c r="J170" t="n">
+        <v>2169900</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_18504.html</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>690000</v>
+        <v>1349940</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/arkana/</t>
+          <t>https://auto-shop-21.ru/omoda/s5</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>690000</t>
+          <t>1689900</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/arkana/</t>
+          <t>https://avto-trend21.ru/auto/omoda/s5/</t>
         </is>
       </c>
       <c r="H171" t="n">
-        <v>1124400</v>
+        <v>1349940</v>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/arkana</t>
+          <t>https://auto-shop-21.ru/omoda/s5</t>
+        </is>
+      </c>
+      <c r="J171" t="n">
+        <v>2079000</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_16128.html</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Duster New</t>
+          <t>Nexia R3</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>650000</v>
+        <v>339000</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/duster/</t>
+          <t>https://auto-shop-21.ru/ravon/nexia_r3</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>650000</t>
+          <t>339000</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/duster/</t>
+          <t>https://avto-trend21.ru/auto/ravon/nexia_r3/</t>
         </is>
       </c>
       <c r="H172" t="n">
-        <v>970800</v>
+        <v>339000</v>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/duster</t>
+          <t>https://auto-shop-21.ru/ravon/nexia_r3</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>659000</v>
+        <v>339000</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/kaptur/</t>
+          <t>https://auto-shop-21.ru/ravon/r2</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>659000</t>
+          <t>339000</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/kaptur/</t>
+          <t>https://avto-trend21.ru/auto/ravon/r2/</t>
         </is>
       </c>
       <c r="H173" t="n">
-        <v>1034400</v>
+        <v>339000</v>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/kaptur</t>
+          <t>https://auto-shop-21.ru/ravon/r2</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Koleos</t>
+          <t>R4</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>1019400</v>
+        <v>389000</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/koleos</t>
+          <t>https://auto-shop-21.ru/ravon/r4</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>1553000</t>
+          <t>389000</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/koleos/</t>
+          <t>https://avto-trend21.ru/auto/ravon/r4/</t>
         </is>
       </c>
       <c r="H174" t="n">
-        <v>1019400</v>
+        <v>389000</v>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/koleos</t>
+          <t>https://auto-shop-21.ru/ravon/r4</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -7724,40 +7698,40 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>490000</v>
+        <v>690000</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/logan/</t>
+          <t>https://auto-shop-21.ru/renault/arkana</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>490000</t>
+          <t>690000</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/logan/</t>
+          <t>https://avto-trend21.ru/auto/renault/arkana/</t>
         </is>
       </c>
       <c r="H175" t="n">
-        <v>674400</v>
+        <v>690000</v>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/logan</t>
+          <t>https://auto-shop-21.ru/renault/arkana</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -7767,40 +7741,40 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>Duster New</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>530000</v>
+        <v>650000</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/logan_stepway/</t>
+          <t>https://avto-trend21.ru/auto/renault/duster/</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>530000</t>
+          <t>650000</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/logan_stepway/</t>
+          <t>https://avto-trend21.ru/auto/renault/duster/</t>
         </is>
       </c>
       <c r="H176" t="n">
-        <v>780600</v>
+        <v>970800</v>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/logan_stepway</t>
+          <t>https://auto-shop-21.ru/renault/duster</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -7810,40 +7784,40 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Logan Stepway City</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>715000</v>
+        <v>659000</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/logan_stepway_city/</t>
+          <t>https://auto-shop-21.ru/renault/kaptur</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>715000</t>
+          <t>659000</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/logan_stepway_city/</t>
+          <t>https://avto-trend21.ru/auto/renault/kaptur/</t>
         </is>
       </c>
       <c r="H177" t="n">
-        <v>792600</v>
+        <v>659000</v>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/logan_stepway_city</t>
+          <t>https://auto-shop-21.ru/renault/kaptur</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>552</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -7853,40 +7827,40 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>Koleos</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>520000</v>
+        <v>1019400</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/sandero/</t>
+          <t>https://auto-shop-21.ru/renault/koleos</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>520000</t>
+          <t>1553000</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/sandero/</t>
+          <t>https://avto-trend21.ru/auto/renault/koleos/</t>
         </is>
       </c>
       <c r="H178" t="n">
-        <v>754800</v>
+        <v>1019400</v>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/sandero</t>
+          <t>https://auto-shop-21.ru/renault/koleos</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -7896,40 +7870,40 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>550000</v>
+        <v>490000</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/sandero_stepway/</t>
+          <t>https://auto-shop-21.ru/renault/logan</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>550000</t>
+          <t>490000</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/sandero_stepway/</t>
+          <t>https://avto-trend21.ru/auto/renault/logan/</t>
         </is>
       </c>
       <c r="H179" t="n">
-        <v>823800</v>
+        <v>490000</v>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/sandero_stepway</t>
+          <t>https://auto-shop-21.ru/renault/logan</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -7939,212 +7913,212 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Stepway City</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>835800</v>
+        <v>530000</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/sandero_stepway_city</t>
+          <t>https://auto-shop-21.ru/renault/logan_stepway</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>1170000</t>
+          <t>530000</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/sandero_stepway_city/</t>
+          <t>https://avto-trend21.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="H180" t="n">
-        <v>835800</v>
+        <v>530000</v>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/sandero_stepway_city</t>
+          <t>https://auto-shop-21.ru/renault/logan_stepway</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>Logan Stepway City</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>740000</v>
+        <v>715000</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/karoq/</t>
+          <t>https://auto-shop-21.ru/renault/logan_stepway_city</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>740000</t>
+          <t>715000</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/karoq/</t>
+          <t>https://avto-trend21.ru/auto/renault/logan_stepway_city/</t>
         </is>
       </c>
       <c r="H181" t="n">
-        <v>1629600</v>
+        <v>715000</v>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/karoq</t>
+          <t>https://auto-shop-21.ru/renault/logan_stepway_city</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Kodiaq Hockey Edition</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>1421340</v>
+        <v>520000</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq_hockey_edition</t>
+          <t>https://auto-shop-21.ru/renault/sandero</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>1581000</t>
+          <t>520000</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq_hockey_edition/</t>
+          <t>https://avto-trend21.ru/auto/renault/sandero/</t>
         </is>
       </c>
       <c r="H182" t="n">
-        <v>1421340</v>
+        <v>520000</v>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq_hockey_edition</t>
+          <t>https://auto-shop-21.ru/renault/sandero</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Kodiaq Laurin &amp; Klement</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>3058000</v>
+        <v>550000</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq_laurin__klement/</t>
+          <t>https://auto-shop-21.ru/renault/sandero_stepway</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>3058000</t>
+          <t>550000</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq_laurin__klement/</t>
+          <t>https://avto-trend21.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
       <c r="H183" t="n">
-        <v>3483600</v>
+        <v>550000</v>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq_laurin__klement</t>
+          <t>https://auto-shop-21.ru/renault/sandero_stepway</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>567</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Kodiaq New</t>
+          <t>Stepway City</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>1659000</v>
+        <v>835800</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq/</t>
+          <t>https://auto-shop-21.ru/renault/sandero_stepway_city</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>1659000</t>
+          <t>1170000</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq/</t>
+          <t>https://avto-trend21.ru/auto/renault/sandero_stepway_city/</t>
         </is>
       </c>
       <c r="H184" t="n">
-        <v>2184000</v>
+        <v>835800</v>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq</t>
+          <t>https://auto-shop-21.ru/renault/sandero_stepway_city</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -8154,40 +8128,40 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Kodiaq Scout</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>2098800</v>
+        <v>740000</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq_scout</t>
+          <t>https://auto-shop-21.ru/skoda/karoq</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>3375000</t>
+          <t>740000</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq_scout/</t>
+          <t>https://avto-trend21.ru/auto/skoda/karoq/</t>
         </is>
       </c>
       <c r="H185" t="n">
-        <v>2098800</v>
+        <v>740000</v>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq_scout</t>
+          <t>https://auto-shop-21.ru/skoda/karoq</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>590</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -8197,40 +8171,40 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Kodiaq Sportline</t>
+          <t>Kodiaq Hockey Edition</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>2989000</v>
+        <v>1421340</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq_sportline/</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_hockey_edition</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2989000</t>
+          <t>1581000</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq_sportline/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq_hockey_edition/</t>
         </is>
       </c>
       <c r="H186" t="n">
-        <v>3226800</v>
+        <v>1421340</v>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq_sportline</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_hockey_edition</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>593</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -8240,40 +8214,40 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Octavia Hockey Edition</t>
+          <t>Kodiaq Laurin &amp; Klement</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>989000</v>
+        <v>3058000</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/octavia_hockey_edition/</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_laurin__klement</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>989000</t>
+          <t>3058000</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/octavia_hockey_edition/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq_laurin__klement/</t>
         </is>
       </c>
       <c r="H187" t="n">
-        <v>1694340</v>
+        <v>3058000</v>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/octavia_hockey_edition</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_laurin__klement</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>576</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -8283,40 +8257,40 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Octavia New</t>
+          <t>Kodiaq New</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>840000</v>
+        <v>1659000</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/octavia/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>840000</t>
+          <t>1659000</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/octavia/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
       <c r="H188" t="n">
-        <v>1567800</v>
+        <v>2184000</v>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/octavia</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>591</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -8326,40 +8300,40 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Rapid</t>
+          <t>Kodiaq Scout</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>520000</v>
+        <v>2098800</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/rapid/</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_scout</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>520000</t>
+          <t>3375000</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/rapid/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq_scout/</t>
         </is>
       </c>
       <c r="H189" t="n">
-        <v>961200</v>
+        <v>2098800</v>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/rapid</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_scout</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>592</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -8369,40 +8343,40 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Superb</t>
+          <t>Kodiaq Sportline</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>1222000</v>
+        <v>2989000</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/superb/</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_sportline</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>1222000</t>
+          <t>2989000</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/superb/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq_sportline/</t>
         </is>
       </c>
       <c r="H190" t="n">
-        <v>2031600</v>
+        <v>2989000</v>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/superb</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_sportline</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>589</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -8412,418 +8386,418 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Superb Combi</t>
+          <t>Octavia Hockey Edition</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>2089000</v>
+        <v>989000</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/superb_combi/</t>
+          <t>https://auto-shop-21.ru/skoda/octavia_hockey_edition</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>2089000</t>
+          <t>989000</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/superb_combi/</t>
+          <t>https://avto-trend21.ru/auto/skoda/octavia_hockey_edition/</t>
         </is>
       </c>
       <c r="H191" t="n">
-        <v>2290200</v>
+        <v>989000</v>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/superb_combi</t>
+          <t>https://auto-shop-21.ru/skoda/octavia_hockey_edition</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>Octavia New</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>1749300</v>
+        <v>840000</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/hc/</t>
+          <t>https://avto-trend21.ru/auto/skoda/octavia/</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>1749300</t>
+          <t>840000</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/hc/</t>
+          <t>https://avto-trend21.ru/auto/skoda/octavia/</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>1567800</v>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/skoda/octavia</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>1407000</v>
+        <v>520000</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/hs/</t>
+          <t>https://auto-shop-21.ru/skoda/rapid</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>1407000</t>
+          <t>520000</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/hs/</t>
+          <t>https://avto-trend21.ru/auto/skoda/rapid/</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>520000</v>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/skoda/rapid</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>KRS</t>
+          <t>Superb</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>1426600</v>
+        <v>1222000</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/krs/</t>
+          <t>https://auto-shop-21.ru/skoda/superb</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>1426600</t>
+          <t>1222000</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/krs/</t>
+          <t>https://avto-trend21.ru/auto/skoda/superb/</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>1222000</v>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/skoda/superb</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>KRX</t>
+          <t>Superb Combi</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>1444800</v>
+        <v>2089000</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/krx/</t>
+          <t>https://auto-shop-21.ru/skoda/superb_combi</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>1444800</t>
+          <t>2089000</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/krx/</t>
+          <t>https://avto-trend21.ru/auto/skoda/superb_combi/</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>2089000</v>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/skoda/superb_combi</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>2459400</v>
+        <v>1749300</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/tank/300</t>
-        </is>
-      </c>
-      <c r="H196" t="n">
-        <v>2459400</v>
-      </c>
-      <c r="I196" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/tank/300</t>
+          <t>https://avto-trend21.ru/auto/solaris/hc/</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>1749300</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/solaris/hc/</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>3779400</v>
+        <v>1407000</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/tank/500</t>
-        </is>
-      </c>
-      <c r="H197" t="n">
-        <v>3779400</v>
-      </c>
-      <c r="I197" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/tank/500</t>
+          <t>https://avto-trend21.ru/auto/solaris/hs/</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>1407000</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/solaris/hs/</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>KRS</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>975000</v>
+        <v>1426600</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/jetta/</t>
+          <t>https://avto-trend21.ru/auto/solaris/krs/</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>975000</t>
+          <t>1426600</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/jetta/</t>
-        </is>
-      </c>
-      <c r="H198" t="n">
-        <v>976200</v>
-      </c>
-      <c r="I198" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/volkswagen/jetta</t>
+          <t>https://avto-trend21.ru/auto/solaris/krs/</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Passat</t>
+          <t>KRX</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>1050000</v>
+        <v>1444800</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/passat/</t>
+          <t>https://avto-trend21.ru/auto/solaris/krx/</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>1050000</t>
+          <t>1444800</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/passat/</t>
-        </is>
-      </c>
-      <c r="H199" t="n">
-        <v>1593600</v>
-      </c>
-      <c r="I199" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/volkswagen/passat</t>
+          <t>https://avto-trend21.ru/auto/solaris/krx/</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>730900</v>
+        <v>2459400</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/polo/</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>730900</t>
-        </is>
-      </c>
-      <c r="G200" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/polo/</t>
+          <t>https://auto-shop-21.ru/tank/300</t>
         </is>
       </c>
       <c r="H200" t="n">
-        <v>972540</v>
+        <v>2459400</v>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/volkswagen/polo</t>
+          <t>https://auto-shop-21.ru/tank/300</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Taos</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>1399900</v>
+        <v>3779400</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/taos/</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>1399900</t>
-        </is>
-      </c>
-      <c r="G201" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/taos/</t>
+          <t>https://auto-shop-21.ru/tank/500</t>
         </is>
       </c>
       <c r="H201" t="n">
-        <v>1697340</v>
+        <v>3779400</v>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/volkswagen/taos</t>
+          <t>https://auto-shop-21.ru/tank/500</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -8833,183 +8807,355 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Tiguan New</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>1579900</v>
+        <v>975000</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/tiguan/</t>
+          <t>https://auto-shop-21.ru/volkswagen/jetta</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>1579900</t>
+          <t>975000</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/tiguan/</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
       <c r="H202" t="n">
-        <v>2025540</v>
+        <v>975000</v>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/volkswagen/tiguan</t>
+          <t>https://auto-shop-21.ru/volkswagen/jetta</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>649</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>XCite</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>X-Cross 7</t>
+          <t>Passat</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>2495500</v>
+        <v>1050000</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17597.html</t>
-        </is>
-      </c>
-      <c r="J203" t="n">
-        <v>2495500</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_17597.html</t>
+          <t>https://auto-shop-21.ru/volkswagen/passat</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>1050000</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/volkswagen/passat/</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>1050000</v>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/volkswagen/passat</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>787</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>XCite</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>X-Cross 8</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>2999000</v>
+        <v>730900</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_18333.html</t>
-        </is>
-      </c>
-      <c r="J204" t="n">
-        <v>2999000</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_18333.html</t>
+          <t>https://auto-shop-21.ru/volkswagen/polo</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>730900</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/volkswagen/polo/</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>730900</v>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/volkswagen/polo</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Zotye</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Coupa</t>
+          <t>Taos</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>713760</v>
+        <v>1399900</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/zotye/coupa</t>
+          <t>https://auto-shop-21.ru/volkswagen/taos</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>989600</t>
+          <t>1399900</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/zotye/coupa/</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
       <c r="H205" t="n">
-        <v>713760</v>
+        <v>1399900</v>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/zotye/coupa</t>
+          <t>https://auto-shop-21.ru/volkswagen/taos</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Tiguan New</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>1579900</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/volkswagen/tiguan/</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>1579900</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/volkswagen/tiguan/</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>2025540</v>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/volkswagen/tiguan</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>675</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>XCite</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>X-Cross 7</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>2495500</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_17597.html</t>
+        </is>
+      </c>
+      <c r="J207" t="n">
+        <v>2495500</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_17597.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>787</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>XCite</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>X-Cross 8</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>2999000</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_18333.html</t>
+        </is>
+      </c>
+      <c r="J208" t="n">
+        <v>2999000</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_18333.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>672</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Zotye</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Coupa</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>713760</v>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/zotye/coupa</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>989600</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>713760</v>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/zotye/coupa</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
           <t>674</t>
         </is>
       </c>
-      <c r="B206" t="inlineStr">
+      <c r="B210" t="inlineStr">
         <is>
           <t>Zotye</t>
         </is>
       </c>
-      <c r="C206" t="inlineStr">
+      <c r="C210" t="inlineStr">
         <is>
           <t>T600</t>
         </is>
       </c>
-      <c r="D206" t="n">
+      <c r="D210" t="n">
         <v>582960</v>
       </c>
-      <c r="E206" t="inlineStr">
+      <c r="E210" t="inlineStr">
         <is>
           <t>https://auto-shop-21.ru/zotye/t600</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
+      <c r="F210" t="inlineStr">
         <is>
           <t>771600</t>
         </is>
       </c>
-      <c r="G206" t="inlineStr">
+      <c r="G210" t="inlineStr">
         <is>
           <t>https://avto-trend21.ru/auto/zotye/t600/</t>
         </is>
       </c>
-      <c r="H206" t="n">
+      <c r="H210" t="n">
         <v>582960</v>
       </c>
-      <c r="I206" t="inlineStr">
+      <c r="I210" t="inlineStr">
         <is>
           <t>https://auto-shop-21.ru/zotye/t600</t>
         </is>

--- a/xlsx/cheboksari.xlsx
+++ b/xlsx/cheboksari.xlsx
@@ -449,32 +449,32 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
+          <t>avto-trend21.ru_price</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>avto-trend21.ru</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>avto-trend21.ru_price</t>
-        </is>
-      </c>
       <c r="H1" t="inlineStr">
         <is>
+          <t>auto-shop-21.ru_price</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
           <t>auto-shop-21.ru</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>auto-shop-21.ru_price</t>
-        </is>
-      </c>
       <c r="J1" t="inlineStr">
         <is>
+          <t>alyans-auto.ru_price</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
           <t>alyans-auto.ru</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>alyans-auto.ru_price</t>
         </is>
       </c>
     </row>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17978.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17260.html</t>
         </is>
       </c>
       <c r="J20" t="n">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17978.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17260.html</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17443.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17448.html</t>
         </is>
       </c>
     </row>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17481.html</t>
+          <t>https://alyans-auto.ru/auto/auto_18151.html</t>
         </is>
       </c>
       <c r="J126" t="n">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17481.html</t>
+          <t>https://alyans-auto.ru/auto/auto_18151.html</t>
         </is>
       </c>
     </row>
@@ -5850,11 +5850,11 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>926000</v>
+        <v>942500</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_18591.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17510.html</t>
         </is>
       </c>
     </row>

--- a/xlsx/cheboksari.xlsx
+++ b/xlsx/cheboksari.xlsx
@@ -976,7 +976,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16913.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17424.html</t>
         </is>
       </c>
     </row>

--- a/xlsx/cheboksari.xlsx
+++ b/xlsx/cheboksari.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K210"/>
+  <dimension ref="A1:M211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,6 +477,16 @@
           <t>alyans-auto.ru</t>
         </is>
       </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru_price</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -520,6 +530,14 @@
           <t>https://auto-shop-21.ru/baic/bj40</t>
         </is>
       </c>
+      <c r="L2" t="n">
+        <v>3119000</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/baic/bj40_I_restailing</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -563,6 +581,14 @@
           <t>https://auto-shop-21.ru/baic/u5_plus</t>
         </is>
       </c>
+      <c r="L3" t="n">
+        <v>1379000</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/baic/u5_plus</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -606,6 +632,14 @@
           <t>https://auto-shop-21.ru/baic/x35</t>
         </is>
       </c>
+      <c r="L4" t="n">
+        <v>1379000</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/baic/x35</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -667,7 +701,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2446190</v>
+        <v>2480190</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -675,7 +709,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>2446190</v>
+        <v>2480190</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -700,7 +734,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2905190</v>
+        <v>2946190</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -708,7 +742,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>2905190</v>
+        <v>2946190</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -766,6 +800,14 @@
           <t>https://alyans-auto.ru/auto/auto_17047.html</t>
         </is>
       </c>
+      <c r="L8" t="n">
+        <v>1349900</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/changan/alsvin</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -809,6 +851,14 @@
           <t>https://auto-shop-21.ru/changan/cs35</t>
         </is>
       </c>
+      <c r="L9" t="n">
+        <v>743900</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/changan/cs35</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -827,11 +877,11 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2599900</v>
+        <v>1057900</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_15682.html</t>
+          <t>https://zd-auto.ru/catalog/changan/cs35plus</t>
         </is>
       </c>
       <c r="J10" t="n">
@@ -842,6 +892,14 @@
           <t>https://alyans-auto.ru/auto/auto_15682.html</t>
         </is>
       </c>
+      <c r="L10" t="n">
+        <v>1057900</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/changan/cs35plus</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -860,11 +918,11 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2119900</v>
+        <v>1726900</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/changan/cs35_plus/</t>
+          <t>https://zd-auto.ru/catalog/changan/cs35plus_2023MY</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -885,6 +943,14 @@
           <t>https://auto-shop-21.ru/changan/cs35_plus</t>
         </is>
       </c>
+      <c r="L11" t="n">
+        <v>1726900</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/changan/cs35plus_2023MY</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -928,6 +994,14 @@
           <t>https://auto-shop-21.ru/changan/cs55</t>
         </is>
       </c>
+      <c r="L12" t="n">
+        <v>1218900</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/changan/cs55</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1022,6 +1096,14 @@
           <t>https://auto-shop-21.ru/changan/cs75fl</t>
         </is>
       </c>
+      <c r="L14" t="n">
+        <v>1573900</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/changan/cs75fl</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1159,6 +1241,14 @@
           <t>https://auto-shop-21.ru/changan/eado_plus</t>
         </is>
       </c>
+      <c r="L17" t="n">
+        <v>1630930</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/changan/eadoplus</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1177,11 +1267,11 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2589900</v>
+        <v>1952930</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/changan/lamore/</t>
+          <t>https://zd-auto.ru/catalog/changan/lamore</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1202,6 +1292,14 @@
           <t>https://alyans-auto.ru/auto/auto_18039.html</t>
         </is>
       </c>
+      <c r="L18" t="n">
+        <v>1952930</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/changan/lamore</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1423,6 +1521,14 @@
           <t>https://auto-shop-21.ru/chery/arrizo_8</t>
         </is>
       </c>
+      <c r="L23" t="n">
+        <v>2065000</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/chery/arrizo_8</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1466,6 +1572,14 @@
           <t>https://auto-shop-21.ru/chery/tiggo_3</t>
         </is>
       </c>
+      <c r="L24" t="n">
+        <v>637900</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/chery/tiggo3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1509,6 +1623,14 @@
           <t>https://auto-shop-21.ru/chery/tiggo_4</t>
         </is>
       </c>
+      <c r="L25" t="n">
+        <v>736900</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/chery/tiggo_4</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1587,6 +1709,14 @@
           <t>https://auto-shop-21.ru/chery/tiggo_4_pro</t>
         </is>
       </c>
+      <c r="L27" t="n">
+        <v>1349900</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/chery/tiggo_4_pro</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1630,6 +1760,14 @@
           <t>https://auto-shop-21.ru/chery/tiggo_7</t>
         </is>
       </c>
+      <c r="L28" t="n">
+        <v>956900</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/chery/tiggo_7</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1673,6 +1811,14 @@
           <t>https://auto-shop-21.ru/chery/tiggo_7_pro</t>
         </is>
       </c>
+      <c r="L29" t="n">
+        <v>1217900</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/chery/tiggo7pro</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1794,6 +1940,14 @@
           <t>https://auto-shop-21.ru/chery/tiggo_8</t>
         </is>
       </c>
+      <c r="L32" t="n">
+        <v>1247900</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/chery/tiggo_8</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1837,6 +1991,14 @@
           <t>https://auto-shop-21.ru/chery/tiggo_8_pro</t>
         </is>
       </c>
+      <c r="L33" t="n">
+        <v>1527900</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/chery/tiggo_8_pro</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1880,6 +2042,14 @@
           <t>https://auto-shop-21.ru/chery/tiggo_8_pro_max_1</t>
         </is>
       </c>
+      <c r="L34" t="n">
+        <v>2730000</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/chery/tiggo_8_pro_max</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1966,6 +2136,14 @@
           <t>https://auto-shop-21.ru/chevrolet/cobalt</t>
         </is>
       </c>
+      <c r="L36" t="n">
+        <v>597900</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/chevrolet/cobalt</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2009,6 +2187,14 @@
           <t>https://auto-shop-21.ru/chevrolet/nexia</t>
         </is>
       </c>
+      <c r="L37" t="n">
+        <v>547900</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/chevrolet/nexia</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2027,11 +2213,11 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>570540</v>
+        <v>567900</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chevrolet/spark</t>
+          <t>https://zd-auto.ru/catalog/chevrolet/spark</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2052,6 +2238,14 @@
           <t>https://auto-shop-21.ru/chevrolet/spark</t>
         </is>
       </c>
+      <c r="L38" t="n">
+        <v>567900</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/chevrolet/spark</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2095,6 +2289,14 @@
           <t>https://auto-shop-21.ru/dfm/580</t>
         </is>
       </c>
+      <c r="L39" t="n">
+        <v>1090000</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/dfm/580</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2138,6 +2340,14 @@
           <t>https://auto-shop-21.ru/dfm/ax7</t>
         </is>
       </c>
+      <c r="L40" t="n">
+        <v>1129000</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/dfm/dfm_ax7</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2181,6 +2391,14 @@
           <t>https://auto-shop-21.ru/datsun/mi-do</t>
         </is>
       </c>
+      <c r="L41" t="n">
+        <v>367000</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/datsun/mi_do</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2224,6 +2442,14 @@
           <t>https://auto-shop-21.ru/datsun/on-do</t>
         </is>
       </c>
+      <c r="L42" t="n">
+        <v>327000</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/datsun/on_do</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2259,6 +2485,14 @@
           <t>https://avto-trend21.ru/auto/exeed/lx/</t>
         </is>
       </c>
+      <c r="L43" t="n">
+        <v>2999900</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/exeed/lx</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2294,6 +2528,14 @@
           <t>https://avto-trend21.ru/auto/exeed/rx/</t>
         </is>
       </c>
+      <c r="L44" t="n">
+        <v>3605000</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/exeed/exeed_rx</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2337,6 +2579,14 @@
           <t>https://auto-shop-21.ru/exeed/txl</t>
         </is>
       </c>
+      <c r="L45" t="n">
+        <v>1999900</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/chery/txl</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2415,6 +2665,14 @@
           <t>https://auto-shop-21.ru/faw/bestune_b70</t>
         </is>
       </c>
+      <c r="L47" t="n">
+        <v>1629600</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/faw/bestune_b70</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2458,6 +2716,14 @@
           <t>https://auto-shop-21.ru/faw/bestune_t55</t>
         </is>
       </c>
+      <c r="L48" t="n">
+        <v>1602300</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/faw/bestune_t55</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2771,11 +3037,19 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>3674190</v>
+        <v>3717190</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>https://alyans-auto.ru/auto/auto_17820.html</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>2236493</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/geely/atlas</t>
         </is>
       </c>
     </row>
@@ -2872,6 +3146,14 @@
           <t>https://alyans-auto.ru/auto/auto_17094.html</t>
         </is>
       </c>
+      <c r="L58" t="n">
+        <v>1964990</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/geely/atlas_pro</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2915,6 +3197,14 @@
           <t>https://auto-shop-21.ru/geely/belgee_x50</t>
         </is>
       </c>
+      <c r="L59" t="n">
+        <v>1603693</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/geely/belgee_x50</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2933,7 +3223,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>3058190</v>
+        <v>3094190</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2941,7 +3231,7 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>3058190</v>
+        <v>3094190</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2966,11 +3256,11 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1565994</v>
+        <v>983999</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/coolray_1</t>
+          <t>https://zd-auto.ru/catalog/geely/coolray</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2992,11 +3282,19 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>2763190</v>
+        <v>2799190</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>https://alyans-auto.ru/auto/auto_16731.html</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>983999</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/geely/coolray</t>
         </is>
       </c>
     </row>
@@ -3042,6 +3340,14 @@
           <t>https://auto-shop-21.ru/geely/coolray</t>
         </is>
       </c>
+      <c r="L62" t="n">
+        <v>1826993</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/geely/coolray_new</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3060,7 +3366,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>2217990</v>
+        <v>2243990</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -3068,7 +3374,7 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>2217990</v>
+        <v>2243990</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -3161,6 +3467,14 @@
           <t>https://auto-shop-21.ru/geely/emgrand_x7</t>
         </is>
       </c>
+      <c r="L65" t="n">
+        <v>907990</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/geely/emgrand_x7_2019</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3204,6 +3518,14 @@
           <t>https://auto-shop-21.ru/geely/gs</t>
         </is>
       </c>
+      <c r="L66" t="n">
+        <v>999990</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/geely/gs</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3248,7 +3570,7 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>4490190</v>
+        <v>4552190</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -3289,7 +3611,7 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>3528990</v>
+        <v>3697190</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3349,7 +3671,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3238190</v>
+        <v>3359190</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3357,7 +3679,7 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>3238190</v>
+        <v>3359190</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3425,11 +3747,11 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3399000</v>
+        <v>2414300</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_13123.html</t>
+          <t>https://zd-auto.ru/catalog/great-wall/poer</t>
         </is>
       </c>
       <c r="J72" t="n">
@@ -3440,6 +3762,14 @@
           <t>https://alyans-auto.ru/auto/auto_13123.html</t>
         </is>
       </c>
+      <c r="L72" t="n">
+        <v>2414300</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/great-wall/poer</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3491,6 +3821,14 @@
           <t>https://alyans-auto.ru/auto/auto_18204.html</t>
         </is>
       </c>
+      <c r="L73" t="n">
+        <v>1799000</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/haval/dargo</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3534,6 +3872,14 @@
           <t>https://auto-shop-21.ru/haval/dargo_x</t>
         </is>
       </c>
+      <c r="L74" t="n">
+        <v>2344300</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/haval/dargo_x</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3552,11 +3898,11 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>2899000</v>
+        <v>1141000</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_18610.html</t>
+          <t>https://zd-auto.ru/catalog/haval/f7</t>
         </is>
       </c>
       <c r="J75" t="n">
@@ -3567,6 +3913,14 @@
           <t>https://alyans-auto.ru/auto/auto_18610.html</t>
         </is>
       </c>
+      <c r="L75" t="n">
+        <v>1141000</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/haval/f7</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3628,11 +3982,11 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>3399000</v>
+        <v>1192000</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_13126.html</t>
+          <t>https://zd-auto.ru/catalog/haval/f7x</t>
         </is>
       </c>
       <c r="J77" t="n">
@@ -3643,6 +3997,14 @@
           <t>https://alyans-auto.ru/auto/auto_13126.html</t>
         </is>
       </c>
+      <c r="L77" t="n">
+        <v>1192000</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/haval/f7x</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3729,11 +4091,19 @@
           <t>https://auto-shop-21.ru/haval/h2</t>
         </is>
       </c>
+      <c r="L79" t="n">
+        <v>972000</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/haval/h2</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3743,30 +4113,32 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>917400</v>
+        <v>1589400</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/h5</t>
-        </is>
-      </c>
-      <c r="H80" t="n">
-        <v>917400</v>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/haval/h5</t>
+          <t>https://avto-trend21.ru/auto/haval/h3/</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1589400</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/haval/h3/</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3776,40 +4148,38 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>H6</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>688800</v>
+        <v>917400</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/h6</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>898000</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/haval/h6/</t>
+          <t>https://auto-shop-21.ru/haval/h5</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>688800</v>
+        <v>917400</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/h6</t>
+          <t>https://auto-shop-21.ru/haval/h5</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>992000</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/haval/h5</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3819,30 +4189,48 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>H9</t>
+          <t>H6</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>2459400</v>
+        <v>688800</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/h9</t>
+          <t>https://auto-shop-21.ru/haval/h6</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>898000</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/haval/h6/</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>2459400</v>
+        <v>688800</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/h9</t>
+          <t>https://auto-shop-21.ru/haval/h6</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>992000</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/haval/h6</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3852,48 +4240,38 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Jolion</t>
+          <t>H9</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>689900</v>
+        <v>2459400</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/jolion_1/</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>689900</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/haval/jolion_1/</t>
+          <t>https://auto-shop-21.ru/haval/h9</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>990000</v>
+        <v>2459400</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/jolion_1</t>
-        </is>
-      </c>
-      <c r="J83" t="n">
-        <v>1999000</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_18614.html</t>
+          <t>https://auto-shop-21.ru/haval/h9</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>4099000</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/haval/h9_2018</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3903,7 +4281,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Jolion New</t>
+          <t>Jolion</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -3911,32 +4289,48 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/jolion</t>
+          <t>https://avto-trend21.ru/auto/haval/jolion_1/</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>990000</t>
+          <t>689900</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/jolion/</t>
+          <t>https://avto-trend21.ru/auto/haval/jolion_1/</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>689900</v>
+        <v>990000</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/haval/jolion</t>
+          <t>https://auto-shop-21.ru/haval/jolion_1</t>
+        </is>
+      </c>
+      <c r="J84" t="n">
+        <v>2049000</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_18614.html</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>989000</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/haval/jolion</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3946,83 +4340,83 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>M6</t>
+          <t>Jolion New</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>736000</v>
+        <v>689900</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/m6/</t>
+          <t>https://auto-shop-21.ru/haval/jolion</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>736000</t>
+          <t>990000</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/m6/</t>
-        </is>
-      </c>
-      <c r="J85" t="n">
-        <v>2179000</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_18644.html</t>
+          <t>https://avto-trend21.ru/auto/haval/jolion/</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>689900</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/haval/jolion</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Creta New</t>
+          <t>M6</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>864000</v>
+        <v>736000</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/creta/</t>
+          <t>https://avto-trend21.ru/auto/haval/m6/</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>864000</t>
+          <t>736000</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/creta/</t>
-        </is>
-      </c>
-      <c r="H86" t="n">
-        <v>1115400</v>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/hyundai/creta</t>
+          <t>https://avto-trend21.ru/auto/haval/m6/</t>
+        </is>
+      </c>
+      <c r="J86" t="n">
+        <v>2179000</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_18644.html</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4032,40 +4426,48 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Elantra New</t>
+          <t>Creta New</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1069000</v>
+        <v>864000</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/elantra/</t>
+          <t>https://avto-trend21.ru/auto/hyundai/creta/</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>1069000</t>
+          <t>864000</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/elantra/</t>
+          <t>https://avto-trend21.ru/auto/hyundai/creta/</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>1289400</v>
+        <v>1115400</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/hyundai/elantra</t>
+          <t>https://auto-shop-21.ru/hyundai/creta</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>903000</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/hyundai/creta_new</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4075,40 +4477,40 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Elantra New</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>619000</v>
+        <v>1069000</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/hyundai/solaris</t>
+          <t>https://avto-trend21.ru/auto/hyundai/elantra/</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>619000</t>
+          <t>1069000</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/solaris/</t>
+          <t>https://avto-trend21.ru/auto/hyundai/elantra/</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>619000</v>
+        <v>1289400</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/hyundai/solaris</t>
+          <t>https://auto-shop-21.ru/hyundai/elantra</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4118,40 +4520,40 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Sonata</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1370000</v>
+        <v>619000</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/hyundai/sonata</t>
+          <t>https://auto-shop-21.ru/hyundai/solaris</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>1370000</t>
+          <t>619000</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/sonata/</t>
+          <t>https://avto-trend21.ru/auto/hyundai/solaris/</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>1370000</v>
+        <v>619000</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/hyundai/sonata</t>
+          <t>https://auto-shop-21.ru/hyundai/solaris</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4161,91 +4563,91 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Tucson New</t>
+          <t>Sonata</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1394000</v>
+        <v>1273000</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/tucson/</t>
+          <t>https://zd-auto.ru/catalog/hyundai/sonata_new</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>1394000</t>
+          <t>1370000</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/tucson/</t>
+          <t>https://avto-trend21.ru/auto/hyundai/sonata/</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>1649400</v>
+        <v>1370000</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/hyundai/tucson</t>
+          <t>https://auto-shop-21.ru/hyundai/sonata</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1273000</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/hyundai/sonata_new</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>Tucson New</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1277400</v>
+        <v>1394000</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jac/j7</t>
+          <t>https://avto-trend21.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>1799000</t>
+          <t>1394000</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jac/j7/</t>
+          <t>https://avto-trend21.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>1277400</v>
+        <v>1649400</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jac/j7</t>
-        </is>
-      </c>
-      <c r="J91" t="n">
-        <v>2099000</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_15496.html</t>
+          <t>https://auto-shop-21.ru/hyundai/tucson</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4255,30 +4657,56 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>JS3</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1849000</v>
+        <v>959000</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16614.html</t>
+          <t>https://zd-auto.ru/catalog/jac/j7</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1799000</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/jac/j7/</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>1277400</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/jac/j7</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>1849000</v>
+        <v>2149000</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16614.html</t>
+          <t>https://alyans-auto.ru/auto/auto_15496.html</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>959000</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/jac/j7</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4288,30 +4716,30 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>JS6</t>
+          <t>JS3</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2399000</v>
+        <v>1889000</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_13473.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16614.html</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>2399000</v>
+        <v>1889000</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_13473.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16614.html</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -4321,40 +4749,38 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>JS6</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>439000</v>
+        <v>1819300</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jac/s3</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>439000</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/jac/s3/</t>
-        </is>
-      </c>
-      <c r="H94" t="n">
-        <v>439000</v>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/jac/s3</t>
+          <t>https://zd-auto.ru/catalog/jac/js6</t>
+        </is>
+      </c>
+      <c r="J94" t="n">
+        <v>2399000</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_13473.html</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1819300</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/jac/js6</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -4364,40 +4790,48 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>683400</v>
+        <v>439000</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jac/s5</t>
+          <t>https://auto-shop-21.ru/jac/s3</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>687000</t>
+          <t>439000</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jac/s5/</t>
+          <t>https://avto-trend21.ru/auto/jac/s3/</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>683400</v>
+        <v>439000</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jac/s5</t>
+          <t>https://auto-shop-21.ru/jac/s3</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>674000</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/jac/s3</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -4407,40 +4841,48 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1067400</v>
+        <v>683400</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jac/s7</t>
+          <t>https://auto-shop-21.ru/jac/s5</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>1209000</t>
+          <t>687000</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jac/s7/</t>
+          <t>https://avto-trend21.ru/auto/jac/s5/</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>1067400</v>
+        <v>683400</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jac/s7</t>
+          <t>https://auto-shop-21.ru/jac/s5</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>824000</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/jac/s5</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -4450,30 +4892,48 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>2665500</v>
+        <v>1067400</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_8942.html</t>
-        </is>
-      </c>
-      <c r="J97" t="n">
-        <v>2665500</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_8942.html</t>
+          <t>https://auto-shop-21.ru/jac/s7</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1209000</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/jac/s7/</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>1067400</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/jac/s7</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1349900</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/jac/s7</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -4483,30 +4943,38 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>T8 Pro</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>3199000</v>
+        <v>2270000</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_18037.html</t>
+          <t>https://zd-auto.ru/catalog/jac/t_6</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>3199000</v>
+        <v>2665500</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_18037.html</t>
+          <t>https://alyans-auto.ru/auto/auto_8942.html</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>2270000</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/jac/t_6</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>682</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -4516,63 +4984,63 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>T9</t>
+          <t>T8 Pro</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>3399000</v>
+        <v>3279000</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_18643.html</t>
+          <t>https://alyans-auto.ru/auto/auto_18037.html</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>3399000</v>
+        <v>3279000</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_18643.html</t>
+          <t>https://alyans-auto.ru/auto/auto_18037.html</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>682</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>T9</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>2889900</v>
+        <v>3499000</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_18075.html</t>
+          <t>https://alyans-auto.ru/auto/auto_18643.html</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>2889900</v>
+        <v>3499000</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_18075.html</t>
+          <t>https://alyans-auto.ru/auto/auto_18643.html</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -4582,75 +5050,73 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>J8</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>4099000</v>
+        <v>2889900</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jaecoo/j8/</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>4099000</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/jaecoo/j8/</t>
+          <t>https://alyans-auto.ru/auto/auto_18075.html</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>4899000</v>
+        <v>2889900</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17485.html</t>
+          <t>https://alyans-auto.ru/auto/auto_18075.html</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Dashing</t>
+          <t>J8</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1399900</v>
+        <v>4099000</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/dashing/</t>
+          <t>https://avto-trend21.ru/auto/jaecoo/j8/</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>1399900</t>
+          <t>4099000</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/dashing/</t>
+          <t>https://avto-trend21.ru/auto/jaecoo/j8/</t>
+        </is>
+      </c>
+      <c r="J102" t="n">
+        <v>4499000</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_18790.html</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4660,32 +5126,40 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>Dashing</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2631300</v>
+        <v>1399900</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/t2/</t>
+          <t>https://avto-trend21.ru/auto/jetour/dashing/</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2631300</t>
+          <t>1399900</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/t2/</t>
+          <t>https://avto-trend21.ru/auto/jetour/dashing/</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1493940</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/jetour/dashing</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4695,32 +5169,32 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>X70 Plus</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>1809900</v>
+        <v>2631300</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/x70_plus/</t>
+          <t>https://avto-trend21.ru/auto/jetour/t2/</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>1809900</t>
+          <t>2631300</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/x70_plus/</t>
+          <t>https://avto-trend21.ru/auto/jetour/t2/</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -4730,75 +5204,83 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>X90 Plus</t>
+          <t>X70 Plus</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>2149900</v>
+        <v>1809900</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/x90_plus/</t>
+          <t>https://avto-trend21.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2149900</t>
+          <t>1809900</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/x90_plus/</t>
+          <t>https://avto-trend21.ru/auto/jetour/x70_plus/</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>2099930</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/jetour/x70_plus</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>VA3</t>
+          <t>X90 Plus</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>890000</v>
+        <v>2039940</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jetta/va3</t>
+          <t>https://zd-auto.ru/catalog/jetour/x90plus</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>890000</t>
+          <t>2149900</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/va3/</t>
-        </is>
-      </c>
-      <c r="H106" t="n">
-        <v>890000</v>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/jetta/va3</t>
+          <t>https://avto-trend21.ru/auto/jetour/x90_plus/</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>2039940</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/jetour/x90plus</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4808,40 +5290,48 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>VS5</t>
+          <t>VA3</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1190000</v>
+        <v>890000</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jetta/vs5</t>
+          <t>https://auto-shop-21.ru/jetta/va3</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>1190000</t>
+          <t>890000</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/vs5/</t>
+          <t>https://avto-trend21.ru/auto/jetta/va3/</t>
         </is>
       </c>
       <c r="H107" t="n">
-        <v>1190000</v>
+        <v>890000</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jetta/vs5</t>
+          <t>https://auto-shop-21.ru/jetta/va3</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1232400</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/jetta/va3</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4851,83 +5341,99 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>VS7</t>
+          <t>VS5</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>1349000</v>
+        <v>1190000</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jetta/vs7</t>
+          <t>https://auto-shop-21.ru/jetta/vs5</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>1349000</t>
+          <t>1190000</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/vs7/</t>
+          <t>https://avto-trend21.ru/auto/jetta/vs5/</t>
         </is>
       </c>
       <c r="H108" t="n">
-        <v>1349000</v>
+        <v>1190000</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jetta/vs7</t>
+          <t>https://auto-shop-21.ru/jetta/vs5</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1477200</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/jetta/vs5</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>VS7</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1299000</v>
+        <v>1349000</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/e5</t>
+          <t>https://auto-shop-21.ru/jetta/vs7</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>1299000</t>
+          <t>1349000</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kaiyi/e5/</t>
+          <t>https://avto-trend21.ru/auto/jetta/vs7/</t>
         </is>
       </c>
       <c r="H109" t="n">
-        <v>1299000</v>
+        <v>1349000</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/e5</t>
+          <t>https://auto-shop-21.ru/jetta/vs7</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1759800</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/jetta/vs7</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4937,40 +5443,48 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>X3</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>1342800</v>
+        <v>1299000</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x3</t>
+          <t>https://auto-shop-21.ru/kaiyi/e5</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>1417650</t>
+          <t>1299000</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kaiyi/x3/</t>
+          <t>https://avto-trend21.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
       <c r="H110" t="n">
-        <v>1342800</v>
+        <v>1299000</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x3</t>
+          <t>https://auto-shop-21.ru/kaiyi/e5</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1371300</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/kaiyi/kaiyi_e5</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4980,40 +5494,48 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>X3</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>1508940</v>
+        <v>1342800</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x3_pro</t>
+          <t>https://auto-shop-21.ru/kaiyi/x3</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>1790000</t>
+          <t>1417650</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://avto-trend21.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
       <c r="H111" t="n">
-        <v>1508940</v>
+        <v>1342800</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x3_pro</t>
+          <t>https://auto-shop-21.ru/kaiyi/x3</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1566600</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/kaiyi/x3</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -5023,83 +5545,91 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>X7 Kunlun</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1798740</v>
+        <v>1508940</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x7_kunlun</t>
+          <t>https://auto-shop-21.ru/kaiyi/x3_pro</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2197900</t>
+          <t>1790000</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://avto-trend21.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
       <c r="H112" t="n">
-        <v>1798740</v>
+        <v>1508940</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x7_kunlun</t>
+          <t>https://auto-shop-21.ru/kaiyi/x3_pro</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1760430</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/kaiyi/x3_pro</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Ceed</t>
+          <t>X7 Kunlun</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>713000</v>
+        <v>1798740</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/ceed</t>
+          <t>https://auto-shop-21.ru/kaiyi/x7_kunlun</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>713000</t>
+          <t>2197900</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/ceed/</t>
+          <t>https://avto-trend21.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
       <c r="H113" t="n">
-        <v>713000</v>
+        <v>1798740</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/ceed</t>
+          <t>https://auto-shop-21.ru/kaiyi/x7_kunlun</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -5109,40 +5639,40 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Ceed SW</t>
+          <t>Ceed</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>723000</v>
+        <v>713000</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/ceed_sw</t>
+          <t>https://auto-shop-21.ru/kia/ceed</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>723000</t>
+          <t>713000</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/ceed_sw/</t>
+          <t>https://avto-trend21.ru/auto/kia/ceed/</t>
         </is>
       </c>
       <c r="H114" t="n">
-        <v>723000</v>
+        <v>713000</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/ceed_sw</t>
+          <t>https://auto-shop-21.ru/kia/ceed</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -5152,40 +5682,40 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Cerato</t>
+          <t>Ceed SW</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>850000</v>
+        <v>723000</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/cerato</t>
+          <t>https://auto-shop-21.ru/kia/ceed_sw</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>850000</t>
+          <t>723000</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/cerato/</t>
+          <t>https://avto-trend21.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
       <c r="H115" t="n">
-        <v>850000</v>
+        <v>723000</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/cerato</t>
+          <t>https://auto-shop-21.ru/kia/ceed_sw</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -5195,40 +5725,40 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>Cerato</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>1149000</v>
+        <v>850000</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/k5</t>
+          <t>https://auto-shop-21.ru/kia/cerato</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>1149000</t>
+          <t>850000</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/k5/</t>
+          <t>https://avto-trend21.ru/auto/kia/cerato/</t>
         </is>
       </c>
       <c r="H116" t="n">
-        <v>1149000</v>
+        <v>850000</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/k5</t>
+          <t>https://auto-shop-21.ru/kia/cerato</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -5238,40 +5768,40 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Picanto</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>619900</v>
+        <v>1149000</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/picanto</t>
+          <t>https://auto-shop-21.ru/kia/k5</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>619900</t>
+          <t>1149000</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/picanto/</t>
+          <t>https://avto-trend21.ru/auto/kia/k5/</t>
         </is>
       </c>
       <c r="H117" t="n">
-        <v>619900</v>
+        <v>1149000</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/picanto</t>
+          <t>https://auto-shop-21.ru/kia/k5</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -5281,40 +5811,40 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>ProCeed</t>
+          <t>Picanto</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>1121940</v>
+        <v>619900</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/proceed</t>
+          <t>https://auto-shop-21.ru/kia/picanto</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>1134700</t>
+          <t>619900</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/proceed/</t>
+          <t>https://avto-trend21.ru/auto/kia/picanto/</t>
         </is>
       </c>
       <c r="H118" t="n">
-        <v>1121940</v>
+        <v>619900</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/proceed</t>
+          <t>https://auto-shop-21.ru/kia/picanto</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -5324,40 +5854,40 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Rio</t>
+          <t>ProCeed</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>564000</v>
+        <v>1121940</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/rio</t>
+          <t>https://auto-shop-21.ru/kia/proceed</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>564000</t>
+          <t>1134700</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio/</t>
+          <t>https://avto-trend21.ru/auto/kia/proceed/</t>
         </is>
       </c>
       <c r="H119" t="n">
-        <v>564000</v>
+        <v>1121940</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/rio</t>
+          <t>https://auto-shop-21.ru/kia/proceed</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -5367,40 +5897,40 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Rio X</t>
+          <t>Rio</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>650000</v>
+        <v>564000</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/rio_x</t>
+          <t>https://auto-shop-21.ru/kia/rio</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>650000</t>
+          <t>564000</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio_x/</t>
+          <t>https://avto-trend21.ru/auto/kia/rio/</t>
         </is>
       </c>
       <c r="H120" t="n">
-        <v>650000</v>
+        <v>564000</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/rio_x</t>
+          <t>https://auto-shop-21.ru/kia/rio</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -5410,40 +5940,40 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Rio X-Line</t>
+          <t>Rio X</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>557000</v>
+        <v>650000</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/rio_x-line</t>
+          <t>https://auto-shop-21.ru/kia/rio_x</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>557000</t>
+          <t>650000</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio_x-line/</t>
+          <t>https://avto-trend21.ru/auto/kia/rio_x/</t>
         </is>
       </c>
       <c r="H121" t="n">
-        <v>557000</v>
+        <v>650000</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/rio_x-line</t>
+          <t>https://auto-shop-21.ru/kia/rio_x</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -5453,40 +5983,40 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Seltos</t>
+          <t>Rio X-Line</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>790000</v>
+        <v>557000</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/seltos</t>
+          <t>https://auto-shop-21.ru/kia/rio_x-line</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>790000</t>
+          <t>557000</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/seltos/</t>
+          <t>https://avto-trend21.ru/auto/kia/rio_x-line/</t>
         </is>
       </c>
       <c r="H122" t="n">
-        <v>790000</v>
+        <v>557000</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/seltos</t>
+          <t>https://auto-shop-21.ru/kia/rio_x-line</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -5496,40 +6026,40 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Soul</t>
+          <t>Seltos</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>638000</v>
+        <v>790000</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/soul</t>
+          <t>https://auto-shop-21.ru/kia/seltos</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>638000</t>
+          <t>790000</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/soul/</t>
+          <t>https://avto-trend21.ru/auto/kia/seltos/</t>
         </is>
       </c>
       <c r="H123" t="n">
-        <v>638000</v>
+        <v>790000</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/soul</t>
+          <t>https://auto-shop-21.ru/kia/seltos</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -5539,40 +6069,40 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Sportage 5</t>
+          <t>Soul</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1046000</v>
+        <v>638000</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/sportage/</t>
+          <t>https://auto-shop-21.ru/kia/soul</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>1046000</t>
+          <t>638000</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/sportage/</t>
+          <t>https://avto-trend21.ru/auto/kia/soul/</t>
         </is>
       </c>
       <c r="H124" t="n">
-        <v>1709940</v>
+        <v>638000</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/sportage</t>
+          <t>https://auto-shop-21.ru/kia/soul</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -5582,106 +6112,116 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>XCeed</t>
+          <t>Sportage 5</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>964900</v>
+        <v>1046000</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/xceed</t>
+          <t>https://avto-trend21.ru/auto/kia/sportage/</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>964900</t>
+          <t>1046000</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/xceed/</t>
+          <t>https://avto-trend21.ru/auto/kia/sportage/</t>
         </is>
       </c>
       <c r="H125" t="n">
-        <v>964900</v>
+        <v>1709940</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/xceed</t>
+          <t>https://auto-shop-21.ru/kia/sportage</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>775</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Knewstar</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>001</t>
+          <t>XCeed</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>4115990</v>
+        <v>964900</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_18151.html</t>
-        </is>
-      </c>
-      <c r="J126" t="n">
-        <v>4115990</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_18151.html</t>
+          <t>https://auto-shop-21.ru/kia/xceed</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>964900</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/kia/xceed/</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>964900</v>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/kia/xceed</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>701</t>
+          <t>775</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Knewstar</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>4x4 3 двери</t>
+          <t>001</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1019000</v>
+        <v>4115990</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17133.html</t>
+          <t>https://alyans-auto.ru/auto/auto_18151.html</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>1019000</v>
+        <v>4115990</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17133.html</t>
+          <t>https://alyans-auto.ru/auto/auto_18151.html</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>701</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -5691,40 +6231,30 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Granta Cross</t>
+          <t>4x4 3 двери</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>426900</v>
+        <v>1019000</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/granta_cross</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>426900</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_cross/</t>
-        </is>
-      </c>
-      <c r="H128" t="n">
-        <v>426900</v>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/lada/granta_cross</t>
+          <t>https://alyans-auto.ru/auto/auto_17133.html</t>
+        </is>
+      </c>
+      <c r="J128" t="n">
+        <v>1019000</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_17133.html</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -5734,40 +6264,48 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Granta Hatchback</t>
+          <t>Granta Cross</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>378810</v>
+        <v>426900</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/granta_hatchback</t>
+          <t>https://auto-shop-21.ru/lada/granta_cross</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>378810</t>
+          <t>426900</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_hatchback/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
       <c r="H129" t="n">
-        <v>378810</v>
+        <v>426900</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/granta_hatchback</t>
+          <t>https://auto-shop-21.ru/lada/granta_cross</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>449900</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/lada/granta_cross</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -5777,40 +6315,48 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>Granta Hatchback</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>375610</v>
+        <v>318500</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/granta_liftback</t>
+          <t>https://zd-auto.ru/catalog/lada/granta_hatchback</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>375610</t>
+          <t>378810</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_liftback/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
       <c r="H130" t="n">
-        <v>375610</v>
+        <v>378810</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/granta_liftback</t>
+          <t>https://auto-shop-21.ru/lada/granta_hatchback</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>318500</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/lada/granta_hatchback</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -5820,48 +6366,48 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>358510</v>
+        <v>318900</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/granta_sedan</t>
+          <t>https://zd-auto.ru/catalog/lada/granta_liftback</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>358510</t>
+          <t>375610</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_sedan/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
       <c r="H131" t="n">
-        <v>358510</v>
+        <v>375610</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/granta_sedan</t>
-        </is>
-      </c>
-      <c r="J131" t="n">
-        <v>942500</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_17510.html</t>
+          <t>https://auto-shop-21.ru/lada/granta_liftback</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>318900</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/lada/granta_liftback</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -5871,40 +6417,56 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Granta Sedan Drive Active</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>419000</v>
+        <v>301900</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/granta_drive_active</t>
+          <t>https://zd-auto.ru/catalog/lada/granta_sedan</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>419000</t>
+          <t>358510</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_drive_active/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
       <c r="H132" t="n">
-        <v>419000</v>
+        <v>358510</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/granta_drive_active</t>
+          <t>https://auto-shop-21.ru/lada/granta_sedan</t>
+        </is>
+      </c>
+      <c r="J132" t="n">
+        <v>942500</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_17510.html</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>301900</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/lada/granta_sedan</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -5914,40 +6476,48 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Granta Universal</t>
+          <t>Granta Sedan Drive Active</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>376800</v>
+        <v>419000</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/granta_universal</t>
+          <t>https://auto-shop-21.ru/lada/granta_drive_active</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>376800</t>
+          <t>419000</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_universal/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
       <c r="H133" t="n">
-        <v>376800</v>
+        <v>419000</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/granta_universal</t>
+          <t>https://auto-shop-21.ru/lada/granta_drive_active</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>518900</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/lada/granta_da</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -5957,30 +6527,48 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Largus</t>
+          <t>Granta Universal</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>1670000</v>
+        <v>327900</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16658.html</t>
-        </is>
-      </c>
-      <c r="J134" t="n">
-        <v>1670000</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_16658.html</t>
+          <t>https://zd-auto.ru/catalog/lada/granta_universal</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>376800</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/lada/granta_universal/</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>376800</v>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/lada/granta_universal</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>327900</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/lada/granta_universal</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -5990,40 +6578,30 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Largus Cross New</t>
+          <t>Largus</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>629000</v>
+        <v>1670000</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/largus_cross/</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>629000</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/lada/largus_cross/</t>
-        </is>
-      </c>
-      <c r="H135" t="n">
-        <v>866340</v>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/lada/largus_cross</t>
+          <t>https://alyans-auto.ru/auto/auto_16658.html</t>
+        </is>
+      </c>
+      <c r="J135" t="n">
+        <v>1670000</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_16658.html</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -6033,40 +6611,48 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Largus New</t>
+          <t>Largus Cross New</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>501000</v>
+        <v>567900</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/largus/</t>
+          <t>https://zd-auto.ru/catalog/lada/largus_cross_new</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>501000</t>
+          <t>629000</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/largus/</t>
+          <t>https://avto-trend21.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
       <c r="H136" t="n">
-        <v>1300900</v>
+        <v>866340</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/largus</t>
+          <t>https://auto-shop-21.ru/lada/largus_cross</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>567900</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/lada/largus_cross_new</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -6076,40 +6662,48 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Largus Фургон New</t>
+          <t>Largus New</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>541610</v>
+        <v>487900</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/largus_furgon/</t>
+          <t>https://zd-auto.ru/catalog/lada/largus_new</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>541610</t>
+          <t>501000</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/largus_furgon/</t>
+          <t>https://avto-trend21.ru/auto/lada/largus/</t>
         </is>
       </c>
       <c r="H137" t="n">
-        <v>781140</v>
+        <v>1300900</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/largus_furgon</t>
+          <t>https://auto-shop-21.ru/lada/largus</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>487900</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/lada/largus_new</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -6119,40 +6713,48 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Niva</t>
+          <t>Largus Фургон New</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>582200</v>
+        <v>457900</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/niva/</t>
+          <t>https://zd-auto.ru/catalog/lada/largus_furgon_new</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>582200</t>
+          <t>541610</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/niva/</t>
-        </is>
-      </c>
-      <c r="J138" t="n">
-        <v>1310500</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_14903.html</t>
+          <t>https://avto-trend21.ru/auto/lada/largus_furgon/</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>781140</v>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/lada/largus_furgon</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>457900</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/lada/largus_furgon_new</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -6162,32 +6764,40 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Niva</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>451710</v>
+        <v>582200</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://avto-trend21.ru/auto/lada/niva/</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>451710</t>
+          <t>582200</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://avto-trend21.ru/auto/lada/niva/</t>
+        </is>
+      </c>
+      <c r="J139" t="n">
+        <v>1310500</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_14903.html</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -6197,32 +6807,40 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Niva Legend 5 дверей</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>490410</v>
+        <v>362900</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://zd-auto.ru/catalog/lada/legend_3</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>490410</t>
+          <t>451710</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://avto-trend21.ru/auto/lada/4x4_3_dv/</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>362900</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/lada/legend_3</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -6232,40 +6850,40 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Niva Legend 5 дверей</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>549000</v>
+        <v>422900</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/niva_travel</t>
+          <t>https://zd-auto.ru/catalog/lada/legend_5</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>549000</t>
+          <t>490410</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/niva_travel/</t>
-        </is>
-      </c>
-      <c r="H141" t="n">
-        <v>549000</v>
-      </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/lada/niva_travel</t>
+          <t>https://avto-trend21.ru/auto/lada/4x4_5_dv/</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>422900</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/lada/legend_5</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -6275,40 +6893,48 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>569000</v>
+        <v>449900</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://zd-auto.ru/catalog/lada/travel</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>569000</t>
+          <t>549000</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
       <c r="H142" t="n">
-        <v>619000</v>
+        <v>549000</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_cross_1</t>
+          <t>https://auto-shop-21.ru/lada/niva_travel</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>449900</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/lada/travel</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -6318,7 +6944,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Vesta Cross New</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D143" t="n">
@@ -6326,32 +6952,40 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_cross</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>619000</t>
+          <t>569000</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
       <c r="H143" t="n">
-        <v>569000</v>
+        <v>619000</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_cross</t>
+          <t>https://auto-shop-21.ru/lada/vesta_cross_1</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>637900</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/lada/vesta_cross</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -6361,40 +6995,40 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>Vesta Cross New</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>559000</v>
+        <v>569000</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://auto-shop-21.ru/lada/vesta_cross</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>559000</t>
+          <t>619000</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="H144" t="n">
-        <v>609000</v>
+        <v>569000</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_sw_1</t>
+          <t>https://auto-shop-21.ru/lada/vesta_cross</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -6404,40 +7038,48 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>619000</v>
+        <v>551900</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://zd-auto.ru/catalog/lada/vesta_sw</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>619000</t>
+          <t>559000</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
       <c r="H145" t="n">
-        <v>669000</v>
+        <v>609000</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_sw_cross_1</t>
+          <t>https://auto-shop-21.ru/lada/vesta_sw_1</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>551900</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/lada/vesta_sw</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -6447,7 +7089,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Vesta SW Cross New</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D146" t="n">
@@ -6455,32 +7097,40 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_sw_cross</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>669000</t>
+          <t>619000</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
       <c r="H146" t="n">
-        <v>619000</v>
+        <v>669000</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_sw_cross</t>
+          <t>https://auto-shop-21.ru/lada/vesta_sw_cross_1</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>642900</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/lada/vesta_sw_cross</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -6490,40 +7140,40 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Vesta SW New</t>
+          <t>Vesta SW Cross New</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>559000</v>
+        <v>619000</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_sw</t>
+          <t>https://auto-shop-21.ru/lada/vesta_sw_cross</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>609000</t>
+          <t>669000</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="H147" t="n">
-        <v>559000</v>
+        <v>619000</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_sw</t>
+          <t>https://auto-shop-21.ru/lada/vesta_sw_cross</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>444</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -6533,48 +7183,40 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>Vesta SW New</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>519000</v>
+        <v>559000</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_1/</t>
+          <t>https://auto-shop-21.ru/lada/vesta_sw</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>519000</t>
+          <t>609000</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="H148" t="n">
-        <v>569000</v>
+        <v>559000</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_1</t>
-        </is>
-      </c>
-      <c r="J148" t="n">
-        <v>1571500</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_18373.html</t>
+          <t>https://auto-shop-21.ru/lada/vesta_sw</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -6584,40 +7226,56 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Vesta Sedan CNG</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>639900</v>
+        <v>477900</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_cng</t>
+          <t>https://zd-auto.ru/catalog/lada/vesta</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>639900</t>
+          <t>519000</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cng/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
       <c r="H149" t="n">
-        <v>639900</v>
+        <v>569000</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_cng</t>
+          <t>https://auto-shop-21.ru/lada/vesta_1</t>
+        </is>
+      </c>
+      <c r="J149" t="n">
+        <v>1571500</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_18373.html</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>477900</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/lada/vesta</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -6627,40 +7285,48 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Vesta Sedan New</t>
+          <t>Vesta Sedan CNG</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>519000</v>
+        <v>611900</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta</t>
+          <t>https://zd-auto.ru/catalog/lada/vesta_cng</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>569000</t>
+          <t>639900</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
       <c r="H150" t="n">
-        <v>519000</v>
+        <v>639900</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta</t>
+          <t>https://auto-shop-21.ru/lada/vesta_cng</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>611900</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/lada/vesta_cng</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -6670,40 +7336,40 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Vesta Sport</t>
+          <t>Vesta Sedan New</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>839000</v>
+        <v>519000</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_sport</t>
+          <t>https://auto-shop-21.ru/lada/vesta</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>839000</t>
+          <t>569000</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sport/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta/</t>
         </is>
       </c>
       <c r="H151" t="n">
-        <v>839000</v>
+        <v>519000</v>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_sport</t>
+          <t>https://auto-shop-21.ru/lada/vesta</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -6713,40 +7379,48 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Xray</t>
+          <t>Vesta Sport</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>499000</v>
+        <v>839000</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/xray</t>
+          <t>https://auto-shop-21.ru/lada/vesta_sport</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>499000</t>
+          <t>839000</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/xray/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
       <c r="H152" t="n">
-        <v>499000</v>
+        <v>839000</v>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/xray</t>
+          <t>https://auto-shop-21.ru/lada/vesta_sport</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>856900</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/lada/vesta_sport</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -6756,40 +7430,48 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Xray Cross</t>
+          <t>Xray</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>591900</v>
+        <v>457900</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/xray_cross</t>
+          <t>https://zd-auto.ru/catalog/lada/xray</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>591900</t>
+          <t>499000</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/xray_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/xray/</t>
         </is>
       </c>
       <c r="H153" t="n">
-        <v>591900</v>
+        <v>499000</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/xray_cross</t>
+          <t>https://auto-shop-21.ru/lada/xray</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>457900</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/lada/xray</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>784</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -6799,30 +7481,48 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>ВИС 2346</t>
+          <t>Xray Cross</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1466000</v>
+        <v>591900</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_18062.html</t>
-        </is>
-      </c>
-      <c r="J154" t="n">
-        <v>1466000</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_18062.html</t>
+          <t>https://auto-shop-21.ru/lada/xray_cross</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>591900</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/lada/xray_cross/</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>591900</v>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/lada/xray_cross</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>605900</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/lada/xray_cross</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>784</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -6832,73 +7532,63 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>ВИС 2349 Фургон</t>
+          <t>ВИС 2346</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>1364100</v>
+        <v>1466000</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_14192.html</t>
+          <t>https://alyans-auto.ru/auto/auto_18062.html</t>
         </is>
       </c>
       <c r="J155" t="n">
-        <v>1364100</v>
+        <v>1466000</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_14192.html</t>
+          <t>https://alyans-auto.ru/auto/auto_18062.html</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>700</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Murman</t>
+          <t>ВИС 2349 Фургон</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>430000</v>
+        <v>1364100</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/murman</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>430000</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/lifan/murman/</t>
-        </is>
-      </c>
-      <c r="H156" t="n">
-        <v>430000</v>
-      </c>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/lifan/murman</t>
+          <t>https://alyans-auto.ru/auto/auto_14192.html</t>
+        </is>
+      </c>
+      <c r="J156" t="n">
+        <v>1364100</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_14192.html</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -6908,40 +7598,48 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>MyWay</t>
+          <t>Murman</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>539940</v>
+        <v>430000</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/myway</t>
+          <t>https://auto-shop-21.ru/lifan/murman</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>685000</t>
+          <t>430000</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/myway/</t>
+          <t>https://avto-trend21.ru/auto/lifan/murman/</t>
         </is>
       </c>
       <c r="H157" t="n">
-        <v>539940</v>
+        <v>430000</v>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/myway</t>
+          <t>https://auto-shop-21.ru/lifan/murman</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>621000</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/lifan/murman</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -6951,40 +7649,48 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Solano 2</t>
+          <t>MyWay</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>425940</v>
+        <v>539940</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/solano_ii</t>
+          <t>https://auto-shop-21.ru/lifan/myway</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>439900</t>
+          <t>685000</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/solano_ii/</t>
+          <t>https://avto-trend21.ru/auto/lifan/myway/</t>
         </is>
       </c>
       <c r="H158" t="n">
-        <v>425940</v>
+        <v>539940</v>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/solano_ii</t>
+          <t>https://auto-shop-21.ru/lifan/myway</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>756900</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/lifan/myway</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -6994,40 +7700,48 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>X50</t>
+          <t>Solano 2</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>368000</v>
+        <v>425940</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/x50</t>
+          <t>https://auto-shop-21.ru/lifan/solano_ii</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>368000</t>
+          <t>439900</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/x50/</t>
+          <t>https://avto-trend21.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
       <c r="H159" t="n">
-        <v>368000</v>
+        <v>425940</v>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/x50</t>
+          <t>https://auto-shop-21.ru/lifan/solano_ii</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>492000</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/lifan/solano2</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -7037,40 +7751,48 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>X60</t>
+          <t>X50</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>461940</v>
+        <v>368000</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/x60</t>
+          <t>https://auto-shop-21.ru/lifan/x50</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>479900</t>
+          <t>368000</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/x60/</t>
+          <t>https://avto-trend21.ru/auto/lifan/x50/</t>
         </is>
       </c>
       <c r="H160" t="n">
-        <v>461940</v>
+        <v>368000</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/x60</t>
+          <t>https://auto-shop-21.ru/lifan/x50</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>554000</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/lifan/x50</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -7080,83 +7802,99 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>X60</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>593400</v>
+        <v>461940</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/x70</t>
+          <t>https://auto-shop-21.ru/lifan/x60</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>737000</t>
+          <t>479900</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/x70/</t>
+          <t>https://avto-trend21.ru/auto/lifan/x60/</t>
         </is>
       </c>
       <c r="H161" t="n">
-        <v>593400</v>
+        <v>461940</v>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lifan/x70</t>
+          <t>https://auto-shop-21.ru/lifan/x60</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>626900</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/lifan/x60</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>1529940</v>
+        <v>593400</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/livan/s6pro</t>
+          <t>https://auto-shop-21.ru/lifan/x70</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>1749900</t>
+          <t>737000</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/livan/s6pro/</t>
+          <t>https://avto-trend21.ru/auto/lifan/x70/</t>
         </is>
       </c>
       <c r="H162" t="n">
-        <v>1529940</v>
+        <v>593400</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/livan/s6pro</t>
+          <t>https://auto-shop-21.ru/lifan/x70</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>736000</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/lifan/x70</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -7166,40 +7904,48 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1127940</v>
+        <v>1529940</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/livan/x3pro</t>
+          <t>https://auto-shop-21.ru/livan/s6pro</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>1279900</t>
+          <t>1749900</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/livan/x3pro/</t>
+          <t>https://avto-trend21.ru/auto/livan/s6pro/</t>
         </is>
       </c>
       <c r="H163" t="n">
-        <v>1127940</v>
+        <v>1529940</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/livan/x3pro</t>
+          <t>https://auto-shop-21.ru/livan/s6pro</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1784930</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/livan/s6pro</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -7209,83 +7955,99 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>X6 Pro</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>1577940</v>
+        <v>1127940</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/livan/x6pro</t>
+          <t>https://auto-shop-21.ru/livan/x3pro</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>1829900</t>
+          <t>1279900</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/livan/x6pro/</t>
+          <t>https://avto-trend21.ru/auto/livan/x3pro/</t>
         </is>
       </c>
       <c r="H164" t="n">
-        <v>1577940</v>
+        <v>1127940</v>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/livan/x6pro</t>
+          <t>https://auto-shop-21.ru/livan/x3pro</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1589900</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/livan/x3pro</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>X6 Pro</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>960000</v>
+        <v>1577940</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/moskvich/3</t>
+          <t>https://auto-shop-21.ru/livan/x6pro</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>960000</t>
+          <t>1829900</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/moskvich/3/</t>
+          <t>https://avto-trend21.ru/auto/livan/x6pro/</t>
         </is>
       </c>
       <c r="H165" t="n">
-        <v>960000</v>
+        <v>1577940</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/moskvich/3</t>
+          <t>https://auto-shop-21.ru/livan/x6pro</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1840930</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/livan/x6pro</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -7295,83 +8057,99 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>3e</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>2370000</v>
+        <v>960000</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/moskvich/3e</t>
+          <t>https://auto-shop-21.ru/moskvich/3</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>3147000</t>
+          <t>960000</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/moskvich/3e/</t>
+          <t>https://avto-trend21.ru/auto/moskvich/3/</t>
         </is>
       </c>
       <c r="H166" t="n">
-        <v>2370000</v>
+        <v>960000</v>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/moskvich/3e</t>
+          <t>https://auto-shop-21.ru/moskvich/3</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1444000</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/moskvich/moskvish_3</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Qashqai</t>
+          <t>3e</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>790000</v>
+        <v>2370000</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/nissan/qashqai</t>
+          <t>https://auto-shop-21.ru/moskvich/3e</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>790000</t>
+          <t>3147000</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/qashqai/</t>
+          <t>https://avto-trend21.ru/auto/moskvich/3e/</t>
         </is>
       </c>
       <c r="H167" t="n">
-        <v>790000</v>
+        <v>2370000</v>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/nissan/qashqai</t>
+          <t>https://auto-shop-21.ru/moskvich/3e</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>2450000</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/moskvich/moskvish_3e</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -7381,40 +8159,48 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Terrano</t>
+          <t>Qashqai</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>619000</v>
+        <v>790000</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/nissan/terrano</t>
+          <t>https://auto-shop-21.ru/nissan/qashqai</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>619000</t>
+          <t>790000</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/terrano/</t>
+          <t>https://avto-trend21.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
       <c r="H168" t="n">
-        <v>619000</v>
+        <v>790000</v>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/nissan/terrano</t>
+          <t>https://auto-shop-21.ru/nissan/qashqai</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>963000</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/nissan/qashqai_new</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -7424,91 +8210,99 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>X-trail</t>
+          <t>Terrano</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>855000</v>
+        <v>619000</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/nissan/x-trail</t>
+          <t>https://auto-shop-21.ru/nissan/terrano</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>855000</t>
+          <t>619000</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/x-trail/</t>
+          <t>https://avto-trend21.ru/auto/nissan/terrano/</t>
         </is>
       </c>
       <c r="H169" t="n">
-        <v>855000</v>
+        <v>619000</v>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/nissan/x-trail</t>
+          <t>https://auto-shop-21.ru/nissan/terrano</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>822000</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/nissan/terrano</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>X-trail</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1607940</v>
+        <v>855000</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/omoda/c5</t>
+          <t>https://auto-shop-21.ru/nissan/x-trail</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>1999900</t>
+          <t>855000</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/omoda/c5/</t>
+          <t>https://avto-trend21.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
       <c r="H170" t="n">
-        <v>1607940</v>
+        <v>855000</v>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/omoda/c5</t>
-        </is>
-      </c>
-      <c r="J170" t="n">
-        <v>2169900</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_18504.html</t>
+          <t>https://auto-shop-21.ru/nissan/x-trail</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1259000</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/nissan/x-trail_new</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -7518,91 +8312,107 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>1349940</v>
+        <v>1607940</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/omoda/s5</t>
+          <t>https://auto-shop-21.ru/omoda/c5</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>1689900</t>
+          <t>1999900</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/omoda/s5/</t>
+          <t>https://avto-trend21.ru/auto/omoda/c5/</t>
         </is>
       </c>
       <c r="H171" t="n">
-        <v>1349940</v>
+        <v>1607940</v>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/omoda/s5</t>
+          <t>https://auto-shop-21.ru/omoda/c5</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>2079000</v>
+        <v>2169900</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16128.html</t>
+          <t>https://alyans-auto.ru/auto/auto_18504.html</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Nexia R3</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>339000</v>
+        <v>1349940</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/ravon/nexia_r3</t>
+          <t>https://auto-shop-21.ru/omoda/s5</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>339000</t>
+          <t>1689900</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/nexia_r3/</t>
+          <t>https://avto-trend21.ru/auto/omoda/s5/</t>
         </is>
       </c>
       <c r="H172" t="n">
-        <v>339000</v>
+        <v>1349940</v>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/ravon/nexia_r3</t>
+          <t>https://auto-shop-21.ru/omoda/s5</t>
+        </is>
+      </c>
+      <c r="J172" t="n">
+        <v>2079000</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_16128.html</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1659900</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/omoda/s5</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -7612,7 +8422,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>Nexia R3</t>
         </is>
       </c>
       <c r="D173" t="n">
@@ -7620,7 +8430,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/ravon/r2</t>
+          <t>https://auto-shop-21.ru/ravon/nexia_r3</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -7630,7 +8440,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/r2/</t>
+          <t>https://avto-trend21.ru/auto/ravon/nexia_r3/</t>
         </is>
       </c>
       <c r="H173" t="n">
@@ -7638,14 +8448,22 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/ravon/r2</t>
+          <t>https://auto-shop-21.ru/ravon/nexia_r3</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>386500</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/ravon/nexia_r3</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -7655,83 +8473,99 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>389000</v>
+        <v>339000</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/ravon/r4</t>
+          <t>https://auto-shop-21.ru/ravon/r2</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>389000</t>
+          <t>339000</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/r4/</t>
+          <t>https://avto-trend21.ru/auto/ravon/r2/</t>
         </is>
       </c>
       <c r="H174" t="n">
-        <v>389000</v>
+        <v>339000</v>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/ravon/r4</t>
+          <t>https://auto-shop-21.ru/ravon/r2</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>376000</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/ravon/r2</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>R4</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>690000</v>
+        <v>381000</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/arkana</t>
+          <t>https://zd-auto.ru/catalog/ravon/r4</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>690000</t>
+          <t>389000</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/arkana/</t>
+          <t>https://avto-trend21.ru/auto/ravon/r4/</t>
         </is>
       </c>
       <c r="H175" t="n">
-        <v>690000</v>
+        <v>389000</v>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/arkana</t>
+          <t>https://auto-shop-21.ru/ravon/r4</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>381000</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/ravon/r4</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -7741,40 +8575,48 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Duster New</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>650000</v>
+        <v>690000</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/duster/</t>
+          <t>https://auto-shop-21.ru/renault/arkana</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>650000</t>
+          <t>690000</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/duster/</t>
+          <t>https://avto-trend21.ru/auto/renault/arkana/</t>
         </is>
       </c>
       <c r="H176" t="n">
-        <v>970800</v>
+        <v>690000</v>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/duster</t>
+          <t>https://auto-shop-21.ru/renault/arkana</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>882000</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/renault/arkana</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -7784,40 +8626,48 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>Duster New</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>659000</v>
+        <v>649000</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/kaptur</t>
+          <t>https://zd-auto.ru/catalog/renault/duster_new</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>659000</t>
+          <t>650000</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/kaptur/</t>
+          <t>https://avto-trend21.ru/auto/renault/duster/</t>
         </is>
       </c>
       <c r="H177" t="n">
-        <v>659000</v>
+        <v>970800</v>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/kaptur</t>
+          <t>https://auto-shop-21.ru/renault/duster</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>649000</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/renault/duster_new</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -7827,40 +8677,48 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Koleos</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>1019400</v>
+        <v>659000</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/koleos</t>
+          <t>https://auto-shop-21.ru/renault/kaptur</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>1553000</t>
+          <t>659000</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/koleos/</t>
+          <t>https://avto-trend21.ru/auto/renault/kaptur/</t>
         </is>
       </c>
       <c r="H178" t="n">
-        <v>1019400</v>
+        <v>659000</v>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/koleos</t>
+          <t>https://auto-shop-21.ru/renault/kaptur</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>698000</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/renault/kaptur</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>552</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -7870,40 +8728,40 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Koleos</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>490000</v>
+        <v>1019400</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/logan</t>
+          <t>https://auto-shop-21.ru/renault/koleos</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>490000</t>
+          <t>1553000</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/logan/</t>
+          <t>https://avto-trend21.ru/auto/renault/koleos/</t>
         </is>
       </c>
       <c r="H179" t="n">
-        <v>490000</v>
+        <v>1019400</v>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/logan</t>
+          <t>https://auto-shop-21.ru/renault/koleos</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -7913,40 +8771,48 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>530000</v>
+        <v>471000</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/logan_stepway</t>
+          <t>https://zd-auto.ru/catalog/renault/logan_new</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>530000</t>
+          <t>490000</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/logan_stepway/</t>
+          <t>https://avto-trend21.ru/auto/renault/logan/</t>
         </is>
       </c>
       <c r="H180" t="n">
-        <v>530000</v>
+        <v>490000</v>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/logan_stepway</t>
+          <t>https://auto-shop-21.ru/renault/logan</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>471000</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/renault/logan_new</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -7956,40 +8822,48 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Logan Stepway City</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>715000</v>
+        <v>530000</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/logan_stepway_city</t>
+          <t>https://auto-shop-21.ru/renault/logan_stepway</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>715000</t>
+          <t>530000</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/logan_stepway_city/</t>
+          <t>https://avto-trend21.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="H181" t="n">
-        <v>715000</v>
+        <v>530000</v>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/logan_stepway_city</t>
+          <t>https://auto-shop-21.ru/renault/logan_stepway</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>579000</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/renault/logan_stepway</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -7999,40 +8873,48 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>Logan Stepway City</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>520000</v>
+        <v>715000</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/sandero</t>
+          <t>https://auto-shop-21.ru/renault/logan_stepway_city</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>520000</t>
+          <t>715000</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/sandero/</t>
+          <t>https://avto-trend21.ru/auto/renault/logan_stepway_city/</t>
         </is>
       </c>
       <c r="H182" t="n">
-        <v>520000</v>
+        <v>715000</v>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/sandero</t>
+          <t>https://auto-shop-21.ru/renault/logan_stepway_city</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>768000</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/renault/logan_stepway_city_2018</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -8042,40 +8924,48 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>550000</v>
+        <v>471000</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/sandero_stepway</t>
+          <t>https://zd-auto.ru/catalog/renault/sandero_new</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>550000</t>
+          <t>520000</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/sandero_stepway/</t>
+          <t>https://avto-trend21.ru/auto/renault/sandero/</t>
         </is>
       </c>
       <c r="H183" t="n">
-        <v>550000</v>
+        <v>520000</v>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/sandero_stepway</t>
+          <t>https://auto-shop-21.ru/renault/sandero</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>471000</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/renault/sandero_new</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -8085,83 +8975,99 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Stepway City</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>835800</v>
+        <v>550000</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/sandero_stepway_city</t>
+          <t>https://auto-shop-21.ru/renault/sandero_stepway</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>1170000</t>
+          <t>550000</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/sandero_stepway_city/</t>
+          <t>https://avto-trend21.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
       <c r="H184" t="n">
-        <v>835800</v>
+        <v>550000</v>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/renault/sandero_stepway_city</t>
+          <t>https://auto-shop-21.ru/renault/sandero_stepway</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>573000</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/renault/sandero_stepway</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>567</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>Stepway City</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>740000</v>
+        <v>822000</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/karoq</t>
+          <t>https://zd-auto.ru/catalog/renault/sandero_stepway_city_2018</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>740000</t>
+          <t>1170000</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/karoq/</t>
+          <t>https://avto-trend21.ru/auto/renault/sandero_stepway_city/</t>
         </is>
       </c>
       <c r="H185" t="n">
-        <v>740000</v>
+        <v>835800</v>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/karoq</t>
+          <t>https://auto-shop-21.ru/renault/sandero_stepway_city</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>822000</v>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/renault/sandero_stepway_city_2018</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -8171,40 +9077,48 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Kodiaq Hockey Edition</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1421340</v>
+        <v>740000</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq_hockey_edition</t>
+          <t>https://auto-shop-21.ru/skoda/karoq</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>1581000</t>
+          <t>740000</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq_hockey_edition/</t>
+          <t>https://avto-trend21.ru/auto/skoda/karoq/</t>
         </is>
       </c>
       <c r="H186" t="n">
-        <v>1421340</v>
+        <v>740000</v>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq_hockey_edition</t>
+          <t>https://auto-shop-21.ru/skoda/karoq</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1094000</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/skoda/karoq</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>590</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -8214,40 +9128,40 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Kodiaq Laurin &amp; Klement</t>
+          <t>Kodiaq Hockey Edition</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>3058000</v>
+        <v>1421340</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq_laurin__klement</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_hockey_edition</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>3058000</t>
+          <t>1581000</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq_laurin__klement/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq_hockey_edition/</t>
         </is>
       </c>
       <c r="H187" t="n">
-        <v>3058000</v>
+        <v>1421340</v>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq_laurin__klement</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_hockey_edition</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>593</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -8257,40 +9171,40 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Kodiaq New</t>
+          <t>Kodiaq Laurin &amp; Klement</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>1659000</v>
+        <v>3058000</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq/</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_laurin__klement</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>1659000</t>
+          <t>3058000</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq_laurin__klement/</t>
         </is>
       </c>
       <c r="H188" t="n">
-        <v>2184000</v>
+        <v>3058000</v>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_laurin__klement</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>576</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -8300,40 +9214,40 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Kodiaq Scout</t>
+          <t>Kodiaq New</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>2098800</v>
+        <v>1659000</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq_scout</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>3375000</t>
+          <t>1659000</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq_scout/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
       <c r="H189" t="n">
-        <v>2098800</v>
+        <v>2184000</v>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq_scout</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>591</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -8343,40 +9257,40 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Kodiaq Sportline</t>
+          <t>Kodiaq Scout</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>2989000</v>
+        <v>2098800</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq_sportline</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_scout</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2989000</t>
+          <t>3375000</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq_sportline/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq_scout/</t>
         </is>
       </c>
       <c r="H190" t="n">
-        <v>2989000</v>
+        <v>2098800</v>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/kodiaq_sportline</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_scout</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>592</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -8386,40 +9300,40 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Octavia Hockey Edition</t>
+          <t>Kodiaq Sportline</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>989000</v>
+        <v>2989000</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/octavia_hockey_edition</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_sportline</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>989000</t>
+          <t>2989000</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/octavia_hockey_edition/</t>
+          <t>https://avto-trend21.ru/auto/skoda/kodiaq_sportline/</t>
         </is>
       </c>
       <c r="H191" t="n">
-        <v>989000</v>
+        <v>2989000</v>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/octavia_hockey_edition</t>
+          <t>https://auto-shop-21.ru/skoda/kodiaq_sportline</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>589</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -8429,40 +9343,48 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Octavia New</t>
+          <t>Octavia Hockey Edition</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>840000</v>
+        <v>989000</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/octavia/</t>
+          <t>https://auto-shop-21.ru/skoda/octavia_hockey_edition</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>840000</t>
+          <t>989000</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/octavia/</t>
+          <t>https://avto-trend21.ru/auto/skoda/octavia_hockey_edition/</t>
         </is>
       </c>
       <c r="H192" t="n">
-        <v>1567800</v>
+        <v>989000</v>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/octavia</t>
+          <t>https://auto-shop-21.ru/skoda/octavia_hockey_edition</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1162000</v>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/skoda/octavia_hockey_edition</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -8472,40 +9394,48 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Rapid</t>
+          <t>Octavia New</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>520000</v>
+        <v>840000</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/rapid</t>
+          <t>https://avto-trend21.ru/auto/skoda/octavia/</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>520000</t>
+          <t>840000</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/rapid/</t>
+          <t>https://avto-trend21.ru/auto/skoda/octavia/</t>
         </is>
       </c>
       <c r="H193" t="n">
-        <v>520000</v>
+        <v>1567800</v>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/rapid</t>
+          <t>https://auto-shop-21.ru/skoda/octavia</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1258000</v>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/skoda/octavia_new</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -8515,40 +9445,40 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Superb</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>1222000</v>
+        <v>520000</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/superb</t>
+          <t>https://auto-shop-21.ru/skoda/rapid</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>1222000</t>
+          <t>520000</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/superb/</t>
+          <t>https://avto-trend21.ru/auto/skoda/rapid/</t>
         </is>
       </c>
       <c r="H194" t="n">
-        <v>1222000</v>
+        <v>520000</v>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/superb</t>
+          <t>https://auto-shop-21.ru/skoda/rapid</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -8558,75 +9488,83 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Superb Combi</t>
+          <t>Superb</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>2089000</v>
+        <v>1222000</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/superb_combi</t>
+          <t>https://auto-shop-21.ru/skoda/superb</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2089000</t>
+          <t>1222000</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/superb_combi/</t>
+          <t>https://avto-trend21.ru/auto/skoda/superb/</t>
         </is>
       </c>
       <c r="H195" t="n">
-        <v>2089000</v>
+        <v>1222000</v>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/skoda/superb_combi</t>
+          <t>https://auto-shop-21.ru/skoda/superb</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>Superb Combi</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>1749300</v>
+        <v>2089000</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/hc/</t>
+          <t>https://auto-shop-21.ru/skoda/superb_combi</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>1749300</t>
+          <t>2089000</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/hc/</t>
+          <t>https://avto-trend21.ru/auto/skoda/superb_combi/</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>2089000</v>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/skoda/superb_combi</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -8636,32 +9574,40 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>1407000</v>
+        <v>1749300</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/hs/</t>
+          <t>https://avto-trend21.ru/auto/solaris/hc/</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>1407000</t>
+          <t>1749300</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/hs/</t>
+          <t>https://avto-trend21.ru/auto/solaris/hc/</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1763000</v>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/Solaris/hc</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -8671,32 +9617,40 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>KRS</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>1426600</v>
+        <v>1390000</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/krs/</t>
+          <t>https://zd-auto.ru/catalog/Solaris/hs</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>1426600</t>
+          <t>1407000</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/krs/</t>
+          <t>https://avto-trend21.ru/auto/solaris/hs/</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1390000</v>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/Solaris/hs</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -8706,65 +9660,83 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>KRX</t>
+          <t>KRS</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>1444800</v>
+        <v>1426600</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/krx/</t>
+          <t>https://avto-trend21.ru/auto/solaris/krs/</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>1444800</t>
+          <t>1426600</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/krx/</t>
+          <t>https://avto-trend21.ru/auto/solaris/krs/</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1448000</v>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/Solaris/krs</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>KRX</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>2459400</v>
+        <v>1444800</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/tank/300</t>
-        </is>
-      </c>
-      <c r="H200" t="n">
-        <v>2459400</v>
-      </c>
-      <c r="I200" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/tank/300</t>
+          <t>https://avto-trend21.ru/auto/solaris/krx/</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>1444800</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/solaris/krx/</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1464000</v>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/Solaris/krx</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -8774,73 +9746,79 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>3779400</v>
+        <v>2459400</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/tank/500</t>
+          <t>https://auto-shop-21.ru/tank/300</t>
         </is>
       </c>
       <c r="H201" t="n">
-        <v>3779400</v>
+        <v>2459400</v>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/tank/500</t>
+          <t>https://auto-shop-21.ru/tank/300</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>4099000</v>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/tank/tank_300</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>975000</v>
+        <v>3779400</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/volkswagen/jetta</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>975000</t>
-        </is>
-      </c>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/jetta/</t>
+          <t>https://auto-shop-21.ru/tank/500</t>
         </is>
       </c>
       <c r="H202" t="n">
-        <v>975000</v>
+        <v>3779400</v>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/volkswagen/jetta</t>
+          <t>https://auto-shop-21.ru/tank/500</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>6299000</v>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/tank/tank_500</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -8850,40 +9828,48 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Passat</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>1050000</v>
+        <v>975000</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/volkswagen/passat</t>
+          <t>https://auto-shop-21.ru/volkswagen/jetta</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>1050000</t>
+          <t>975000</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/passat/</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
       <c r="H203" t="n">
-        <v>1050000</v>
+        <v>975000</v>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/volkswagen/passat</t>
+          <t>https://auto-shop-21.ru/volkswagen/jetta</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1282000</v>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/volkswagen/jetta</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>649</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -8893,40 +9879,40 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>Passat</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>730900</v>
+        <v>1050000</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/volkswagen/polo</t>
+          <t>https://auto-shop-21.ru/volkswagen/passat</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>730900</t>
+          <t>1050000</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/polo/</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
       <c r="H204" t="n">
-        <v>730900</v>
+        <v>1050000</v>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/volkswagen/polo</t>
+          <t>https://auto-shop-21.ru/volkswagen/passat</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -8936,40 +9922,40 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Taos</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>1399900</v>
+        <v>730900</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/volkswagen/taos</t>
+          <t>https://auto-shop-21.ru/volkswagen/polo</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>1399900</t>
+          <t>730900</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/taos/</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
       <c r="H205" t="n">
-        <v>1399900</v>
+        <v>730900</v>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/volkswagen/taos</t>
+          <t>https://auto-shop-21.ru/volkswagen/polo</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -8979,73 +9965,91 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Tiguan New</t>
+          <t>Taos</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>1579900</v>
+        <v>1326900</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/tiguan/</t>
+          <t>https://zd-auto.ru/catalog/volkswagen/taos</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>1579900</t>
+          <t>1399900</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/tiguan/</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
       <c r="H206" t="n">
-        <v>2025540</v>
+        <v>1399900</v>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/volkswagen/tiguan</t>
+          <t>https://auto-shop-21.ru/volkswagen/taos</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1326900</v>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/volkswagen/taos</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>658</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>XCite</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>X-Cross 7</t>
+          <t>Tiguan New</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>2495500</v>
+        <v>1579900</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17597.html</t>
-        </is>
-      </c>
-      <c r="J207" t="n">
-        <v>2495500</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_17597.html</t>
+          <t>https://avto-trend21.ru/auto/volkswagen/tiguan/</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>1579900</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/volkswagen/tiguan/</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>2025540</v>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/volkswagen/tiguan</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>787</t>
+          <t>675</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -9055,109 +10059,158 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>X-Cross 8</t>
+          <t>X-Cross 7</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>2999000</v>
+        <v>2495500</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_18333.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17597.html</t>
         </is>
       </c>
       <c r="J208" t="n">
-        <v>2999000</v>
+        <v>2495500</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_18333.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17597.html</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>787</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Zotye</t>
+          <t>XCite</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Coupa</t>
+          <t>X-Cross 8</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>713760</v>
+        <v>2999000</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/zotye/coupa</t>
-        </is>
-      </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>989600</t>
-        </is>
-      </c>
-      <c r="G209" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/zotye/coupa/</t>
-        </is>
-      </c>
-      <c r="H209" t="n">
-        <v>713760</v>
-      </c>
-      <c r="I209" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/zotye/coupa</t>
+          <t>https://alyans-auto.ru/auto/auto_18333.html</t>
+        </is>
+      </c>
+      <c r="J209" t="n">
+        <v>2999000</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_18333.html</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
+          <t>672</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Zotye</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Coupa</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>713760</v>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/zotye/coupa</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>989600</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>713760</v>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/zotye/coupa</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>968000</v>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/zotye/coupa</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
           <t>674</t>
         </is>
       </c>
-      <c r="B210" t="inlineStr">
+      <c r="B211" t="inlineStr">
         <is>
           <t>Zotye</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr">
+      <c r="C211" t="inlineStr">
         <is>
           <t>T600</t>
         </is>
       </c>
-      <c r="D210" t="n">
+      <c r="D211" t="n">
         <v>582960</v>
       </c>
-      <c r="E210" t="inlineStr">
+      <c r="E211" t="inlineStr">
         <is>
           <t>https://auto-shop-21.ru/zotye/t600</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
+      <c r="F211" t="inlineStr">
         <is>
           <t>771600</t>
         </is>
       </c>
-      <c r="G210" t="inlineStr">
+      <c r="G211" t="inlineStr">
         <is>
           <t>https://avto-trend21.ru/auto/zotye/t600/</t>
         </is>
       </c>
-      <c r="H210" t="n">
+      <c r="H211" t="n">
         <v>582960</v>
       </c>
-      <c r="I210" t="inlineStr">
+      <c r="I211" t="inlineStr">
         <is>
           <t>https://auto-shop-21.ru/zotye/t600</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>770000</v>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/zotye/t600</t>
         </is>
       </c>
     </row>

--- a/xlsx/cheboksari.xlsx
+++ b/xlsx/cheboksari.xlsx
@@ -530,14 +530,6 @@
           <t>https://auto-shop-21.ru/baic/bj40</t>
         </is>
       </c>
-      <c r="L2" t="n">
-        <v>3119000</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/baic/bj40_I_restailing</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -581,14 +573,6 @@
           <t>https://auto-shop-21.ru/baic/u5_plus</t>
         </is>
       </c>
-      <c r="L3" t="n">
-        <v>1379000</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/baic/u5_plus</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -632,14 +616,6 @@
           <t>https://auto-shop-21.ru/baic/x35</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1379000</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/baic/x35</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -793,19 +769,11 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1879900</v>
+        <v>1899900</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
           <t>https://alyans-auto.ru/auto/auto_17047.html</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1349900</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/changan/alsvin</t>
         </is>
       </c>
     </row>
@@ -851,14 +819,6 @@
           <t>https://auto-shop-21.ru/changan/cs35</t>
         </is>
       </c>
-      <c r="L9" t="n">
-        <v>743900</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/changan/cs35</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -877,27 +837,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1057900</v>
+        <v>2629900</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://zd-auto.ru/catalog/changan/cs35plus</t>
+          <t>https://alyans-auto.ru/auto/auto_15682.html</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>2599900</v>
+        <v>2629900</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>https://alyans-auto.ru/auto/auto_15682.html</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1057900</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/changan/cs35plus</t>
         </is>
       </c>
     </row>
@@ -918,11 +870,11 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1726900</v>
+        <v>2119900</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://zd-auto.ru/catalog/changan/cs35plus_2023MY</t>
+          <t>https://avto-trend21.ru/auto/changan/cs35_plus/</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -943,14 +895,6 @@
           <t>https://auto-shop-21.ru/changan/cs35_plus</t>
         </is>
       </c>
-      <c r="L11" t="n">
-        <v>1726900</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/changan/cs35plus_2023MY</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -994,14 +938,6 @@
           <t>https://auto-shop-21.ru/changan/cs55</t>
         </is>
       </c>
-      <c r="L12" t="n">
-        <v>1218900</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/changan/cs55</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1046,7 +982,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>2909900</v>
+        <v>2959900</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1096,14 +1032,6 @@
           <t>https://auto-shop-21.ru/changan/cs75fl</t>
         </is>
       </c>
-      <c r="L14" t="n">
-        <v>1573900</v>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/changan/cs75fl</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1241,14 +1169,6 @@
           <t>https://auto-shop-21.ru/changan/eado_plus</t>
         </is>
       </c>
-      <c r="L17" t="n">
-        <v>1630930</v>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/changan/eadoplus</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1267,11 +1187,11 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1952930</v>
+        <v>2589900</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://zd-auto.ru/catalog/changan/lamore</t>
+          <t>https://avto-trend21.ru/auto/changan/lamore/</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1292,14 +1212,6 @@
           <t>https://alyans-auto.ru/auto/auto_18039.html</t>
         </is>
       </c>
-      <c r="L18" t="n">
-        <v>1952930</v>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/changan/lamore</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1344,7 +1256,7 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>4449900</v>
+        <v>4549900</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1369,7 +1281,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2909900</v>
+        <v>2959900</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1377,7 +1289,7 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>2909900</v>
+        <v>2959900</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1420,7 +1332,7 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>3219900</v>
+        <v>3239900</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1521,14 +1433,6 @@
           <t>https://auto-shop-21.ru/chery/arrizo_8</t>
         </is>
       </c>
-      <c r="L23" t="n">
-        <v>2065000</v>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/chery/arrizo_8</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1572,14 +1476,6 @@
           <t>https://auto-shop-21.ru/chery/tiggo_3</t>
         </is>
       </c>
-      <c r="L24" t="n">
-        <v>637900</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/chery/tiggo3</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1623,14 +1519,6 @@
           <t>https://auto-shop-21.ru/chery/tiggo_4</t>
         </is>
       </c>
-      <c r="L25" t="n">
-        <v>736900</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/chery/tiggo_4</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1709,14 +1597,6 @@
           <t>https://auto-shop-21.ru/chery/tiggo_4_pro</t>
         </is>
       </c>
-      <c r="L27" t="n">
-        <v>1349900</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/chery/tiggo_4_pro</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1760,14 +1640,6 @@
           <t>https://auto-shop-21.ru/chery/tiggo_7</t>
         </is>
       </c>
-      <c r="L28" t="n">
-        <v>956900</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/chery/tiggo_7</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1811,14 +1683,6 @@
           <t>https://auto-shop-21.ru/chery/tiggo_7_pro</t>
         </is>
       </c>
-      <c r="L29" t="n">
-        <v>1217900</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/chery/tiggo7pro</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1940,14 +1804,6 @@
           <t>https://auto-shop-21.ru/chery/tiggo_8</t>
         </is>
       </c>
-      <c r="L32" t="n">
-        <v>1247900</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/chery/tiggo_8</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1991,14 +1847,6 @@
           <t>https://auto-shop-21.ru/chery/tiggo_8_pro</t>
         </is>
       </c>
-      <c r="L33" t="n">
-        <v>1527900</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/chery/tiggo_8_pro</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2042,14 +1890,6 @@
           <t>https://auto-shop-21.ru/chery/tiggo_8_pro_max_1</t>
         </is>
       </c>
-      <c r="L34" t="n">
-        <v>2730000</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/chery/tiggo_8_pro_max</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2136,14 +1976,6 @@
           <t>https://auto-shop-21.ru/chevrolet/cobalt</t>
         </is>
       </c>
-      <c r="L36" t="n">
-        <v>597900</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/chevrolet/cobalt</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2187,14 +2019,6 @@
           <t>https://auto-shop-21.ru/chevrolet/nexia</t>
         </is>
       </c>
-      <c r="L37" t="n">
-        <v>547900</v>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/chevrolet/nexia</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2213,11 +2037,11 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>567900</v>
+        <v>570540</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://zd-auto.ru/catalog/chevrolet/spark</t>
+          <t>https://auto-shop-21.ru/chevrolet/spark</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2238,14 +2062,6 @@
           <t>https://auto-shop-21.ru/chevrolet/spark</t>
         </is>
       </c>
-      <c r="L38" t="n">
-        <v>567900</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/chevrolet/spark</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2289,14 +2105,6 @@
           <t>https://auto-shop-21.ru/dfm/580</t>
         </is>
       </c>
-      <c r="L39" t="n">
-        <v>1090000</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/dfm/580</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2340,14 +2148,6 @@
           <t>https://auto-shop-21.ru/dfm/ax7</t>
         </is>
       </c>
-      <c r="L40" t="n">
-        <v>1129000</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/dfm/dfm_ax7</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2485,14 +2285,6 @@
           <t>https://avto-trend21.ru/auto/exeed/lx/</t>
         </is>
       </c>
-      <c r="L43" t="n">
-        <v>2999900</v>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/exeed/lx</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2528,14 +2320,6 @@
           <t>https://avto-trend21.ru/auto/exeed/rx/</t>
         </is>
       </c>
-      <c r="L44" t="n">
-        <v>3605000</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/exeed/exeed_rx</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2579,14 +2363,6 @@
           <t>https://auto-shop-21.ru/exeed/txl</t>
         </is>
       </c>
-      <c r="L45" t="n">
-        <v>1999900</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/chery/txl</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2665,14 +2441,6 @@
           <t>https://auto-shop-21.ru/faw/bestune_b70</t>
         </is>
       </c>
-      <c r="L47" t="n">
-        <v>1629600</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/faw/bestune_b70</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2716,14 +2484,6 @@
           <t>https://auto-shop-21.ru/faw/bestune_t55</t>
         </is>
       </c>
-      <c r="L48" t="n">
-        <v>1602300</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/faw/bestune_t55</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3044,14 +2804,6 @@
           <t>https://alyans-auto.ru/auto/auto_17820.html</t>
         </is>
       </c>
-      <c r="L56" t="n">
-        <v>2236493</v>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/geely/atlas</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3146,14 +2898,6 @@
           <t>https://alyans-auto.ru/auto/auto_17094.html</t>
         </is>
       </c>
-      <c r="L58" t="n">
-        <v>1964990</v>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/geely/atlas_pro</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3197,14 +2941,6 @@
           <t>https://auto-shop-21.ru/geely/belgee_x50</t>
         </is>
       </c>
-      <c r="L59" t="n">
-        <v>1603693</v>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/geely/belgee_x50</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3223,19 +2959,19 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>3094190</v>
+        <v>3214190</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_18214.html</t>
+          <t>https://alyans-auto.ru/auto/auto_18025.html</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>3094190</v>
+        <v>3214190</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_18214.html</t>
+          <t>https://alyans-auto.ru/auto/auto_18025.html</t>
         </is>
       </c>
     </row>
@@ -3256,11 +2992,11 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>983999</v>
+        <v>1565994</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://zd-auto.ru/catalog/geely/coolray</t>
+          <t>https://auto-shop-21.ru/geely/coolray_1</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3282,19 +3018,11 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>2799190</v>
+        <v>2909190</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16731.html</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>983999</v>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/geely/coolray</t>
+          <t>https://alyans-auto.ru/auto/auto_18877.html</t>
         </is>
       </c>
     </row>
@@ -3340,14 +3068,6 @@
           <t>https://auto-shop-21.ru/geely/coolray</t>
         </is>
       </c>
-      <c r="L62" t="n">
-        <v>1826993</v>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/geely/coolray_new</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3370,7 +3090,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_18097.html</t>
+          <t>https://alyans-auto.ru/auto/auto_18246.html</t>
         </is>
       </c>
       <c r="J63" t="n">
@@ -3378,7 +3098,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_18097.html</t>
+          <t>https://alyans-auto.ru/auto/auto_18246.html</t>
         </is>
       </c>
     </row>
@@ -3467,14 +3187,6 @@
           <t>https://auto-shop-21.ru/geely/emgrand_x7</t>
         </is>
       </c>
-      <c r="L65" t="n">
-        <v>907990</v>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/geely/emgrand_x7_2019</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3518,14 +3230,6 @@
           <t>https://auto-shop-21.ru/geely/gs</t>
         </is>
       </c>
-      <c r="L66" t="n">
-        <v>999990</v>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/geely/gs</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3747,11 +3451,11 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2414300</v>
+        <v>3399000</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://zd-auto.ru/catalog/great-wall/poer</t>
+          <t>https://alyans-auto.ru/auto/auto_13123.html</t>
         </is>
       </c>
       <c r="J72" t="n">
@@ -3762,14 +3466,6 @@
           <t>https://alyans-auto.ru/auto/auto_13123.html</t>
         </is>
       </c>
-      <c r="L72" t="n">
-        <v>2414300</v>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/great-wall/poer</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3821,14 +3517,6 @@
           <t>https://alyans-auto.ru/auto/auto_18204.html</t>
         </is>
       </c>
-      <c r="L73" t="n">
-        <v>1799000</v>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/haval/dargo</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3872,14 +3560,6 @@
           <t>https://auto-shop-21.ru/haval/dargo_x</t>
         </is>
       </c>
-      <c r="L74" t="n">
-        <v>2344300</v>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/haval/dargo_x</t>
-        </is>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3898,27 +3578,19 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1141000</v>
+        <v>2699000</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://zd-auto.ru/catalog/haval/f7</t>
+          <t>https://alyans-auto.ru/auto/auto_18866.html</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>2899000</v>
+        <v>2699000</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_18610.html</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1141000</v>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/haval/f7</t>
+          <t>https://alyans-auto.ru/auto/auto_18866.html</t>
         </is>
       </c>
     </row>
@@ -3982,11 +3654,11 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1192000</v>
+        <v>3399000</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://zd-auto.ru/catalog/haval/f7x</t>
+          <t>https://alyans-auto.ru/auto/auto_13126.html</t>
         </is>
       </c>
       <c r="J77" t="n">
@@ -3997,14 +3669,6 @@
           <t>https://alyans-auto.ru/auto/auto_13126.html</t>
         </is>
       </c>
-      <c r="L77" t="n">
-        <v>1192000</v>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/haval/f7x</t>
-        </is>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4091,14 +3755,6 @@
           <t>https://auto-shop-21.ru/haval/h2</t>
         </is>
       </c>
-      <c r="L79" t="n">
-        <v>972000</v>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/haval/h2</t>
-        </is>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4167,14 +3823,6 @@
           <t>https://auto-shop-21.ru/haval/h5</t>
         </is>
       </c>
-      <c r="L81" t="n">
-        <v>992000</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/haval/h5</t>
-        </is>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4218,14 +3866,6 @@
           <t>https://auto-shop-21.ru/haval/h6</t>
         </is>
       </c>
-      <c r="L82" t="n">
-        <v>992000</v>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/haval/h6</t>
-        </is>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4259,14 +3899,6 @@
           <t>https://auto-shop-21.ru/haval/h9</t>
         </is>
       </c>
-      <c r="L83" t="n">
-        <v>4099000</v>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/haval/h9_2018</t>
-        </is>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4318,14 +3950,6 @@
           <t>https://alyans-auto.ru/auto/auto_18614.html</t>
         </is>
       </c>
-      <c r="L84" t="n">
-        <v>989000</v>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/haval/jolion</t>
-        </is>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4661,11 +4285,11 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>959000</v>
+        <v>1277400</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://zd-auto.ru/catalog/jac/j7</t>
+          <t>https://auto-shop-21.ru/jac/j7</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -4694,14 +4318,6 @@
           <t>https://alyans-auto.ru/auto/auto_15496.html</t>
         </is>
       </c>
-      <c r="L92" t="n">
-        <v>959000</v>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/jac/j7</t>
-        </is>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4753,11 +4369,11 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1819300</v>
+        <v>2399000</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://zd-auto.ru/catalog/jac/js6</t>
+          <t>https://alyans-auto.ru/auto/auto_13473.html</t>
         </is>
       </c>
       <c r="J94" t="n">
@@ -4768,14 +4384,6 @@
           <t>https://alyans-auto.ru/auto/auto_13473.html</t>
         </is>
       </c>
-      <c r="L94" t="n">
-        <v>1819300</v>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/jac/js6</t>
-        </is>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4819,14 +4427,6 @@
           <t>https://auto-shop-21.ru/jac/s3</t>
         </is>
       </c>
-      <c r="L95" t="n">
-        <v>674000</v>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/jac/s3</t>
-        </is>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4870,14 +4470,6 @@
           <t>https://auto-shop-21.ru/jac/s5</t>
         </is>
       </c>
-      <c r="L96" t="n">
-        <v>824000</v>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/jac/s5</t>
-        </is>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4921,14 +4513,6 @@
           <t>https://auto-shop-21.ru/jac/s7</t>
         </is>
       </c>
-      <c r="L97" t="n">
-        <v>1349900</v>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/jac/s7</t>
-        </is>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4947,11 +4531,11 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>2270000</v>
+        <v>2665500</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://zd-auto.ru/catalog/jac/t_6</t>
+          <t>https://alyans-auto.ru/auto/auto_8942.html</t>
         </is>
       </c>
       <c r="J98" t="n">
@@ -4962,14 +4546,6 @@
           <t>https://alyans-auto.ru/auto/auto_8942.html</t>
         </is>
       </c>
-      <c r="L98" t="n">
-        <v>2270000</v>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/jac/t_6</t>
-        </is>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5054,19 +4630,19 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>2889900</v>
+        <v>2539900</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_18075.html</t>
+          <t>https://alyans-auto.ru/auto/auto_18522.html</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>2889900</v>
+        <v>2539900</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_18075.html</t>
+          <t>https://alyans-auto.ru/auto/auto_18522.html</t>
         </is>
       </c>
     </row>
@@ -5105,11 +4681,11 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>4499000</v>
+        <v>4349000</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_18790.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17485.html</t>
         </is>
       </c>
     </row>
@@ -5147,14 +4723,6 @@
           <t>https://avto-trend21.ru/auto/jetour/dashing/</t>
         </is>
       </c>
-      <c r="L103" t="n">
-        <v>1493940</v>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/jetour/dashing</t>
-        </is>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -5225,14 +4793,6 @@
           <t>https://avto-trend21.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
-      <c r="L105" t="n">
-        <v>2099930</v>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/jetour/x70_plus</t>
-        </is>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -5251,11 +4811,11 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>2039940</v>
+        <v>2149900</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://zd-auto.ru/catalog/jetour/x90plus</t>
+          <t>https://avto-trend21.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5266,14 +4826,6 @@
       <c r="G106" t="inlineStr">
         <is>
           <t>https://avto-trend21.ru/auto/jetour/x90_plus/</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>2039940</v>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/jetour/x90plus</t>
         </is>
       </c>
     </row>
@@ -5319,14 +4871,6 @@
           <t>https://auto-shop-21.ru/jetta/va3</t>
         </is>
       </c>
-      <c r="L107" t="n">
-        <v>1232400</v>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/jetta/va3</t>
-        </is>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -5370,14 +4914,6 @@
           <t>https://auto-shop-21.ru/jetta/vs5</t>
         </is>
       </c>
-      <c r="L108" t="n">
-        <v>1477200</v>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/jetta/vs5</t>
-        </is>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -5421,14 +4957,6 @@
           <t>https://auto-shop-21.ru/jetta/vs7</t>
         </is>
       </c>
-      <c r="L109" t="n">
-        <v>1759800</v>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/jetta/vs7</t>
-        </is>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -5472,14 +5000,6 @@
           <t>https://auto-shop-21.ru/kaiyi/e5</t>
         </is>
       </c>
-      <c r="L110" t="n">
-        <v>1371300</v>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/kaiyi/kaiyi_e5</t>
-        </is>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -5523,14 +5043,6 @@
           <t>https://auto-shop-21.ru/kaiyi/x3</t>
         </is>
       </c>
-      <c r="L111" t="n">
-        <v>1566600</v>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/kaiyi/x3</t>
-        </is>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -5574,14 +5086,6 @@
           <t>https://auto-shop-21.ru/kaiyi/x3_pro</t>
         </is>
       </c>
-      <c r="L112" t="n">
-        <v>1760430</v>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/kaiyi/x3_pro</t>
-        </is>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -6447,11 +5951,11 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>942500</v>
+        <v>931000</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17510.html</t>
+          <t>https://alyans-auto.ru/auto/auto_18860.html</t>
         </is>
       </c>
       <c r="L132" t="n">
@@ -7627,14 +7131,6 @@
           <t>https://auto-shop-21.ru/lifan/murman</t>
         </is>
       </c>
-      <c r="L157" t="n">
-        <v>621000</v>
-      </c>
-      <c r="M157" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/lifan/murman</t>
-        </is>
-      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -7678,14 +7174,6 @@
           <t>https://auto-shop-21.ru/lifan/myway</t>
         </is>
       </c>
-      <c r="L158" t="n">
-        <v>756900</v>
-      </c>
-      <c r="M158" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/lifan/myway</t>
-        </is>
-      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -7729,14 +7217,6 @@
           <t>https://auto-shop-21.ru/lifan/solano_ii</t>
         </is>
       </c>
-      <c r="L159" t="n">
-        <v>492000</v>
-      </c>
-      <c r="M159" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/lifan/solano2</t>
-        </is>
-      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -7780,14 +7260,6 @@
           <t>https://auto-shop-21.ru/lifan/x50</t>
         </is>
       </c>
-      <c r="L160" t="n">
-        <v>554000</v>
-      </c>
-      <c r="M160" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/lifan/x50</t>
-        </is>
-      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -7831,14 +7303,6 @@
           <t>https://auto-shop-21.ru/lifan/x60</t>
         </is>
       </c>
-      <c r="L161" t="n">
-        <v>626900</v>
-      </c>
-      <c r="M161" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/lifan/x60</t>
-        </is>
-      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -7882,14 +7346,6 @@
           <t>https://auto-shop-21.ru/lifan/x70</t>
         </is>
       </c>
-      <c r="L162" t="n">
-        <v>736000</v>
-      </c>
-      <c r="M162" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/lifan/x70</t>
-        </is>
-      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -7933,14 +7389,6 @@
           <t>https://auto-shop-21.ru/livan/s6pro</t>
         </is>
       </c>
-      <c r="L163" t="n">
-        <v>1784930</v>
-      </c>
-      <c r="M163" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/livan/s6pro</t>
-        </is>
-      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -7984,14 +7432,6 @@
           <t>https://auto-shop-21.ru/livan/x3pro</t>
         </is>
       </c>
-      <c r="L164" t="n">
-        <v>1589900</v>
-      </c>
-      <c r="M164" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/livan/x3pro</t>
-        </is>
-      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -8035,14 +7475,6 @@
           <t>https://auto-shop-21.ru/livan/x6pro</t>
         </is>
       </c>
-      <c r="L165" t="n">
-        <v>1840930</v>
-      </c>
-      <c r="M165" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/livan/x6pro</t>
-        </is>
-      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -8086,14 +7518,6 @@
           <t>https://auto-shop-21.ru/moskvich/3</t>
         </is>
       </c>
-      <c r="L166" t="n">
-        <v>1444000</v>
-      </c>
-      <c r="M166" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/moskvich/moskvish_3</t>
-        </is>
-      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -8137,14 +7561,6 @@
           <t>https://auto-shop-21.ru/moskvich/3e</t>
         </is>
       </c>
-      <c r="L167" t="n">
-        <v>2450000</v>
-      </c>
-      <c r="M167" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/moskvich/moskvish_3e</t>
-        </is>
-      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -8188,14 +7604,6 @@
           <t>https://auto-shop-21.ru/nissan/qashqai</t>
         </is>
       </c>
-      <c r="L168" t="n">
-        <v>963000</v>
-      </c>
-      <c r="M168" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/nissan/qashqai_new</t>
-        </is>
-      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -8342,11 +7750,11 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>2169900</v>
+        <v>1989900</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_18504.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17979.html</t>
         </is>
       </c>
     </row>
@@ -8400,14 +7808,6 @@
           <t>https://alyans-auto.ru/auto/auto_16128.html</t>
         </is>
       </c>
-      <c r="L172" t="n">
-        <v>1659900</v>
-      </c>
-      <c r="M172" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/omoda/s5</t>
-        </is>
-      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -8451,14 +7851,6 @@
           <t>https://auto-shop-21.ru/ravon/nexia_r3</t>
         </is>
       </c>
-      <c r="L173" t="n">
-        <v>386500</v>
-      </c>
-      <c r="M173" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/ravon/nexia_r3</t>
-        </is>
-      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -8502,14 +7894,6 @@
           <t>https://auto-shop-21.ru/ravon/r2</t>
         </is>
       </c>
-      <c r="L174" t="n">
-        <v>376000</v>
-      </c>
-      <c r="M174" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/ravon/r2</t>
-        </is>
-      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -8528,11 +7912,11 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>381000</v>
+        <v>389000</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://zd-auto.ru/catalog/ravon/r4</t>
+          <t>https://auto-shop-21.ru/ravon/r4</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -8553,14 +7937,6 @@
           <t>https://auto-shop-21.ru/ravon/r4</t>
         </is>
       </c>
-      <c r="L175" t="n">
-        <v>381000</v>
-      </c>
-      <c r="M175" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/ravon/r4</t>
-        </is>
-      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -9595,14 +8971,6 @@
           <t>https://avto-trend21.ru/auto/solaris/hc/</t>
         </is>
       </c>
-      <c r="L197" t="n">
-        <v>1763000</v>
-      </c>
-      <c r="M197" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/Solaris/hc</t>
-        </is>
-      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -9621,11 +8989,11 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>1390000</v>
+        <v>1407000</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>https://zd-auto.ru/catalog/Solaris/hs</t>
+          <t>https://avto-trend21.ru/auto/solaris/hs/</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -9636,14 +9004,6 @@
       <c r="G198" t="inlineStr">
         <is>
           <t>https://avto-trend21.ru/auto/solaris/hs/</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1390000</v>
-      </c>
-      <c r="M198" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/Solaris/hs</t>
         </is>
       </c>
     </row>
@@ -9681,14 +9041,6 @@
           <t>https://avto-trend21.ru/auto/solaris/krs/</t>
         </is>
       </c>
-      <c r="L199" t="n">
-        <v>1448000</v>
-      </c>
-      <c r="M199" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/Solaris/krs</t>
-        </is>
-      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -9724,14 +9076,6 @@
           <t>https://avto-trend21.ru/auto/solaris/krx/</t>
         </is>
       </c>
-      <c r="L200" t="n">
-        <v>1464000</v>
-      </c>
-      <c r="M200" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/Solaris/krx</t>
-        </is>
-      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -9765,14 +9109,6 @@
           <t>https://auto-shop-21.ru/tank/300</t>
         </is>
       </c>
-      <c r="L201" t="n">
-        <v>4099000</v>
-      </c>
-      <c r="M201" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/tank/tank_300</t>
-        </is>
-      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -9806,14 +9142,6 @@
           <t>https://auto-shop-21.ru/tank/500</t>
         </is>
       </c>
-      <c r="L202" t="n">
-        <v>6299000</v>
-      </c>
-      <c r="M202" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/tank/tank_500</t>
-        </is>
-      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -10154,14 +9482,6 @@
           <t>https://auto-shop-21.ru/zotye/coupa</t>
         </is>
       </c>
-      <c r="L210" t="n">
-        <v>968000</v>
-      </c>
-      <c r="M210" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/zotye/coupa</t>
-        </is>
-      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -10203,14 +9523,6 @@
       <c r="I211" t="inlineStr">
         <is>
           <t>https://auto-shop-21.ru/zotye/t600</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>770000</v>
-      </c>
-      <c r="M211" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/zotye/t600</t>
         </is>
       </c>
     </row>

--- a/xlsx/cheboksari.xlsx
+++ b/xlsx/cheboksari.xlsx
@@ -530,6 +530,14 @@
           <t>https://auto-shop-21.ru/baic/bj40</t>
         </is>
       </c>
+      <c r="L2" t="n">
+        <v>3119000</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/baic/bj40_I_restailing</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -573,6 +581,14 @@
           <t>https://auto-shop-21.ru/baic/u5_plus</t>
         </is>
       </c>
+      <c r="L3" t="n">
+        <v>1379000</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/baic/u5_plus</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -616,6 +632,14 @@
           <t>https://auto-shop-21.ru/baic/x35</t>
         </is>
       </c>
+      <c r="L4" t="n">
+        <v>1379000</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/baic/x35</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -776,6 +800,14 @@
           <t>https://alyans-auto.ru/auto/auto_17047.html</t>
         </is>
       </c>
+      <c r="L8" t="n">
+        <v>1349900</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/changan/alsvin</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -819,6 +851,14 @@
           <t>https://auto-shop-21.ru/changan/cs35</t>
         </is>
       </c>
+      <c r="L9" t="n">
+        <v>743900</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/changan/cs35</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -837,11 +877,11 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2629900</v>
+        <v>1057900</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_15682.html</t>
+          <t>https://zd-auto.ru/catalog/changan/cs35plus</t>
         </is>
       </c>
       <c r="J10" t="n">
@@ -852,6 +892,14 @@
           <t>https://alyans-auto.ru/auto/auto_15682.html</t>
         </is>
       </c>
+      <c r="L10" t="n">
+        <v>1057900</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/changan/cs35plus</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -870,11 +918,11 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2119900</v>
+        <v>1726900</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/changan/cs35_plus/</t>
+          <t>https://zd-auto.ru/catalog/changan/cs35plus_2023MY</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -895,6 +943,14 @@
           <t>https://auto-shop-21.ru/changan/cs35_plus</t>
         </is>
       </c>
+      <c r="L11" t="n">
+        <v>1726900</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/changan/cs35plus_2023MY</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -938,6 +994,14 @@
           <t>https://auto-shop-21.ru/changan/cs55</t>
         </is>
       </c>
+      <c r="L12" t="n">
+        <v>1218900</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/changan/cs55</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1032,6 +1096,14 @@
           <t>https://auto-shop-21.ru/changan/cs75fl</t>
         </is>
       </c>
+      <c r="L14" t="n">
+        <v>1573900</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/changan/cs75fl</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1169,6 +1241,14 @@
           <t>https://auto-shop-21.ru/changan/eado_plus</t>
         </is>
       </c>
+      <c r="L17" t="n">
+        <v>1630930</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/changan/eadoplus</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1187,11 +1267,11 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2589900</v>
+        <v>1952930</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/changan/lamore/</t>
+          <t>https://zd-auto.ru/catalog/changan/lamore</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1212,6 +1292,14 @@
           <t>https://alyans-auto.ru/auto/auto_18039.html</t>
         </is>
       </c>
+      <c r="L18" t="n">
+        <v>1952930</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/changan/lamore</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1433,6 +1521,14 @@
           <t>https://auto-shop-21.ru/chery/arrizo_8</t>
         </is>
       </c>
+      <c r="L23" t="n">
+        <v>2065000</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/chery/arrizo_8</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1476,6 +1572,14 @@
           <t>https://auto-shop-21.ru/chery/tiggo_3</t>
         </is>
       </c>
+      <c r="L24" t="n">
+        <v>637900</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/chery/tiggo3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1519,6 +1623,14 @@
           <t>https://auto-shop-21.ru/chery/tiggo_4</t>
         </is>
       </c>
+      <c r="L25" t="n">
+        <v>736900</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/chery/tiggo_4</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1597,6 +1709,14 @@
           <t>https://auto-shop-21.ru/chery/tiggo_4_pro</t>
         </is>
       </c>
+      <c r="L27" t="n">
+        <v>1349900</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/chery/tiggo_4_pro</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1640,6 +1760,14 @@
           <t>https://auto-shop-21.ru/chery/tiggo_7</t>
         </is>
       </c>
+      <c r="L28" t="n">
+        <v>956900</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/chery/tiggo_7</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1683,6 +1811,14 @@
           <t>https://auto-shop-21.ru/chery/tiggo_7_pro</t>
         </is>
       </c>
+      <c r="L29" t="n">
+        <v>1217900</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/chery/tiggo7pro</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1804,6 +1940,14 @@
           <t>https://auto-shop-21.ru/chery/tiggo_8</t>
         </is>
       </c>
+      <c r="L32" t="n">
+        <v>1247900</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/chery/tiggo_8</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1847,6 +1991,14 @@
           <t>https://auto-shop-21.ru/chery/tiggo_8_pro</t>
         </is>
       </c>
+      <c r="L33" t="n">
+        <v>1527900</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/chery/tiggo_8_pro</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1890,6 +2042,14 @@
           <t>https://auto-shop-21.ru/chery/tiggo_8_pro_max_1</t>
         </is>
       </c>
+      <c r="L34" t="n">
+        <v>2730000</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/chery/tiggo_8_pro_max</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1976,6 +2136,14 @@
           <t>https://auto-shop-21.ru/chevrolet/cobalt</t>
         </is>
       </c>
+      <c r="L36" t="n">
+        <v>597900</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/chevrolet/cobalt</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2019,6 +2187,14 @@
           <t>https://auto-shop-21.ru/chevrolet/nexia</t>
         </is>
       </c>
+      <c r="L37" t="n">
+        <v>547900</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/chevrolet/nexia</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2037,11 +2213,11 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>570540</v>
+        <v>567900</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/chevrolet/spark</t>
+          <t>https://zd-auto.ru/catalog/chevrolet/spark</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2062,6 +2238,14 @@
           <t>https://auto-shop-21.ru/chevrolet/spark</t>
         </is>
       </c>
+      <c r="L38" t="n">
+        <v>567900</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/chevrolet/spark</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2105,6 +2289,14 @@
           <t>https://auto-shop-21.ru/dfm/580</t>
         </is>
       </c>
+      <c r="L39" t="n">
+        <v>1090000</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/dfm/580</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2148,6 +2340,14 @@
           <t>https://auto-shop-21.ru/dfm/ax7</t>
         </is>
       </c>
+      <c r="L40" t="n">
+        <v>1129000</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/dfm/dfm_ax7</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2285,6 +2485,14 @@
           <t>https://avto-trend21.ru/auto/exeed/lx/</t>
         </is>
       </c>
+      <c r="L43" t="n">
+        <v>2999900</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/exeed/lx</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2320,6 +2528,14 @@
           <t>https://avto-trend21.ru/auto/exeed/rx/</t>
         </is>
       </c>
+      <c r="L44" t="n">
+        <v>3605000</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/exeed/exeed_rx</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2363,6 +2579,14 @@
           <t>https://auto-shop-21.ru/exeed/txl</t>
         </is>
       </c>
+      <c r="L45" t="n">
+        <v>1999900</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/chery/txl</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2441,6 +2665,14 @@
           <t>https://auto-shop-21.ru/faw/bestune_b70</t>
         </is>
       </c>
+      <c r="L47" t="n">
+        <v>1629600</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/faw/bestune_b70</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2484,6 +2716,14 @@
           <t>https://auto-shop-21.ru/faw/bestune_t55</t>
         </is>
       </c>
+      <c r="L48" t="n">
+        <v>1602300</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/faw/bestune_t55</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2804,6 +3044,14 @@
           <t>https://alyans-auto.ru/auto/auto_17820.html</t>
         </is>
       </c>
+      <c r="L56" t="n">
+        <v>2236493</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/geely/atlas</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2898,6 +3146,14 @@
           <t>https://alyans-auto.ru/auto/auto_17094.html</t>
         </is>
       </c>
+      <c r="L58" t="n">
+        <v>1964990</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/geely/atlas_pro</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2941,6 +3197,14 @@
           <t>https://auto-shop-21.ru/geely/belgee_x50</t>
         </is>
       </c>
+      <c r="L59" t="n">
+        <v>1603693</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/geely/belgee_x50</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2992,11 +3256,11 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1565994</v>
+        <v>983999</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/geely/coolray_1</t>
+          <t>https://zd-auto.ru/catalog/geely/coolray</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3025,6 +3289,14 @@
           <t>https://alyans-auto.ru/auto/auto_18877.html</t>
         </is>
       </c>
+      <c r="L61" t="n">
+        <v>983999</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/geely/coolray</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3068,6 +3340,14 @@
           <t>https://auto-shop-21.ru/geely/coolray</t>
         </is>
       </c>
+      <c r="L62" t="n">
+        <v>1826993</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/geely/coolray_new</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3187,6 +3467,14 @@
           <t>https://auto-shop-21.ru/geely/emgrand_x7</t>
         </is>
       </c>
+      <c r="L65" t="n">
+        <v>907990</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/geely/emgrand_x7_2019</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3230,6 +3518,14 @@
           <t>https://auto-shop-21.ru/geely/gs</t>
         </is>
       </c>
+      <c r="L66" t="n">
+        <v>999990</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/geely/gs</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3451,11 +3747,11 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3399000</v>
+        <v>2414300</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_13123.html</t>
+          <t>https://zd-auto.ru/catalog/great-wall/poer</t>
         </is>
       </c>
       <c r="J72" t="n">
@@ -3466,6 +3762,14 @@
           <t>https://alyans-auto.ru/auto/auto_13123.html</t>
         </is>
       </c>
+      <c r="L72" t="n">
+        <v>2414300</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/great-wall/poer</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3517,6 +3821,14 @@
           <t>https://alyans-auto.ru/auto/auto_18204.html</t>
         </is>
       </c>
+      <c r="L73" t="n">
+        <v>1799000</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/haval/dargo</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3560,6 +3872,14 @@
           <t>https://auto-shop-21.ru/haval/dargo_x</t>
         </is>
       </c>
+      <c r="L74" t="n">
+        <v>2344300</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/haval/dargo_x</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3578,11 +3898,11 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>2699000</v>
+        <v>1141000</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_18866.html</t>
+          <t>https://zd-auto.ru/catalog/haval/f7</t>
         </is>
       </c>
       <c r="J75" t="n">
@@ -3593,6 +3913,14 @@
           <t>https://alyans-auto.ru/auto/auto_18866.html</t>
         </is>
       </c>
+      <c r="L75" t="n">
+        <v>1141000</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/haval/f7</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3654,11 +3982,11 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>3399000</v>
+        <v>1192000</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_13126.html</t>
+          <t>https://zd-auto.ru/catalog/haval/f7x</t>
         </is>
       </c>
       <c r="J77" t="n">
@@ -3669,6 +3997,14 @@
           <t>https://alyans-auto.ru/auto/auto_13126.html</t>
         </is>
       </c>
+      <c r="L77" t="n">
+        <v>1192000</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/haval/f7x</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3755,6 +4091,14 @@
           <t>https://auto-shop-21.ru/haval/h2</t>
         </is>
       </c>
+      <c r="L79" t="n">
+        <v>972000</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/haval/h2</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3823,6 +4167,14 @@
           <t>https://auto-shop-21.ru/haval/h5</t>
         </is>
       </c>
+      <c r="L81" t="n">
+        <v>992000</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/haval/h5</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3866,6 +4218,14 @@
           <t>https://auto-shop-21.ru/haval/h6</t>
         </is>
       </c>
+      <c r="L82" t="n">
+        <v>992000</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/haval/h6</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3899,6 +4259,14 @@
           <t>https://auto-shop-21.ru/haval/h9</t>
         </is>
       </c>
+      <c r="L83" t="n">
+        <v>4099000</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/haval/h9_2018</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3950,6 +4318,14 @@
           <t>https://alyans-auto.ru/auto/auto_18614.html</t>
         </is>
       </c>
+      <c r="L84" t="n">
+        <v>989000</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/haval/jolion</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4285,11 +4661,11 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1277400</v>
+        <v>959000</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jac/j7</t>
+          <t>https://zd-auto.ru/catalog/jac/j7</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -4318,6 +4694,14 @@
           <t>https://alyans-auto.ru/auto/auto_15496.html</t>
         </is>
       </c>
+      <c r="L92" t="n">
+        <v>959000</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/jac/j7</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4369,11 +4753,11 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>2399000</v>
+        <v>1819300</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_13473.html</t>
+          <t>https://zd-auto.ru/catalog/jac/js6</t>
         </is>
       </c>
       <c r="J94" t="n">
@@ -4384,6 +4768,14 @@
           <t>https://alyans-auto.ru/auto/auto_13473.html</t>
         </is>
       </c>
+      <c r="L94" t="n">
+        <v>1819300</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/jac/js6</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4427,6 +4819,14 @@
           <t>https://auto-shop-21.ru/jac/s3</t>
         </is>
       </c>
+      <c r="L95" t="n">
+        <v>674000</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/jac/s3</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4470,6 +4870,14 @@
           <t>https://auto-shop-21.ru/jac/s5</t>
         </is>
       </c>
+      <c r="L96" t="n">
+        <v>824000</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/jac/s5</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4513,6 +4921,14 @@
           <t>https://auto-shop-21.ru/jac/s7</t>
         </is>
       </c>
+      <c r="L97" t="n">
+        <v>1349900</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/jac/s7</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4531,11 +4947,11 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>2665500</v>
+        <v>2270000</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_8942.html</t>
+          <t>https://zd-auto.ru/catalog/jac/t_6</t>
         </is>
       </c>
       <c r="J98" t="n">
@@ -4546,6 +4962,14 @@
           <t>https://alyans-auto.ru/auto/auto_8942.html</t>
         </is>
       </c>
+      <c r="L98" t="n">
+        <v>2270000</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/jac/t_6</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4723,6 +5147,14 @@
           <t>https://avto-trend21.ru/auto/jetour/dashing/</t>
         </is>
       </c>
+      <c r="L103" t="n">
+        <v>1493940</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/jetour/dashing</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4793,6 +5225,14 @@
           <t>https://avto-trend21.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
+      <c r="L105" t="n">
+        <v>2099930</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/jetour/x70_plus</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4811,21 +5251,29 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>2149900</v>
+        <v>2039940</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
+          <t>https://zd-auto.ru/catalog/jetour/x90plus</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2149900</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
           <t>https://avto-trend21.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>2149900</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/jetour/x90_plus/</t>
+      <c r="L106" t="n">
+        <v>2039940</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/jetour/x90plus</t>
         </is>
       </c>
     </row>
@@ -4871,6 +5319,14 @@
           <t>https://auto-shop-21.ru/jetta/va3</t>
         </is>
       </c>
+      <c r="L107" t="n">
+        <v>1232400</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/jetta/va3</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4914,6 +5370,14 @@
           <t>https://auto-shop-21.ru/jetta/vs5</t>
         </is>
       </c>
+      <c r="L108" t="n">
+        <v>1477200</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/jetta/vs5</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -4957,6 +5421,14 @@
           <t>https://auto-shop-21.ru/jetta/vs7</t>
         </is>
       </c>
+      <c r="L109" t="n">
+        <v>1759800</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/jetta/vs7</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -5000,6 +5472,14 @@
           <t>https://auto-shop-21.ru/kaiyi/e5</t>
         </is>
       </c>
+      <c r="L110" t="n">
+        <v>1371300</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/kaiyi/kaiyi_e5</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -5043,6 +5523,14 @@
           <t>https://auto-shop-21.ru/kaiyi/x3</t>
         </is>
       </c>
+      <c r="L111" t="n">
+        <v>1566600</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/kaiyi/x3</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -5086,6 +5574,14 @@
           <t>https://auto-shop-21.ru/kaiyi/x3_pro</t>
         </is>
       </c>
+      <c r="L112" t="n">
+        <v>1760430</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/kaiyi/x3_pro</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -5951,11 +6447,11 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>931000</v>
+        <v>942500</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_18860.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17512.html</t>
         </is>
       </c>
       <c r="L132" t="n">
@@ -7131,6 +7627,14 @@
           <t>https://auto-shop-21.ru/lifan/murman</t>
         </is>
       </c>
+      <c r="L157" t="n">
+        <v>621000</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/lifan/murman</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -7174,6 +7678,14 @@
           <t>https://auto-shop-21.ru/lifan/myway</t>
         </is>
       </c>
+      <c r="L158" t="n">
+        <v>756900</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/lifan/myway</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -7217,6 +7729,14 @@
           <t>https://auto-shop-21.ru/lifan/solano_ii</t>
         </is>
       </c>
+      <c r="L159" t="n">
+        <v>492000</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/lifan/solano2</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -7260,6 +7780,14 @@
           <t>https://auto-shop-21.ru/lifan/x50</t>
         </is>
       </c>
+      <c r="L160" t="n">
+        <v>554000</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/lifan/x50</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -7303,6 +7831,14 @@
           <t>https://auto-shop-21.ru/lifan/x60</t>
         </is>
       </c>
+      <c r="L161" t="n">
+        <v>626900</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/lifan/x60</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -7346,6 +7882,14 @@
           <t>https://auto-shop-21.ru/lifan/x70</t>
         </is>
       </c>
+      <c r="L162" t="n">
+        <v>736000</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/lifan/x70</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -7389,6 +7933,14 @@
           <t>https://auto-shop-21.ru/livan/s6pro</t>
         </is>
       </c>
+      <c r="L163" t="n">
+        <v>1784930</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/livan/s6pro</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -7432,6 +7984,14 @@
           <t>https://auto-shop-21.ru/livan/x3pro</t>
         </is>
       </c>
+      <c r="L164" t="n">
+        <v>1589900</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/livan/x3pro</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -7475,6 +8035,14 @@
           <t>https://auto-shop-21.ru/livan/x6pro</t>
         </is>
       </c>
+      <c r="L165" t="n">
+        <v>1840930</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/livan/x6pro</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -7518,6 +8086,14 @@
           <t>https://auto-shop-21.ru/moskvich/3</t>
         </is>
       </c>
+      <c r="L166" t="n">
+        <v>1444000</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/moskvich/moskvish_3</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -7561,6 +8137,14 @@
           <t>https://auto-shop-21.ru/moskvich/3e</t>
         </is>
       </c>
+      <c r="L167" t="n">
+        <v>2450000</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/moskvich/moskvish_3e</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -7604,6 +8188,14 @@
           <t>https://auto-shop-21.ru/nissan/qashqai</t>
         </is>
       </c>
+      <c r="L168" t="n">
+        <v>963000</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/nissan/qashqai_new</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -7801,11 +8393,19 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>2079000</v>
+        <v>1809000</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>https://alyans-auto.ru/auto/auto_16128.html</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1659900</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/omoda/s5</t>
         </is>
       </c>
     </row>
@@ -7851,6 +8451,14 @@
           <t>https://auto-shop-21.ru/ravon/nexia_r3</t>
         </is>
       </c>
+      <c r="L173" t="n">
+        <v>386500</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/ravon/nexia_r3</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -7894,6 +8502,14 @@
           <t>https://auto-shop-21.ru/ravon/r2</t>
         </is>
       </c>
+      <c r="L174" t="n">
+        <v>376000</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/ravon/r2</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -7912,11 +8528,11 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>389000</v>
+        <v>381000</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/ravon/r4</t>
+          <t>https://zd-auto.ru/catalog/ravon/r4</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -7937,6 +8553,14 @@
           <t>https://auto-shop-21.ru/ravon/r4</t>
         </is>
       </c>
+      <c r="L175" t="n">
+        <v>381000</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/ravon/r4</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -8971,6 +9595,14 @@
           <t>https://avto-trend21.ru/auto/solaris/hc/</t>
         </is>
       </c>
+      <c r="L197" t="n">
+        <v>1763000</v>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/Solaris/hc</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -8989,21 +9621,29 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>1407000</v>
+        <v>1390000</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
+          <t>https://zd-auto.ru/catalog/Solaris/hs</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>1407000</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
           <t>https://avto-trend21.ru/auto/solaris/hs/</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>1407000</t>
-        </is>
-      </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/solaris/hs/</t>
+      <c r="L198" t="n">
+        <v>1390000</v>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/Solaris/hs</t>
         </is>
       </c>
     </row>
@@ -9041,6 +9681,14 @@
           <t>https://avto-trend21.ru/auto/solaris/krs/</t>
         </is>
       </c>
+      <c r="L199" t="n">
+        <v>1448000</v>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/Solaris/krs</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -9076,6 +9724,14 @@
           <t>https://avto-trend21.ru/auto/solaris/krx/</t>
         </is>
       </c>
+      <c r="L200" t="n">
+        <v>1464000</v>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/Solaris/krx</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -9109,6 +9765,14 @@
           <t>https://auto-shop-21.ru/tank/300</t>
         </is>
       </c>
+      <c r="L201" t="n">
+        <v>4099000</v>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/tank/tank_300</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -9142,6 +9806,14 @@
           <t>https://auto-shop-21.ru/tank/500</t>
         </is>
       </c>
+      <c r="L202" t="n">
+        <v>6299000</v>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/tank/tank_500</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -9482,6 +10154,14 @@
           <t>https://auto-shop-21.ru/zotye/coupa</t>
         </is>
       </c>
+      <c r="L210" t="n">
+        <v>968000</v>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/zotye/coupa</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -9523,6 +10203,14 @@
       <c r="I211" t="inlineStr">
         <is>
           <t>https://auto-shop-21.ru/zotye/t600</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>770000</v>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>https://zd-auto.ru/catalog/zotye/t600</t>
         </is>
       </c>
     </row>

--- a/xlsx/cheboksari.xlsx
+++ b/xlsx/cheboksari.xlsx
@@ -530,14 +530,6 @@
           <t>https://auto-shop-21.ru/baic/bj40</t>
         </is>
       </c>
-      <c r="L2" t="n">
-        <v>3119000</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/baic/bj40_I_restailing</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -581,14 +573,6 @@
           <t>https://auto-shop-21.ru/baic/u5_plus</t>
         </is>
       </c>
-      <c r="L3" t="n">
-        <v>1379000</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/baic/u5_plus</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -632,14 +616,6 @@
           <t>https://auto-shop-21.ru/baic/x35</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1379000</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/baic/x35</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2485,14 +2461,6 @@
           <t>https://avto-trend21.ru/auto/exeed/lx/</t>
         </is>
       </c>
-      <c r="L43" t="n">
-        <v>2999900</v>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/exeed/lx</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2528,14 +2496,6 @@
           <t>https://avto-trend21.ru/auto/exeed/rx/</t>
         </is>
       </c>
-      <c r="L44" t="n">
-        <v>3605000</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/exeed/exeed_rx</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3747,11 +3707,11 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2414300</v>
+        <v>3399000</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://zd-auto.ru/catalog/great-wall/poer</t>
+          <t>https://alyans-auto.ru/auto/auto_13123.html</t>
         </is>
       </c>
       <c r="J72" t="n">
@@ -3762,14 +3722,6 @@
           <t>https://alyans-auto.ru/auto/auto_13123.html</t>
         </is>
       </c>
-      <c r="L72" t="n">
-        <v>2414300</v>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/great-wall/poer</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5147,14 +5099,6 @@
           <t>https://avto-trend21.ru/auto/jetour/dashing/</t>
         </is>
       </c>
-      <c r="L103" t="n">
-        <v>1493940</v>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/jetour/dashing</t>
-        </is>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -5225,14 +5169,6 @@
           <t>https://avto-trend21.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
-      <c r="L105" t="n">
-        <v>2099930</v>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/jetour/x70_plus</t>
-        </is>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -5251,11 +5187,11 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>2039940</v>
+        <v>2149900</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://zd-auto.ru/catalog/jetour/x90plus</t>
+          <t>https://avto-trend21.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5266,14 +5202,6 @@
       <c r="G106" t="inlineStr">
         <is>
           <t>https://avto-trend21.ru/auto/jetour/x90_plus/</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>2039940</v>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/jetour/x90plus</t>
         </is>
       </c>
     </row>
@@ -5319,14 +5247,6 @@
           <t>https://auto-shop-21.ru/jetta/va3</t>
         </is>
       </c>
-      <c r="L107" t="n">
-        <v>1232400</v>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/jetta/va3</t>
-        </is>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -5370,14 +5290,6 @@
           <t>https://auto-shop-21.ru/jetta/vs5</t>
         </is>
       </c>
-      <c r="L108" t="n">
-        <v>1477200</v>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/jetta/vs5</t>
-        </is>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -5421,14 +5333,6 @@
           <t>https://auto-shop-21.ru/jetta/vs7</t>
         </is>
       </c>
-      <c r="L109" t="n">
-        <v>1759800</v>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/jetta/vs7</t>
-        </is>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -5472,14 +5376,6 @@
           <t>https://auto-shop-21.ru/kaiyi/e5</t>
         </is>
       </c>
-      <c r="L110" t="n">
-        <v>1371300</v>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/kaiyi/kaiyi_e5</t>
-        </is>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -5523,14 +5419,6 @@
           <t>https://auto-shop-21.ru/kaiyi/x3</t>
         </is>
       </c>
-      <c r="L111" t="n">
-        <v>1566600</v>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/kaiyi/x3</t>
-        </is>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -5574,14 +5462,6 @@
           <t>https://auto-shop-21.ru/kaiyi/x3_pro</t>
         </is>
       </c>
-      <c r="L112" t="n">
-        <v>1760430</v>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/kaiyi/x3_pro</t>
-        </is>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -7933,14 +7813,6 @@
           <t>https://auto-shop-21.ru/livan/s6pro</t>
         </is>
       </c>
-      <c r="L163" t="n">
-        <v>1784930</v>
-      </c>
-      <c r="M163" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/livan/s6pro</t>
-        </is>
-      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -7984,14 +7856,6 @@
           <t>https://auto-shop-21.ru/livan/x3pro</t>
         </is>
       </c>
-      <c r="L164" t="n">
-        <v>1589900</v>
-      </c>
-      <c r="M164" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/livan/x3pro</t>
-        </is>
-      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -8035,14 +7899,6 @@
           <t>https://auto-shop-21.ru/livan/x6pro</t>
         </is>
       </c>
-      <c r="L165" t="n">
-        <v>1840930</v>
-      </c>
-      <c r="M165" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/livan/x6pro</t>
-        </is>
-      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -9595,14 +9451,6 @@
           <t>https://avto-trend21.ru/auto/solaris/hc/</t>
         </is>
       </c>
-      <c r="L197" t="n">
-        <v>1763000</v>
-      </c>
-      <c r="M197" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/Solaris/hc</t>
-        </is>
-      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -9621,11 +9469,11 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>1390000</v>
+        <v>1407000</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>https://zd-auto.ru/catalog/Solaris/hs</t>
+          <t>https://avto-trend21.ru/auto/solaris/hs/</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -9636,14 +9484,6 @@
       <c r="G198" t="inlineStr">
         <is>
           <t>https://avto-trend21.ru/auto/solaris/hs/</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1390000</v>
-      </c>
-      <c r="M198" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/Solaris/hs</t>
         </is>
       </c>
     </row>
@@ -9681,14 +9521,6 @@
           <t>https://avto-trend21.ru/auto/solaris/krs/</t>
         </is>
       </c>
-      <c r="L199" t="n">
-        <v>1448000</v>
-      </c>
-      <c r="M199" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/Solaris/krs</t>
-        </is>
-      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -9724,14 +9556,6 @@
           <t>https://avto-trend21.ru/auto/solaris/krx/</t>
         </is>
       </c>
-      <c r="L200" t="n">
-        <v>1464000</v>
-      </c>
-      <c r="M200" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/Solaris/krx</t>
-        </is>
-      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -9763,14 +9587,6 @@
       <c r="I201" t="inlineStr">
         <is>
           <t>https://auto-shop-21.ru/tank/300</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>4099000</v>
-      </c>
-      <c r="M201" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru/catalog/tank/tank_300</t>
         </is>
       </c>
     </row>

--- a/xlsx/cheboksari.xlsx
+++ b/xlsx/cheboksari.xlsx
@@ -889,7 +889,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16911.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17299.html</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_14095.html</t>
+          <t>https://alyans-auto.ru/auto/auto_16980.html</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17260.html</t>
+          <t>https://alyans-auto.ru/auto/auto_18043.html</t>
         </is>
       </c>
       <c r="J21" t="n">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17260.html</t>
+          <t>https://alyans-auto.ru/auto/auto_18043.html</t>
         </is>
       </c>
     </row>
@@ -1503,14 +1503,6 @@
           <t>https://auto-shop-21.ru/changan/uni-v</t>
         </is>
       </c>
-      <c r="J23" t="n">
-        <v>3209900</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_19167.html</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2519,7 +2511,7 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2999900</v>
+        <v>2739900</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -3176,7 +3168,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17405.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17094.html</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -3256,19 +3248,19 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>3094190</v>
+        <v>3214190</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_18214.html</t>
+          <t>https://alyans-auto.ru/auto/auto_19149.html</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>3094190</v>
+        <v>3214190</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_18214.html</t>
+          <t>https://alyans-auto.ru/auto/auto_19149.html</t>
         </is>
       </c>
     </row>
@@ -3607,7 +3599,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_18581.html</t>
+          <t>https://alyans-auto.ru/auto/auto_18909.html</t>
         </is>
       </c>
     </row>
@@ -3788,7 +3780,7 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>3399000</v>
+        <v>3499000</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3847,11 +3839,11 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>3549000</v>
+        <v>3649000</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17838.html</t>
+          <t>https://alyans-auto.ru/auto/auto_18190.html</t>
         </is>
       </c>
       <c r="L74" t="n">
@@ -3939,11 +3931,11 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>2699000</v>
+        <v>2849000</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_18866.html</t>
+          <t>https://alyans-auto.ru/auto/auto_19315.html</t>
         </is>
       </c>
       <c r="L76" t="n">
@@ -4338,11 +4330,11 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>2499000</v>
+        <v>2149000</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_18280.html</t>
+          <t>https://alyans-auto.ru/auto/auto_19275.html</t>
         </is>
       </c>
       <c r="L85" t="n">
@@ -4432,7 +4424,7 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>2179000</v>
+        <v>2279000</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -5073,7 +5065,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2539900</v>
+        <v>2389900</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -5081,7 +5073,7 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>2539900</v>
+        <v>2389900</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -5124,11 +5116,11 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>4349000</v>
+        <v>4259000</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17485.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17152.html</t>
         </is>
       </c>
     </row>
@@ -6221,19 +6213,19 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>4493190</v>
+        <v>4393190</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17214.html</t>
+          <t>https://alyans-auto.ru/auto/auto_19305.html</t>
         </is>
       </c>
       <c r="J128" t="n">
-        <v>4493190</v>
+        <v>4393190</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17214.html</t>
+          <t>https://alyans-auto.ru/auto/auto_19305.html</t>
         </is>
       </c>
     </row>
@@ -7275,11 +7267,11 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>1540000</v>
+        <v>1575000</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_19093.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17708.html</t>
         </is>
       </c>
       <c r="L150" t="n">
@@ -8376,7 +8368,7 @@
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>https://zd-auto.ru/catalog/omoda/s5</t>
+          <t>https://zd-auto.ru/catalog/omoda/omoda_s5</t>
         </is>
       </c>
     </row>

--- a/xlsx/cheboksari.xlsx
+++ b/xlsx/cheboksari.xlsx
@@ -6458,11 +6458,11 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>926000</v>
+        <v>1023500</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_19159.html</t>
+          <t>https://alyans-auto.ru/auto/auto_18348.html</t>
         </is>
       </c>
       <c r="L133" t="n">
@@ -7547,7 +7547,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>1466000</v>
+        <v>1507500</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>1466000</v>
+        <v>1507500</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>

--- a/xlsx/cheboksari.xlsx
+++ b/xlsx/cheboksari.xlsx
@@ -695,11 +695,11 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>2480190</v>
+        <v>2590190</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16836.html</t>
+          <t>https://alyans-auto.ru/auto/auto_19105.html</t>
         </is>
       </c>
     </row>
@@ -736,11 +736,11 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>2946190</v>
+        <v>3121190</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17663.html</t>
+          <t>https://alyans-auto.ru/auto/auto_19104.html</t>
         </is>
       </c>
     </row>
@@ -859,7 +859,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17302.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17977.html</t>
         </is>
       </c>
       <c r="J10" t="n">
@@ -867,7 +867,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17302.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17977.html</t>
         </is>
       </c>
     </row>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17449.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17448.html</t>
         </is>
       </c>
     </row>
@@ -2869,7 +2869,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17846.html</t>
+          <t>https://alyans-auto.ru/auto/auto_19818.html</t>
         </is>
       </c>
     </row>
@@ -3324,11 +3324,11 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>4552190</v>
+        <v>4852190</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_19831.html</t>
+          <t>https://alyans-auto.ru/auto/auto_19078.html</t>
         </is>
       </c>
     </row>
@@ -4081,11 +4081,11 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>2299000</v>
+        <v>2179000</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17891.html</t>
+          <t>https://alyans-auto.ru/auto/auto_19867.html</t>
         </is>
       </c>
     </row>
@@ -4709,11 +4709,11 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>4659000</v>
+        <v>4349000</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_18797.html</t>
+          <t>https://alyans-auto.ru/auto/auto_19841.html</t>
         </is>
       </c>
     </row>

--- a/xlsx/cheboksari.xlsx
+++ b/xlsx/cheboksari.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M213"/>
+  <dimension ref="A1:K214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,16 +477,6 @@
           <t>alyans-auto.ru</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru_price</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>https://zd-auto.ru</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -859,7 +849,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17977.html</t>
+          <t>https://alyans-auto.ru/auto/auto_18454.html</t>
         </is>
       </c>
       <c r="J10" t="n">
@@ -867,7 +857,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17977.html</t>
+          <t>https://alyans-auto.ru/auto/auto_18454.html</t>
         </is>
       </c>
     </row>
@@ -999,14 +989,6 @@
           <t>https://auto-shop-21.ru/changan/cs55_plus</t>
         </is>
       </c>
-      <c r="J13" t="n">
-        <v>2959900</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_17427.html</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1344,7 +1326,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17009.html</t>
+          <t>https://alyans-auto.ru/auto/auto_19737.html</t>
         </is>
       </c>
     </row>
@@ -1420,7 +1402,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_17448.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17449.html</t>
         </is>
       </c>
     </row>
@@ -2869,7 +2851,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_19818.html</t>
+          <t>https://alyans-auto.ru/auto/auto_17846.html</t>
         </is>
       </c>
     </row>
@@ -3560,11 +3542,11 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>3599000</v>
+        <v>3349000</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_13569.html</t>
+          <t>https://alyans-auto.ru/auto/auto_19931.html</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3614,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_19316.html</t>
+          <t>https://alyans-auto.ru/auto/auto_19319.html</t>
         </is>
       </c>
       <c r="J77" t="n">
@@ -3640,7 +3622,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_19316.html</t>
+          <t>https://alyans-auto.ru/auto/auto_19319.html</t>
         </is>
       </c>
     </row>
@@ -4578,7 +4560,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>681</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -4588,30 +4570,30 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>T8 Pro</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>3279000</v>
+        <v>3259000</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_18038.html</t>
+          <t>https://alyans-auto.ru/auto/auto_19960.html</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>3279000</v>
+        <v>3259000</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_18038.html</t>
+          <t>https://alyans-auto.ru/auto/auto_19960.html</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>682</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -4621,63 +4603,63 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>T9</t>
+          <t>T8 Pro</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>3499000</v>
+        <v>3279000</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_18643.html</t>
+          <t>https://alyans-auto.ru/auto/auto_18038.html</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>3499000</v>
+        <v>3279000</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_18643.html</t>
+          <t>https://alyans-auto.ru/auto/auto_18038.html</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>682</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>T9</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2389900</v>
+        <v>3499000</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_18522.html</t>
+          <t>https://alyans-auto.ru/auto/auto_18643.html</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>2389900</v>
+        <v>3499000</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_18522.html</t>
+          <t>https://alyans-auto.ru/auto/auto_18643.html</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4687,75 +4669,73 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>J8</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>4099000</v>
+        <v>2389900</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jaecoo/j8/</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>4099000</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/jaecoo/j8/</t>
+          <t>https://alyans-auto.ru/auto/auto_18522.html</t>
         </is>
       </c>
       <c r="J104" t="n">
-        <v>4349000</v>
+        <v>2389900</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_19841.html</t>
+          <t>https://alyans-auto.ru/auto/auto_18522.html</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Dashing</t>
+          <t>J8</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1399900</v>
+        <v>4099000</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/dashing/</t>
+          <t>https://avto-trend21.ru/auto/jaecoo/j8/</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>1399900</t>
+          <t>4099000</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/dashing/</t>
+          <t>https://avto-trend21.ru/auto/jaecoo/j8/</t>
+        </is>
+      </c>
+      <c r="J105" t="n">
+        <v>4349000</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_19841.html</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4765,32 +4745,32 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>Dashing</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>2631300</v>
+        <v>1399900</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/t2/</t>
+          <t>https://avto-trend21.ru/auto/jetour/dashing/</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2631300</t>
+          <t>1399900</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/t2/</t>
+          <t>https://avto-trend21.ru/auto/jetour/dashing/</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4800,32 +4780,32 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>X70 Plus</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1809900</v>
+        <v>2631300</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/x70_plus/</t>
+          <t>https://avto-trend21.ru/auto/jetour/t2/</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>1809900</t>
+          <t>2631300</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/x70_plus/</t>
+          <t>https://avto-trend21.ru/auto/jetour/t2/</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4835,75 +4815,67 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>X90 Plus</t>
+          <t>X70 Plus</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>2149900</v>
+        <v>1809900</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/x90_plus/</t>
+          <t>https://avto-trend21.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2149900</t>
+          <t>1809900</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/x90_plus/</t>
+          <t>https://avto-trend21.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>VA3</t>
+          <t>X90 Plus</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>890000</v>
+        <v>2149900</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/va3/</t>
+          <t>https://avto-trend21.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>890000</t>
+          <t>2149900</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/va3/</t>
-        </is>
-      </c>
-      <c r="H109" t="n">
-        <v>1232400</v>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/jetta/va3</t>
+          <t>https://avto-trend21.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4913,40 +4885,40 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>VS5</t>
+          <t>VA3</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>1190000</v>
+        <v>890000</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/vs5/</t>
+          <t>https://avto-trend21.ru/auto/jetta/va3/</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>1190000</t>
+          <t>890000</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/vs5/</t>
+          <t>https://avto-trend21.ru/auto/jetta/va3/</t>
         </is>
       </c>
       <c r="H110" t="n">
-        <v>1477200</v>
+        <v>1232400</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jetta/vs5</t>
+          <t>https://auto-shop-21.ru/jetta/va3</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4956,83 +4928,83 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>VS7</t>
+          <t>VS5</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>1349000</v>
+        <v>1190000</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/vs7/</t>
+          <t>https://avto-trend21.ru/auto/jetta/vs5/</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>1349000</t>
+          <t>1190000</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/vs7/</t>
+          <t>https://avto-trend21.ru/auto/jetta/vs5/</t>
         </is>
       </c>
       <c r="H111" t="n">
-        <v>1759800</v>
+        <v>1477200</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/jetta/vs7</t>
+          <t>https://auto-shop-21.ru/jetta/vs5</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>VS7</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1299000</v>
+        <v>1349000</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kaiyi/e5/</t>
+          <t>https://avto-trend21.ru/auto/jetta/vs7/</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>1299000</t>
+          <t>1349000</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kaiyi/e5/</t>
+          <t>https://avto-trend21.ru/auto/jetta/vs7/</t>
         </is>
       </c>
       <c r="H112" t="n">
-        <v>1317000</v>
+        <v>1759800</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/e5</t>
+          <t>https://auto-shop-21.ru/jetta/vs7</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -5042,40 +5014,40 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>X3</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1342800</v>
+        <v>1299000</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x3</t>
+          <t>https://avto-trend21.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>1417650</t>
+          <t>1299000</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kaiyi/x3/</t>
+          <t>https://avto-trend21.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
       <c r="H113" t="n">
-        <v>1342800</v>
+        <v>1317000</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x3</t>
+          <t>https://auto-shop-21.ru/kaiyi/e5</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -5085,40 +5057,40 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>X3</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>1508940</v>
+        <v>1342800</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x3_pro</t>
+          <t>https://auto-shop-21.ru/kaiyi/x3</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>1790000</t>
+          <t>1417650</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://avto-trend21.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
       <c r="H114" t="n">
-        <v>1508940</v>
+        <v>1342800</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x3_pro</t>
+          <t>https://auto-shop-21.ru/kaiyi/x3</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -5128,83 +5100,83 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>X7 Kunlun</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1798740</v>
+        <v>1508940</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x7_kunlun</t>
+          <t>https://auto-shop-21.ru/kaiyi/x3_pro</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2197900</t>
+          <t>1790000</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://avto-trend21.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
       <c r="H115" t="n">
-        <v>1798740</v>
+        <v>1508940</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kaiyi/x7_kunlun</t>
+          <t>https://auto-shop-21.ru/kaiyi/x3_pro</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Ceed</t>
+          <t>X7 Kunlun</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>713000</v>
+        <v>1798740</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/ceed/</t>
+          <t>https://auto-shop-21.ru/kaiyi/x7_kunlun</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>713000</t>
+          <t>2197900</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/ceed/</t>
+          <t>https://avto-trend21.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
       <c r="H116" t="n">
-        <v>1346940</v>
+        <v>1798740</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/ceed</t>
+          <t>https://auto-shop-21.ru/kaiyi/x7_kunlun</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -5214,40 +5186,40 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Ceed SW</t>
+          <t>Ceed</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>723000</v>
+        <v>713000</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/ceed_sw/</t>
+          <t>https://avto-trend21.ru/auto/kia/ceed/</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>723000</t>
+          <t>713000</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/ceed_sw/</t>
+          <t>https://avto-trend21.ru/auto/kia/ceed/</t>
         </is>
       </c>
       <c r="H117" t="n">
-        <v>1388940</v>
+        <v>1346940</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/ceed_sw</t>
+          <t>https://auto-shop-21.ru/kia/ceed</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -5257,40 +5229,40 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Cerato</t>
+          <t>Ceed SW</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>850000</v>
+        <v>723000</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/cerato/</t>
+          <t>https://avto-trend21.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>850000</t>
+          <t>723000</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/cerato/</t>
+          <t>https://avto-trend21.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
       <c r="H118" t="n">
-        <v>1232940</v>
+        <v>1388940</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/cerato</t>
+          <t>https://auto-shop-21.ru/kia/ceed_sw</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -5300,40 +5272,40 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>Cerato</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>1149000</v>
+        <v>850000</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/k5/</t>
+          <t>https://avto-trend21.ru/auto/kia/cerato/</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>1149000</t>
+          <t>850000</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/k5/</t>
+          <t>https://avto-trend21.ru/auto/kia/cerato/</t>
         </is>
       </c>
       <c r="H119" t="n">
-        <v>1640940</v>
+        <v>1232940</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/k5</t>
+          <t>https://auto-shop-21.ru/kia/cerato</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -5343,40 +5315,40 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Picanto</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>619900</v>
+        <v>1149000</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/picanto/</t>
+          <t>https://avto-trend21.ru/auto/kia/k5/</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>619900</t>
+          <t>1149000</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/picanto/</t>
+          <t>https://avto-trend21.ru/auto/kia/k5/</t>
         </is>
       </c>
       <c r="H120" t="n">
-        <v>800940</v>
+        <v>1640940</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/picanto</t>
+          <t>https://auto-shop-21.ru/kia/k5</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -5386,40 +5358,40 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>ProCeed</t>
+          <t>Picanto</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>1121940</v>
+        <v>619900</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/proceed</t>
+          <t>https://avto-trend21.ru/auto/kia/picanto/</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>1134700</t>
+          <t>619900</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/proceed/</t>
+          <t>https://avto-trend21.ru/auto/kia/picanto/</t>
         </is>
       </c>
       <c r="H121" t="n">
-        <v>1121940</v>
+        <v>800940</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/proceed</t>
+          <t>https://auto-shop-21.ru/kia/picanto</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -5429,40 +5401,40 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Rio</t>
+          <t>ProCeed</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>564000</v>
+        <v>1121940</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio/</t>
+          <t>https://auto-shop-21.ru/kia/proceed</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>564000</t>
+          <t>1134700</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio/</t>
+          <t>https://avto-trend21.ru/auto/kia/proceed/</t>
         </is>
       </c>
       <c r="H122" t="n">
-        <v>860940</v>
+        <v>1121940</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/rio</t>
+          <t>https://auto-shop-21.ru/kia/proceed</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -5472,40 +5444,40 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Rio X</t>
+          <t>Rio</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>650000</v>
+        <v>564000</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio_x/</t>
+          <t>https://avto-trend21.ru/auto/kia/rio/</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>650000</t>
+          <t>564000</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio_x/</t>
+          <t>https://avto-trend21.ru/auto/kia/rio/</t>
         </is>
       </c>
       <c r="H123" t="n">
-        <v>944940</v>
+        <v>860940</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/rio_x</t>
+          <t>https://auto-shop-21.ru/kia/rio</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -5515,40 +5487,40 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Rio X-Line</t>
+          <t>Rio X</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>557000</v>
+        <v>650000</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio_x-line/</t>
+          <t>https://avto-trend21.ru/auto/kia/rio_x/</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>557000</t>
+          <t>650000</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio_x-line/</t>
+          <t>https://avto-trend21.ru/auto/kia/rio_x/</t>
         </is>
       </c>
       <c r="H124" t="n">
-        <v>563940</v>
+        <v>944940</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/rio_x-line</t>
+          <t>https://auto-shop-21.ru/kia/rio_x</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -5558,40 +5530,40 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Seltos</t>
+          <t>Rio X-Line</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>790000</v>
+        <v>557000</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/seltos/</t>
+          <t>https://avto-trend21.ru/auto/kia/rio_x-line/</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>790000</t>
+          <t>557000</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/seltos/</t>
+          <t>https://avto-trend21.ru/auto/kia/rio_x-line/</t>
         </is>
       </c>
       <c r="H125" t="n">
-        <v>1175940</v>
+        <v>563940</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/seltos</t>
+          <t>https://auto-shop-21.ru/kia/rio_x-line</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -5601,40 +5573,40 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Soul</t>
+          <t>Seltos</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>638000</v>
+        <v>790000</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/soul/</t>
+          <t>https://avto-trend21.ru/auto/kia/seltos/</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>638000</t>
+          <t>790000</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/soul/</t>
+          <t>https://avto-trend21.ru/auto/kia/seltos/</t>
         </is>
       </c>
       <c r="H126" t="n">
-        <v>1097940</v>
+        <v>1175940</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/soul</t>
+          <t>https://auto-shop-21.ru/kia/seltos</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -5644,40 +5616,40 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Sportage 5</t>
+          <t>Soul</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1025964</v>
+        <v>638000</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/sportage</t>
+          <t>https://avto-trend21.ru/auto/kia/soul/</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>1046000</t>
+          <t>638000</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/sportage/</t>
+          <t>https://avto-trend21.ru/auto/kia/soul/</t>
         </is>
       </c>
       <c r="H127" t="n">
-        <v>1025964</v>
+        <v>1097940</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/sportage</t>
+          <t>https://auto-shop-21.ru/kia/soul</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -5687,106 +5659,116 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>XCeed</t>
+          <t>Sportage 5</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>964900</v>
+        <v>1025964</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/xceed/</t>
+          <t>https://auto-shop-21.ru/kia/sportage</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>964900</t>
+          <t>1046000</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/xceed/</t>
+          <t>https://avto-trend21.ru/auto/kia/sportage/</t>
         </is>
       </c>
       <c r="H128" t="n">
-        <v>1580940</v>
+        <v>1025964</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/kia/xceed</t>
+          <t>https://auto-shop-21.ru/kia/sportage</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>775</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Knewstar</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>001</t>
+          <t>XCeed</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>4393190</v>
+        <v>964900</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_19305.html</t>
-        </is>
-      </c>
-      <c r="J129" t="n">
-        <v>4393190</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_19305.html</t>
+          <t>https://avto-trend21.ru/auto/kia/xceed/</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>964900</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/kia/xceed/</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>1580940</v>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/kia/xceed</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>701</t>
+          <t>775</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Knewstar</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>4x4 3 двери</t>
+          <t>001</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1015000</v>
+        <v>4393190</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_19039.html</t>
+          <t>https://alyans-auto.ru/auto/auto_19305.html</t>
         </is>
       </c>
       <c r="J130" t="n">
-        <v>1015000</v>
+        <v>4393190</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_19039.html</t>
+          <t>https://alyans-auto.ru/auto/auto_19305.html</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>701</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -5796,40 +5778,30 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Granta Cross</t>
+          <t>4x4 3 двери</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>426900</v>
+        <v>1059000</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_cross/</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>426900</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_cross/</t>
-        </is>
-      </c>
-      <c r="H131" t="n">
-        <v>567540</v>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/lada/granta_cross</t>
+          <t>https://alyans-auto.ru/auto/auto_18277.html</t>
+        </is>
+      </c>
+      <c r="J131" t="n">
+        <v>1059000</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_18277.html</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -5839,40 +5811,40 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Granta Hatchback</t>
+          <t>Granta Cross</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>378810</v>
+        <v>426900</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_hatchback/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>378810</t>
+          <t>426900</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_hatchback/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
       <c r="H132" t="n">
-        <v>467100</v>
+        <v>567540</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/granta_hatchback</t>
+          <t>https://auto-shop-21.ru/lada/granta_cross</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -5882,40 +5854,40 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>Granta Hatchback</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>375610</v>
+        <v>378810</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_liftback/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>375610</t>
+          <t>378810</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_liftback/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
       <c r="H133" t="n">
-        <v>443940</v>
+        <v>467100</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/granta_liftback</t>
+          <t>https://auto-shop-21.ru/lada/granta_hatchback</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -5925,48 +5897,40 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>358510</v>
+        <v>375610</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_sedan/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>358510</t>
+          <t>375610</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_sedan/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
       <c r="H134" t="n">
-        <v>419940</v>
+        <v>443940</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/granta_sedan</t>
-        </is>
-      </c>
-      <c r="J134" t="n">
-        <v>1038500</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_16889.html</t>
+          <t>https://auto-shop-21.ru/lada/granta_liftback</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -5976,40 +5940,48 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Granta Sedan Drive Active</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>419000</v>
+        <v>358510</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_drive_active/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>419000</t>
+          <t>358510</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_drive_active/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
       <c r="H135" t="n">
-        <v>620940</v>
+        <v>419940</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/granta_drive_active</t>
+          <t>https://auto-shop-21.ru/lada/granta_sedan</t>
+        </is>
+      </c>
+      <c r="J135" t="n">
+        <v>1038500</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_16889.html</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -6019,40 +5991,40 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Granta Universal</t>
+          <t>Granta Sedan Drive Active</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>376800</v>
+        <v>419000</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_universal/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>376800</t>
+          <t>419000</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_universal/</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
       <c r="H136" t="n">
-        <v>431580</v>
+        <v>620940</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/granta_universal</t>
+          <t>https://auto-shop-21.ru/lada/granta_drive_active</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -6062,30 +6034,40 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Largus</t>
+          <t>Granta Universal</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1670000</v>
+        <v>376800</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_16658.html</t>
-        </is>
-      </c>
-      <c r="J137" t="n">
-        <v>1670000</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_16658.html</t>
+          <t>https://avto-trend21.ru/auto/lada/granta_universal/</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>376800</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/lada/granta_universal/</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>431580</v>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/lada/granta_universal</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -6095,40 +6077,30 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Largus Cross New</t>
+          <t>Largus</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>519804</v>
+        <v>1670000</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/largus_cross</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>629000</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/lada/largus_cross/</t>
-        </is>
-      </c>
-      <c r="H138" t="n">
-        <v>519804</v>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/lada/largus_cross</t>
+          <t>https://alyans-auto.ru/auto/auto_16658.html</t>
+        </is>
+      </c>
+      <c r="J138" t="n">
+        <v>1670000</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_16658.html</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -6138,40 +6110,40 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Largus New</t>
+          <t>Largus Cross New</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>501000</v>
+        <v>519804</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/largus/</t>
+          <t>https://auto-shop-21.ru/lada/largus_cross</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>501000</t>
+          <t>629000</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/largus/</t>
+          <t>https://avto-trend21.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
       <c r="H139" t="n">
-        <v>780540</v>
+        <v>519804</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/largus</t>
+          <t>https://auto-shop-21.ru/lada/largus_cross</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -6181,40 +6153,40 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Largus Фургон New</t>
+          <t>Largus New</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>468684</v>
+        <v>501000</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/largus_furgon</t>
+          <t>https://avto-trend21.ru/auto/lada/largus/</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>541610</t>
+          <t>501000</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/largus_furgon/</t>
+          <t>https://avto-trend21.ru/auto/lada/largus/</t>
         </is>
       </c>
       <c r="H140" t="n">
-        <v>468684</v>
+        <v>780540</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/largus_furgon</t>
+          <t>https://auto-shop-21.ru/lada/largus</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -6224,40 +6196,40 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Niva</t>
+          <t>Largus Фургон New</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>582200</v>
+        <v>468684</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/niva/</t>
+          <t>https://auto-shop-21.ru/lada/largus_furgon</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>582200</t>
+          <t>541610</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/niva/</t>
-        </is>
-      </c>
-      <c r="J141" t="n">
-        <v>1310500</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_14903.html</t>
+          <t>https://avto-trend21.ru/auto/lada/largus_furgon/</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>468684</v>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/lada/largus_furgon</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -6267,32 +6239,40 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Niva</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>451710</v>
+        <v>582200</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://avto-trend21.ru/auto/lada/niva/</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>451710</t>
+          <t>582200</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://avto-trend21.ru/auto/lada/niva/</t>
+        </is>
+      </c>
+      <c r="J142" t="n">
+        <v>1310500</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_14903.html</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -6302,32 +6282,32 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Niva Legend 5 дверей</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>490410</v>
+        <v>451710</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://avto-trend21.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>490410</t>
+          <t>451710</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://avto-trend21.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -6337,40 +6317,32 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Niva Legend 5 дверей</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>549000</v>
+        <v>490410</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/niva_travel/</t>
+          <t>https://avto-trend21.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>549000</t>
+          <t>490410</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/niva_travel/</t>
-        </is>
-      </c>
-      <c r="H144" t="n">
-        <v>719340</v>
-      </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>https://auto-shop-21.ru/lada/niva_travel</t>
+          <t>https://avto-trend21.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -6380,40 +6352,40 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>569000</v>
+        <v>549000</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>569000</t>
+          <t>549000</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
       <c r="H145" t="n">
-        <v>761940</v>
+        <v>719340</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_cross_1</t>
+          <t>https://auto-shop-21.ru/lada/niva_travel</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -6423,40 +6395,40 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Vesta Cross New</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>619000</v>
+        <v>569000</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>619000</t>
+          <t>569000</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
       <c r="H146" t="n">
-        <v>1040340</v>
+        <v>761940</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_cross</t>
+          <t>https://auto-shop-21.ru/lada/vesta_cross_1</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -6466,40 +6438,40 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>Vesta Cross New</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>559000</v>
+        <v>619000</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>559000</t>
+          <t>619000</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="H147" t="n">
-        <v>728340</v>
+        <v>1040340</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_sw_1</t>
+          <t>https://auto-shop-21.ru/lada/vesta_cross</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -6509,40 +6481,40 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>619000</v>
+        <v>559000</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>619000</t>
+          <t>559000</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
       <c r="H148" t="n">
-        <v>797340</v>
+        <v>728340</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_sw_cross_1</t>
+          <t>https://auto-shop-21.ru/lada/vesta_sw_1</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -6552,40 +6524,40 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Vesta SW Cross New</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>669000</v>
+        <v>619000</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>669000</t>
+          <t>619000</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
       <c r="H149" t="n">
-        <v>907140</v>
+        <v>797340</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_sw_cross</t>
+          <t>https://auto-shop-21.ru/lada/vesta_sw_cross_1</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -6595,40 +6567,40 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Vesta SW New</t>
+          <t>Vesta SW Cross New</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>609000</v>
+        <v>669000</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>609000</t>
+          <t>669000</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="H150" t="n">
-        <v>797940</v>
+        <v>907140</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_sw</t>
+          <t>https://auto-shop-21.ru/lada/vesta_sw_cross</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>444</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -6638,48 +6610,40 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>Vesta SW New</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>519000</v>
+        <v>609000</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>519000</t>
+          <t>609000</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_1/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="H151" t="n">
-        <v>673140</v>
+        <v>797940</v>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_1</t>
-        </is>
-      </c>
-      <c r="J151" t="n">
-        <v>1575000</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_17708.html</t>
+          <t>https://auto-shop-21.ru/lada/vesta_sw</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -6689,40 +6653,48 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Vesta Sedan CNG</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>639900</v>
+        <v>519000</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cng/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>639900</t>
+          <t>519000</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cng/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
       <c r="H152" t="n">
-        <v>790140</v>
+        <v>673140</v>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_cng</t>
+          <t>https://auto-shop-21.ru/lada/vesta_1</t>
+        </is>
+      </c>
+      <c r="J152" t="n">
+        <v>1575000</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>https://alyans-auto.ru/auto/auto_17789.html</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -6732,40 +6704,40 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Vesta Sedan New</t>
+          <t>Vesta Sedan CNG</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>569000</v>
+        <v>639900</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>569000</t>
+          <t>639900</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
       <c r="H153" t="n">
-        <v>743940</v>
+        <v>790140</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta</t>
+          <t>https://auto-shop-21.ru/lada/vesta_cng</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -6775,40 +6747,40 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Vesta Sport</t>
+          <t>Vesta Sedan New</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>839000</v>
+        <v>569000</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sport/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta/</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>839000</t>
+          <t>569000</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sport/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta/</t>
         </is>
       </c>
       <c r="H154" t="n">
-        <v>958740</v>
+        <v>743940</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/vesta_sport</t>
+          <t>https://auto-shop-21.ru/lada/vesta</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -6818,40 +6790,40 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Xray</t>
+          <t>Vesta Sport</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>499000</v>
+        <v>839000</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/xray/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>499000</t>
+          <t>839000</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/xray/</t>
+          <t>https://avto-trend21.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
       <c r="H155" t="n">
-        <v>664140</v>
+        <v>958740</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/xray</t>
+          <t>https://auto-shop-21.ru/lada/vesta_sport</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -6861,40 +6833,40 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Xray Cross</t>
+          <t>Xray</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>591900</v>
+        <v>499000</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/xray_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/xray/</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>591900</t>
+          <t>499000</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/xray_cross/</t>
+          <t>https://avto-trend21.ru/auto/lada/xray/</t>
         </is>
       </c>
       <c r="H156" t="n">
-        <v>749940</v>
+        <v>664140</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://auto-shop-21.ru/lada/xray_cross</t>
+          <t>https://auto-shop-21.ru/lada/xray</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>784</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -6904,30 +6876,40 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>ВИС 2346</t>
+          <t>Xray Cross</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>1511000</v>
+        <v>591900</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://alyans-auto.ru/auto/auto_18062.html</t>
-        </is>
-      </c>
-      <c r="J157" t="n">
-        <v>1511000</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>https://alyans-auto.ru/auto/auto_18062.html</t>
+          <t>https://avto-trend21.ru/auto/lada/xray_cross/</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>591900</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>https://avto-trend21.ru/auto/lada/xray_cross/</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>749940</v>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>https://auto-shop-21.ru/lada/xray_cross</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>784</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -6937,73 +6919,63 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>ВИС 2349 Фургон</t>
+          <t>ВИС 2346</t>
         </is>
       </c>
       <c r="D158" t="n">
- 